--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG305"/>
+  <dimension ref="A1:AG310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28233,6 +28233,525 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>343.22</v>
+      </c>
+      <c r="C306" t="n">
+        <v>335.8907692307693</v>
+      </c>
+      <c r="D306" t="n">
+        <v>335.78</v>
+      </c>
+      <c r="E306" t="n">
+        <v>336.97</v>
+      </c>
+      <c r="F306" t="n">
+        <v>349.0181818181818</v>
+      </c>
+      <c r="G306" t="n">
+        <v>357.37</v>
+      </c>
+      <c r="H306" t="n">
+        <v>353.27</v>
+      </c>
+      <c r="I306" t="n">
+        <v>349.2407692307692</v>
+      </c>
+      <c r="J306" t="n">
+        <v>362.6402325581395</v>
+      </c>
+      <c r="K306" t="n">
+        <v>362.0608510638298</v>
+      </c>
+      <c r="L306" t="n">
+        <v>363.4105882352941</v>
+      </c>
+      <c r="M306" t="n">
+        <v>359.41</v>
+      </c>
+      <c r="N306" t="n">
+        <v>346.3407692307692</v>
+      </c>
+      <c r="O306" t="n">
+        <v>342.8781818181818</v>
+      </c>
+      <c r="P306" t="n">
+        <v>340.6366666666667</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>341.5166666666667</v>
+      </c>
+      <c r="R306" t="n">
+        <v>341.6466666666667</v>
+      </c>
+      <c r="S306" t="n">
+        <v>357.4633333333333</v>
+      </c>
+      <c r="T306" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="U306" t="n">
+        <v>353.78</v>
+      </c>
+      <c r="V306" t="n">
+        <v>355.5366666666667</v>
+      </c>
+      <c r="W306" t="n">
+        <v>358.28</v>
+      </c>
+      <c r="X306" t="n">
+        <v>352.36</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>358.5907692307692</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>359.63</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>351.0481818181818</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>357.0381818181818</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>344.1845161290323</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>351.6875</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>356.9781818181818</v>
+      </c>
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="n">
+        <v>335.3469230769231</v>
+      </c>
+      <c r="D307" t="n">
+        <v>334.54</v>
+      </c>
+      <c r="E307" t="n">
+        <v>329.71</v>
+      </c>
+      <c r="F307" t="n">
+        <v>346.6636363636364</v>
+      </c>
+      <c r="G307" t="n">
+        <v>366.4128571428572</v>
+      </c>
+      <c r="H307" t="n">
+        <v>344.7633333333333</v>
+      </c>
+      <c r="I307" t="n">
+        <v>352.8769230769231</v>
+      </c>
+      <c r="J307" t="n">
+        <v>355.3851162790698</v>
+      </c>
+      <c r="K307" t="n">
+        <v>364.9870212765957</v>
+      </c>
+      <c r="L307" t="n">
+        <v>357.0982352941176</v>
+      </c>
+      <c r="M307" t="n">
+        <v>348.3133333333333</v>
+      </c>
+      <c r="N307" t="n">
+        <v>348.8169230769231</v>
+      </c>
+      <c r="O307" t="n">
+        <v>339.8336363636364</v>
+      </c>
+      <c r="P307" t="n">
+        <v>336.7044444444444</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>338.0144444444445</v>
+      </c>
+      <c r="R307" t="n">
+        <v>341.9244444444445</v>
+      </c>
+      <c r="S307" t="n">
+        <v>359.5522222222222</v>
+      </c>
+      <c r="T307" t="n">
+        <v>360.1566666666666</v>
+      </c>
+      <c r="U307" t="n">
+        <v>348.5333333333333</v>
+      </c>
+      <c r="V307" t="n">
+        <v>357.3644444444445</v>
+      </c>
+      <c r="W307" t="n">
+        <v>350.0700000000001</v>
+      </c>
+      <c r="X307" t="n">
+        <v>361.1728571428571</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>367.5669230769231</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>395.3433333333333</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>362.8436363636364</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>370.7636363636364</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>385.27</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>345.8858064516129</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>354.7925</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>354.4436363636364</v>
+      </c>
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>340.6633333333333</v>
+      </c>
+      <c r="C308" t="n">
+        <v>338.9130769230769</v>
+      </c>
+      <c r="D308" t="n">
+        <v>348.37</v>
+      </c>
+      <c r="E308" t="n">
+        <v>356.16</v>
+      </c>
+      <c r="F308" t="n">
+        <v>358.120909090909</v>
+      </c>
+      <c r="G308" t="n">
+        <v>365.9757142857143</v>
+      </c>
+      <c r="H308" t="n">
+        <v>356.5833333333333</v>
+      </c>
+      <c r="I308" t="n">
+        <v>358.4430769230769</v>
+      </c>
+      <c r="J308" t="n">
+        <v>347.6606976744186</v>
+      </c>
+      <c r="K308" t="n">
+        <v>351.3212765957447</v>
+      </c>
+      <c r="L308" t="n">
+        <v>364.7294117647058</v>
+      </c>
+      <c r="M308" t="n">
+        <v>360.2833333333333</v>
+      </c>
+      <c r="N308" t="n">
+        <v>346.3130769230769</v>
+      </c>
+      <c r="O308" t="n">
+        <v>341.170909090909</v>
+      </c>
+      <c r="P308" t="n">
+        <v>348.4111111111112</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>347.3411111111111</v>
+      </c>
+      <c r="R308" t="n">
+        <v>349.9511111111111</v>
+      </c>
+      <c r="S308" t="n">
+        <v>338.3355555555555</v>
+      </c>
+      <c r="T308" t="n">
+        <v>347.9366666666667</v>
+      </c>
+      <c r="U308" t="n">
+        <v>357.0333333333333</v>
+      </c>
+      <c r="V308" t="n">
+        <v>363.1911111111111</v>
+      </c>
+      <c r="W308" t="n">
+        <v>360.62</v>
+      </c>
+      <c r="X308" t="n">
+        <v>355.4157142857143</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>366.2730769230769</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>365.2533333333333</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>362.800909090909</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>372.9709090909091</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>368.72</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>357.4087096774193</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>360.0475</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>368.6009090909091</v>
+      </c>
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>348.0066666666667</v>
+      </c>
+      <c r="C309" t="n">
+        <v>341.6253846153846</v>
+      </c>
+      <c r="D309" t="n">
+        <v>347.77</v>
+      </c>
+      <c r="E309" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="F309" t="n">
+        <v>347.7909090909091</v>
+      </c>
+      <c r="G309" t="n">
+        <v>351.6371428571428</v>
+      </c>
+      <c r="H309" t="n">
+        <v>355.2466666666667</v>
+      </c>
+      <c r="I309" t="n">
+        <v>351.4553846153846</v>
+      </c>
+      <c r="J309" t="n">
+        <v>350.9955813953488</v>
+      </c>
+      <c r="K309" t="n">
+        <v>343.6255319148936</v>
+      </c>
+      <c r="L309" t="n">
+        <v>362.4435294117647</v>
+      </c>
+      <c r="M309" t="n">
+        <v>366.5166666666667</v>
+      </c>
+      <c r="N309" t="n">
+        <v>336.4553846153846</v>
+      </c>
+      <c r="O309" t="n">
+        <v>331.7309090909091</v>
+      </c>
+      <c r="P309" t="n">
+        <v>338.2555555555556</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>339.6255555555555</v>
+      </c>
+      <c r="R309" t="n">
+        <v>349.8255555555555</v>
+      </c>
+      <c r="S309" t="n">
+        <v>338.0577777777777</v>
+      </c>
+      <c r="T309" t="n">
+        <v>349.1533333333333</v>
+      </c>
+      <c r="U309" t="n">
+        <v>360.1466666666667</v>
+      </c>
+      <c r="V309" t="n">
+        <v>367.7455555555555</v>
+      </c>
+      <c r="W309" t="n">
+        <v>361.81</v>
+      </c>
+      <c r="X309" t="n">
+        <v>357.5271428571428</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>359.2553846153846</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>365.9666666666667</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>360.4809090909091</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>365.7409090909091</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>369.93</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>360.2577419354839</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>368.78</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>363.3609090909091</v>
+      </c>
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>336.8266666666667</v>
+      </c>
+      <c r="C310" t="n">
+        <v>333.9938461538461</v>
+      </c>
+      <c r="D310" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="E310" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="F310" t="n">
+        <v>343.9009090909091</v>
+      </c>
+      <c r="G310" t="n">
+        <v>351.8114285714286</v>
+      </c>
+      <c r="H310" t="n">
+        <v>351.8066666666667</v>
+      </c>
+      <c r="I310" t="n">
+        <v>348.3338461538461</v>
+      </c>
+      <c r="J310" t="n">
+        <v>347.2076744186047</v>
+      </c>
+      <c r="K310" t="n">
+        <v>348.7889361702128</v>
+      </c>
+      <c r="L310" t="n">
+        <v>352.1694117647058</v>
+      </c>
+      <c r="M310" t="n">
+        <v>356.8566666666667</v>
+      </c>
+      <c r="N310" t="n">
+        <v>355.3538461538461</v>
+      </c>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="n">
+        <v>326.3355555555555</v>
+      </c>
+      <c r="R310" t="n">
+        <v>333.0255555555556</v>
+      </c>
+      <c r="S310" t="n">
+        <v>338.6277777777778</v>
+      </c>
+      <c r="T310" t="n">
+        <v>346.2833333333334</v>
+      </c>
+      <c r="U310" t="n">
+        <v>341.9866666666667</v>
+      </c>
+      <c r="V310" t="n">
+        <v>329.8455555555556</v>
+      </c>
+      <c r="W310" t="n">
+        <v>337.34</v>
+      </c>
+      <c r="X310" t="n">
+        <v>330.4714285714285</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>333.4938461538461</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>358.6666666666667</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>351.3409090909091</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>354.2509090909091</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>351.52</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>340.6751612903225</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>349.365</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>349.6009090909091</v>
+      </c>
+      <c r="AG310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28244,7 +28763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31412,6 +31931,56 @@
       </c>
       <c r="B316" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -31580,28 +32149,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1878974255428897</v>
+        <v>-0.2107167667325883</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01082790583007964</v>
+        <v>0.01402784324609363</v>
       </c>
       <c r="M2" t="n">
-        <v>10.20002139487933</v>
+        <v>10.11623237988936</v>
       </c>
       <c r="N2" t="n">
-        <v>180.4822162844763</v>
+        <v>178.250455565973</v>
       </c>
       <c r="O2" t="n">
-        <v>13.43436698488158</v>
+        <v>13.35104698388755</v>
       </c>
       <c r="P2" t="n">
-        <v>353.4969341053122</v>
+        <v>353.7012321990006</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31657,28 +32226,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08640075286585448</v>
+        <v>-0.08881165532640287</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005448522258014399</v>
+        <v>0.006029705281034081</v>
       </c>
       <c r="M3" t="n">
-        <v>6.729240457176795</v>
+        <v>6.636939036486261</v>
       </c>
       <c r="N3" t="n">
-        <v>74.00609810472797</v>
+        <v>72.5367383895144</v>
       </c>
       <c r="O3" t="n">
-        <v>8.602679704878472</v>
+        <v>8.516850262245685</v>
       </c>
       <c r="P3" t="n">
-        <v>339.8785536148876</v>
+        <v>339.9003068044925</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31734,28 +32303,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06283101590708123</v>
+        <v>-0.05953804355603236</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002490557639734936</v>
+        <v>0.002319185939272939</v>
       </c>
       <c r="M4" t="n">
-        <v>7.233302487638819</v>
+        <v>7.211794242936304</v>
       </c>
       <c r="N4" t="n">
-        <v>84.2031352601056</v>
+        <v>83.3168873550008</v>
       </c>
       <c r="O4" t="n">
-        <v>9.176226635175572</v>
+        <v>9.127808463974297</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8588236238629</v>
+        <v>340.8280802854742</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31811,28 +32380,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08924939393445924</v>
+        <v>0.08975425594648001</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002704615117714915</v>
+        <v>0.002834137241235934</v>
       </c>
       <c r="M5" t="n">
-        <v>9.635789024697523</v>
+        <v>9.602262905704345</v>
       </c>
       <c r="N5" t="n">
-        <v>160.2080362218245</v>
+        <v>158.6172427881165</v>
       </c>
       <c r="O5" t="n">
-        <v>12.65733132306429</v>
+        <v>12.59433375721465</v>
       </c>
       <c r="P5" t="n">
-        <v>337.9625497932195</v>
+        <v>337.9578297338697</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31888,28 +32457,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1446393069683524</v>
+        <v>-0.1248140322694794</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008480154729002654</v>
+        <v>0.006581483189232462</v>
       </c>
       <c r="M6" t="n">
-        <v>8.538593350990357</v>
+        <v>8.442203619830629</v>
       </c>
       <c r="N6" t="n">
-        <v>131.0793625783315</v>
+        <v>129.2159630863421</v>
       </c>
       <c r="O6" t="n">
-        <v>11.44898958765932</v>
+        <v>11.36731996058623</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9746511864221</v>
+        <v>347.7921311023273</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31965,28 +32534,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1204197826225494</v>
+        <v>0.1411055001965636</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009392625621749695</v>
+        <v>0.01323744715480302</v>
       </c>
       <c r="M7" t="n">
-        <v>6.618058060612021</v>
+        <v>6.620527852011058</v>
       </c>
       <c r="N7" t="n">
-        <v>82.67738728097731</v>
+        <v>82.33076612976626</v>
       </c>
       <c r="O7" t="n">
-        <v>9.092710667396016</v>
+        <v>9.073630261905445</v>
       </c>
       <c r="P7" t="n">
-        <v>350.5812891140606</v>
+        <v>350.3941840268253</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32042,28 +32611,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01055791351462353</v>
+        <v>0.007451113074641938</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>5.580225133328121e-05</v>
+        <v>2.874446494915972e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.091490317133498</v>
+        <v>8.035932068000237</v>
       </c>
       <c r="N8" t="n">
-        <v>107.9238135729771</v>
+        <v>106.612018614299</v>
       </c>
       <c r="O8" t="n">
-        <v>10.38863867756392</v>
+        <v>10.32530961348371</v>
       </c>
       <c r="P8" t="n">
-        <v>347.7162195084141</v>
+        <v>347.5498719094116</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32119,28 +32688,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06116450270882762</v>
+        <v>-0.03828105451149076</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001796050439610286</v>
+        <v>0.0007304055445940261</v>
       </c>
       <c r="M9" t="n">
-        <v>8.135206764280664</v>
+        <v>8.07477964402646</v>
       </c>
       <c r="N9" t="n">
-        <v>114.7127126077896</v>
+        <v>113.2989554236503</v>
       </c>
       <c r="O9" t="n">
-        <v>10.71040207498251</v>
+        <v>10.64419820482737</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7450771805314</v>
+        <v>347.5399262307275</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32190,28 +32759,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.0007901997126262606</v>
+        <v>0.01183218635873818</v>
       </c>
       <c r="J10" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K10" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L10" t="n">
-        <v>2.689135322198055e-07</v>
+        <v>6.248396367747322e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>8.475998445455346</v>
+        <v>8.395278762908076</v>
       </c>
       <c r="N10" t="n">
-        <v>125.6262796058469</v>
+        <v>123.9456822436894</v>
       </c>
       <c r="O10" t="n">
-        <v>11.20831296876773</v>
+        <v>11.13308951925248</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8353050364667</v>
+        <v>349.7341756962098</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32261,28 +32830,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.05513285663599164</v>
+        <v>-0.03390437908558926</v>
       </c>
       <c r="J11" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K11" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001056750122824135</v>
+        <v>0.0004126318756730862</v>
       </c>
       <c r="M11" t="n">
-        <v>9.723955848995713</v>
+        <v>9.674790323016357</v>
       </c>
       <c r="N11" t="n">
-        <v>154.8540392658015</v>
+        <v>153.5847613914049</v>
       </c>
       <c r="O11" t="n">
-        <v>12.44403629317279</v>
+        <v>12.39293191264299</v>
       </c>
       <c r="P11" t="n">
-        <v>350.1284797092164</v>
+        <v>349.9332321491605</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32338,28 +32907,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05791039363926033</v>
+        <v>0.08715756333606382</v>
       </c>
       <c r="J12" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001231402616021726</v>
+        <v>0.002871677235590453</v>
       </c>
       <c r="M12" t="n">
-        <v>9.049467391030715</v>
+        <v>8.991412892847174</v>
       </c>
       <c r="N12" t="n">
-        <v>146.1354930172943</v>
+        <v>144.8238881110193</v>
       </c>
       <c r="O12" t="n">
-        <v>12.08865141433461</v>
+        <v>12.0342797088575</v>
       </c>
       <c r="P12" t="n">
-        <v>350.734047716961</v>
+        <v>350.4628010326829</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -32415,28 +32984,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04289695917183133</v>
+        <v>0.06786964995713074</v>
       </c>
       <c r="J13" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K13" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001182652776762771</v>
+        <v>0.003033185839113273</v>
       </c>
       <c r="M13" t="n">
-        <v>7.099768834647759</v>
+        <v>7.118397343731367</v>
       </c>
       <c r="N13" t="n">
-        <v>83.44715210413149</v>
+        <v>83.22140468982694</v>
       </c>
       <c r="O13" t="n">
-        <v>9.134941275352102</v>
+        <v>9.122576647517244</v>
       </c>
       <c r="P13" t="n">
-        <v>350.8810096543857</v>
+        <v>350.6504045530351</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -32492,28 +33061,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02925668868827622</v>
+        <v>0.002324605939917738</v>
       </c>
       <c r="J14" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K14" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003076634205851914</v>
+        <v>2.004390172616333e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>9.335666593200745</v>
+        <v>9.323361549753921</v>
       </c>
       <c r="N14" t="n">
-        <v>154.2167426241662</v>
+        <v>152.9975042437318</v>
       </c>
       <c r="O14" t="n">
-        <v>12.41840338466126</v>
+        <v>12.36921599147382</v>
       </c>
       <c r="P14" t="n">
-        <v>339.4337571841727</v>
+        <v>339.1482820066856</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -32563,28 +33132,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.05435901140169616</v>
+        <v>-0.04943728058564491</v>
       </c>
       <c r="J15" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K15" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007288355310839378</v>
+        <v>0.0006228952486410089</v>
       </c>
       <c r="M15" t="n">
-        <v>11.58932327579659</v>
+        <v>11.47246142761334</v>
       </c>
       <c r="N15" t="n">
-        <v>220.6620123731363</v>
+        <v>217.5146593944487</v>
       </c>
       <c r="O15" t="n">
-        <v>14.85469664359176</v>
+        <v>14.74837819539656</v>
       </c>
       <c r="P15" t="n">
-        <v>338.63938057284</v>
+        <v>338.5948476053729</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -32640,28 +33209,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1964549710483887</v>
+        <v>-0.1881106961931162</v>
       </c>
       <c r="J16" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K16" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009105131828730961</v>
+        <v>0.00862640397621639</v>
       </c>
       <c r="M16" t="n">
-        <v>11.82485134200947</v>
+        <v>11.69053182192367</v>
       </c>
       <c r="N16" t="n">
-        <v>224.1275831171992</v>
+        <v>221.0508104254972</v>
       </c>
       <c r="O16" t="n">
-        <v>14.9708911931521</v>
+        <v>14.86777758864778</v>
       </c>
       <c r="P16" t="n">
-        <v>343.216661336713</v>
+        <v>343.1395885015268</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -32717,28 +33286,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0002808019172879229</v>
+        <v>-0.002111564181968711</v>
       </c>
       <c r="J17" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K17" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L17" t="n">
-        <v>1.698111873338348e-08</v>
+        <v>9.958031463863648e-07</v>
       </c>
       <c r="M17" t="n">
-        <v>12.16390083438627</v>
+        <v>12.02583288580651</v>
       </c>
       <c r="N17" t="n">
-        <v>247.5837213570264</v>
+        <v>243.6920741702414</v>
       </c>
       <c r="O17" t="n">
-        <v>15.7347933369659</v>
+        <v>15.61063977453331</v>
       </c>
       <c r="P17" t="n">
-        <v>339.0458880149904</v>
+        <v>339.0635376290078</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -32794,28 +33363,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02349965615520723</v>
+        <v>-0.02463153120942392</v>
       </c>
       <c r="J18" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K18" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001282096525021537</v>
+        <v>0.0001464966423954106</v>
       </c>
       <c r="M18" t="n">
-        <v>11.40765891588198</v>
+        <v>11.28402659051514</v>
       </c>
       <c r="N18" t="n">
-        <v>231.7507374612063</v>
+        <v>227.8427364714342</v>
       </c>
       <c r="O18" t="n">
-        <v>15.22336156902299</v>
+        <v>15.09446045645336</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1507020435777</v>
+        <v>344.161287739102</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -32871,28 +33440,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1141367230551554</v>
+        <v>-0.110268038744605</v>
       </c>
       <c r="J19" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K19" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003051241734268295</v>
+        <v>0.002952284566899777</v>
       </c>
       <c r="M19" t="n">
-        <v>12.39308753227381</v>
+        <v>12.33290495041653</v>
       </c>
       <c r="N19" t="n">
-        <v>221.3615440819555</v>
+        <v>218.8206072087802</v>
       </c>
       <c r="O19" t="n">
-        <v>14.87822382147666</v>
+        <v>14.79258622448354</v>
       </c>
       <c r="P19" t="n">
-        <v>348.280459404751</v>
+        <v>348.2448404601093</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -32942,28 +33511,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.05688821920830603</v>
+        <v>-0.03790190704495486</v>
       </c>
       <c r="J20" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K20" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008088700236209556</v>
+        <v>0.0003728337949281402</v>
       </c>
       <c r="M20" t="n">
-        <v>11.47896856721781</v>
+        <v>11.34977581420321</v>
       </c>
       <c r="N20" t="n">
-        <v>216.076752355502</v>
+        <v>212.9791248551237</v>
       </c>
       <c r="O20" t="n">
-        <v>14.69954939294065</v>
+        <v>14.59380433112366</v>
       </c>
       <c r="P20" t="n">
-        <v>349.2019694845146</v>
+        <v>349.0280689691513</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33013,28 +33582,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1259047459793191</v>
+        <v>-0.1266128772693841</v>
       </c>
       <c r="J21" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K21" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005122976410208424</v>
+        <v>0.005377217678593782</v>
       </c>
       <c r="M21" t="n">
-        <v>9.57601386569219</v>
+        <v>9.497585509930317</v>
       </c>
       <c r="N21" t="n">
-        <v>167.0553000962491</v>
+        <v>164.5611934774148</v>
       </c>
       <c r="O21" t="n">
-        <v>12.92498743118341</v>
+        <v>12.82814068668624</v>
       </c>
       <c r="P21" t="n">
-        <v>355.628025278429</v>
+        <v>355.6346770786385</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33090,28 +33659,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2313393509800316</v>
+        <v>-0.2232279240295543</v>
       </c>
       <c r="J22" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K22" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02459682327384238</v>
+        <v>0.02319896303878688</v>
       </c>
       <c r="M22" t="n">
-        <v>8.543093231017338</v>
+        <v>8.593134494188133</v>
       </c>
       <c r="N22" t="n">
-        <v>113.3502949545719</v>
+        <v>114.6789577125096</v>
       </c>
       <c r="O22" t="n">
-        <v>10.64660955208614</v>
+        <v>10.70882615941213</v>
       </c>
       <c r="P22" t="n">
-        <v>358.4829211835049</v>
+        <v>358.4077641526244</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -33167,28 +33736,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3026317256324385</v>
+        <v>-0.2729566883099442</v>
       </c>
       <c r="J23" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K23" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02616120534881883</v>
+        <v>0.02200522776140335</v>
       </c>
       <c r="M23" t="n">
-        <v>10.10726148767173</v>
+        <v>10.09888071510151</v>
       </c>
       <c r="N23" t="n">
-        <v>183.7467791355381</v>
+        <v>182.6181257569321</v>
       </c>
       <c r="O23" t="n">
-        <v>13.5553229078299</v>
+        <v>13.51362740928327</v>
       </c>
       <c r="P23" t="n">
-        <v>353.9772310480157</v>
+        <v>353.7009328146916</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -33244,28 +33813,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09148849625259844</v>
+        <v>-0.09300008245909959</v>
       </c>
       <c r="J24" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K24" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002347976316186995</v>
+        <v>0.00249971767308399</v>
       </c>
       <c r="M24" t="n">
-        <v>9.939920681619908</v>
+        <v>9.903377509818643</v>
       </c>
       <c r="N24" t="n">
-        <v>189.554673240222</v>
+        <v>188.0697784307976</v>
       </c>
       <c r="O24" t="n">
-        <v>13.76788557623217</v>
+        <v>13.71385352228897</v>
       </c>
       <c r="P24" t="n">
-        <v>354.0364181782721</v>
+        <v>354.0511898776109</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -33315,28 +33884,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.0153330086097838</v>
+        <v>-0.01316187080879258</v>
       </c>
       <c r="J25" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K25" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001080204290162534</v>
+        <v>8.105748121056688e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>7.47420607315445</v>
+        <v>7.519868460930033</v>
       </c>
       <c r="N25" t="n">
-        <v>115.2744669432384</v>
+        <v>116.0271175824606</v>
       </c>
       <c r="O25" t="n">
-        <v>10.73659475547244</v>
+        <v>10.7715884428649</v>
       </c>
       <c r="P25" t="n">
-        <v>356.8511347910091</v>
+        <v>356.8317225762916</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -33386,28 +33955,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1905450540477955</v>
+        <v>-0.1265328503499599</v>
       </c>
       <c r="J26" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K26" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00902064991605056</v>
+        <v>0.004025345188149898</v>
       </c>
       <c r="M26" t="n">
-        <v>10.34232495301896</v>
+        <v>10.35280468056364</v>
       </c>
       <c r="N26" t="n">
-        <v>217.478836410496</v>
+        <v>221.3401231261334</v>
       </c>
       <c r="O26" t="n">
-        <v>14.74716367341517</v>
+        <v>14.87750392794885</v>
       </c>
       <c r="P26" t="n">
-        <v>359.0191624500895</v>
+        <v>358.4283177825142</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -33463,28 +34032,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.08595247254233718</v>
+        <v>-0.05734265566970726</v>
       </c>
       <c r="J27" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K27" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002127200275591101</v>
+        <v>0.0009838438621762036</v>
       </c>
       <c r="M27" t="n">
-        <v>9.718958804885764</v>
+        <v>9.649111775924942</v>
       </c>
       <c r="N27" t="n">
-        <v>187.1651097312987</v>
+        <v>184.7486153926895</v>
       </c>
       <c r="O27" t="n">
-        <v>13.68083000885906</v>
+        <v>13.5922262853695</v>
       </c>
       <c r="P27" t="n">
-        <v>352.9111926842057</v>
+        <v>352.6477780071337</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -33540,28 +34109,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.19405561275748</v>
+        <v>0.2377448192044866</v>
       </c>
       <c r="J28" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K28" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006957767961425665</v>
+        <v>0.01075899939693903</v>
       </c>
       <c r="M28" t="n">
-        <v>12.98692400241362</v>
+        <v>12.90756439479594</v>
       </c>
       <c r="N28" t="n">
-        <v>290.1062071711568</v>
+        <v>287.400108569872</v>
       </c>
       <c r="O28" t="n">
-        <v>17.03250443038712</v>
+        <v>16.95287906433217</v>
       </c>
       <c r="P28" t="n">
-        <v>348.5798949780957</v>
+        <v>348.1784169813704</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -33617,28 +34186,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1099379261842781</v>
+        <v>0.1347845728093034</v>
       </c>
       <c r="J29" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K29" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003256871232245828</v>
+        <v>0.005008812079184688</v>
       </c>
       <c r="M29" t="n">
-        <v>10.02436361893396</v>
+        <v>10.04339949369332</v>
       </c>
       <c r="N29" t="n">
-        <v>197.6934726325968</v>
+        <v>197.280200476245</v>
       </c>
       <c r="O29" t="n">
-        <v>14.06035108496928</v>
+        <v>14.04564702946237</v>
       </c>
       <c r="P29" t="n">
-        <v>357.2236455994398</v>
+        <v>356.993243911392</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -33688,28 +34257,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.0480057396872367</v>
+        <v>-0.02218851311346783</v>
       </c>
       <c r="J30" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K30" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00102545587187286</v>
+        <v>0.0002248984949253519</v>
       </c>
       <c r="M30" t="n">
-        <v>8.514415726626906</v>
+        <v>8.477571729236869</v>
       </c>
       <c r="N30" t="n">
-        <v>119.7673148645433</v>
+        <v>119.3669464576681</v>
       </c>
       <c r="O30" t="n">
-        <v>10.943825421878</v>
+        <v>10.92551813222916</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3014770332748</v>
+        <v>344.0591753734914</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -33759,28 +34328,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.0009634371660907434</v>
+        <v>0.03641805999893419</v>
       </c>
       <c r="J31" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K31" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L31" t="n">
-        <v>3.182837308157715e-07</v>
+        <v>0.0004699444221978322</v>
       </c>
       <c r="M31" t="n">
-        <v>9.099581012171184</v>
+        <v>9.046896309646957</v>
       </c>
       <c r="N31" t="n">
-        <v>150.701988746261</v>
+        <v>149.6655190759195</v>
       </c>
       <c r="O31" t="n">
-        <v>12.27607383271464</v>
+        <v>12.23378596657304</v>
       </c>
       <c r="P31" t="n">
-        <v>349.0521662553438</v>
+        <v>348.7145093772933</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -33836,28 +34405,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1394439204776357</v>
+        <v>0.1634156659311375</v>
       </c>
       <c r="J32" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K32" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007445863233614958</v>
+        <v>0.01064486714781876</v>
       </c>
       <c r="M32" t="n">
-        <v>8.762221765453516</v>
+        <v>8.703443900305892</v>
       </c>
       <c r="N32" t="n">
-        <v>139.7840502130462</v>
+        <v>137.8903416230555</v>
       </c>
       <c r="O32" t="n">
-        <v>11.82303050038552</v>
+        <v>11.74267182642245</v>
       </c>
       <c r="P32" t="n">
-        <v>350.2630938809165</v>
+        <v>350.0433197396338</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -33894,7 +34463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG305"/>
+  <dimension ref="A1:AG310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76257,6 +76826,829 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-38.60852794195116,174.62635597768227</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-38.60785440741222,174.62662584462657</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-38.60716806301117,174.62681444693783</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-38.60647881244406,174.626988590183</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-38.60576778531261,174.6270349983834</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-38.605060324740236,174.62705367229347</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-38.60436813308908,174.6272136204209</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-38.60367586178078,174.62737276041153</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-38.60296564581871,174.62733309844887</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-38.60227132187809,174.62745293943968</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-38.60157293854396,174.6274988110038</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>-38.600873566488325,174.6275855757797</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>-38.60017621300086,174.62777634987867</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>-38.59947593550857,174.62785688850596</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>-38.59877528037944,174.62792341515868</t>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>-38.59807452414342,174.62795403507698</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>-38.59737528790745,174.62800466945825</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>-38.59666739508038,174.62788641232112</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>-38.59596562603936,174.62791874361582</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>-38.59526862562026,174.62805487206842</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>-38.5945673332993,174.6280978619811</t>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t>-38.59386540624531,174.62812950519302</t>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>-38.59316959348604,174.62827114535992</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>-38.59246617716454,174.6282844755801</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>-38.59176640269038,174.62835727260128</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr">
+        <is>
+          <t>-38.59107377404172,174.62854014090587</t>
+        </is>
+      </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t>-38.590370430273765,174.6285564373235</t>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t>-38.58966982368603,174.62860928457067</t>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t>-38.58897185096848,174.6287933293326</t>
+        </is>
+      </c>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t>-38.58826824536088,174.62874533271534</t>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>-38.587565244390575,174.62872272136505</t>
+        </is>
+      </c>
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-38.60785537201726,174.6266319671278</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-38.60717026235228,174.6268284064566</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-38.60649146468855,174.6270703770705</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-38.605771014492085,174.62706171856325</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.60505101749226,174.62695052163355</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-38.604376888302156,174.62731065392433</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-38.60367211939725,174.62733128407976</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-38.602973112918406,174.62741585420216</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-38.60226907087955,174.62741946504954</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-38.60157550179637,174.62757121247802</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-38.600876936070215,174.6277129082571</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-38.60017546111827,174.62774793668487</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-38.599476859959566,174.6278918234999</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-38.598776474351624,174.62796853546467</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>-38.59807578965347,174.6279942114439</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>-38.59737515647185,174.628001484747</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>-38.59666629362972,174.62786247153775</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>-38.59596562252409,174.62791866720983</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>-38.59527139207095,174.62811500302007</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>-38.59456636954561,174.62807691440645</t>
+        </is>
+      </c>
+      <c r="W307" t="inlineStr">
+        <is>
+          <t>-38.593870181178474,174.62822356141908</t>
+        </is>
+      </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>-38.593163515345594,174.62817026945345</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>-38.59245950384198,174.62818178056776</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>-38.59173985115391,174.62794868504722</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr">
+        <is>
+          <t>-38.591065004872675,174.62840519324203</t>
+        </is>
+      </c>
+      <c r="AB307" t="inlineStr">
+        <is>
+          <t>-38.59036253599427,174.62839919479967</t>
+        </is>
+      </c>
+      <c r="AC307" t="inlineStr">
+        <is>
+          <t>-38.589660134214014,174.6282838431425</t>
+        </is>
+      </c>
+      <c r="AD307" t="inlineStr">
+        <is>
+          <t>-38.58897138070338,174.62877380862804</t>
+        </is>
+      </c>
+      <c r="AE307" t="inlineStr">
+        <is>
+          <t>-38.58826738705972,174.62870970611232</t>
+        </is>
+      </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>-38.58756594500939,174.6287518023196</t>
+        </is>
+      </c>
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-38.60853247668396,174.62638476033828</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-38.60784904682189,174.62659182014946</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-38.6071457325088,174.62667271283664</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-38.60644536911158,174.6267724070653</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-38.605755301172,174.6269316975697</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.60505146741821,174.62695550806302</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-38.60436472292539,174.62717582602895</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-38.60366639060041,174.62726779292208</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-38.602981062967935,174.62750396308647</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-38.602279583367746,174.62757579652717</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-38.60157240300462,174.627483684352</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-38.600873301288544,174.6275755544195</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-38.600176221409576,174.62777666764043</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-38.59947645390908,174.62787647880705</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-38.59877291971119,174.62783420725475</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>-38.598072419479635,174.6278872189257</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>-38.59737135847086,174.6279094593342</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>-38.59667748074182,174.62810563606277</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>-38.59597206592363,174.62805871943718</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>-38.59526691019435,174.62801758629584</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>-38.594563297226095,174.6280101368521</t>
+        </is>
+      </c>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>-38.59386404528822,174.62810269745194</t>
+        </is>
+      </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>-38.593167486,174.62823616828524</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>-38.59246046575764,174.6281965832929</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>-38.591762222046086,174.6282929373967</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr">
+        <is>
+          <t>-38.59106503663797,174.62840568206974</t>
+        </is>
+      </c>
+      <c r="AB308" t="inlineStr">
+        <is>
+          <t>-38.59036126644801,174.62837390768811</t>
+        </is>
+      </c>
+      <c r="AC308" t="inlineStr">
+        <is>
+          <t>-38.5896657868009,174.6284736935283</t>
+        </is>
+      </c>
+      <c r="AD308" t="inlineStr">
+        <is>
+          <t>-38.588968195494324,174.62864159416682</t>
+        </is>
+      </c>
+      <c r="AE308" t="inlineStr">
+        <is>
+          <t>-38.588265934419,174.62864941052598</t>
+        </is>
+      </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>-38.58756203145291,174.62858936412226</t>
+        </is>
+      </c>
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-38.60851945187151,174.62630208995463</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-38.60784423606216,174.6265612855884</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-38.6071467967146,174.62667946743852</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-38.6064653410513,174.62690150858154</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-38.605769468476424,174.62704892589002</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-38.60506622516456,174.62711906623898</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-38.6043660986569,174.62719107306194</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-38.603673582467515,174.62734749907003</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-38.60297763068018,174.62746592360216</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-38.6022855032912,174.62766383324936</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-38.60157333123972,174.62750990298227</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-38.60087140842541,174.6275040279186</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-38.600179214622884,174.62788978198952</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-38.59947932023458,174.62798479919704</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-38.598776003377395,174.6279507372314</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>-38.598075207488456,174.6279757292953</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>-38.5973714178809,174.6279108988236</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>-38.59667762720496,174.62810881967832</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>-38.59597142440339,174.62804477533842</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>-38.59526526857683,174.62798190503523</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>-38.594560895704866,174.6279579398309</t>
+        </is>
+      </c>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>-38.593863353175195,174.6280890644557</t>
+        </is>
+      </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>-38.593166029769286,174.62821199992885</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>-38.59246568305927,174.62827687180112</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>-38.59176169171878,174.628284776322</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr">
+        <is>
+          <t>-38.59106676142242,174.62843222437496</t>
+        </is>
+      </c>
+      <c r="AB309" t="inlineStr">
+        <is>
+          <t>-38.59036542487132,174.62845673652023</t>
+        </is>
+      </c>
+      <c r="AC309" t="inlineStr">
+        <is>
+          <t>-38.58966537354066,174.62845981322755</t>
+        </is>
+      </c>
+      <c r="AD309" t="inlineStr">
+        <is>
+          <t>-38.58896740792984,174.62860890420612</t>
+        </is>
+      </c>
+      <c r="AE309" t="inlineStr">
+        <is>
+          <t>-38.58826352042339,174.62854921429528</t>
+        </is>
+      </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>-38.58756347999525,174.62864948701136</t>
+        </is>
+      </c>
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-38.60853928172588,174.62642795309185</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-38.60785777193135,174.62664719977292</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-38.607171663544534,174.62683730002138</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-38.60648395351456,174.6270218231437</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-38.605774803471284,174.62709307093152</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-38.60506604578515,174.62711707818468</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-38.604369639183616,174.62723031231124</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-38.60367679519716,174.62738310536562</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-38.60298152922197,174.62750913051454</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-38.602281531368725,174.62760476564577</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-38.601577503208766,174.62762774513843</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-38.600874341838484,174.62761487487123</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-38.60017347615242,174.62767292726718</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-38.59808000966017,174.62812818790755</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-38.59737936709985,174.62810351016108</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>-38.596677326662494,174.62810228689924</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>-38.595972937685445,174.62807766813063</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>-38.595274843939215,174.6281900330054</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>-38.594580879352456,174.62839229960775</t>
+        </is>
+      </c>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>-38.59387758479196,174.62836940014216</t>
+        </is>
+      </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>-38.593184689439354,174.6285216918035</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>-38.592484834994096,174.62857160630713</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>-38.59176711887307,174.62836829386694</t>
+        </is>
+      </c>
+      <c r="AA310" t="inlineStr">
+        <is>
+          <t>-38.591073556419516,174.62853679191537</t>
+        </is>
+      </c>
+      <c r="AB310" t="inlineStr">
+        <is>
+          <t>-38.59037203336489,174.62858836907793</t>
+        </is>
+      </c>
+      <c r="AC310" t="inlineStr">
+        <is>
+          <t>-38.58967166106551,174.62867100029365</t>
+        </is>
+      </c>
+      <c r="AD310" t="inlineStr">
+        <is>
+          <t>-38.58897282100253,174.6288335958755</t>
+        </is>
+      </c>
+      <c r="AE310" t="inlineStr">
+        <is>
+          <t>-38.58826888735199,174.62877198095575</t>
+        </is>
+      </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>-38.58756728365369,174.6288073669707</t>
+        </is>
+      </c>
+      <c r="AG310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -31994,7 +31994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32085,35 +32085,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32172,27 +32177,28 @@
       <c r="P2" t="n">
         <v>353.7012321990006</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.63021993878968 -38.6091366435715, 174.61994327361822 -38.607517422843415)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6302199387897</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.6091366435715</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6199432736182</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.60751742284342</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6250816062039</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.60832703320746</v>
       </c>
     </row>
@@ -32249,27 +32255,28 @@
       <c r="P3" t="n">
         <v>339.9003068044925</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.6304072586925 -38.60845010593579, 174.62013065603566 -38.60683088897015)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6304072586925</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.60845010593579</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6201306560357</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.60683088897015</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6252689573641</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.60764049745297</v>
       </c>
     </row>
@@ -32326,27 +32333,28 @@
       <c r="P4" t="n">
         <v>340.8280802854742</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.63059457859572 -38.60776356173129, 174.62031803845218 -38.60614434852778)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6305945785957</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.60776356173129</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6203180384522</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.60614434852778</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.625456308524</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.60695395512953</v>
       </c>
     </row>
@@ -32403,27 +32411,28 @@
       <c r="P5" t="n">
         <v>337.9578297338697</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.630784724122 -38.60706600035246, 174.62050106914654 -38.60547501030131)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.630784724122</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.60706600035246</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6205010691465</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.60547501030131</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6256428966343</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.60627050532689</v>
       </c>
     </row>
@@ -32480,27 +32489,28 @@
       <c r="P6" t="n">
         <v>347.7921311023273</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.63099579883567 -38.60624638474773, 174.62063617650082 -38.60499429181182)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6309957988357</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.60624638474773</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6206361765008</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.60499429181182</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6258159876683</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.60562033827978</v>
       </c>
     </row>
@@ -32557,27 +32567,28 @@
       <c r="P7" t="n">
         <v>350.3941840268253</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.63113016279138 -38.605428070044944, 174.62071690871767 -38.60448838688241)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6311301627914</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.60542807004494</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6207169087177</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.60448838688241</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6259235357545</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.60495822846367</v>
       </c>
     </row>
@@ -32634,27 +32645,28 @@
       <c r="P8" t="n">
         <v>347.5498719094116</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.63124330393276 -38.60473165668685, 174.62083011559778 -38.60379197522278)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6312433039328</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.60473165668685</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6208301155978</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.60379197522278</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6260367097653</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.60426181595481</v>
       </c>
     </row>
@@ -32711,27 +32723,28 @@
       <c r="P9" t="n">
         <v>347.5399262307275</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.6313564450746 -38.60403523657027, 174.62094332247676 -38.603095556804796)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6313564450746</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.60403523657027</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6209433224768</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.6030955568048</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6261498837757</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.60356539668753</v>
       </c>
     </row>
@@ -32782,27 +32795,28 @@
       <c r="P10" t="n">
         <v>349.7341756962098</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.63146958621695 -38.60333880969539, 174.6210565293547 -38.60239913162831)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.631469586217</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.60333880969539</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6210565293547</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.60239913162831</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6262630577858</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.60286897066185</v>
       </c>
     </row>
@@ -32853,27 +32867,28 @@
       <c r="P11" t="n">
         <v>349.9332321491605</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.63159480573674 -38.60254976811273, 174.621151379137 -38.60184739923294)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6315948057367</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.60254976811273</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.621151379137</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.60184739923294</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6263730924369</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.60219858367283</v>
       </c>
     </row>
@@ -32930,27 +32945,28 @@
       <c r="P12" t="n">
         <v>350.4628010326829</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.63166706635397 -38.60172043524345, 174.62119598791895 -38.601349625014144)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.631667066354</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.60172043524345</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.621195987919</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.60134962501414</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6264315271364</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.6015350301288</v>
       </c>
     </row>
@@ -33007,27 +33023,28 @@
       <c r="P13" t="n">
         <v>350.6504045530351</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.63170975166545 -38.60098263330081, 174.62123402615842 -38.600705309831255)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6317097516655</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.60098263330081</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6212340261584</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.60070530983126</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6264718889119</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.60084397156604</v>
       </c>
     </row>
@@ -33084,27 +33101,28 @@
       <c r="P14" t="n">
         <v>339.1482820066856</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.6317505196949 -38.60028131103721, 174.62127486128588 -38.600003987241585)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6317505196949</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.60028131103721</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6212748612859</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.60000398724159</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6265126904904</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.6001426491394</v>
       </c>
     </row>
@@ -33155,27 +33173,28 @@
       <c r="P15" t="n">
         <v>338.5948476053729</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.63179128772492 -38.59957998192071, 174.6213156964122 -38.59930265779875)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6317912877249</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.59957998192071</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6213156964122</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.59930265779875</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6265534920686</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.59944131985974</v>
       </c>
     </row>
@@ -33232,27 +33251,28 @@
       <c r="P16" t="n">
         <v>343.1395885015268</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.63183205575555 -38.59887864595131, 174.62135653153746 -38.59860132150292)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6318320557556</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.59887864595131</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6213565315375</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.59860132150292</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.6265942936465</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.59873998372711</v>
       </c>
     </row>
@@ -33309,27 +33329,28 @@
       <c r="P17" t="n">
         <v>339.0635376290078</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.63187180876542 -38.59819786435826, 174.6213988406483 -38.59786785733407)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6318718087654</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.59819786435826</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6213988406483</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.59786785733407</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.6266353247069</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.59803286084617</v>
       </c>
     </row>
@@ -33386,27 +33407,28 @@
       <c r="P18" t="n">
         <v>344.161287739102</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.63192164146906 -38.59753687841589, 174.62145479406274 -38.59710478467025)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6319216414691</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.59753687841589</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6214547940627</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.59710478467025</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6266882177659</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.59732083154307</v>
       </c>
     </row>
@@ -33463,27 +33485,28 @@
       <c r="P19" t="n">
         <v>348.2448404601093</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.63198331256038 -38.59685580959486, 174.62152004452054 -38.5963743216514)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.6319833125604</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.59685580959486</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6215200445205</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.5963743216514</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.6267516785405</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.59661506562313</v>
       </c>
     </row>
@@ -33534,27 +33557,28 @@
       <c r="P20" t="n">
         <v>349.0280689691513</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.63204639562832 -38.596155456459286, 174.62158319444165 -38.595673968811724)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.6320463956283</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.59615545645929</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6215831944417</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.59567396881172</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.626814795035</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.5959147126355</v>
       </c>
     </row>
@@ -33605,27 +33629,28 @@
       <c r="P21" t="n">
         <v>355.6346770786385</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.63210947869695 -38.59545509649074, 174.6216463443617 -38.59497360913888)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.6321094786969</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.59545509649074</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.6216463443617</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.59497360913888</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.6268779115293</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.59521435281481</v>
       </c>
     </row>
@@ -33682,27 +33707,28 @@
       <c r="P22" t="n">
         <v>358.4077641526244</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.63217256176605 -38.59475472968924, 174.62170949428065 -38.59427324263299)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.6321725617661</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.59475472968924</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.6217094942807</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.59427324263299</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.6269410280233</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.59451398616112</v>
       </c>
     </row>
@@ -33759,27 +33785,28 @@
       <c r="P23" t="n">
         <v>353.7009328146916</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.63223407759153 -38.59407371114945, 174.6217749866649 -38.59354263076087)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.6322340775915</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.59407371114945</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.6217749866649</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.59354263076087</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.6270045321282</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.59380817095516</v>
       </c>
     </row>
@@ -33836,27 +33863,28 @@
       <c r="P24" t="n">
         <v>354.0511898776109</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.63230442701243 -38.593412541112585, 174.6218543262423 -38.59278278112542)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.6323044270124</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.59341254111258</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.6218543262423</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.59278278112542</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.6270793766274</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.593097661119</v>
       </c>
     </row>
@@ -33907,27 +33935,28 @@
       <c r="P25" t="n">
         <v>356.8317225762916</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.63238707902607 -38.592732697421276, 174.621942050537 -38.59205386210985)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.6323870790261</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-38.59273269742128</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.621942050537</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-38.59205386210985</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.6271645647815</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-38.59239327976556</v>
       </c>
     </row>
@@ -33978,27 +34007,28 @@
       <c r="P26" t="n">
         <v>358.4283177825142</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.63247172586432 -38.59203369431609, 174.62202676383322 -38.59135485990284)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.6324717258643</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-38.59203369431609</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.6220267638332</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-38.59135485990284</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.6272492448488</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-38.59169427710947</v>
       </c>
     </row>
@@ -34055,27 +34085,28 @@
       <c r="P27" t="n">
         <v>352.6477780071337</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.63255637270314 -38.59133468440528, 174.62211147712844 -38.59065585089002)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.6325563727031</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-38.59133468440528</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.6221114771284</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-38.59065585089002</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.6273339249158</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-38.59099526764766</v>
       </c>
     </row>
@@ -34132,27 +34163,28 @@
       <c r="P28" t="n">
         <v>348.1784169813704</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.6326467728804 -38.59057570844808, 174.6221875317634 -38.59005051187688)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.6326467728804</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-38.59057570844808</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.6221875317634</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-38.59005051187688</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.6274171523219</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-38.59031311016248</v>
       </c>
     </row>
@@ -34209,27 +34241,28 @@
       <c r="P29" t="n">
         <v>356.993243911392</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.63270340440408 -38.589791641584554, 174.62223033613984 -38.58947973550753)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.6327034044041</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-38.58979164158455</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.6222303361398</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-38.58947973550753</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.627466870272</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-38.58963568854604</v>
       </c>
     </row>
@@ -34280,27 +34313,28 @@
       <c r="P30" t="n">
         <v>344.0591753734914</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (174.63274252543323 -38.589066922218805, 174.62226691558254 -38.58881444386539)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>174.6327425254332</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-38.58906692221881</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>174.6222669155825</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-38.58881444386539</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>174.6275047205079</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-38.5889406830421</v>
       </c>
     </row>
@@ -34351,27 +34385,28 @@
       <c r="P31" t="n">
         <v>348.7145093772933</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (174.63278057916648 -38.58836539041872, 174.62230503640254 -38.588112911661604)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>174.6327805791665</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-38.58836539041872</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>174.6223050364025</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-38.5881129116616</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>174.6275428077845</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-38.58823915104016</v>
       </c>
     </row>
@@ -34428,27 +34463,28 @@
       <c r="P32" t="n">
         <v>350.0433197396338</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (174.63281863290027 -38.587663851764525, 174.62234315722142 -38.58741137260358)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>174.6328186329003</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-38.58766385176452</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>174.6223431572214</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-38.58741137260358</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>174.6275808950608</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-38.58753761218405</v>
       </c>
     </row>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG310"/>
+  <dimension ref="A1:AG314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28752,6 +28752,426 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>344.26</v>
+      </c>
+      <c r="C311" t="n">
+        <v>337.0453846153846</v>
+      </c>
+      <c r="D311" t="n">
+        <v>336.44</v>
+      </c>
+      <c r="E311" t="n">
+        <v>333.48</v>
+      </c>
+      <c r="F311" t="n">
+        <v>348.7636363636364</v>
+      </c>
+      <c r="G311" t="n">
+        <v>353.6642857142857</v>
+      </c>
+      <c r="H311" t="n">
+        <v>353.36</v>
+      </c>
+      <c r="I311" t="n">
+        <v>353.6453846153846</v>
+      </c>
+      <c r="J311" t="n">
+        <v>352.0541860465116</v>
+      </c>
+      <c r="K311" t="n">
+        <v>365.7510638297872</v>
+      </c>
+      <c r="L311" t="n">
+        <v>358.4311764705882</v>
+      </c>
+      <c r="M311" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="N311" t="n">
+        <v>350.9953846153846</v>
+      </c>
+      <c r="O311" t="n">
+        <v>349.9636363636364</v>
+      </c>
+      <c r="P311" t="n">
+        <v>352.74</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="R311" t="n">
+        <v>358.79</v>
+      </c>
+      <c r="S311" t="n">
+        <v>363.01</v>
+      </c>
+      <c r="T311" t="n">
+        <v>359.44</v>
+      </c>
+      <c r="U311" t="n">
+        <v>355.76</v>
+      </c>
+      <c r="V311" t="n">
+        <v>358.89</v>
+      </c>
+      <c r="W311" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="X311" t="n">
+        <v>354.9642857142857</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>357.5953846153847</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>360.94</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>356.3536363636364</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>350.3336363636364</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>359.13</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>342.218064516129</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>347.6525</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>350.0336363636364</v>
+      </c>
+      <c r="AG311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="C312" t="n">
+        <v>335.3176923076923</v>
+      </c>
+      <c r="D312" t="n">
+        <v>342.28</v>
+      </c>
+      <c r="E312" t="n">
+        <v>344.89</v>
+      </c>
+      <c r="F312" t="n">
+        <v>346.9590909090909</v>
+      </c>
+      <c r="G312" t="n">
+        <v>347.0457142857143</v>
+      </c>
+      <c r="H312" t="n">
+        <v>351.69</v>
+      </c>
+      <c r="I312" t="n">
+        <v>352.2776923076923</v>
+      </c>
+      <c r="J312" t="n">
+        <v>348.0867441860465</v>
+      </c>
+      <c r="K312" t="n">
+        <v>352.1823404255319</v>
+      </c>
+      <c r="L312" t="n">
+        <v>353.8411764705882</v>
+      </c>
+      <c r="M312" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="N312" t="n">
+        <v>359.0076923076923</v>
+      </c>
+      <c r="O312" t="n">
+        <v>350.1190909090909</v>
+      </c>
+      <c r="P312" t="n">
+        <v>354.6466666666667</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>355.3666666666667</v>
+      </c>
+      <c r="R312" t="n">
+        <v>358.3066666666667</v>
+      </c>
+      <c r="S312" t="n">
+        <v>353.4233333333333</v>
+      </c>
+      <c r="T312" t="n">
+        <v>357.78</v>
+      </c>
+      <c r="U312" t="n">
+        <v>362.42</v>
+      </c>
+      <c r="V312" t="n">
+        <v>354.6066666666667</v>
+      </c>
+      <c r="W312" t="n">
+        <v>358.04</v>
+      </c>
+      <c r="X312" t="n">
+        <v>350.8457142857143</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>356.1876923076923</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>355.86</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>350.3390909090909</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>356.569090909091</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>344.64</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>350.8275</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>359.3890909090909</v>
+      </c>
+      <c r="AG312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>344.6866666666667</v>
+      </c>
+      <c r="C313" t="n">
+        <v>336.07</v>
+      </c>
+      <c r="D313" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="E313" t="n">
+        <v>333.96</v>
+      </c>
+      <c r="F313" t="n">
+        <v>345.7136363636364</v>
+      </c>
+      <c r="G313" t="n">
+        <v>356.9071428571428</v>
+      </c>
+      <c r="H313" t="n">
+        <v>351.0866666666667</v>
+      </c>
+      <c r="I313" t="n">
+        <v>355.96</v>
+      </c>
+      <c r="J313" t="n">
+        <v>346.6039534883721</v>
+      </c>
+      <c r="K313" t="n">
+        <v>342.6495744680851</v>
+      </c>
+      <c r="L313" t="n">
+        <v>343.8894117647059</v>
+      </c>
+      <c r="M313" t="n">
+        <v>361.3266666666667</v>
+      </c>
+      <c r="N313" t="n">
+        <v>356.32</v>
+      </c>
+      <c r="O313" t="n">
+        <v>354.4536363636363</v>
+      </c>
+      <c r="P313" t="n">
+        <v>341.7888888888889</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>337.0288888888889</v>
+      </c>
+      <c r="R313" t="n">
+        <v>348.8288888888889</v>
+      </c>
+      <c r="S313" t="n">
+        <v>348.4344444444445</v>
+      </c>
+      <c r="T313" t="n">
+        <v>346.3433333333334</v>
+      </c>
+      <c r="U313" t="n">
+        <v>349.4366666666667</v>
+      </c>
+      <c r="V313" t="n">
+        <v>354.8088888888889</v>
+      </c>
+      <c r="W313" t="n">
+        <v>356.59</v>
+      </c>
+      <c r="X313" t="n">
+        <v>350.4571428571429</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>361.1166666666667</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>362.7836363636364</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>352.1536363636364</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>343.586129032258</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>357.6475</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>350.0136363636364</v>
+      </c>
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>350.7566666666667</v>
+      </c>
+      <c r="C314" t="n">
+        <v>340.9946153846154</v>
+      </c>
+      <c r="D314" t="n">
+        <v>347.31</v>
+      </c>
+      <c r="E314" t="n">
+        <v>350</v>
+      </c>
+      <c r="F314" t="n">
+        <v>357.3927272727273</v>
+      </c>
+      <c r="G314" t="n">
+        <v>359.7171428571428</v>
+      </c>
+      <c r="H314" t="n">
+        <v>366.6166666666667</v>
+      </c>
+      <c r="I314" t="n">
+        <v>356.7646153846153</v>
+      </c>
+      <c r="J314" t="n">
+        <v>349.8553488372093</v>
+      </c>
+      <c r="K314" t="n">
+        <v>350.3646808510638</v>
+      </c>
+      <c r="L314" t="n">
+        <v>348.3629411764706</v>
+      </c>
+      <c r="M314" t="n">
+        <v>368.9266666666667</v>
+      </c>
+      <c r="N314" t="n">
+        <v>356.4446153846154</v>
+      </c>
+      <c r="O314" t="n">
+        <v>349.9427272727273</v>
+      </c>
+      <c r="P314" t="n">
+        <v>353.3588888888889</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>350.2688888888889</v>
+      </c>
+      <c r="R314" t="n">
+        <v>367.9688888888889</v>
+      </c>
+      <c r="S314" t="n">
+        <v>336.8344444444444</v>
+      </c>
+      <c r="T314" t="n">
+        <v>353.8433333333334</v>
+      </c>
+      <c r="U314" t="n">
+        <v>353.5166666666667</v>
+      </c>
+      <c r="V314" t="n">
+        <v>362.2188888888889</v>
+      </c>
+      <c r="W314" t="n">
+        <v>353.4</v>
+      </c>
+      <c r="X314" t="n">
+        <v>364.0671428571428</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>361.9146153846153</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>360.4966666666666</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>362.1427272727273</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>354.3727272727273</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>366.1</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>354.2432258064516</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>357.1825</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>354.1727272727272</v>
+      </c>
+      <c r="AG314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28763,7 +29183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31981,6 +32401,46 @@
       </c>
       <c r="B321" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -32154,28 +32614,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2107167667325883</v>
+        <v>-0.219300143089155</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01402784324609363</v>
+        <v>0.01571860291487914</v>
       </c>
       <c r="M2" t="n">
-        <v>10.11623237988936</v>
+        <v>9.996254472250053</v>
       </c>
       <c r="N2" t="n">
-        <v>178.250455565973</v>
+        <v>175.3332216276212</v>
       </c>
       <c r="O2" t="n">
-        <v>13.35104698388755</v>
+        <v>13.24134515929636</v>
       </c>
       <c r="P2" t="n">
-        <v>353.7012321990006</v>
+        <v>353.7785444920982</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32232,28 +32692,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08881165532640287</v>
+        <v>-0.089797180801663</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006029705281034081</v>
+        <v>0.006389621501058707</v>
       </c>
       <c r="M3" t="n">
-        <v>6.636939036486261</v>
+        <v>6.555071221499864</v>
       </c>
       <c r="N3" t="n">
-        <v>72.5367383895144</v>
+        <v>71.35507784285677</v>
       </c>
       <c r="O3" t="n">
-        <v>8.516850262245685</v>
+        <v>8.447193489133344</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9003068044925</v>
+        <v>339.9091841143617</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32310,28 +32770,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05953804355603236</v>
+        <v>-0.05822532144607833</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002319185939272939</v>
+        <v>0.002285585444958271</v>
       </c>
       <c r="M4" t="n">
-        <v>7.211794242936304</v>
+        <v>7.174897960748075</v>
       </c>
       <c r="N4" t="n">
-        <v>83.3168873550008</v>
+        <v>82.40851592145896</v>
       </c>
       <c r="O4" t="n">
-        <v>9.127808463974297</v>
+        <v>9.077913632628311</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8280802854742</v>
+        <v>340.8155330635562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32388,28 +32848,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08975425594648001</v>
+        <v>0.09099234968556962</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002834137241235934</v>
+        <v>0.003003202540188932</v>
       </c>
       <c r="M5" t="n">
-        <v>9.602262905704345</v>
+        <v>9.556472005038106</v>
       </c>
       <c r="N5" t="n">
-        <v>158.6172427881165</v>
+        <v>156.7763510563728</v>
       </c>
       <c r="O5" t="n">
-        <v>12.59433375721465</v>
+        <v>12.52103634114896</v>
       </c>
       <c r="P5" t="n">
-        <v>337.9578297338697</v>
+        <v>337.9461317387031</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32466,28 +32926,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1248140322694794</v>
+        <v>-0.1084376334564071</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006581483189232462</v>
+        <v>0.005125121501361685</v>
       </c>
       <c r="M6" t="n">
-        <v>8.442203619830629</v>
+        <v>8.368614291326011</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2159630863421</v>
+        <v>127.7983616831052</v>
       </c>
       <c r="O6" t="n">
-        <v>11.36731996058623</v>
+        <v>11.30479374792416</v>
       </c>
       <c r="P6" t="n">
-        <v>347.7921311023273</v>
+        <v>347.6396594680924</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32544,28 +33004,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1411055001965636</v>
+        <v>0.1423508720102823</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01323744715480302</v>
+        <v>0.01389056298563618</v>
       </c>
       <c r="M7" t="n">
-        <v>6.620527852011058</v>
+        <v>6.57731323166779</v>
       </c>
       <c r="N7" t="n">
-        <v>82.33076612976626</v>
+        <v>81.34407011718484</v>
       </c>
       <c r="O7" t="n">
-        <v>9.073630261905445</v>
+        <v>9.019094750427275</v>
       </c>
       <c r="P7" t="n">
-        <v>350.3941840268253</v>
+        <v>350.3825917508596</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32622,28 +33082,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007451113074641938</v>
+        <v>0.03026235300461292</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L8" t="n">
-        <v>2.874446494915972e-05</v>
+        <v>0.0004820561432702375</v>
       </c>
       <c r="M8" t="n">
-        <v>8.035932068000237</v>
+        <v>8.014376715082401</v>
       </c>
       <c r="N8" t="n">
-        <v>106.612018614299</v>
+        <v>106.5246173580783</v>
       </c>
       <c r="O8" t="n">
-        <v>10.32530961348371</v>
+        <v>10.32107636625552</v>
       </c>
       <c r="P8" t="n">
-        <v>347.5498719094116</v>
+        <v>347.3369861762582</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32700,28 +33160,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03828105451149076</v>
+        <v>-0.0138381609543051</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007304055445940261</v>
+        <v>9.789648051294897e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.07477964402646</v>
+        <v>8.055975062961592</v>
       </c>
       <c r="N9" t="n">
-        <v>113.2989554236503</v>
+        <v>112.5359814921702</v>
       </c>
       <c r="O9" t="n">
-        <v>10.64419820482737</v>
+        <v>10.60829776600234</v>
       </c>
       <c r="P9" t="n">
-        <v>347.5399262307275</v>
+        <v>347.31871862965</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32772,28 +33232,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.01183218635873818</v>
+        <v>0.009213772820716106</v>
       </c>
       <c r="J10" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K10" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L10" t="n">
-        <v>6.248396367747322e-05</v>
+        <v>3.911744746609713e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>8.395278762908076</v>
+        <v>8.295271285741304</v>
       </c>
       <c r="N10" t="n">
-        <v>123.9456822436894</v>
+        <v>122.0852656203243</v>
       </c>
       <c r="O10" t="n">
-        <v>11.13308951925248</v>
+        <v>11.04922013629579</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7341756962098</v>
+        <v>349.7585601984521</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32844,28 +33304,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.03390437908558926</v>
+        <v>-0.02279403344479635</v>
       </c>
       <c r="J11" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004126318756730862</v>
+        <v>0.0001912458363599878</v>
       </c>
       <c r="M11" t="n">
-        <v>9.674790323016357</v>
+        <v>9.627581429209277</v>
       </c>
       <c r="N11" t="n">
-        <v>153.5847613914049</v>
+        <v>152.4300091423362</v>
       </c>
       <c r="O11" t="n">
-        <v>12.39293191264299</v>
+        <v>12.34625486300749</v>
       </c>
       <c r="P11" t="n">
-        <v>349.9332321491605</v>
+        <v>349.8301091954859</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32922,28 +33382,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08715756333606382</v>
+        <v>0.08264160696691128</v>
       </c>
       <c r="J12" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002871677235590453</v>
+        <v>0.002656728347536275</v>
       </c>
       <c r="M12" t="n">
-        <v>8.991412892847174</v>
+        <v>8.934687196912884</v>
       </c>
       <c r="N12" t="n">
-        <v>144.8238881110193</v>
+        <v>143.0950339044554</v>
       </c>
       <c r="O12" t="n">
-        <v>12.0342797088575</v>
+        <v>11.96223365030359</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4628010326829</v>
+        <v>350.5053660038828</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33000,28 +33460,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06786964995713074</v>
+        <v>0.09952597892019033</v>
       </c>
       <c r="J13" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003033185839113273</v>
+        <v>0.006572327260845667</v>
       </c>
       <c r="M13" t="n">
-        <v>7.118397343731367</v>
+        <v>7.175865389787891</v>
       </c>
       <c r="N13" t="n">
-        <v>83.22140468982694</v>
+        <v>83.75589470050167</v>
       </c>
       <c r="O13" t="n">
-        <v>9.122576647517244</v>
+        <v>9.151824665087377</v>
       </c>
       <c r="P13" t="n">
-        <v>350.6504045530351</v>
+        <v>350.3554361928577</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33078,28 +33538,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002324605939917738</v>
+        <v>0.05290889573473944</v>
       </c>
       <c r="J14" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K14" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>2.004390172616333e-06</v>
+        <v>0.001042567358884083</v>
       </c>
       <c r="M14" t="n">
-        <v>9.323361549753921</v>
+        <v>9.453394256996177</v>
       </c>
       <c r="N14" t="n">
-        <v>152.9975042437318</v>
+        <v>154.878991108321</v>
       </c>
       <c r="O14" t="n">
-        <v>12.36921599147382</v>
+        <v>12.44503881505883</v>
       </c>
       <c r="P14" t="n">
-        <v>339.1482820066856</v>
+        <v>338.6867129864884</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33150,28 +33610,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.04943728058564491</v>
+        <v>-0.008552026584671742</v>
       </c>
       <c r="J15" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006228952486410089</v>
+        <v>1.902562798272722e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>11.47246142761334</v>
+        <v>11.46967809903706</v>
       </c>
       <c r="N15" t="n">
-        <v>217.5146593944487</v>
+        <v>217.000518260704</v>
       </c>
       <c r="O15" t="n">
-        <v>14.74837819539656</v>
+        <v>14.73093745356024</v>
       </c>
       <c r="P15" t="n">
-        <v>338.5948476053729</v>
+        <v>338.2188990451931</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33228,28 +33688,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1881106961931162</v>
+        <v>-0.1514975151024987</v>
       </c>
       <c r="J16" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K16" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00862640397621639</v>
+        <v>0.005732591441946377</v>
       </c>
       <c r="M16" t="n">
-        <v>11.69053182192367</v>
+        <v>11.6756618630443</v>
       </c>
       <c r="N16" t="n">
-        <v>221.0508104254972</v>
+        <v>220.2534501883332</v>
       </c>
       <c r="O16" t="n">
-        <v>14.86777758864778</v>
+        <v>14.84093831899901</v>
       </c>
       <c r="P16" t="n">
-        <v>343.1395885015268</v>
+        <v>342.7981978910979</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33306,28 +33766,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.002111564181968711</v>
+        <v>0.02602254364532064</v>
       </c>
       <c r="J17" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K17" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L17" t="n">
-        <v>9.958031463863648e-07</v>
+        <v>0.0001545881689843931</v>
       </c>
       <c r="M17" t="n">
-        <v>12.02583288580651</v>
+        <v>11.98966448803255</v>
       </c>
       <c r="N17" t="n">
-        <v>243.6920741702414</v>
+        <v>242.1048714330664</v>
       </c>
       <c r="O17" t="n">
-        <v>15.61063977453331</v>
+        <v>15.55971951652942</v>
       </c>
       <c r="P17" t="n">
-        <v>339.0635376290078</v>
+        <v>338.7961318496555</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33384,28 +33844,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02463153120942392</v>
+        <v>0.0204385167778847</v>
       </c>
       <c r="J18" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001464966423954106</v>
+        <v>0.0001023519666368822</v>
       </c>
       <c r="M18" t="n">
-        <v>11.28402659051514</v>
+        <v>11.3542961085187</v>
       </c>
       <c r="N18" t="n">
-        <v>227.8427364714342</v>
+        <v>228.328106651601</v>
       </c>
       <c r="O18" t="n">
-        <v>15.09446045645336</v>
+        <v>15.11052966151753</v>
       </c>
       <c r="P18" t="n">
-        <v>344.161287739102</v>
+        <v>343.7384595654327</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33462,28 +33922,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.110268038744605</v>
+        <v>-0.09464384223765131</v>
       </c>
       <c r="J19" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K19" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002952284566899777</v>
+        <v>0.002234234959255899</v>
       </c>
       <c r="M19" t="n">
-        <v>12.33290495041653</v>
+        <v>12.28214692590997</v>
       </c>
       <c r="N19" t="n">
-        <v>218.8206072087802</v>
+        <v>217.0818699625547</v>
       </c>
       <c r="O19" t="n">
-        <v>14.79258622448354</v>
+        <v>14.73369844820216</v>
       </c>
       <c r="P19" t="n">
-        <v>348.2448404601093</v>
+        <v>348.096630990603</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33534,28 +33994,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.03790190704495486</v>
+        <v>-0.01920611156033138</v>
       </c>
       <c r="J20" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K20" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003728337949281402</v>
+        <v>9.850313553982915e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>11.34977581420321</v>
+        <v>11.27192620540008</v>
       </c>
       <c r="N20" t="n">
-        <v>212.9791248551237</v>
+        <v>210.6275109993211</v>
       </c>
       <c r="O20" t="n">
-        <v>14.59380433112366</v>
+        <v>14.51301178251162</v>
       </c>
       <c r="P20" t="n">
-        <v>349.0280689691513</v>
+        <v>348.8548712789997</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33606,28 +34066,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1266128772693841</v>
+        <v>-0.1182278928710512</v>
       </c>
       <c r="J21" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K21" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005377217678593782</v>
+        <v>0.00483278133945142</v>
       </c>
       <c r="M21" t="n">
-        <v>9.497585509930317</v>
+        <v>9.408348241914032</v>
       </c>
       <c r="N21" t="n">
-        <v>164.5611934774148</v>
+        <v>162.4555072350157</v>
       </c>
       <c r="O21" t="n">
-        <v>12.82814068668624</v>
+        <v>12.74580351468732</v>
       </c>
       <c r="P21" t="n">
-        <v>355.6346770786385</v>
+        <v>355.5571343340096</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33684,28 +34144,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2232279240295543</v>
+        <v>-0.208178596897944</v>
       </c>
       <c r="J22" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K22" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02319896303878688</v>
+        <v>0.02082211464336647</v>
       </c>
       <c r="M22" t="n">
-        <v>8.593134494188133</v>
+        <v>8.520741399921514</v>
       </c>
       <c r="N22" t="n">
-        <v>114.6789577125096</v>
+        <v>113.3352885158327</v>
       </c>
       <c r="O22" t="n">
-        <v>10.70882615941213</v>
+        <v>10.64590477675959</v>
       </c>
       <c r="P22" t="n">
-        <v>358.4077641526244</v>
+        <v>358.2660644963302</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33762,28 +34222,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2729566883099442</v>
+        <v>-0.246526091964552</v>
       </c>
       <c r="J23" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K23" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02200522776140335</v>
+        <v>0.01851899826414749</v>
       </c>
       <c r="M23" t="n">
-        <v>10.09888071510151</v>
+        <v>10.0406011890737</v>
       </c>
       <c r="N23" t="n">
-        <v>182.6181257569321</v>
+        <v>180.7057968599944</v>
       </c>
       <c r="O23" t="n">
-        <v>13.51362740928327</v>
+        <v>13.44268562676351</v>
       </c>
       <c r="P23" t="n">
-        <v>353.7009328146916</v>
+        <v>353.4521335364998</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33840,28 +34300,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09300008245909959</v>
+        <v>-0.08260792247764991</v>
       </c>
       <c r="J24" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K24" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00249971767308399</v>
+        <v>0.002032079658447872</v>
       </c>
       <c r="M24" t="n">
-        <v>9.903377509818643</v>
+        <v>9.811750823136896</v>
       </c>
       <c r="N24" t="n">
-        <v>188.0697784307976</v>
+        <v>185.676985896576</v>
       </c>
       <c r="O24" t="n">
-        <v>13.71385352228897</v>
+        <v>13.6263342794963</v>
       </c>
       <c r="P24" t="n">
-        <v>354.0511898776109</v>
+        <v>353.9523536765882</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33912,28 +34372,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01316187080879258</v>
+        <v>-0.00984482567975262</v>
       </c>
       <c r="J25" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K25" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L25" t="n">
-        <v>8.105748121056688e-05</v>
+        <v>4.689909854216356e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>7.519868460930033</v>
+        <v>7.431988178702613</v>
       </c>
       <c r="N25" t="n">
-        <v>116.0271175824606</v>
+        <v>114.2874258332904</v>
       </c>
       <c r="O25" t="n">
-        <v>10.7715884428649</v>
+        <v>10.69052972650515</v>
       </c>
       <c r="P25" t="n">
-        <v>356.8317225762916</v>
+        <v>356.8005923571865</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33984,28 +34444,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1265328503499599</v>
+        <v>-0.1119062639848217</v>
       </c>
       <c r="J26" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K26" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004025345188149898</v>
+        <v>0.00326146807992278</v>
       </c>
       <c r="M26" t="n">
-        <v>10.35280468056364</v>
+        <v>10.22067573760783</v>
       </c>
       <c r="N26" t="n">
-        <v>221.3401231261334</v>
+        <v>217.7299357250099</v>
       </c>
       <c r="O26" t="n">
-        <v>14.87750392794885</v>
+        <v>14.75567469568945</v>
       </c>
       <c r="P26" t="n">
-        <v>358.4283177825142</v>
+        <v>358.2919815717737</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34062,28 +34522,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.05734265566970726</v>
+        <v>-0.03600454003260491</v>
       </c>
       <c r="J27" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K27" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0009838438621762036</v>
+        <v>0.0003994146575779789</v>
       </c>
       <c r="M27" t="n">
-        <v>9.649111775924942</v>
+        <v>9.6013657512578</v>
       </c>
       <c r="N27" t="n">
-        <v>184.7486153926895</v>
+        <v>182.7868563172083</v>
       </c>
       <c r="O27" t="n">
-        <v>13.5922262853695</v>
+        <v>13.51986894600714</v>
       </c>
       <c r="P27" t="n">
-        <v>352.6477780071337</v>
+        <v>352.4494147957707</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34140,28 +34600,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2377448192044866</v>
+        <v>0.2351809777588176</v>
       </c>
       <c r="J28" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K28" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01075899939693903</v>
+        <v>0.01089578926234935</v>
       </c>
       <c r="M28" t="n">
-        <v>12.90756439479594</v>
+        <v>12.73009931993867</v>
       </c>
       <c r="N28" t="n">
-        <v>287.400108569872</v>
+        <v>282.7311968587419</v>
       </c>
       <c r="O28" t="n">
-        <v>16.95287906433217</v>
+        <v>16.81461259912764</v>
       </c>
       <c r="P28" t="n">
-        <v>348.1784169813704</v>
+        <v>348.2021136454764</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34218,28 +34678,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1347845728093034</v>
+        <v>0.1292786152951905</v>
       </c>
       <c r="J29" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K29" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005008812079184688</v>
+        <v>0.004751931446794089</v>
       </c>
       <c r="M29" t="n">
-        <v>10.04339949369332</v>
+        <v>9.960481047473349</v>
       </c>
       <c r="N29" t="n">
-        <v>197.280200476245</v>
+        <v>194.6308773356066</v>
       </c>
       <c r="O29" t="n">
-        <v>14.04564702946237</v>
+        <v>13.95101707172658</v>
       </c>
       <c r="P29" t="n">
-        <v>356.993243911392</v>
+        <v>357.044566967949</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34290,28 +34750,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02218851311346783</v>
+        <v>-0.01402600400000235</v>
       </c>
       <c r="J30" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K30" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002248984949253519</v>
+        <v>9.250366586888159e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>8.477571729236869</v>
+        <v>8.388625515301491</v>
       </c>
       <c r="N30" t="n">
-        <v>119.3669464576681</v>
+        <v>117.9194334254356</v>
       </c>
       <c r="O30" t="n">
-        <v>10.92551813222916</v>
+        <v>10.85907148081435</v>
       </c>
       <c r="P30" t="n">
-        <v>344.0591753734914</v>
+        <v>343.9816241541466</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -34362,28 +34822,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.03641805999893419</v>
+        <v>0.04927641983539642</v>
       </c>
       <c r="J31" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K31" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0004699444221978322</v>
+        <v>0.000889600308140448</v>
       </c>
       <c r="M31" t="n">
-        <v>9.046896309646957</v>
+        <v>8.959476721080817</v>
       </c>
       <c r="N31" t="n">
-        <v>149.6655190759195</v>
+        <v>147.5349565513934</v>
       </c>
       <c r="O31" t="n">
-        <v>12.23378596657304</v>
+        <v>12.14639685468054</v>
       </c>
       <c r="P31" t="n">
-        <v>348.7145093772933</v>
+        <v>348.5907945561001</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -34440,28 +34900,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1634156659311375</v>
+        <v>0.1605385004551996</v>
       </c>
       <c r="J32" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K32" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01064486714781876</v>
+        <v>0.01068845810180641</v>
       </c>
       <c r="M32" t="n">
-        <v>8.703443900305892</v>
+        <v>8.595435783608819</v>
       </c>
       <c r="N32" t="n">
-        <v>137.8903416230555</v>
+        <v>135.414838346784</v>
       </c>
       <c r="O32" t="n">
-        <v>11.74267182642245</v>
+        <v>11.63678814565188</v>
       </c>
       <c r="P32" t="n">
-        <v>350.0433197396338</v>
+        <v>350.0698783928698</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -34499,7 +34959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG310"/>
+  <dimension ref="A1:AG314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77685,6 +78145,674 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-38.60852609731204,174.62634426948418</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-38.60785235950144,174.62661284621925</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-38.60716689239345,174.6268070168717</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-38.60648489459086,174.6270279064658</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-38.60576813441339,174.6270378870514</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-38.60506413877401,174.62709594288663</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-38.60436804045904,174.62721259381257</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-38.60367132848334,174.62732251850895</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-38.60297654115358,174.62745384858664</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-38.60226848312724,174.62741072466335</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-38.60157496053369,174.62755592389877</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-38.60087274962976,174.62755470846045</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-38.600174799624064,174.62772293942984</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-38.599473784028596,174.62777558562868</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-38.59877160523781,174.62778453539778</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-38.59807058780483,174.62782907026656</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-38.597367176064346,174.62780812183433</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>-38.59666447036653,174.62782284190186</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>-38.595966000414954,174.62792688085602</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>-38.595267581602215,174.62803217970256</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>-38.59456556514529,174.628059430504</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>-38.59386878534714,174.62819606629716</t>
+        </is>
+      </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>-38.593167797345025,174.6282413355388</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>-38.59246691717777,174.62829586364742</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>-38.59176542877938,174.62834228520572</t>
+        </is>
+      </c>
+      <c r="AA311" t="inlineStr">
+        <is>
+          <t>-38.59106982979359,174.62847944305537</t>
+        </is>
+      </c>
+      <c r="AB311" t="inlineStr">
+        <is>
+          <t>-38.59037428635717,174.62863324642151</t>
+        </is>
+      </c>
+      <c r="AC311" t="inlineStr">
+        <is>
+          <t>-38.58966906208608,174.62858370351879</t>
+        </is>
+      </c>
+      <c r="AD311" t="inlineStr">
+        <is>
+          <t>-38.58897239452451,174.6288158925135</t>
+        </is>
+      </c>
+      <c r="AE311" t="inlineStr">
+        <is>
+          <t>-38.5882693607215,174.62879163008904</t>
+        </is>
+      </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>-38.587567164038724,174.62880240192956</t>
+        </is>
+      </c>
+      <c r="AG311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-38.608527551739144,174.626353500948</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-38.60785542386306,174.6266322962014</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-38.60715653417938,174.62674127205406</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-38.60646500992955,174.62689936815448</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-38.605770609286516,174.62705836564484</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-38.60507095077065,174.6271714400661</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-38.60436975925939,174.6272316430998</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-38.60367273613547,174.62733811929473</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-38.60298062447832,174.62749910336976</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-38.60227892099342,174.6275659462483</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-38.601576824370206,174.62760857031768</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-38.6008738367483,174.62759578838728</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-38.600172366624726,174.62763100037557</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-38.59947373682459,174.62777380184733</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-38.59877102626899,174.627762657342</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-38.59806951938139,174.62779515234067</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-38.59736740477144,174.62781366323102</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>-38.59666952531891,174.62793271481647</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>-38.595966875713444,174.62794590595303</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>-38.59526406987277,174.62795585083927</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>-38.59456782366979,174.62810852041287</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>-38.593865545830305,174.62813225470498</t>
+        </is>
+      </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>-38.59317063786512,174.6282884785532</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>-38.592467963716985,174.6283119688743</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>-38.591769205461645,174.62840040426832</t>
+        </is>
+      </c>
+      <c r="AA312" t="inlineStr">
+        <is>
+          <t>-38.59107430120065,174.62854825336746</t>
+        </is>
+      </c>
+      <c r="AB312" t="inlineStr">
+        <is>
+          <t>-38.59037070007054,174.62856181135646</t>
+        </is>
+      </c>
+      <c r="AC312" t="inlineStr">
+        <is>
+          <t>-38.58967093363105,174.62864656637336</t>
+        </is>
+      </c>
+      <c r="AD312" t="inlineStr">
+        <is>
+          <t>-38.588971725065434,174.62878810308405</t>
+        </is>
+      </c>
+      <c r="AE312" t="inlineStr">
+        <is>
+          <t>-38.58826848308488,174.62875520030917</t>
+        </is>
+      </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>-38.58756457794157,174.62869505899394</t>
+        </is>
+      </c>
+      <c r="AG312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-38.60852534053667,174.626339466121</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-38.607854089515435,174.62662382688572</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-38.607173348521655,174.6268479948149</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-38.60648405807862,174.62702249906837</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-38.60577231738323,174.62707249948585</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-38.60506080112772,174.62705895204348</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-38.60437038022243,174.62723852517783</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-38.60366894623713,174.6272961165054</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-38.60298215057451,174.62751601688186</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-38.60228625403814,174.62767499787407</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-38.60158086534799,174.627722715155</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-38.60087298446477,174.6275635823366</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-38.60017318277139,174.6276618409143</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-38.599472420622384,174.62772406459976</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-38.59877493051766,174.62791019397847</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-38.59807614577643,174.6280055174204</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>-38.59737188948035,174.62792232556674</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>-38.59667215586859,174.62798989254324</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>-38.59597290604897,174.62807698047644</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>-38.59527091576556,174.62810465010503</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>-38.59456771704212,174.62810620280882</t>
+        </is>
+      </c>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>-38.59386638915492,174.62814886633984</t>
+        </is>
+      </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>-38.59317090585632,174.62829292631608</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>-38.592469218417335,174.62833127754575</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>-38.591765297437554,174.6283402640048</t>
+        </is>
+      </c>
+      <c r="AA313" t="inlineStr">
+        <is>
+          <t>-38.59106504947925,174.62840587968094</t>
+        </is>
+      </c>
+      <c r="AB313" t="inlineStr">
+        <is>
+          <t>-38.590373239598925,174.62861239600537</t>
+        </is>
+      </c>
+      <c r="AC313" t="inlineStr">
+        <is>
+          <t>-38.58967039744371,174.62862855639474</t>
+        </is>
+      </c>
+      <c r="AD313" t="inlineStr">
+        <is>
+          <t>-38.58897201637189,174.62880019526116</t>
+        </is>
+      </c>
+      <c r="AE313" t="inlineStr">
+        <is>
+          <t>-38.588266597855345,174.62867694799627</t>
+        </is>
+      </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>-38.58756716956714,174.62880263140624</t>
+        </is>
+      </c>
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-38.60851457420296,174.626271130785</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-38.6078453548442,174.62656838664876</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-38.60714761260545,174.62668464596672</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-38.60645610448278,174.62684180193833</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-38.605756299856765,174.6269399612209</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-38.60505790898151,174.6270268987471</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-38.6043543962984,174.62706137824176</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-38.60366811811024,174.62728693854112</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-38.60297880421763,174.62747892971</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-38.60228031922915,174.62758673965902</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-38.60157904885654,174.62767140462736</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-38.600870676574075,174.62747637355548</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-38.600173144930764,174.6276604109866</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-38.59947379037766,174.6277758255525</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-38.59877141730957,174.62777743395424</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-38.5980713615123,174.6278536324027</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-38.59736283268262,174.6277028862575</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>-38.59667827222763,174.6281228403212</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>-38.59596895145909,174.62799102370462</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>-38.595268764470816,174.62805789007672</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>-38.594563809867886,174.62802127917828</t>
+        </is>
+      </c>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>-38.59386824446077,174.62818541193766</t>
+        </is>
+      </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>-38.593161519166294,174.6281371401671</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>-38.59246370606132,174.62824644788537</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>-38.591765758372894,174.62834735727594</t>
+        </is>
+      </c>
+      <c r="AA314" t="inlineStr">
+        <is>
+          <t>-38.59106552595831,174.6284132120967</t>
+        </is>
+      </c>
+      <c r="AB314" t="inlineStr">
+        <is>
+          <t>-38.59037196330173,174.62858697349566</t>
+        </is>
+      </c>
+      <c r="AC314" t="inlineStr">
+        <is>
+          <t>-38.5896666816232,174.62850374839473</t>
+        </is>
+      </c>
+      <c r="AD314" t="inlineStr">
+        <is>
+          <t>-38.5889690705255,174.62867791511206</t>
+        </is>
+      </c>
+      <c r="AE314" t="inlineStr">
+        <is>
+          <t>-38.588266726395396,174.62868228338118</t>
+        </is>
+      </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>-38.58756601989576,174.62875491068564</t>
+        </is>
+      </c>
+      <c r="AG314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG314"/>
+  <dimension ref="A1:AG316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29172,6 +29172,212 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>353.57</v>
+      </c>
+      <c r="C315" t="n">
+        <v>348.1707692307692</v>
+      </c>
+      <c r="D315" t="n">
+        <v>353.06</v>
+      </c>
+      <c r="E315" t="n">
+        <v>357.92</v>
+      </c>
+      <c r="F315" t="n">
+        <v>354.6518181818182</v>
+      </c>
+      <c r="G315" t="n">
+        <v>357.8057142857143</v>
+      </c>
+      <c r="H315" t="n">
+        <v>361.89</v>
+      </c>
+      <c r="I315" t="n">
+        <v>354.2007692307693</v>
+      </c>
+      <c r="J315" t="n">
+        <v>355.4176744186047</v>
+      </c>
+      <c r="K315" t="n">
+        <v>352.0357446808511</v>
+      </c>
+      <c r="L315" t="n">
+        <v>362.6635294117647</v>
+      </c>
+      <c r="M315" t="n">
+        <v>366.68</v>
+      </c>
+      <c r="N315" t="n">
+        <v>341.7107692307692</v>
+      </c>
+      <c r="O315" t="n">
+        <v>353.8818181818182</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="n">
+        <v>350.1733333333333</v>
+      </c>
+      <c r="R315" t="n">
+        <v>351.0033333333333</v>
+      </c>
+      <c r="S315" t="n">
+        <v>337.4666666666667</v>
+      </c>
+      <c r="T315" t="n">
+        <v>339.72</v>
+      </c>
+      <c r="U315" t="n">
+        <v>354.42</v>
+      </c>
+      <c r="V315" t="n">
+        <v>366.1633333333333</v>
+      </c>
+      <c r="W315" t="n">
+        <v>348.78</v>
+      </c>
+      <c r="X315" t="n">
+        <v>355.1957142857143</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>363.3307692307693</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>350.51</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>360.6418181818182</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>359.7018181818182</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>365.08</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>343.658064516129</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>348.4675</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>359.7518181818182</v>
+      </c>
+      <c r="AG315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>344.4533333333333</v>
+      </c>
+      <c r="C316" t="n">
+        <v>333.1730769230769</v>
+      </c>
+      <c r="D316" t="n">
+        <v>339.12</v>
+      </c>
+      <c r="E316" t="n">
+        <v>339.1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>346.0763636363636</v>
+      </c>
+      <c r="G316" t="n">
+        <v>350.2485714285714</v>
+      </c>
+      <c r="H316" t="n">
+        <v>351.1033333333333</v>
+      </c>
+      <c r="I316" t="n">
+        <v>351.3530769230769</v>
+      </c>
+      <c r="J316" t="n">
+        <v>348.3813953488372</v>
+      </c>
+      <c r="K316" t="n">
+        <v>341.6176595744681</v>
+      </c>
+      <c r="L316" t="n">
+        <v>355.7282352941176</v>
+      </c>
+      <c r="M316" t="n">
+        <v>357.6633333333333</v>
+      </c>
+      <c r="N316" t="n">
+        <v>346.8530769230769</v>
+      </c>
+      <c r="O316" t="n">
+        <v>343.5863636363636</v>
+      </c>
+      <c r="P316" t="n">
+        <v>341.1877777777778</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>346.6777777777777</v>
+      </c>
+      <c r="R316" t="n">
+        <v>346.7277777777778</v>
+      </c>
+      <c r="S316" t="n">
+        <v>358.9188888888889</v>
+      </c>
+      <c r="T316" t="n">
+        <v>361.4366666666667</v>
+      </c>
+      <c r="U316" t="n">
+        <v>361.8633333333333</v>
+      </c>
+      <c r="V316" t="n">
+        <v>355.1377777777778</v>
+      </c>
+      <c r="W316" t="n">
+        <v>344.22</v>
+      </c>
+      <c r="X316" t="n">
+        <v>352.3085714285714</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>357.2730769230769</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>361.5333333333333</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>357.8263636363636</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>362.3263636363636</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>358.47</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>344.9567741935484</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>335.345</v>
+      </c>
+      <c r="AF316" t="inlineStr"/>
+      <c r="AG316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29183,7 +29389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32441,6 +32647,26 @@
       </c>
       <c r="B325" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -32614,28 +32840,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.219300143089155</v>
+        <v>-0.2180130568103441</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01571860291487914</v>
+        <v>0.01579859297147634</v>
       </c>
       <c r="M2" t="n">
-        <v>9.996254472250053</v>
+        <v>9.94915140216062</v>
       </c>
       <c r="N2" t="n">
-        <v>175.3332216276212</v>
+        <v>173.9707036199405</v>
       </c>
       <c r="O2" t="n">
-        <v>13.24134515929636</v>
+        <v>13.1897954351059</v>
       </c>
       <c r="P2" t="n">
-        <v>353.7785444920982</v>
+        <v>353.7668826125359</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32692,28 +32918,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.089797180801663</v>
+        <v>-0.0848258316444231</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006389621501058707</v>
+        <v>0.005763862802107056</v>
       </c>
       <c r="M3" t="n">
-        <v>6.555071221499864</v>
+        <v>6.565245249496447</v>
       </c>
       <c r="N3" t="n">
-        <v>71.35507784285677</v>
+        <v>71.30188636068486</v>
       </c>
       <c r="O3" t="n">
-        <v>8.447193489133344</v>
+        <v>8.444044431472685</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9091841143617</v>
+        <v>339.8635506573934</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32770,28 +32996,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05822532144607833</v>
+        <v>-0.0472327924895222</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002285585444958271</v>
+        <v>0.001517267131160516</v>
       </c>
       <c r="M4" t="n">
-        <v>7.174897960748075</v>
+        <v>7.173331495971032</v>
       </c>
       <c r="N4" t="n">
-        <v>82.40851592145896</v>
+        <v>82.49909279818174</v>
       </c>
       <c r="O4" t="n">
-        <v>9.077913632628311</v>
+        <v>9.082901122338706</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8155330635562</v>
+        <v>340.712096478106</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32848,28 +33074,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09099234968556962</v>
+        <v>0.104118943918719</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003003202540188932</v>
+        <v>0.003964704758556148</v>
       </c>
       <c r="M5" t="n">
-        <v>9.556472005038106</v>
+        <v>9.564680981993902</v>
       </c>
       <c r="N5" t="n">
-        <v>156.7763510563728</v>
+        <v>156.7613104840027</v>
       </c>
       <c r="O5" t="n">
-        <v>12.52103634114896</v>
+        <v>12.52043571462282</v>
       </c>
       <c r="P5" t="n">
-        <v>337.9461317387031</v>
+        <v>337.8255193898971</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32926,28 +33152,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1084376334564071</v>
+        <v>-0.09974246510517924</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005125121501361685</v>
+        <v>0.00440145236346845</v>
       </c>
       <c r="M6" t="n">
-        <v>8.368614291326011</v>
+        <v>8.335905541618809</v>
       </c>
       <c r="N6" t="n">
-        <v>127.7983616831052</v>
+        <v>127.1270244585291</v>
       </c>
       <c r="O6" t="n">
-        <v>11.30479374792416</v>
+        <v>11.2750620600744</v>
       </c>
       <c r="P6" t="n">
-        <v>347.6396594680924</v>
+        <v>347.5583421773547</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33004,28 +33230,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1423508720102823</v>
+        <v>0.1424006335855765</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01389056298563618</v>
+        <v>0.01412045288139718</v>
       </c>
       <c r="M7" t="n">
-        <v>6.57731323166779</v>
+        <v>6.554492750615914</v>
       </c>
       <c r="N7" t="n">
-        <v>81.34407011718484</v>
+        <v>80.79669505811798</v>
       </c>
       <c r="O7" t="n">
-        <v>9.019094750427275</v>
+        <v>8.988698184838446</v>
       </c>
       <c r="P7" t="n">
-        <v>350.3825917508596</v>
+        <v>350.3821649026489</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33082,28 +33308,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03026235300461292</v>
+        <v>0.04212781785981836</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004820561432702375</v>
+        <v>0.0009416486963398363</v>
       </c>
       <c r="M8" t="n">
-        <v>8.014376715082401</v>
+        <v>8.006434769989662</v>
       </c>
       <c r="N8" t="n">
-        <v>106.5246173580783</v>
+        <v>106.4602730125109</v>
       </c>
       <c r="O8" t="n">
-        <v>10.32107636625552</v>
+        <v>10.31795876191172</v>
       </c>
       <c r="P8" t="n">
-        <v>347.3369861762582</v>
+        <v>347.2257374334692</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33160,28 +33386,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0138381609543051</v>
+        <v>-0.005182098480329562</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>9.789648051294897e-05</v>
+        <v>1.392461965332714e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.055975062961592</v>
+        <v>8.031499632541001</v>
       </c>
       <c r="N9" t="n">
-        <v>112.5359814921702</v>
+        <v>111.922692863741</v>
       </c>
       <c r="O9" t="n">
-        <v>10.60829776600234</v>
+        <v>10.57935219490026</v>
       </c>
       <c r="P9" t="n">
-        <v>347.31871862965</v>
+        <v>347.2399044959994</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33232,28 +33458,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.009213772820716106</v>
+        <v>0.01199538704989457</v>
       </c>
       <c r="J10" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>3.911744746609713e-05</v>
+        <v>6.729141208150491e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>8.295271285741304</v>
+        <v>8.256591063856042</v>
       </c>
       <c r="N10" t="n">
-        <v>122.0852656203243</v>
+        <v>121.262366774645</v>
       </c>
       <c r="O10" t="n">
-        <v>11.04922013629579</v>
+        <v>11.0119193047645</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7585601984521</v>
+        <v>349.7325592550015</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33304,28 +33530,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.02279403344479635</v>
+        <v>-0.02646188840946817</v>
       </c>
       <c r="J11" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001912458363599878</v>
+        <v>0.0002615256433374791</v>
       </c>
       <c r="M11" t="n">
-        <v>9.627581429209277</v>
+        <v>9.592870164509108</v>
       </c>
       <c r="N11" t="n">
-        <v>152.4300091423362</v>
+        <v>151.4735486837679</v>
       </c>
       <c r="O11" t="n">
-        <v>12.34625486300749</v>
+        <v>12.30745906691417</v>
       </c>
       <c r="P11" t="n">
-        <v>349.8301091954859</v>
+        <v>349.8645475085655</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33382,28 +33608,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08264160696691128</v>
+        <v>0.09215149716281409</v>
       </c>
       <c r="J12" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002656728347536275</v>
+        <v>0.003343099802729066</v>
       </c>
       <c r="M12" t="n">
-        <v>8.934687196912884</v>
+        <v>8.906304535646321</v>
       </c>
       <c r="N12" t="n">
-        <v>143.0950339044554</v>
+        <v>142.4189717997989</v>
       </c>
       <c r="O12" t="n">
-        <v>11.96223365030359</v>
+        <v>11.93394200588384</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5053660038828</v>
+        <v>350.415720977443</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33460,28 +33686,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09952597892019033</v>
+        <v>0.1135270587173006</v>
       </c>
       <c r="J13" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006572327260845667</v>
+        <v>0.008589597985067643</v>
       </c>
       <c r="M13" t="n">
-        <v>7.175865389787891</v>
+        <v>7.197995347394662</v>
       </c>
       <c r="N13" t="n">
-        <v>83.75589470050167</v>
+        <v>83.92145016477959</v>
       </c>
       <c r="O13" t="n">
-        <v>9.151824665087377</v>
+        <v>9.160865142811545</v>
       </c>
       <c r="P13" t="n">
-        <v>350.3554361928577</v>
+        <v>350.2242469707145</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33538,28 +33764,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05290889573473944</v>
+        <v>0.05935183137331496</v>
       </c>
       <c r="J14" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001042567358884083</v>
+        <v>0.001331721239031802</v>
       </c>
       <c r="M14" t="n">
-        <v>9.453394256996177</v>
+        <v>9.414024955973282</v>
       </c>
       <c r="N14" t="n">
-        <v>154.878991108321</v>
+        <v>153.8083419546606</v>
       </c>
       <c r="O14" t="n">
-        <v>12.44503881505883</v>
+        <v>12.40194911917722</v>
       </c>
       <c r="P14" t="n">
-        <v>338.6867129864884</v>
+        <v>338.6275120264615</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33610,28 +33836,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>-0.008552026584671742</v>
+        <v>0.007175173825888922</v>
       </c>
       <c r="J15" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L15" t="n">
-        <v>1.902562798272722e-05</v>
+        <v>1.354368299122388e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>11.46967809903706</v>
+        <v>11.44743328590552</v>
       </c>
       <c r="N15" t="n">
-        <v>217.000518260704</v>
+        <v>216.4001880362958</v>
       </c>
       <c r="O15" t="n">
-        <v>14.73093745356024</v>
+        <v>14.71054682995489</v>
       </c>
       <c r="P15" t="n">
-        <v>338.2188990451931</v>
+        <v>338.0733809658872</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33688,28 +33914,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1514975151024987</v>
+        <v>-0.1498270714837704</v>
       </c>
       <c r="J16" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K16" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005732591441946377</v>
+        <v>0.005652935272292936</v>
       </c>
       <c r="M16" t="n">
-        <v>11.6756618630443</v>
+        <v>11.63850132863112</v>
       </c>
       <c r="N16" t="n">
-        <v>220.2534501883332</v>
+        <v>219.4284278437165</v>
       </c>
       <c r="O16" t="n">
-        <v>14.84093831899901</v>
+        <v>14.81311674981725</v>
       </c>
       <c r="P16" t="n">
-        <v>342.7981978910979</v>
+        <v>342.7825135864533</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33766,28 +33992,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02602254364532064</v>
+        <v>0.03882085808282152</v>
       </c>
       <c r="J17" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K17" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001545881689843931</v>
+        <v>0.0003483201472612718</v>
       </c>
       <c r="M17" t="n">
-        <v>11.98966448803255</v>
+        <v>11.95891939682913</v>
       </c>
       <c r="N17" t="n">
-        <v>242.1048714330664</v>
+        <v>240.8850592762822</v>
       </c>
       <c r="O17" t="n">
-        <v>15.55971951652942</v>
+        <v>15.52047226331345</v>
       </c>
       <c r="P17" t="n">
-        <v>338.7961318496555</v>
+        <v>338.6736411418876</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33844,28 +34070,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0204385167778847</v>
+        <v>0.02729977035101976</v>
       </c>
       <c r="J18" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001023519666368822</v>
+        <v>0.0001853750286370248</v>
       </c>
       <c r="M18" t="n">
-        <v>11.3542961085187</v>
+        <v>11.3028429602253</v>
       </c>
       <c r="N18" t="n">
-        <v>228.328106651601</v>
+        <v>226.7168528146615</v>
       </c>
       <c r="O18" t="n">
-        <v>15.11052966151753</v>
+        <v>15.05711967192469</v>
       </c>
       <c r="P18" t="n">
-        <v>343.7384595654327</v>
+        <v>343.6737130122668</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33922,28 +34148,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09464384223765131</v>
+        <v>-0.09071574720397742</v>
       </c>
       <c r="J19" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K19" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002234234959255899</v>
+        <v>0.002078423191711143</v>
       </c>
       <c r="M19" t="n">
-        <v>12.28214692590997</v>
+        <v>12.26935861415393</v>
       </c>
       <c r="N19" t="n">
-        <v>217.0818699625547</v>
+        <v>216.3050531043402</v>
       </c>
       <c r="O19" t="n">
-        <v>14.73369844820216</v>
+        <v>14.70731291243714</v>
       </c>
       <c r="P19" t="n">
-        <v>348.096630990603</v>
+        <v>348.0588680897887</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33994,28 +34220,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.01920611156033138</v>
+        <v>-0.01593389250555169</v>
       </c>
       <c r="J20" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L20" t="n">
-        <v>9.850313553982915e-05</v>
+        <v>6.858446893187597e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>11.27192620540008</v>
+        <v>11.26669578672145</v>
       </c>
       <c r="N20" t="n">
-        <v>210.6275109993211</v>
+        <v>209.9430767763196</v>
       </c>
       <c r="O20" t="n">
-        <v>14.51301178251162</v>
+        <v>14.48941257526749</v>
       </c>
       <c r="P20" t="n">
-        <v>348.8548712789997</v>
+        <v>348.8242425121723</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34066,28 +34292,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1182278928710512</v>
+        <v>-0.1100675704185937</v>
       </c>
       <c r="J21" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K21" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00483278133945142</v>
+        <v>0.004249309758155406</v>
       </c>
       <c r="M21" t="n">
-        <v>9.408348241914032</v>
+        <v>9.36932337856039</v>
       </c>
       <c r="N21" t="n">
-        <v>162.4555072350157</v>
+        <v>161.539478261185</v>
       </c>
       <c r="O21" t="n">
-        <v>12.74580351468732</v>
+        <v>12.70981818363996</v>
       </c>
       <c r="P21" t="n">
-        <v>355.5571343340096</v>
+        <v>355.4810295916236</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34144,28 +34370,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.208178596897944</v>
+        <v>-0.1964769557379472</v>
       </c>
       <c r="J22" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K22" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02082211464336647</v>
+        <v>0.01877543465882137</v>
       </c>
       <c r="M22" t="n">
-        <v>8.520741399921514</v>
+        <v>8.505400820508253</v>
       </c>
       <c r="N22" t="n">
-        <v>113.3352885158327</v>
+        <v>113.1273377258373</v>
       </c>
       <c r="O22" t="n">
-        <v>10.64590477675959</v>
+        <v>10.63613358913084</v>
       </c>
       <c r="P22" t="n">
-        <v>358.2660644963302</v>
+        <v>358.155289710916</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34222,28 +34448,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.246526091964552</v>
+        <v>-0.2476316815878903</v>
       </c>
       <c r="J23" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K23" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01851899826414749</v>
+        <v>0.01898637588873531</v>
       </c>
       <c r="M23" t="n">
-        <v>10.0406011890737</v>
+        <v>9.975946048287055</v>
       </c>
       <c r="N23" t="n">
-        <v>180.7057968599944</v>
+        <v>179.2224144993538</v>
       </c>
       <c r="O23" t="n">
-        <v>13.44268562676351</v>
+        <v>13.38739759995772</v>
       </c>
       <c r="P23" t="n">
-        <v>353.4521335364998</v>
+        <v>353.4626318023605</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34300,28 +34526,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08260792247764991</v>
+        <v>-0.07974638950849935</v>
       </c>
       <c r="J24" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K24" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002032079658447872</v>
+        <v>0.001924187394822363</v>
       </c>
       <c r="M24" t="n">
-        <v>9.811750823136896</v>
+        <v>9.746831573109368</v>
       </c>
       <c r="N24" t="n">
-        <v>185.676985896576</v>
+        <v>184.2246173641583</v>
       </c>
       <c r="O24" t="n">
-        <v>13.6263342794963</v>
+        <v>13.57293694688656</v>
       </c>
       <c r="P24" t="n">
-        <v>353.9523536765882</v>
+        <v>353.9250436890543</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34372,28 +34598,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.00984482567975262</v>
+        <v>-0.004042175794207784</v>
       </c>
       <c r="J25" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K25" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L25" t="n">
-        <v>4.689909854216356e-05</v>
+        <v>8.028682994543068e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>7.431988178702613</v>
+        <v>7.39853325895904</v>
       </c>
       <c r="N25" t="n">
-        <v>114.2874258332904</v>
+        <v>113.55335620257</v>
       </c>
       <c r="O25" t="n">
-        <v>10.69052972650515</v>
+        <v>10.65614171276687</v>
       </c>
       <c r="P25" t="n">
-        <v>356.8005923571865</v>
+        <v>356.7460192172493</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34444,28 +34670,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1119062639848217</v>
+        <v>-0.1109617718017658</v>
       </c>
       <c r="J26" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K26" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00326146807992278</v>
+        <v>0.003259560995249711</v>
       </c>
       <c r="M26" t="n">
-        <v>10.22067573760783</v>
+        <v>10.17678743474571</v>
       </c>
       <c r="N26" t="n">
-        <v>217.7299357250099</v>
+        <v>216.0450232724707</v>
       </c>
       <c r="O26" t="n">
-        <v>14.75567469568945</v>
+        <v>14.69847009972367</v>
       </c>
       <c r="P26" t="n">
-        <v>358.2919815717737</v>
+        <v>358.2830666740701</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34522,28 +34748,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.03600454003260491</v>
+        <v>-0.02394494608048781</v>
       </c>
       <c r="J27" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K27" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003994146575779789</v>
+        <v>0.0001792412106297325</v>
       </c>
       <c r="M27" t="n">
-        <v>9.6013657512578</v>
+        <v>9.582174157190959</v>
       </c>
       <c r="N27" t="n">
-        <v>182.7868563172083</v>
+        <v>181.7615176282242</v>
       </c>
       <c r="O27" t="n">
-        <v>13.51986894600714</v>
+        <v>13.48189592113158</v>
       </c>
       <c r="P27" t="n">
-        <v>352.4494147957707</v>
+        <v>352.3366948193284</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34600,28 +34826,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2351809777588176</v>
+        <v>0.2458240651593412</v>
       </c>
       <c r="J28" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K28" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01089578926234935</v>
+        <v>0.01207634164156668</v>
       </c>
       <c r="M28" t="n">
-        <v>12.73009931993867</v>
+        <v>12.67324064545337</v>
       </c>
       <c r="N28" t="n">
-        <v>282.7311968587419</v>
+        <v>280.794839539862</v>
       </c>
       <c r="O28" t="n">
-        <v>16.81461259912764</v>
+        <v>16.75693407338771</v>
       </c>
       <c r="P28" t="n">
-        <v>348.2021136454764</v>
+        <v>348.102767913259</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34678,28 +34904,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1292786152951905</v>
+        <v>0.1314042261183257</v>
       </c>
       <c r="J29" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K29" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004751931446794089</v>
+        <v>0.004984516538538375</v>
       </c>
       <c r="M29" t="n">
-        <v>9.960481047473349</v>
+        <v>9.909429455430065</v>
       </c>
       <c r="N29" t="n">
-        <v>194.6308773356066</v>
+        <v>193.2336715829737</v>
       </c>
       <c r="O29" t="n">
-        <v>13.95101707172658</v>
+        <v>13.90085146971126</v>
       </c>
       <c r="P29" t="n">
-        <v>357.044566967949</v>
+        <v>357.0245703619549</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34750,28 +34976,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.01402600400000235</v>
+        <v>-0.01300434979349154</v>
       </c>
       <c r="J30" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K30" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L30" t="n">
-        <v>9.250366586888159e-05</v>
+        <v>8.079661568149987e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>8.388625515301491</v>
+        <v>8.326428650239277</v>
       </c>
       <c r="N30" t="n">
-        <v>117.9194334254356</v>
+        <v>116.9868095024633</v>
       </c>
       <c r="O30" t="n">
-        <v>10.85907148081435</v>
+        <v>10.81604407824151</v>
       </c>
       <c r="P30" t="n">
-        <v>343.9816241541466</v>
+        <v>343.9718873316422</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -34822,28 +35048,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.04927641983539642</v>
+        <v>0.03572497465604181</v>
       </c>
       <c r="J31" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K31" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000889600308140448</v>
+        <v>0.0004733773453057255</v>
       </c>
       <c r="M31" t="n">
-        <v>8.959476721080817</v>
+        <v>8.957949922048039</v>
       </c>
       <c r="N31" t="n">
-        <v>147.5349565513934</v>
+        <v>147.1507793737736</v>
       </c>
       <c r="O31" t="n">
-        <v>12.14639685468054</v>
+        <v>12.13057209589777</v>
       </c>
       <c r="P31" t="n">
-        <v>348.5907945561001</v>
+        <v>348.7217661266264</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -34900,28 +35126,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1605385004551996</v>
+        <v>0.1658265158818045</v>
       </c>
       <c r="J32" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K32" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01068845810180641</v>
+        <v>0.01149812129162975</v>
       </c>
       <c r="M32" t="n">
-        <v>8.595435783608819</v>
+        <v>8.581302318748243</v>
       </c>
       <c r="N32" t="n">
-        <v>135.414838346784</v>
+        <v>134.8903273522558</v>
       </c>
       <c r="O32" t="n">
-        <v>11.63678814565188</v>
+        <v>11.61422952038816</v>
       </c>
       <c r="P32" t="n">
-        <v>350.0698783928698</v>
+        <v>350.0206420026504</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -34959,7 +35185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG314"/>
+  <dimension ref="A1:AG316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78813,6 +79039,332 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-38.608509584191665,174.62623945862038</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-38.60783262662605,174.62648759910942</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-38.607137413953176,174.626619914372</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-38.60644230185502,174.62675257996224</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-38.60576005894583,174.62697106597744</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-38.60505987628884,174.62704870215845</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-38.60435926114868,174.62711529417246</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-38.603670756871466,174.62731618343184</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-38.60297307940908,174.62741548282648</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-38.60227903376242,174.627567623254</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-38.60157324190392,174.62750737962463</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-38.60087135882574,174.62750215369482</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-38.600177618878945,174.6278294778739</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-38.599472594258486,174.62773062599413</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-38.59807139604194,174.62785472858522</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-38.59737086058245,174.627897395649</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>-38.59667793887826,174.62811559441215</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>-38.59597639833856,174.6281528898627</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>-38.59526828816036,174.62804753716222</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>-38.59456173000033,174.62797607317</t>
+        </is>
+      </c>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>-38.59387093143512,174.62823834004743</t>
+        </is>
+      </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>-38.593167637731455,174.62823868650375</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>-38.592462653222306,174.6282302458527</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>-38.59177318284172,174.62846161234165</t>
+        </is>
+      </c>
+      <c r="AA315" t="inlineStr">
+        <is>
+          <t>-38.5910666417961,174.62843038347054</t>
+        </is>
+      </c>
+      <c r="AB315" t="inlineStr">
+        <is>
+          <t>-38.59036889828354,174.62852592198197</t>
+        </is>
+      </c>
+      <c r="AC315" t="inlineStr">
+        <is>
+          <t>-38.58966702998705,174.62851544914437</t>
+        </is>
+      </c>
+      <c r="AD315" t="inlineStr">
+        <is>
+          <t>-38.588971996487835,174.6287993698692</t>
+        </is>
+      </c>
+      <c r="AE315" t="inlineStr">
+        <is>
+          <t>-38.58826913543948,174.62878227882265</t>
+        </is>
+      </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>-38.58756447767208,174.6286908971214</t>
+        </is>
+      </c>
+      <c r="AG315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.608525754398215,174.62634209296021</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.60785922770544,174.62665643981452</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.607162138971084,174.62677684630253</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.60647510041094,174.6269645948616</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.60577181991582,174.62706838313358</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.60506765431736,174.6271349054916</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.60437036306876,174.62723833506516</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.60367368776415,174.62734866605797</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.602980321221445,174.6274957424194</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.6022870478287,174.62768680263335</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.601576058105294,174.627586926115</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.60087409688531,174.62760561850024</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-38.60017605743952,174.62777047128685</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-38.59947572047355,174.62784876239067</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-38.598775113039764,174.6279170914312</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-38.59807265917716,174.627894828472</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-38.5973728836735,174.6279464147213</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>-38.5966666275807,174.62786973017944</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>-38.59596494759197,174.62790399725586</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>-38.59526436339761,174.62796223067897</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>-38.594567543625594,174.62810243351873</t>
+        </is>
+      </c>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>-38.59387358349012,174.62829058078222</t>
+        </is>
+      </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>-38.59316962895554,174.6282717340344</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>-38.592467156795415,174.6282995511283</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>-38.59176498766894,174.62833549702157</t>
+        </is>
+      </c>
+      <c r="AA316" t="inlineStr">
+        <is>
+          <t>-38.591068734914444,174.62846259409855</t>
+        </is>
+      </c>
+      <c r="AB316" t="inlineStr">
+        <is>
+          <t>-38.590367388768634,174.62849585447748</t>
+        </is>
+      </c>
+      <c r="AC316" t="inlineStr">
+        <is>
+          <t>-38.58966928749292,174.6285912745924</t>
+        </is>
+      </c>
+      <c r="AD316" t="inlineStr">
+        <is>
+          <t>-38.58897163750383,174.62878446839844</t>
+        </is>
+      </c>
+      <c r="AE316" t="inlineStr">
+        <is>
+          <t>-38.58827276266536,174.62893284568906</t>
+        </is>
+      </c>
+      <c r="AF316" t="inlineStr"/>
+      <c r="AG316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG316"/>
+  <dimension ref="A1:AG317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29371,8 +29371,109 @@
       <c r="AE316" t="n">
         <v>335.345</v>
       </c>
-      <c r="AF316" t="inlineStr"/>
+      <c r="AF316" t="n">
+        <v>317.0463636363637</v>
+      </c>
       <c r="AG316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>361.1833333333333</v>
+      </c>
+      <c r="C317" t="n">
+        <v>340.4453846153846</v>
+      </c>
+      <c r="D317" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="E317" t="n">
+        <v>331.15</v>
+      </c>
+      <c r="F317" t="n">
+        <v>340.2309090909091</v>
+      </c>
+      <c r="G317" t="n">
+        <v>344.3685714285714</v>
+      </c>
+      <c r="H317" t="n">
+        <v>353.3633333333333</v>
+      </c>
+      <c r="I317" t="n">
+        <v>337.5553846153846</v>
+      </c>
+      <c r="J317" t="n">
+        <v>339.1220930232558</v>
+      </c>
+      <c r="K317" t="n">
+        <v>331.4402127659574</v>
+      </c>
+      <c r="L317" t="n">
+        <v>350.95</v>
+      </c>
+      <c r="M317" t="n">
+        <v>350.8933333333333</v>
+      </c>
+      <c r="N317" t="n">
+        <v>346.5053846153846</v>
+      </c>
+      <c r="O317" t="n">
+        <v>336.740909090909</v>
+      </c>
+      <c r="P317" t="n">
+        <v>321.2677777777778</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>329.9277777777777</v>
+      </c>
+      <c r="R317" t="n">
+        <v>333.9077777777778</v>
+      </c>
+      <c r="S317" t="n">
+        <v>334.3688888888889</v>
+      </c>
+      <c r="T317" t="n">
+        <v>336.7466666666667</v>
+      </c>
+      <c r="U317" t="n">
+        <v>339.4333333333333</v>
+      </c>
+      <c r="V317" t="n">
+        <v>354.7477777777778</v>
+      </c>
+      <c r="W317" t="n">
+        <v>313.48</v>
+      </c>
+      <c r="X317" t="n">
+        <v>340.0885714285715</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>346.1653846153847</v>
+      </c>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="n">
+        <v>347.7609090909091</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>323.8409090909091</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>333.7703225806452</v>
+      </c>
+      <c r="AE317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr"/>
+      <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29389,7 +29490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32667,6 +32768,16 @@
       </c>
       <c r="B327" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -32840,28 +32951,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2180130568103441</v>
+        <v>-0.2074744520270096</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01579859297147634</v>
+        <v>0.0143963173135202</v>
       </c>
       <c r="M2" t="n">
-        <v>9.94915140216062</v>
+        <v>9.97007243751065</v>
       </c>
       <c r="N2" t="n">
-        <v>173.9707036199405</v>
+        <v>173.9349987573723</v>
       </c>
       <c r="O2" t="n">
-        <v>13.1897954351059</v>
+        <v>13.18844186237981</v>
       </c>
       <c r="P2" t="n">
-        <v>353.7668826125359</v>
+        <v>353.6705474432717</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32918,28 +33029,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0848258316444231</v>
+        <v>-0.08258841879184477</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005763862802107056</v>
+        <v>0.00551213800782846</v>
       </c>
       <c r="M3" t="n">
-        <v>6.565245249496447</v>
+        <v>6.549498875222655</v>
       </c>
       <c r="N3" t="n">
-        <v>71.30188636068486</v>
+        <v>71.02650001111401</v>
       </c>
       <c r="O3" t="n">
-        <v>8.444044431472685</v>
+        <v>8.427722112831795</v>
       </c>
       <c r="P3" t="n">
-        <v>339.8635506573934</v>
+        <v>339.8428773264645</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32996,28 +33107,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0472327924895222</v>
+        <v>-0.05061027445788219</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001517267131160516</v>
+        <v>0.001755404096002611</v>
       </c>
       <c r="M4" t="n">
-        <v>7.173331495971032</v>
+        <v>7.159976398679878</v>
       </c>
       <c r="N4" t="n">
-        <v>82.49909279818174</v>
+        <v>82.21952717233283</v>
       </c>
       <c r="O4" t="n">
-        <v>9.082901122338706</v>
+        <v>9.067498396599408</v>
       </c>
       <c r="P4" t="n">
-        <v>340.712096478106</v>
+        <v>340.744059250723</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33074,28 +33185,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.104118943918719</v>
+        <v>0.09672664897202993</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003964704758556148</v>
+        <v>0.003445524084382146</v>
       </c>
       <c r="M5" t="n">
-        <v>9.564680981993902</v>
+        <v>9.557895491815975</v>
       </c>
       <c r="N5" t="n">
-        <v>156.7613104840027</v>
+        <v>156.4633502112661</v>
       </c>
       <c r="O5" t="n">
-        <v>12.52043571462282</v>
+        <v>12.50853109726582</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8255193898971</v>
+        <v>337.8938405008195</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33152,28 +33263,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09974246510517924</v>
+        <v>-0.103535366330207</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00440145236346845</v>
+        <v>0.004778230236634484</v>
       </c>
       <c r="M6" t="n">
-        <v>8.335905541618809</v>
+        <v>8.32434500687383</v>
       </c>
       <c r="N6" t="n">
-        <v>127.1270244585291</v>
+        <v>126.6916698297062</v>
       </c>
       <c r="O6" t="n">
-        <v>11.2750620600744</v>
+        <v>11.2557394172798</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5583421773547</v>
+        <v>347.5940110589541</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33230,28 +33341,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1424006335855765</v>
+        <v>0.1348914511628331</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01412045288139718</v>
+        <v>0.01273924041987051</v>
       </c>
       <c r="M7" t="n">
-        <v>6.554492750615914</v>
+        <v>6.564376427684859</v>
       </c>
       <c r="N7" t="n">
-        <v>80.79669505811798</v>
+        <v>80.84107900004604</v>
       </c>
       <c r="O7" t="n">
-        <v>8.988698184838446</v>
+        <v>8.991166720734636</v>
       </c>
       <c r="P7" t="n">
-        <v>350.3821649026489</v>
+        <v>350.45159163918</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33308,28 +33419,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04212781785981836</v>
+        <v>0.04570314755007703</v>
       </c>
       <c r="J8" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009416486963398363</v>
+        <v>0.001115568925678212</v>
       </c>
       <c r="M8" t="n">
-        <v>8.006434769989662</v>
+        <v>7.992027204627854</v>
       </c>
       <c r="N8" t="n">
-        <v>106.4602730125109</v>
+        <v>106.1576901647732</v>
       </c>
       <c r="O8" t="n">
-        <v>10.31795876191172</v>
+        <v>10.30328540635332</v>
       </c>
       <c r="P8" t="n">
-        <v>347.2257374334692</v>
+        <v>347.1920300897514</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33386,28 +33497,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.005182098480329562</v>
+        <v>-0.0122782086494783</v>
       </c>
       <c r="J9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K9" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>1.392461965332714e-05</v>
+        <v>7.856157149777054e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.031499632541001</v>
+        <v>8.042475221725619</v>
       </c>
       <c r="N9" t="n">
-        <v>111.922692863741</v>
+        <v>111.8369657266678</v>
       </c>
       <c r="O9" t="n">
-        <v>10.57935219490026</v>
+        <v>10.57529979370173</v>
       </c>
       <c r="P9" t="n">
-        <v>347.2399044959994</v>
+        <v>347.3048603559006</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33458,28 +33569,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.01199538704989457</v>
+        <v>0.0040414306406551</v>
       </c>
       <c r="J10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L10" t="n">
-        <v>6.729141208150491e-05</v>
+        <v>7.670489158950744e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>8.256591063856042</v>
+        <v>8.271398066918275</v>
       </c>
       <c r="N10" t="n">
-        <v>121.262366774645</v>
+        <v>121.2488470482641</v>
       </c>
       <c r="O10" t="n">
-        <v>11.0119193047645</v>
+        <v>11.01130541980668</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7325592550015</v>
+        <v>349.8073737527731</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33530,28 +33641,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.02646188840946817</v>
+        <v>-0.03981448094876201</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002615256433374791</v>
+        <v>0.0005918190807520096</v>
       </c>
       <c r="M11" t="n">
-        <v>9.592870164509108</v>
+        <v>9.626809270322372</v>
       </c>
       <c r="N11" t="n">
-        <v>151.4735486837679</v>
+        <v>152.1102855179843</v>
       </c>
       <c r="O11" t="n">
-        <v>12.30745906691417</v>
+        <v>12.33329986329629</v>
       </c>
       <c r="P11" t="n">
-        <v>349.8645475085655</v>
+        <v>349.990410138373</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33608,28 +33719,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09215149716281409</v>
+        <v>0.09084813261695049</v>
       </c>
       <c r="J12" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003343099802729066</v>
+        <v>0.003274428643680327</v>
       </c>
       <c r="M12" t="n">
-        <v>8.906304535646321</v>
+        <v>8.880654978977175</v>
       </c>
       <c r="N12" t="n">
-        <v>142.4189717997989</v>
+        <v>141.8897828802991</v>
       </c>
       <c r="O12" t="n">
-        <v>11.93394200588384</v>
+        <v>11.91174978247525</v>
       </c>
       <c r="P12" t="n">
-        <v>350.415720977443</v>
+        <v>350.4280742329377</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33686,28 +33797,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1135270587173006</v>
+        <v>0.1118585993296315</v>
       </c>
       <c r="J13" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008589597985067643</v>
+        <v>0.008406907031548783</v>
       </c>
       <c r="M13" t="n">
-        <v>7.197995347394662</v>
+        <v>7.177392701336642</v>
       </c>
       <c r="N13" t="n">
-        <v>83.92145016477959</v>
+        <v>83.60899517319737</v>
       </c>
       <c r="O13" t="n">
-        <v>9.160865142811545</v>
+        <v>9.143795446815144</v>
       </c>
       <c r="P13" t="n">
-        <v>350.2242469707145</v>
+        <v>350.2399647583068</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33764,28 +33875,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05935183137331496</v>
+        <v>0.0641555566367356</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001331721239031802</v>
+        <v>0.001566816287840278</v>
       </c>
       <c r="M14" t="n">
-        <v>9.414024955973282</v>
+        <v>9.403688259677619</v>
       </c>
       <c r="N14" t="n">
-        <v>153.8083419546606</v>
+        <v>153.3440081623777</v>
       </c>
       <c r="O14" t="n">
-        <v>12.40194911917722</v>
+        <v>12.38321477494345</v>
       </c>
       <c r="P14" t="n">
-        <v>338.6275120264615</v>
+        <v>338.5831526800459</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33836,28 +33947,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.007175173825888922</v>
+        <v>0.006067636455047756</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L15" t="n">
-        <v>1.354368299122388e-05</v>
+        <v>9.763043940069771e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>11.44743328590552</v>
+        <v>11.41046886441982</v>
       </c>
       <c r="N15" t="n">
-        <v>216.4001880362958</v>
+        <v>215.5797597025057</v>
       </c>
       <c r="O15" t="n">
-        <v>14.71054682995489</v>
+        <v>14.68263463083195</v>
       </c>
       <c r="P15" t="n">
-        <v>338.0733809658872</v>
+        <v>338.0836837287276</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33914,28 +34025,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1498270714837704</v>
+        <v>-0.1630219500814337</v>
       </c>
       <c r="J16" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K16" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005652935272292936</v>
+        <v>0.006704117384393471</v>
       </c>
       <c r="M16" t="n">
-        <v>11.63850132863112</v>
+        <v>11.66850632756558</v>
       </c>
       <c r="N16" t="n">
-        <v>219.4284278437165</v>
+        <v>219.7725955534746</v>
       </c>
       <c r="O16" t="n">
-        <v>14.81311674981725</v>
+        <v>14.82472918988656</v>
       </c>
       <c r="P16" t="n">
-        <v>342.7825135864533</v>
+        <v>342.9069452053124</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33992,28 +34103,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03882085808282152</v>
+        <v>0.03188862201360942</v>
       </c>
       <c r="J17" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003483201472612718</v>
+        <v>0.0002364842621208618</v>
       </c>
       <c r="M17" t="n">
-        <v>11.95891939682913</v>
+        <v>11.95389453194606</v>
       </c>
       <c r="N17" t="n">
-        <v>240.8850592762822</v>
+        <v>240.3274665977394</v>
       </c>
       <c r="O17" t="n">
-        <v>15.52047226331345</v>
+        <v>15.50249872110104</v>
       </c>
       <c r="P17" t="n">
-        <v>338.6736411418876</v>
+        <v>338.7403411363953</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34070,28 +34181,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02729977035101976</v>
+        <v>0.01953032288457519</v>
       </c>
       <c r="J18" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K18" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001853750286370248</v>
+        <v>9.546182489639232e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>11.3028429602253</v>
+        <v>11.29666582443212</v>
       </c>
       <c r="N18" t="n">
-        <v>226.7168528146615</v>
+        <v>226.2481292398846</v>
       </c>
       <c r="O18" t="n">
-        <v>15.05711967192469</v>
+        <v>15.04154677019237</v>
       </c>
       <c r="P18" t="n">
-        <v>343.6737130122668</v>
+        <v>343.7474316181525</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34148,28 +34259,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09071574720397742</v>
+        <v>-0.09960493549192435</v>
       </c>
       <c r="J19" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K19" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002078423191711143</v>
+        <v>0.002519660311174787</v>
       </c>
       <c r="M19" t="n">
-        <v>12.26935861415393</v>
+        <v>12.26565403876367</v>
       </c>
       <c r="N19" t="n">
-        <v>216.3050531043402</v>
+        <v>215.9487069273656</v>
       </c>
       <c r="O19" t="n">
-        <v>14.70731291243714</v>
+        <v>14.69519332732188</v>
       </c>
       <c r="P19" t="n">
-        <v>348.0588680897887</v>
+        <v>348.1445448501795</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34220,28 +34331,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.01593389250555169</v>
+        <v>-0.02450689808744303</v>
       </c>
       <c r="J20" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K20" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L20" t="n">
-        <v>6.858446893187597e-05</v>
+        <v>0.0001631191911928287</v>
       </c>
       <c r="M20" t="n">
-        <v>11.26669578672145</v>
+        <v>11.27303722625702</v>
       </c>
       <c r="N20" t="n">
-        <v>209.9430767763196</v>
+        <v>209.6511602154725</v>
       </c>
       <c r="O20" t="n">
-        <v>14.48941257526749</v>
+        <v>14.47933562755807</v>
       </c>
       <c r="P20" t="n">
-        <v>348.8242425121723</v>
+        <v>348.9046741367038</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34292,28 +34403,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1100675704185937</v>
+        <v>-0.1197181035456801</v>
       </c>
       <c r="J21" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K21" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004249309758155406</v>
+        <v>0.005042058730901355</v>
       </c>
       <c r="M21" t="n">
-        <v>9.36932337856039</v>
+        <v>9.394673002219097</v>
       </c>
       <c r="N21" t="n">
-        <v>161.539478261185</v>
+        <v>161.5853121327532</v>
       </c>
       <c r="O21" t="n">
-        <v>12.70981818363996</v>
+        <v>12.71162114495052</v>
       </c>
       <c r="P21" t="n">
-        <v>355.4810295916236</v>
+        <v>355.5714638350069</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34370,28 +34481,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1964769557379472</v>
+        <v>-0.1952632151562547</v>
       </c>
       <c r="J22" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K22" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01877543465882137</v>
+        <v>0.01869618103550852</v>
       </c>
       <c r="M22" t="n">
-        <v>8.505400820508253</v>
+        <v>8.476625898454412</v>
       </c>
       <c r="N22" t="n">
-        <v>113.1273377258373</v>
+        <v>112.6812878008313</v>
       </c>
       <c r="O22" t="n">
-        <v>10.63613358913084</v>
+        <v>10.61514426660473</v>
       </c>
       <c r="P22" t="n">
-        <v>358.155289710916</v>
+        <v>358.143735589604</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34448,28 +34559,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2476316815878903</v>
+        <v>-0.2739770413325682</v>
       </c>
       <c r="J23" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01898637588873531</v>
+        <v>0.0227429190433196</v>
       </c>
       <c r="M23" t="n">
-        <v>9.975946048287055</v>
+        <v>10.10101743764029</v>
       </c>
       <c r="N23" t="n">
-        <v>179.2224144993538</v>
+        <v>183.1928810344716</v>
       </c>
       <c r="O23" t="n">
-        <v>13.38739759995772</v>
+        <v>13.53487646912493</v>
       </c>
       <c r="P23" t="n">
-        <v>353.4626318023605</v>
+        <v>353.7136427721051</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34526,28 +34637,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07974638950849935</v>
+        <v>-0.0886484571698767</v>
       </c>
       <c r="J24" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K24" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001924187394822363</v>
+        <v>0.002388542488559353</v>
       </c>
       <c r="M24" t="n">
-        <v>9.746831573109368</v>
+        <v>9.757798516415599</v>
       </c>
       <c r="N24" t="n">
-        <v>184.2246173641583</v>
+        <v>184.0379131165601</v>
       </c>
       <c r="O24" t="n">
-        <v>13.57293694688656</v>
+        <v>13.56605739028699</v>
       </c>
       <c r="P24" t="n">
-        <v>353.9250436890543</v>
+        <v>354.0104841684357</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34598,28 +34709,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.004042175794207784</v>
+        <v>-0.01212666293042874</v>
       </c>
       <c r="J25" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K25" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="n">
-        <v>8.028682994543068e-06</v>
+        <v>7.258697769707556e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>7.39853325895904</v>
+        <v>7.415676827638623</v>
       </c>
       <c r="N25" t="n">
-        <v>113.55335620257</v>
+        <v>113.5328568288653</v>
       </c>
       <c r="O25" t="n">
-        <v>10.65614171276687</v>
+        <v>10.655179812132</v>
       </c>
       <c r="P25" t="n">
-        <v>356.7460192172493</v>
+        <v>356.8224680914059</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34673,7 +34784,7 @@
         <v>-0.1109617718017658</v>
       </c>
       <c r="J26" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K26" t="n">
         <v>222</v>
@@ -34748,28 +34859,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.02394494608048781</v>
+        <v>-0.02704191164571991</v>
       </c>
       <c r="J27" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K27" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0001792412106297325</v>
+        <v>0.0002304521469160825</v>
       </c>
       <c r="M27" t="n">
-        <v>9.582174157190959</v>
+        <v>9.559507359582252</v>
       </c>
       <c r="N27" t="n">
-        <v>181.7615176282242</v>
+        <v>181.07178026914</v>
       </c>
       <c r="O27" t="n">
-        <v>13.48189592113158</v>
+        <v>13.45629147533376</v>
       </c>
       <c r="P27" t="n">
-        <v>352.3366948193284</v>
+        <v>352.3657954881292</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34826,28 +34937,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2458240651593412</v>
+        <v>0.2221981182969387</v>
       </c>
       <c r="J28" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K28" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01207634164156668</v>
+        <v>0.009839824166855582</v>
       </c>
       <c r="M28" t="n">
-        <v>12.67324064545337</v>
+        <v>12.76366437309845</v>
       </c>
       <c r="N28" t="n">
-        <v>280.794839539862</v>
+        <v>283.4136421179881</v>
       </c>
       <c r="O28" t="n">
-        <v>16.75693407338771</v>
+        <v>16.83489358796153</v>
       </c>
       <c r="P28" t="n">
-        <v>348.102767913259</v>
+        <v>348.3244152615497</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -34904,28 +35015,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1314042261183257</v>
+        <v>0.1195793913781013</v>
       </c>
       <c r="J29" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K29" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004984516538538375</v>
+        <v>0.004142817233539375</v>
       </c>
       <c r="M29" t="n">
-        <v>9.909429455430065</v>
+        <v>9.93193181732873</v>
       </c>
       <c r="N29" t="n">
-        <v>193.2336715829737</v>
+        <v>193.4832701945524</v>
       </c>
       <c r="O29" t="n">
-        <v>13.90085146971126</v>
+        <v>13.90982638980632</v>
       </c>
       <c r="P29" t="n">
-        <v>357.0245703619549</v>
+        <v>357.1365238769435</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -34976,28 +35087,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.01300434979349154</v>
+        <v>-0.02037768063500791</v>
       </c>
       <c r="J30" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K30" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" t="n">
-        <v>8.079661568149987e-05</v>
+        <v>0.0001992998273275814</v>
       </c>
       <c r="M30" t="n">
-        <v>8.326428650239277</v>
+        <v>8.338168842217916</v>
       </c>
       <c r="N30" t="n">
-        <v>116.9868095024633</v>
+        <v>116.9046121519054</v>
       </c>
       <c r="O30" t="n">
-        <v>10.81604407824151</v>
+        <v>10.81224362248213</v>
       </c>
       <c r="P30" t="n">
-        <v>343.9718873316422</v>
+        <v>344.0424840462504</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35051,7 +35162,7 @@
         <v>0.03572497465604181</v>
       </c>
       <c r="J31" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K31" t="n">
         <v>225</v>
@@ -35126,28 +35237,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1658265158818045</v>
+        <v>0.1312547821537518</v>
       </c>
       <c r="J32" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K32" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01149812129162975</v>
+        <v>0.006956627822524153</v>
       </c>
       <c r="M32" t="n">
-        <v>8.581302318748243</v>
+        <v>8.724044375375327</v>
       </c>
       <c r="N32" t="n">
-        <v>134.8903273522558</v>
+        <v>141.0246179478642</v>
       </c>
       <c r="O32" t="n">
-        <v>11.61422952038816</v>
+        <v>11.87537864439969</v>
       </c>
       <c r="P32" t="n">
-        <v>350.0206420026504</v>
+        <v>350.3429141989136</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35185,7 +35296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG316"/>
+  <dimension ref="A1:AG317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41240,7 +41351,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>-38.593156415367886,174.62805243647034</t>
+          <t>-38.59315641536788,174.62805243647034</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -66699,7 +66810,7 @@
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>-38.590379664920754,174.6287403834073</t>
+          <t>-38.59037966492075,174.6287403834073</t>
         </is>
       </c>
       <c r="AC217" t="inlineStr">
@@ -68652,7 +68763,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-38.60507344001166,174.62719902839748</t>
+          <t>-38.605073440011665,174.62719902839748</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -73365,7 +73476,7 @@
       </c>
       <c r="AE274" t="inlineStr">
         <is>
-          <t>-38.58826563794377,174.62863710471902</t>
+          <t>-38.58826563794378,174.62863710471902</t>
         </is>
       </c>
       <c r="AF274" t="inlineStr">
@@ -77779,7 +77890,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>-38.60017546111827,174.62774793668487</t>
+          <t>-38.600175461118276,174.62774793668487</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -79358,8 +79469,167 @@
           <t>-38.58827276266536,174.62893284568906</t>
         </is>
       </c>
-      <c r="AF316" t="inlineStr"/>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>-38.58757628181342,174.62918089246568</t>
+        </is>
+      </c>
       <c r="AG316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-38.60849608037349,174.62615374865985</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-38.60784632900286,174.62657456976737</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-38.607168825686095,174.62681928773858</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-38.606488955157054,174.62705415487582</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-38.60577983672865,174.62713471934373</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-38.60507370613805,174.62720197788843</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-38.6043680370283,174.62721255579007</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-38.60368788845186,174.62750605152175</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-38.60298985090822,174.6276013590358</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-38.60229487666721,174.6278032292132</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-38.60157799836243,174.6276417315578</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-38.60087615264722,174.62768330316865</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-38.60017616301572,174.6277744609618</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-38.59947779902985,174.6279273113623</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-38.59878116134198,174.62814566359162</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-38.59807871167621,174.62808697908645</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-38.59737894966862,174.62809339551734</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>-38.59667957222731,174.62815109809347</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>-38.59597796607401,174.62818696695183</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>-38.595276190225064,174.62821929622928</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>-38.59456774926477,174.6281069031837</t>
+        </is>
+      </c>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>-38.59389146098681,174.6286427475687</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>-38.59317805682346,174.6284116096458</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>-38.592475414668634,174.62842663282063</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="inlineStr">
+        <is>
+          <t>-38.5910762178917,174.62857774944658</t>
+        </is>
+      </c>
+      <c r="AB317" t="inlineStr">
+        <is>
+          <t>-38.590389523012135,174.6289367543805</t>
+        </is>
+      </c>
+      <c r="AC317" t="inlineStr">
+        <is>
+          <t>-38.58967416094206,174.62875497038831</t>
+        </is>
+      </c>
+      <c r="AD317" t="inlineStr">
+        <is>
+          <t>-38.5889747295546,174.62891282240088</t>
+        </is>
+      </c>
+      <c r="AE317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr"/>
+      <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG317"/>
+  <dimension ref="A1:AG318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29472,10 +29472,111 @@
         <v>333.7703225806452</v>
       </c>
       <c r="AE317" t="inlineStr"/>
-      <c r="AF317" t="inlineStr"/>
+      <c r="AF317" t="n">
+        <v>214.6309090909091</v>
+      </c>
       <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>363.9933333333333</v>
+      </c>
+      <c r="C318" t="n">
+        <v>348.1653846153847</v>
+      </c>
+      <c r="D318" t="n">
+        <v>350.56</v>
+      </c>
+      <c r="E318" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>340.8109090909091</v>
+      </c>
+      <c r="G318" t="n">
+        <v>350.2985714285714</v>
+      </c>
+      <c r="H318" t="n">
+        <v>357.5133333333333</v>
+      </c>
+      <c r="I318" t="n">
+        <v>372.8853846153846</v>
+      </c>
+      <c r="J318" t="n">
+        <v>367.3420930232558</v>
+      </c>
+      <c r="K318" t="n">
+        <v>339.5702127659574</v>
+      </c>
+      <c r="L318" t="n">
+        <v>351.49</v>
+      </c>
+      <c r="M318" t="n">
+        <v>361.3333333333333</v>
+      </c>
+      <c r="N318" t="n">
+        <v>350.1453846153846</v>
+      </c>
+      <c r="O318" t="n">
+        <v>355.4709090909091</v>
+      </c>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="n">
+        <v>369.3277777777778</v>
+      </c>
+      <c r="R318" t="n">
+        <v>371.1177777777777</v>
+      </c>
+      <c r="S318" t="inlineStr"/>
+      <c r="T318" t="n">
+        <v>374.1266666666667</v>
+      </c>
+      <c r="U318" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="V318" t="n">
+        <v>362.4277777777777</v>
+      </c>
+      <c r="W318" t="inlineStr"/>
+      <c r="X318" t="n">
+        <v>353.8585714285715</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>364.6053846153847</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>360.9333333333333</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>369.1509090909091</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>345.6309090909091</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>352.15</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>361.9803225806452</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>354.3075</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>212.6809090909091</v>
+      </c>
+      <c r="AG318" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -29490,7 +29591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32777,6 +32878,16 @@
         </is>
       </c>
       <c r="B328" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -32951,28 +33062,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2074744520270096</v>
+        <v>-0.1949290293620129</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0143963173135202</v>
+        <v>0.012763907287624</v>
       </c>
       <c r="M2" t="n">
-        <v>9.97007243751065</v>
+        <v>10.0036239857764</v>
       </c>
       <c r="N2" t="n">
-        <v>173.9349987573723</v>
+        <v>174.2265422162825</v>
       </c>
       <c r="O2" t="n">
-        <v>13.18844186237981</v>
+        <v>13.19949022562169</v>
       </c>
       <c r="P2" t="n">
-        <v>353.6705474432717</v>
+        <v>353.5557311412244</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33029,28 +33140,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08258841879184477</v>
+        <v>-0.07417152963292743</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00551213800782846</v>
+        <v>0.004461221257301751</v>
       </c>
       <c r="M3" t="n">
-        <v>6.549498875222655</v>
+        <v>6.569042184144212</v>
       </c>
       <c r="N3" t="n">
-        <v>71.02650001111401</v>
+        <v>71.1821101154634</v>
       </c>
       <c r="O3" t="n">
-        <v>8.427722112831795</v>
+        <v>8.436949099968745</v>
       </c>
       <c r="P3" t="n">
-        <v>339.8428773264645</v>
+        <v>339.7650177709464</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33107,28 +33218,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05061027445788219</v>
+        <v>-0.04169168219536056</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001755404096002611</v>
+        <v>0.001194723177391888</v>
       </c>
       <c r="M4" t="n">
-        <v>7.159976398679878</v>
+        <v>7.177933194551228</v>
       </c>
       <c r="N4" t="n">
-        <v>82.21952717233283</v>
+        <v>82.38769710180607</v>
       </c>
       <c r="O4" t="n">
-        <v>9.067498396599408</v>
+        <v>9.076766885946013</v>
       </c>
       <c r="P4" t="n">
-        <v>340.744059250723</v>
+        <v>340.659562543663</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33185,28 +33296,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09672664897202993</v>
+        <v>0.09997495236329816</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003445524084382146</v>
+        <v>0.003709976858097375</v>
       </c>
       <c r="M5" t="n">
-        <v>9.557895491815975</v>
+        <v>9.537543329419044</v>
       </c>
       <c r="N5" t="n">
-        <v>156.4633502112661</v>
+        <v>155.8795702856818</v>
       </c>
       <c r="O5" t="n">
-        <v>12.50853109726582</v>
+        <v>12.48517401903881</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8938405008195</v>
+        <v>337.8637845109805</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33263,28 +33374,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.103535366330207</v>
+        <v>-0.1067841566853165</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004778230236634484</v>
+        <v>0.00512159304841131</v>
       </c>
       <c r="M6" t="n">
-        <v>8.32434500687383</v>
+        <v>8.309816786335187</v>
       </c>
       <c r="N6" t="n">
-        <v>126.6916698297062</v>
+        <v>126.2363971546455</v>
       </c>
       <c r="O6" t="n">
-        <v>11.2557394172798</v>
+        <v>11.23549719214265</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5940110589541</v>
+        <v>347.6245976948343</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33341,28 +33452,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1348914511628331</v>
+        <v>0.1321245089245373</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01273924041987051</v>
+        <v>0.01232390679561113</v>
       </c>
       <c r="M7" t="n">
-        <v>6.564376427684859</v>
+        <v>6.551416245817123</v>
       </c>
       <c r="N7" t="n">
-        <v>80.84107900004604</v>
+        <v>80.56528770009375</v>
       </c>
       <c r="O7" t="n">
-        <v>8.991166720734636</v>
+        <v>8.975816826344762</v>
       </c>
       <c r="P7" t="n">
-        <v>350.45159163918</v>
+        <v>350.477202339861</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33419,28 +33530,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04570314755007703</v>
+        <v>0.05210710452019276</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001115568925678212</v>
+        <v>0.00145635105740427</v>
       </c>
       <c r="M8" t="n">
-        <v>7.992027204627854</v>
+        <v>7.989855131610313</v>
       </c>
       <c r="N8" t="n">
-        <v>106.1576901647732</v>
+        <v>106.0712762640067</v>
       </c>
       <c r="O8" t="n">
-        <v>10.30328540635332</v>
+        <v>10.29909104066988</v>
       </c>
       <c r="P8" t="n">
-        <v>347.1920300897514</v>
+        <v>347.1315862116153</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33497,28 +33608,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0122782086494783</v>
+        <v>0.006763614701072844</v>
       </c>
       <c r="J9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>7.856157149777054e-05</v>
+        <v>2.34879058165216e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.042475221725619</v>
+        <v>8.098360782574352</v>
       </c>
       <c r="N9" t="n">
-        <v>111.8369657266678</v>
+        <v>113.9961195823673</v>
       </c>
       <c r="O9" t="n">
-        <v>10.57529979370173</v>
+        <v>10.67689653328004</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3048603559006</v>
+        <v>347.1303560948544</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33569,28 +33680,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.0040414306406551</v>
+        <v>0.01662179227825611</v>
       </c>
       <c r="J10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L10" t="n">
-        <v>7.670489158950744e-06</v>
+        <v>0.0001295119792099619</v>
       </c>
       <c r="M10" t="n">
-        <v>8.271398066918275</v>
+        <v>8.299173102781531</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2488470482641</v>
+        <v>121.9376806213221</v>
       </c>
       <c r="O10" t="n">
-        <v>11.01130541980668</v>
+        <v>11.04253959111409</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8073737527731</v>
+        <v>349.6889079428358</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33641,28 +33752,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.03981448094876201</v>
+        <v>-0.04681966128834109</v>
       </c>
       <c r="J11" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005918190807520096</v>
+        <v>0.0008229261987140468</v>
       </c>
       <c r="M11" t="n">
-        <v>9.626809270322372</v>
+        <v>9.626539498113646</v>
       </c>
       <c r="N11" t="n">
-        <v>152.1102855179843</v>
+        <v>151.8535633185855</v>
       </c>
       <c r="O11" t="n">
-        <v>12.33329986329629</v>
+        <v>12.32288778325055</v>
       </c>
       <c r="P11" t="n">
-        <v>349.990410138373</v>
+        <v>350.0565171325152</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33719,28 +33830,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09084813261695049</v>
+        <v>0.08995538104390717</v>
       </c>
       <c r="J12" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003274428643680327</v>
+        <v>0.003235088270912456</v>
       </c>
       <c r="M12" t="n">
-        <v>8.880654978977175</v>
+        <v>8.852610316370024</v>
       </c>
       <c r="N12" t="n">
-        <v>141.8897828802991</v>
+        <v>141.3581937374359</v>
       </c>
       <c r="O12" t="n">
-        <v>11.91174978247525</v>
+        <v>11.8894151974534</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4280742329377</v>
+        <v>350.4365453540486</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33797,28 +33908,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1118585993296315</v>
+        <v>0.1179921237407799</v>
       </c>
       <c r="J13" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008406907031548783</v>
+        <v>0.009390683976935987</v>
       </c>
       <c r="M13" t="n">
-        <v>7.177392701336642</v>
+        <v>7.184604239102325</v>
       </c>
       <c r="N13" t="n">
-        <v>83.60899517319737</v>
+        <v>83.54420528856949</v>
       </c>
       <c r="O13" t="n">
-        <v>9.143795446815144</v>
+        <v>9.140251926974962</v>
       </c>
       <c r="P13" t="n">
-        <v>350.2399647583068</v>
+        <v>350.1821181764521</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33875,28 +33986,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0641555566367356</v>
+        <v>0.07156982432188075</v>
       </c>
       <c r="J14" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001566816287840278</v>
+        <v>0.001959929969708063</v>
       </c>
       <c r="M14" t="n">
-        <v>9.403688259677619</v>
+        <v>9.408558515831558</v>
       </c>
       <c r="N14" t="n">
-        <v>153.3440081623777</v>
+        <v>153.1164743092253</v>
       </c>
       <c r="O14" t="n">
-        <v>12.38321477494345</v>
+        <v>12.37402417604011</v>
       </c>
       <c r="P14" t="n">
-        <v>338.5831526800459</v>
+        <v>338.5146054992145</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33947,28 +34058,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.006067636455047756</v>
+        <v>0.01854244281784722</v>
       </c>
       <c r="J15" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K15" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L15" t="n">
-        <v>9.763043940069771e-06</v>
+        <v>9.141865488837553e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>11.41046886441982</v>
+        <v>11.41993084905358</v>
       </c>
       <c r="N15" t="n">
-        <v>215.5797597025057</v>
+        <v>215.8771298491125</v>
       </c>
       <c r="O15" t="n">
-        <v>14.68263463083195</v>
+        <v>14.69275773464983</v>
       </c>
       <c r="P15" t="n">
-        <v>338.0836837287276</v>
+        <v>337.9675069755869</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34028,7 +34139,7 @@
         <v>-0.1630219500814337</v>
       </c>
       <c r="J16" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K16" t="n">
         <v>262</v>
@@ -34103,28 +34214,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03188862201360942</v>
+        <v>0.05290039035535014</v>
       </c>
       <c r="J17" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002364842621208618</v>
+        <v>0.0006464734828387497</v>
       </c>
       <c r="M17" t="n">
-        <v>11.95389453194606</v>
+        <v>12.0127752561653</v>
       </c>
       <c r="N17" t="n">
-        <v>240.3274665977394</v>
+        <v>242.7286792803103</v>
       </c>
       <c r="O17" t="n">
-        <v>15.50249872110104</v>
+        <v>15.57975222140295</v>
       </c>
       <c r="P17" t="n">
-        <v>338.7403411363953</v>
+        <v>338.5379395035167</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34181,28 +34292,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01953032288457519</v>
+        <v>0.03929554333657523</v>
       </c>
       <c r="J18" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>9.546182489639232e-05</v>
+        <v>0.0003846007623149461</v>
       </c>
       <c r="M18" t="n">
-        <v>11.29666582443212</v>
+        <v>11.36526248637103</v>
       </c>
       <c r="N18" t="n">
-        <v>226.2481292398846</v>
+        <v>228.1670960089821</v>
       </c>
       <c r="O18" t="n">
-        <v>15.04154677019237</v>
+        <v>15.10520095890757</v>
       </c>
       <c r="P18" t="n">
-        <v>343.7474316181525</v>
+        <v>343.5596778336312</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34262,7 +34373,7 @@
         <v>-0.09960493549192435</v>
       </c>
       <c r="J19" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K19" t="n">
         <v>248</v>
@@ -34331,28 +34442,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.02450689808744303</v>
+        <v>-0.005707028564901575</v>
       </c>
       <c r="J20" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001631191911928287</v>
+        <v>8.810005733050907e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>11.27303722625702</v>
+        <v>11.31993614074525</v>
       </c>
       <c r="N20" t="n">
-        <v>209.6511602154725</v>
+        <v>211.3907905539239</v>
       </c>
       <c r="O20" t="n">
-        <v>14.47933562755807</v>
+        <v>14.53928438933374</v>
       </c>
       <c r="P20" t="n">
-        <v>348.9046741367038</v>
+        <v>348.728093509433</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34403,28 +34514,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1197181035456801</v>
+        <v>-0.1199984644491045</v>
       </c>
       <c r="J21" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K21" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005042058730901355</v>
+        <v>0.005105154378177268</v>
       </c>
       <c r="M21" t="n">
-        <v>9.394673002219097</v>
+        <v>9.360316805454904</v>
       </c>
       <c r="N21" t="n">
-        <v>161.5853121327532</v>
+        <v>160.9644040958156</v>
       </c>
       <c r="O21" t="n">
-        <v>12.71162114495052</v>
+        <v>12.68717478778532</v>
       </c>
       <c r="P21" t="n">
-        <v>355.5714638350069</v>
+        <v>355.5740940834114</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34481,28 +34592,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1952632151562547</v>
+        <v>-0.1882799992393128</v>
       </c>
       <c r="J22" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K22" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01869618103550852</v>
+        <v>0.01749224100894586</v>
       </c>
       <c r="M22" t="n">
-        <v>8.476625898454412</v>
+        <v>8.474150080882147</v>
       </c>
       <c r="N22" t="n">
-        <v>112.6812878008313</v>
+        <v>112.5688304239029</v>
       </c>
       <c r="O22" t="n">
-        <v>10.61514426660473</v>
+        <v>10.60984591895202</v>
       </c>
       <c r="P22" t="n">
-        <v>358.143735589604</v>
+        <v>358.0771834111787</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34562,7 +34673,7 @@
         <v>-0.2739770413325682</v>
       </c>
       <c r="J23" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K23" t="n">
         <v>237</v>
@@ -34637,28 +34748,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0886484571698767</v>
+        <v>-0.08707595834426507</v>
       </c>
       <c r="J24" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K24" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002388542488559353</v>
+        <v>0.002322779942654396</v>
       </c>
       <c r="M24" t="n">
-        <v>9.757798516415599</v>
+        <v>9.726620099763707</v>
       </c>
       <c r="N24" t="n">
-        <v>184.0379131165601</v>
+        <v>183.3192960494565</v>
       </c>
       <c r="O24" t="n">
-        <v>13.56605739028699</v>
+        <v>13.53954563674337</v>
       </c>
       <c r="P24" t="n">
-        <v>354.0104841684357</v>
+        <v>353.9953742098017</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34709,28 +34820,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01212666293042874</v>
+        <v>-0.005946957193805958</v>
       </c>
       <c r="J25" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K25" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L25" t="n">
-        <v>7.258697769707556e-05</v>
+        <v>1.756341269054662e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>7.415676827638623</v>
+        <v>7.414309517463761</v>
       </c>
       <c r="N25" t="n">
-        <v>113.5328568288653</v>
+        <v>113.3382125182182</v>
       </c>
       <c r="O25" t="n">
-        <v>10.655179812132</v>
+        <v>10.64604210578834</v>
       </c>
       <c r="P25" t="n">
-        <v>356.8224680914059</v>
+        <v>356.7639665173142</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34781,28 +34892,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1109617718017658</v>
+        <v>-0.1064528229539244</v>
       </c>
       <c r="J26" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K26" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003259560995249711</v>
+        <v>0.00302536293300415</v>
       </c>
       <c r="M26" t="n">
-        <v>10.17678743474571</v>
+        <v>10.14837749591372</v>
       </c>
       <c r="N26" t="n">
-        <v>216.0450232724707</v>
+        <v>215.2089445489613</v>
       </c>
       <c r="O26" t="n">
-        <v>14.69847009972367</v>
+        <v>14.67000151836943</v>
       </c>
       <c r="P26" t="n">
-        <v>358.2830666740701</v>
+        <v>358.2404755011115</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34859,28 +34970,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.02704191164571991</v>
+        <v>-0.01354000773673141</v>
       </c>
       <c r="J27" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K27" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0002304521469160825</v>
+        <v>5.78701571971596e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>9.559507359582252</v>
+        <v>9.588564752837035</v>
       </c>
       <c r="N27" t="n">
-        <v>181.07178026914</v>
+        <v>181.5696182843236</v>
       </c>
       <c r="O27" t="n">
-        <v>13.45629147533376</v>
+        <v>13.47477711445809</v>
       </c>
       <c r="P27" t="n">
-        <v>352.3657954881292</v>
+        <v>352.2387786828741</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34937,28 +35048,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2221981182969387</v>
+        <v>0.2157978633456661</v>
       </c>
       <c r="J28" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K28" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009839824166855582</v>
+        <v>0.009353821695875841</v>
       </c>
       <c r="M28" t="n">
-        <v>12.76366437309845</v>
+        <v>12.74996116931905</v>
       </c>
       <c r="N28" t="n">
-        <v>283.4136421179881</v>
+        <v>282.5381662651358</v>
       </c>
       <c r="O28" t="n">
-        <v>16.83489358796153</v>
+        <v>16.80887165353867</v>
       </c>
       <c r="P28" t="n">
-        <v>348.3244152615497</v>
+        <v>348.3845281280527</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35015,28 +35126,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1195793913781013</v>
+        <v>0.1137611575843045</v>
       </c>
       <c r="J29" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K29" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004142817233539375</v>
+        <v>0.00377557567226261</v>
       </c>
       <c r="M29" t="n">
-        <v>9.93193181732873</v>
+        <v>9.923785139342217</v>
       </c>
       <c r="N29" t="n">
-        <v>193.4832701945524</v>
+        <v>192.9881989008989</v>
       </c>
       <c r="O29" t="n">
-        <v>13.90982638980632</v>
+        <v>13.89201925210654</v>
       </c>
       <c r="P29" t="n">
-        <v>357.1365238769435</v>
+        <v>357.1916709474499</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35087,28 +35198,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02037768063500791</v>
+        <v>-0.006724151586433086</v>
       </c>
       <c r="J30" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K30" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001992998273275814</v>
+        <v>2.162863939447757e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>8.338168842217916</v>
+        <v>8.368010569442374</v>
       </c>
       <c r="N30" t="n">
-        <v>116.9046121519054</v>
+        <v>117.7731875533719</v>
       </c>
       <c r="O30" t="n">
-        <v>10.81224362248213</v>
+        <v>10.85233558057305</v>
       </c>
       <c r="P30" t="n">
-        <v>344.0424840462504</v>
+        <v>343.911606860169</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35159,28 +35270,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.03572497465604181</v>
+        <v>0.03970643579263588</v>
       </c>
       <c r="J31" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K31" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0004733773453057255</v>
+        <v>0.0005896460423804317</v>
       </c>
       <c r="M31" t="n">
-        <v>8.957949922048039</v>
+        <v>8.936532240552429</v>
       </c>
       <c r="N31" t="n">
-        <v>147.1507793737736</v>
+        <v>146.5951078757139</v>
       </c>
       <c r="O31" t="n">
-        <v>12.13057209589777</v>
+        <v>12.10764666959331</v>
       </c>
       <c r="P31" t="n">
-        <v>348.7217661266264</v>
+        <v>348.6830685442447</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35237,28 +35348,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1312547821537518</v>
+        <v>-0.1238590837883752</v>
       </c>
       <c r="J32" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K32" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006956627822524153</v>
+        <v>0.002700644595127644</v>
       </c>
       <c r="M32" t="n">
-        <v>8.724044375375327</v>
+        <v>10.17960402961814</v>
       </c>
       <c r="N32" t="n">
-        <v>141.0246179478642</v>
+        <v>328.0863111521475</v>
       </c>
       <c r="O32" t="n">
-        <v>11.87537864439969</v>
+        <v>18.11315298759848</v>
       </c>
       <c r="P32" t="n">
-        <v>350.3429141989136</v>
+        <v>352.7336174666589</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35296,7 +35407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG317"/>
+  <dimension ref="A1:AG318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79628,10 +79739,169 @@
         </is>
       </c>
       <c r="AE317" t="inlineStr"/>
-      <c r="AF317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>-38.587604581915855,174.63035599086143</t>
+        </is>
+      </c>
       <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-38.60849109624241,174.62612211403663</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-38.60783263617667,174.62648765972818</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-38.607141848154264,174.6266480585415</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-38.606465689600434,174.62690376166273</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-38.60577904128298,174.62712813730548</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-38.605067602856145,174.62713433514813</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-38.604363765744445,174.62716521774448</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-38.603651526126754,174.62710305464336</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-38.60296080654559,174.62727946651088</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-38.60228862280385,174.6277102247368</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-38.60157777909055,174.6276355378612</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-38.60087298244034,174.62756350583766</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-38.60017505772891,174.62773269294917</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-38.59947211172034,174.6277123917853</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-38.59806447424993,174.62763499498806</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-38.59736134263002,174.62766678438038</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr"/>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>-38.59595825617302,174.62775855842668</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>-38.595269493874326,174.62807374417105</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>-38.594563699723224,174.62801888516992</t>
+        </is>
+      </c>
+      <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>-38.593168559942306,174.6282539920398</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>-38.5924617056081,174.62821566314358</t>
+        </is>
+      </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>-38.591765433735695,174.62834236147742</t>
+        </is>
+      </c>
+      <c r="AA318" t="inlineStr">
+        <is>
+          <t>-38.59106031575303,174.62833303395524</t>
+        </is>
+      </c>
+      <c r="AB318" t="inlineStr">
+        <is>
+          <t>-38.59037699107537,174.62868712214924</t>
+        </is>
+      </c>
+      <c r="AC318" t="inlineStr">
+        <is>
+          <t>-38.58967144590937,174.62866377335945</t>
+        </is>
+      </c>
+      <c r="AD318" t="inlineStr">
+        <is>
+          <t>-38.58896693174851,174.62858913921647</t>
+        </is>
+      </c>
+      <c r="AE318" t="inlineStr">
+        <is>
+          <t>-38.5882675211268,174.6287152709762</t>
+        </is>
+      </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>-38.58760512063779,174.6303783648516</t>
+        </is>
+      </c>
+      <c r="AG318" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG318"/>
+  <dimension ref="A1:AG319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29529,14 +29529,18 @@
       <c r="O318" t="n">
         <v>355.4709090909091</v>
       </c>
-      <c r="P318" t="inlineStr"/>
+      <c r="P318" t="n">
+        <v>366.6277777777778</v>
+      </c>
       <c r="Q318" t="n">
         <v>369.3277777777778</v>
       </c>
       <c r="R318" t="n">
         <v>371.1177777777777</v>
       </c>
-      <c r="S318" t="inlineStr"/>
+      <c r="S318" t="n">
+        <v>375.4688888888889</v>
+      </c>
       <c r="T318" t="n">
         <v>374.1266666666667</v>
       </c>
@@ -29546,7 +29550,9 @@
       <c r="V318" t="n">
         <v>362.4277777777777</v>
       </c>
-      <c r="W318" t="inlineStr"/>
+      <c r="W318" t="n">
+        <v>359.57</v>
+      </c>
       <c r="X318" t="n">
         <v>353.8585714285715</v>
       </c>
@@ -29577,6 +29583,109 @@
       <c r="AG318" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>373.14</v>
+      </c>
+      <c r="C319" t="n">
+        <v>356.3023076923077</v>
+      </c>
+      <c r="D319" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="E319" t="n">
+        <v>361.3</v>
+      </c>
+      <c r="F319" t="n">
+        <v>360.3663636363637</v>
+      </c>
+      <c r="G319" t="n">
+        <v>359.2928571428571</v>
+      </c>
+      <c r="H319" t="n">
+        <v>363.34</v>
+      </c>
+      <c r="I319" t="n">
+        <v>349.7423076923077</v>
+      </c>
+      <c r="J319" t="n">
+        <v>347.3144186046512</v>
+      </c>
+      <c r="K319" t="n">
+        <v>345.98</v>
+      </c>
+      <c r="L319" t="n">
+        <v>362.1482352941176</v>
+      </c>
+      <c r="M319" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="N319" t="n">
+        <v>344.4923076923077</v>
+      </c>
+      <c r="O319" t="n">
+        <v>345.6263636363636</v>
+      </c>
+      <c r="P319" t="n">
+        <v>349.0033333333333</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>355.6733333333333</v>
+      </c>
+      <c r="R319" t="n">
+        <v>359.1533333333333</v>
+      </c>
+      <c r="S319" t="n">
+        <v>345.2466666666667</v>
+      </c>
+      <c r="T319" t="n">
+        <v>345.22</v>
+      </c>
+      <c r="U319" t="n">
+        <v>355.23</v>
+      </c>
+      <c r="V319" t="n">
+        <v>356.6833333333333</v>
+      </c>
+      <c r="W319" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="X319" t="n">
+        <v>354.6928571428572</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>362.8523076923077</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>338.05</v>
+      </c>
+      <c r="AA319" t="inlineStr"/>
+      <c r="AB319" t="n">
+        <v>351.4963636363636</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>366.7303225806452</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>355.8075</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>238.1663636363636</v>
+      </c>
+      <c r="AG319" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -29591,7 +29700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32889,6 +32998,16 @@
       </c>
       <c r="B329" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -33062,28 +33181,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1949290293620129</v>
+        <v>-0.1752416703847963</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012763907287624</v>
+        <v>0.01027937884771424</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0036239857764</v>
+        <v>10.0838543201473</v>
       </c>
       <c r="N2" t="n">
-        <v>174.2265422162825</v>
+        <v>176.0675360724036</v>
       </c>
       <c r="O2" t="n">
-        <v>13.19949022562169</v>
+        <v>13.26904427878676</v>
       </c>
       <c r="P2" t="n">
-        <v>353.5557311412244</v>
+        <v>353.374479439714</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33140,28 +33259,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07417152963292743</v>
+        <v>-0.05933703793205421</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004461221257301751</v>
+        <v>0.002828232032918154</v>
       </c>
       <c r="M3" t="n">
-        <v>6.569042184144212</v>
+        <v>6.624560337034195</v>
       </c>
       <c r="N3" t="n">
-        <v>71.1821101154634</v>
+        <v>72.31120056795558</v>
       </c>
       <c r="O3" t="n">
-        <v>8.436949099968745</v>
+        <v>8.503599271364777</v>
       </c>
       <c r="P3" t="n">
-        <v>339.7650177709464</v>
+        <v>339.6270087822257</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33218,28 +33337,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04169168219536056</v>
+        <v>-0.02586842987167764</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001194723177391888</v>
+        <v>0.0004552478270821725</v>
       </c>
       <c r="M4" t="n">
-        <v>7.177933194551228</v>
+        <v>7.234075377133104</v>
       </c>
       <c r="N4" t="n">
-        <v>82.38769710180607</v>
+        <v>83.6713111665796</v>
       </c>
       <c r="O4" t="n">
-        <v>9.076766885946013</v>
+        <v>9.147202368297075</v>
       </c>
       <c r="P4" t="n">
-        <v>340.659562543663</v>
+        <v>340.5088001662219</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33296,28 +33415,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09997495236329816</v>
+        <v>0.1163019701034222</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003709976858097375</v>
+        <v>0.004999908173918488</v>
       </c>
       <c r="M5" t="n">
-        <v>9.537543329419044</v>
+        <v>9.595207673452524</v>
       </c>
       <c r="N5" t="n">
-        <v>155.8795702856818</v>
+        <v>157.0232715369813</v>
       </c>
       <c r="O5" t="n">
-        <v>12.48517401903881</v>
+        <v>12.53089268715447</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8637845109805</v>
+        <v>337.7118456785578</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33374,28 +33493,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1067841566853165</v>
+        <v>-0.09468930069277827</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00512159304841131</v>
+        <v>0.004034709583310092</v>
       </c>
       <c r="M6" t="n">
-        <v>8.309816786335187</v>
+        <v>8.329208986211114</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2363971546455</v>
+        <v>126.6916828356582</v>
       </c>
       <c r="O6" t="n">
-        <v>11.23549719214265</v>
+        <v>11.25573999502735</v>
       </c>
       <c r="P6" t="n">
-        <v>347.6245976948343</v>
+        <v>347.5100822712424</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33452,28 +33571,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1321245089245373</v>
+        <v>0.1363038433609129</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01232390679561113</v>
+        <v>0.01319748794853182</v>
       </c>
       <c r="M7" t="n">
-        <v>6.551416245817123</v>
+        <v>6.548143199338702</v>
       </c>
       <c r="N7" t="n">
-        <v>80.56528770009375</v>
+        <v>80.35807220640446</v>
       </c>
       <c r="O7" t="n">
-        <v>8.975816826344762</v>
+        <v>8.964266406483269</v>
       </c>
       <c r="P7" t="n">
-        <v>350.477202339861</v>
+        <v>350.4383015643067</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33530,28 +33649,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05210710452019276</v>
+        <v>0.0624982620870488</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00145635105740427</v>
+        <v>0.002093682795741736</v>
       </c>
       <c r="M8" t="n">
-        <v>7.989855131610313</v>
+        <v>8.004272279827479</v>
       </c>
       <c r="N8" t="n">
-        <v>106.0712762640067</v>
+        <v>106.4887529293806</v>
       </c>
       <c r="O8" t="n">
-        <v>10.29909104066988</v>
+        <v>10.31933878353553</v>
       </c>
       <c r="P8" t="n">
-        <v>347.1315862116153</v>
+        <v>347.0329504202934</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33608,28 +33727,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006763614701072844</v>
+        <v>0.008553329212620997</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>2.34879058165216e-05</v>
+        <v>3.786258470739323e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.098360782574352</v>
+        <v>8.074896625202573</v>
       </c>
       <c r="N9" t="n">
-        <v>113.9961195823673</v>
+        <v>113.5737788938536</v>
       </c>
       <c r="O9" t="n">
-        <v>10.67689653328004</v>
+        <v>10.65709992886684</v>
       </c>
       <c r="P9" t="n">
-        <v>347.1303560948544</v>
+        <v>347.113860399213</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33680,28 +33799,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.01662179227825611</v>
+        <v>0.01460433100965057</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001295119792099619</v>
+        <v>0.0001007461636355345</v>
       </c>
       <c r="M10" t="n">
-        <v>8.299173102781531</v>
+        <v>8.27903480123017</v>
       </c>
       <c r="N10" t="n">
-        <v>121.9376806213221</v>
+        <v>121.5001699844752</v>
       </c>
       <c r="O10" t="n">
-        <v>11.04253959111409</v>
+        <v>11.02271155317398</v>
       </c>
       <c r="P10" t="n">
-        <v>349.6889079428358</v>
+        <v>349.7080144803442</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33752,28 +33871,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.04681966128834109</v>
+        <v>-0.04895965004545307</v>
       </c>
       <c r="J11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008229261987140468</v>
+        <v>0.0009068970042201974</v>
       </c>
       <c r="M11" t="n">
-        <v>9.626539498113646</v>
+        <v>9.599945114630444</v>
       </c>
       <c r="N11" t="n">
-        <v>151.8535633185855</v>
+        <v>151.2857156096982</v>
       </c>
       <c r="O11" t="n">
-        <v>12.32288778325055</v>
+        <v>12.29982583655956</v>
       </c>
       <c r="P11" t="n">
-        <v>350.0565171325152</v>
+        <v>350.076827370919</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33830,28 +33949,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08995538104390717</v>
+        <v>0.09665570197810319</v>
       </c>
       <c r="J12" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003235088270912456</v>
+        <v>0.003753097761995838</v>
       </c>
       <c r="M12" t="n">
-        <v>8.852610316370024</v>
+        <v>8.848008130777533</v>
       </c>
       <c r="N12" t="n">
-        <v>141.3581937374359</v>
+        <v>141.1551229588644</v>
       </c>
       <c r="O12" t="n">
-        <v>11.8894151974534</v>
+        <v>11.88087214638994</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4365453540486</v>
+        <v>350.3726058554253</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33908,28 +34027,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1179921237407799</v>
+        <v>0.1270958386445606</v>
       </c>
       <c r="J13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009390683976935987</v>
+        <v>0.01089139123471417</v>
       </c>
       <c r="M13" t="n">
-        <v>7.184604239102325</v>
+        <v>7.208399230698371</v>
       </c>
       <c r="N13" t="n">
-        <v>83.54420528856949</v>
+        <v>83.79891455897764</v>
       </c>
       <c r="O13" t="n">
-        <v>9.140251926974962</v>
+        <v>9.154174706601227</v>
       </c>
       <c r="P13" t="n">
-        <v>350.1821181764521</v>
+        <v>350.0957732786653</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33986,28 +34105,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07156982432188075</v>
+        <v>0.07466013549790788</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001959929969708063</v>
+        <v>0.002148920520920194</v>
       </c>
       <c r="M14" t="n">
-        <v>9.408558515831558</v>
+        <v>9.388193086693551</v>
       </c>
       <c r="N14" t="n">
-        <v>153.1164743092253</v>
+        <v>152.565342974591</v>
       </c>
       <c r="O14" t="n">
-        <v>12.37402417604011</v>
+        <v>12.35173441159544</v>
       </c>
       <c r="P14" t="n">
-        <v>338.5146054992145</v>
+        <v>338.4858655226939</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34058,28 +34177,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.01854244281784722</v>
+        <v>0.02373408534096121</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>9.141865488837553e-05</v>
+        <v>0.0001508320325476209</v>
       </c>
       <c r="M15" t="n">
-        <v>11.41993084905358</v>
+        <v>11.39867220757805</v>
       </c>
       <c r="N15" t="n">
-        <v>215.8771298491125</v>
+        <v>215.2502665543162</v>
       </c>
       <c r="O15" t="n">
-        <v>14.69275773464983</v>
+        <v>14.67140983526519</v>
       </c>
       <c r="P15" t="n">
-        <v>337.9675069755869</v>
+        <v>337.9188850808536</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34136,28 +34255,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1630219500814337</v>
+        <v>-0.1351307412522486</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006704117384393471</v>
+        <v>0.004622055067883157</v>
       </c>
       <c r="M16" t="n">
-        <v>11.66850632756558</v>
+        <v>11.70681839119937</v>
       </c>
       <c r="N16" t="n">
-        <v>219.7725955534746</v>
+        <v>221.3851829395534</v>
       </c>
       <c r="O16" t="n">
-        <v>14.82472918988656</v>
+        <v>14.8790182115472</v>
       </c>
       <c r="P16" t="n">
-        <v>342.9069452053124</v>
+        <v>342.6432607483989</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34214,28 +34333,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05290039035535014</v>
+        <v>0.06402763630346837</v>
       </c>
       <c r="J17" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006464734828387497</v>
+        <v>0.000950243339843726</v>
       </c>
       <c r="M17" t="n">
-        <v>12.0127752561653</v>
+        <v>12.02394653349651</v>
       </c>
       <c r="N17" t="n">
-        <v>242.7286792803103</v>
+        <v>242.7420395638465</v>
       </c>
       <c r="O17" t="n">
-        <v>15.57975222140295</v>
+        <v>15.58018098623525</v>
       </c>
       <c r="P17" t="n">
-        <v>338.5379395035167</v>
+        <v>338.4301386329471</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34292,28 +34411,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03929554333657523</v>
+        <v>0.05000846258391238</v>
       </c>
       <c r="J18" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003846007623149461</v>
+        <v>0.0006254152606333108</v>
       </c>
       <c r="M18" t="n">
-        <v>11.36526248637103</v>
+        <v>11.38276819224351</v>
       </c>
       <c r="N18" t="n">
-        <v>228.1670960089821</v>
+        <v>228.0970907444083</v>
       </c>
       <c r="O18" t="n">
-        <v>15.10520095890757</v>
+        <v>15.10288352416214</v>
       </c>
       <c r="P18" t="n">
-        <v>343.5596778336312</v>
+        <v>343.45732842768</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34370,28 +34489,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09960493549192435</v>
+        <v>-0.07707326180387329</v>
       </c>
       <c r="J19" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K19" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002519660311174787</v>
+        <v>0.001510598527032392</v>
       </c>
       <c r="M19" t="n">
-        <v>12.26565403876367</v>
+        <v>12.28966163421298</v>
       </c>
       <c r="N19" t="n">
-        <v>215.9487069273656</v>
+        <v>217.7463727374156</v>
       </c>
       <c r="O19" t="n">
-        <v>14.69519332732188</v>
+        <v>14.75623165775787</v>
       </c>
       <c r="P19" t="n">
-        <v>348.1445448501795</v>
+        <v>347.9271681645612</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34442,28 +34561,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.005707028564901575</v>
+        <v>-0.008148440020497196</v>
       </c>
       <c r="J20" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K20" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" t="n">
-        <v>8.810005733050907e-06</v>
+        <v>1.809913220984782e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>11.31993614074525</v>
+        <v>11.29004324277476</v>
       </c>
       <c r="N20" t="n">
-        <v>211.3907905539239</v>
+        <v>210.6207152884307</v>
       </c>
       <c r="O20" t="n">
-        <v>14.53928438933374</v>
+        <v>14.51277765586005</v>
       </c>
       <c r="P20" t="n">
-        <v>348.728093509433</v>
+        <v>348.751155261123</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34514,28 +34633,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1199984644491045</v>
+        <v>-0.1180347946598585</v>
       </c>
       <c r="J21" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K21" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005105154378177268</v>
+        <v>0.004978187331472816</v>
       </c>
       <c r="M21" t="n">
-        <v>9.360316805454904</v>
+        <v>9.332814309842679</v>
       </c>
       <c r="N21" t="n">
-        <v>160.9644040958156</v>
+        <v>160.375817726479</v>
       </c>
       <c r="O21" t="n">
-        <v>12.68717478778532</v>
+        <v>12.66395742753737</v>
       </c>
       <c r="P21" t="n">
-        <v>355.5740940834114</v>
+        <v>355.5555661648723</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34592,28 +34711,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1882799992393128</v>
+        <v>-0.1857029844351311</v>
       </c>
       <c r="J22" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K22" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01749224100894586</v>
+        <v>0.01715406363571592</v>
       </c>
       <c r="M22" t="n">
-        <v>8.474150080882147</v>
+        <v>8.451985610720763</v>
       </c>
       <c r="N22" t="n">
-        <v>112.5688304239029</v>
+        <v>112.1648534117466</v>
       </c>
       <c r="O22" t="n">
-        <v>10.60984591895202</v>
+        <v>10.59079097195987</v>
       </c>
       <c r="P22" t="n">
-        <v>358.0771834111787</v>
+        <v>358.0524836075091</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34670,28 +34789,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2739770413325682</v>
+        <v>-0.2615555592031205</v>
       </c>
       <c r="J23" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K23" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0227429190433196</v>
+        <v>0.02102429167124242</v>
       </c>
       <c r="M23" t="n">
-        <v>10.10101743764029</v>
+        <v>10.07098141782294</v>
       </c>
       <c r="N23" t="n">
-        <v>183.1928810344716</v>
+        <v>182.3834379132467</v>
       </c>
       <c r="O23" t="n">
-        <v>13.53487646912493</v>
+        <v>13.50494124064398</v>
       </c>
       <c r="P23" t="n">
-        <v>353.7136427721051</v>
+        <v>353.5950162899782</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34748,28 +34867,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08707595834426507</v>
+        <v>-0.08489551095448453</v>
       </c>
       <c r="J24" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K24" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002322779942654396</v>
+        <v>0.00222532639469919</v>
       </c>
       <c r="M24" t="n">
-        <v>9.726620099763707</v>
+        <v>9.698605498220214</v>
       </c>
       <c r="N24" t="n">
-        <v>183.3192960494565</v>
+        <v>182.6226243217766</v>
       </c>
       <c r="O24" t="n">
-        <v>13.53954563674337</v>
+        <v>13.51379385375464</v>
       </c>
       <c r="P24" t="n">
-        <v>353.9953742098017</v>
+        <v>353.9743020316392</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34820,28 +34939,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.005946957193805958</v>
+        <v>-0.001191669662783676</v>
       </c>
       <c r="J25" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K25" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="n">
-        <v>1.756341269054662e-05</v>
+        <v>7.101881546178745e-07</v>
       </c>
       <c r="M25" t="n">
-        <v>7.414309517463761</v>
+        <v>7.406266386241683</v>
       </c>
       <c r="N25" t="n">
-        <v>113.3382125182182</v>
+        <v>113.0411041164939</v>
       </c>
       <c r="O25" t="n">
-        <v>10.64604210578834</v>
+        <v>10.63207901195688</v>
       </c>
       <c r="P25" t="n">
-        <v>356.7639665173142</v>
+        <v>356.7187002504579</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34892,28 +35011,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1064528229539244</v>
+        <v>-0.1207902977864359</v>
       </c>
       <c r="J26" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K26" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00302536293300415</v>
+        <v>0.003901725850841697</v>
       </c>
       <c r="M26" t="n">
-        <v>10.14837749591372</v>
+        <v>10.20312612724267</v>
       </c>
       <c r="N26" t="n">
-        <v>215.2089445489613</v>
+        <v>215.592271122025</v>
       </c>
       <c r="O26" t="n">
-        <v>14.67000151836943</v>
+        <v>14.68306068645175</v>
       </c>
       <c r="P26" t="n">
-        <v>358.2404755011115</v>
+        <v>358.3767062113255</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34973,7 +35092,7 @@
         <v>-0.01354000773673141</v>
       </c>
       <c r="J27" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K27" t="n">
         <v>242</v>
@@ -35048,28 +35167,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2157978633456661</v>
+        <v>0.2139565039524437</v>
       </c>
       <c r="J28" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K28" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009353821695875841</v>
+        <v>0.009271866368607107</v>
       </c>
       <c r="M28" t="n">
-        <v>12.74996116931905</v>
+        <v>12.70902362424665</v>
       </c>
       <c r="N28" t="n">
-        <v>282.5381662651358</v>
+        <v>281.4129330093221</v>
       </c>
       <c r="O28" t="n">
-        <v>16.80887165353867</v>
+        <v>16.77536685170617</v>
       </c>
       <c r="P28" t="n">
-        <v>348.3845281280527</v>
+        <v>348.4019215505094</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35126,28 +35245,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1137611575843045</v>
+        <v>0.1180629710090948</v>
       </c>
       <c r="J29" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K29" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00377557567226261</v>
+        <v>0.004094490307343879</v>
       </c>
       <c r="M29" t="n">
-        <v>9.923785139342217</v>
+        <v>9.909022005055728</v>
       </c>
       <c r="N29" t="n">
-        <v>192.9881989008989</v>
+        <v>192.3873633216025</v>
       </c>
       <c r="O29" t="n">
-        <v>13.89201925210654</v>
+        <v>13.87037718743086</v>
       </c>
       <c r="P29" t="n">
-        <v>357.1916709474499</v>
+        <v>357.1506678709097</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35198,28 +35317,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.006724151586433086</v>
+        <v>0.01025756928125749</v>
       </c>
       <c r="J30" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K30" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="n">
-        <v>2.162863939447757e-05</v>
+        <v>4.985566467829994e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>8.368010569442374</v>
+        <v>8.414660285801265</v>
       </c>
       <c r="N30" t="n">
-        <v>117.7731875533719</v>
+        <v>119.3660090744455</v>
       </c>
       <c r="O30" t="n">
-        <v>10.85233558057305</v>
+        <v>10.92547523334548</v>
       </c>
       <c r="P30" t="n">
-        <v>343.911606860169</v>
+        <v>343.7478942794463</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35270,28 +35389,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.03970643579263588</v>
+        <v>0.04489149643166275</v>
       </c>
       <c r="J31" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K31" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0005896460423804317</v>
+        <v>0.000759611545371075</v>
       </c>
       <c r="M31" t="n">
-        <v>8.936532240552429</v>
+        <v>8.920547851908291</v>
       </c>
       <c r="N31" t="n">
-        <v>146.5951078757139</v>
+        <v>146.1114940154519</v>
       </c>
       <c r="O31" t="n">
-        <v>12.10764666959331</v>
+        <v>12.08765874830407</v>
       </c>
       <c r="P31" t="n">
-        <v>348.6830685442447</v>
+        <v>348.6323960214727</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35348,28 +35467,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1238590837883752</v>
+        <v>-0.2249776155677423</v>
       </c>
       <c r="J32" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K32" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002700644595127644</v>
+        <v>0.007559653978902237</v>
       </c>
       <c r="M32" t="n">
-        <v>10.17960402961814</v>
+        <v>10.89465266609928</v>
       </c>
       <c r="N32" t="n">
-        <v>328.0863111521475</v>
+        <v>386.7052294151475</v>
       </c>
       <c r="O32" t="n">
-        <v>18.11315298759848</v>
+        <v>19.66482213026977</v>
       </c>
       <c r="P32" t="n">
-        <v>352.7336174666589</v>
+        <v>353.6873504968008</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35407,7 +35526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG318"/>
+  <dimension ref="A1:AG319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79826,7 +79945,11 @@
           <t>-38.59947211172034,174.6277123917853</t>
         </is>
       </c>
-      <c r="P318" t="inlineStr"/>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-38.59876738805131,174.6276251800301</t>
+        </is>
+      </c>
       <c r="Q318" t="inlineStr">
         <is>
           <t>-38.59806447424993,174.62763499498806</t>
@@ -79837,7 +79960,11 @@
           <t>-38.59736134263002,174.62766678438038</t>
         </is>
       </c>
-      <c r="S318" t="inlineStr"/>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>-38.596657900765706,174.62768005042759</t>
+        </is>
+      </c>
       <c r="T318" t="inlineStr">
         <is>
           <t>-38.59595825617302,174.62775855842668</t>
@@ -79853,7 +79980,11 @@
           <t>-38.594563699723224,174.62801888516992</t>
         </is>
       </c>
-      <c r="W318" t="inlineStr"/>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>-38.593864655974855,174.62811472656642</t>
+        </is>
+      </c>
       <c r="X318" t="inlineStr">
         <is>
           <t>-38.593168559942306,174.6282539920398</t>
@@ -79902,6 +80033,169 @@
       <c r="AG318" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-38.608474872628854,174.62601914205297</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-38.60781820379073,174.62639605609536</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-38.6071262574729,174.62654910365578</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-38.606436411318676,174.62671450291649</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-38.605752221578584,174.62690621540057</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-38.60505834567116,174.6270317385177</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-38.604357768760735,174.6270987543764</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-38.60367534559082,174.62736703953794</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-38.60298141936028,174.62750791293266</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-38.60228369213231,174.6276368989277</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-38.60157345115027,174.62751328994898</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-38.60087172930424,174.62751615299908</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-38.60017677428056,174.62779756047374</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-38.599475101036994,174.62782535417176</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-38.59877273988329,174.62782741179788</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>-38.59806940856351,174.62779163435968</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>-38.59736700413952,174.62780395623273</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>-38.596673836710714,174.62802642771157</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>-38.59597349835321,174.62808985489133</t>
+        </is>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>-38.59526786106203,174.62803825392166</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>-38.59456672868345,174.62808472040228</t>
+        </is>
+      </c>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>-38.593870175362504,174.62822344685605</t>
+        </is>
+      </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>-38.593167984546035,174.62824444243176</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>-38.59246300893461,174.62823571986914</t>
+        </is>
+      </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>-38.59178244592364,174.62860416425025</t>
+        </is>
+      </c>
+      <c r="AA319" t="inlineStr"/>
+      <c r="AB319" t="inlineStr">
+        <is>
+          <t>-38.59037361762444,174.62861992590086</t>
+        </is>
+      </c>
+      <c r="AC319" t="inlineStr">
+        <is>
+          <t>-38.58966669869988,174.6285043219609</t>
+        </is>
+      </c>
+      <c r="AD319" t="inlineStr">
+        <is>
+          <t>-38.58896561866562,174.62853463744335</t>
+        </is>
+      </c>
+      <c r="AE319" t="inlineStr">
+        <is>
+          <t>-38.58826710648549,174.62869806005702</t>
+        </is>
+      </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>-38.58759807949286,174.6300859488101</t>
+        </is>
+      </c>
+      <c r="AG319" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG319"/>
+  <dimension ref="A1:AG322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29371,9 +29371,7 @@
       <c r="AE316" t="n">
         <v>335.345</v>
       </c>
-      <c r="AF316" t="n">
-        <v>317.0463636363637</v>
-      </c>
+      <c r="AF316" t="inlineStr"/>
       <c r="AG316" t="inlineStr">
         <is>
           <t>L9</t>
@@ -29472,9 +29470,7 @@
         <v>333.7703225806452</v>
       </c>
       <c r="AE317" t="inlineStr"/>
-      <c r="AF317" t="n">
-        <v>214.6309090909091</v>
-      </c>
+      <c r="AF317" t="inlineStr"/>
       <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
@@ -29577,9 +29573,7 @@
       <c r="AE318" t="n">
         <v>354.3075</v>
       </c>
-      <c r="AF318" t="n">
-        <v>212.6809090909091</v>
-      </c>
+      <c r="AF318" t="inlineStr"/>
       <c r="AG318" t="inlineStr">
         <is>
           <t>L8</t>
@@ -29680,10 +29674,321 @@
       <c r="AE319" t="n">
         <v>355.8075</v>
       </c>
-      <c r="AF319" t="n">
-        <v>238.1663636363636</v>
-      </c>
+      <c r="AF319" t="inlineStr"/>
       <c r="AG319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>348.5133333333333</v>
+      </c>
+      <c r="C320" t="n">
+        <v>336.2076923076923</v>
+      </c>
+      <c r="D320" t="n">
+        <v>332.76</v>
+      </c>
+      <c r="E320" t="n">
+        <v>344.84</v>
+      </c>
+      <c r="F320" t="n">
+        <v>343.1718181818182</v>
+      </c>
+      <c r="G320" t="n">
+        <v>341.6528571428572</v>
+      </c>
+      <c r="H320" t="n">
+        <v>347.3533333333333</v>
+      </c>
+      <c r="I320" t="n">
+        <v>343.5476923076924</v>
+      </c>
+      <c r="J320" t="n">
+        <v>352.2753488372093</v>
+      </c>
+      <c r="K320" t="n">
+        <v>335.2078723404256</v>
+      </c>
+      <c r="L320" t="n">
+        <v>350.6388235294117</v>
+      </c>
+      <c r="M320" t="n">
+        <v>347.6433333333333</v>
+      </c>
+      <c r="N320" t="n">
+        <v>348.1276923076923</v>
+      </c>
+      <c r="O320" t="n">
+        <v>347.2918181818182</v>
+      </c>
+      <c r="P320" t="n">
+        <v>339.7211111111111</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>347.5311111111111</v>
+      </c>
+      <c r="R320" t="n">
+        <v>357.0911111111111</v>
+      </c>
+      <c r="S320" t="n">
+        <v>366.3255555555555</v>
+      </c>
+      <c r="T320" t="n">
+        <v>366.7766666666667</v>
+      </c>
+      <c r="U320" t="n">
+        <v>351.5033333333333</v>
+      </c>
+      <c r="V320" t="n">
+        <v>348.4711111111111</v>
+      </c>
+      <c r="W320" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="X320" t="n">
+        <v>348.5028571428572</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>352.1876923076923</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>362.5833333333333</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>348.0218181818182</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>351.8718181818182</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>362.42</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>345.8703225806452</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>352.11</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>335.7318181818182</v>
+      </c>
+      <c r="AG320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>367.4166666666667</v>
+      </c>
+      <c r="C321" t="n">
+        <v>340.5476923076924</v>
+      </c>
+      <c r="D321" t="n">
+        <v>355.78</v>
+      </c>
+      <c r="E321" t="n">
+        <v>360.48</v>
+      </c>
+      <c r="F321" t="n">
+        <v>352.7636363636364</v>
+      </c>
+      <c r="G321" t="n">
+        <v>361.6842857142857</v>
+      </c>
+      <c r="H321" t="n">
+        <v>360.8766666666667</v>
+      </c>
+      <c r="I321" t="n">
+        <v>348.1176923076923</v>
+      </c>
+      <c r="J321" t="n">
+        <v>346.5625581395349</v>
+      </c>
+      <c r="K321" t="n">
+        <v>347.0606382978723</v>
+      </c>
+      <c r="L321" t="n">
+        <v>363.1488235294117</v>
+      </c>
+      <c r="M321" t="n">
+        <v>363.6066666666667</v>
+      </c>
+      <c r="N321" t="n">
+        <v>336.4476923076923</v>
+      </c>
+      <c r="O321" t="n">
+        <v>336.9536363636363</v>
+      </c>
+      <c r="P321" t="n">
+        <v>341.6222222222222</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>343.4122222222222</v>
+      </c>
+      <c r="R321" t="n">
+        <v>356.2422222222222</v>
+      </c>
+      <c r="S321" t="n">
+        <v>334.4311111111111</v>
+      </c>
+      <c r="T321" t="n">
+        <v>347.5433333333333</v>
+      </c>
+      <c r="U321" t="n">
+        <v>358.1266666666667</v>
+      </c>
+      <c r="V321" t="n">
+        <v>369.8722222222222</v>
+      </c>
+      <c r="W321" t="inlineStr"/>
+      <c r="X321" t="n">
+        <v>352.2442857142857</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>361.6376923076923</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>367.2166666666667</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>361.1836363636364</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>361.4736363636364</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>363.82</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>351.8345161290322</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>355.8275</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>324.7936363636364</v>
+      </c>
+      <c r="AG321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>351.14</v>
+      </c>
+      <c r="C322" t="n">
+        <v>344.37</v>
+      </c>
+      <c r="D322" t="n">
+        <v>354.54</v>
+      </c>
+      <c r="E322" t="n">
+        <v>359.7</v>
+      </c>
+      <c r="F322" t="n">
+        <v>360.0218181818182</v>
+      </c>
+      <c r="G322" t="n">
+        <v>351.3628571428572</v>
+      </c>
+      <c r="H322" t="n">
+        <v>357.41</v>
+      </c>
+      <c r="I322" t="n">
+        <v>343.4</v>
+      </c>
+      <c r="J322" t="n">
+        <v>344.1137209302326</v>
+      </c>
+      <c r="K322" t="n">
+        <v>348.2774468085106</v>
+      </c>
+      <c r="L322" t="n">
+        <v>339.6264705882353</v>
+      </c>
+      <c r="M322" t="n">
+        <v>346.33</v>
+      </c>
+      <c r="N322" t="n">
+        <v>332.87</v>
+      </c>
+      <c r="O322" t="n">
+        <v>344.9818181818182</v>
+      </c>
+      <c r="P322" t="n">
+        <v>351.6833333333333</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>340.3133333333333</v>
+      </c>
+      <c r="R322" t="n">
+        <v>344.4533333333333</v>
+      </c>
+      <c r="S322" t="n">
+        <v>339.8766666666667</v>
+      </c>
+      <c r="T322" t="n">
+        <v>344.54</v>
+      </c>
+      <c r="U322" t="n">
+        <v>353.09</v>
+      </c>
+      <c r="V322" t="n">
+        <v>354.8833333333333</v>
+      </c>
+      <c r="W322" t="n">
+        <v>348.59</v>
+      </c>
+      <c r="X322" t="n">
+        <v>357.2828571428572</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>363.07</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>358.79</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>358.7718181818182</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>363.1618181818182</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>360.9500000000001</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>344.1867741935484</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>351.555</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>352.7618181818182</v>
+      </c>
+      <c r="AG322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29700,7 +30005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33008,6 +33313,36 @@
       </c>
       <c r="B330" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -33181,28 +33516,28 @@
         <v>0.066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1752416703847963</v>
+        <v>-0.1594308934481768</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01027937884771424</v>
+        <v>0.008671144198050484</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0838543201473</v>
+        <v>10.0578957827288</v>
       </c>
       <c r="N2" t="n">
-        <v>176.0675360724036</v>
+        <v>175.2711507932825</v>
       </c>
       <c r="O2" t="n">
-        <v>13.26904427878676</v>
+        <v>13.2390011252089</v>
       </c>
       <c r="P2" t="n">
-        <v>353.374479439714</v>
+        <v>353.2285329277249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33259,28 +33594,28 @@
         <v>0.0745</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05933703793205421</v>
+        <v>-0.05402389833221832</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002828232032918154</v>
+        <v>0.002400472075040572</v>
       </c>
       <c r="M3" t="n">
-        <v>6.624560337034195</v>
+        <v>6.586789010164767</v>
       </c>
       <c r="N3" t="n">
-        <v>72.31120056795558</v>
+        <v>71.59943192636983</v>
       </c>
       <c r="O3" t="n">
-        <v>8.503599271364777</v>
+        <v>8.461644753023483</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6270087822257</v>
+        <v>339.577345143479</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33337,28 +33672,28 @@
         <v>0.0537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02586842987167764</v>
+        <v>-0.007586040952847224</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004552478270821725</v>
+        <v>3.915902174111974e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.234075377133104</v>
+        <v>7.30415627269758</v>
       </c>
       <c r="N4" t="n">
-        <v>83.6713111665796</v>
+        <v>84.76805972179243</v>
       </c>
       <c r="O4" t="n">
-        <v>9.147202368297075</v>
+        <v>9.206957136958573</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5088001662219</v>
+        <v>340.3339046282092</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33415,28 +33750,28 @@
         <v>0.0531</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1163019701034222</v>
+        <v>0.148819734471841</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004999908173918488</v>
+        <v>0.008206568144360271</v>
       </c>
       <c r="M5" t="n">
-        <v>9.595207673452524</v>
+        <v>9.670904564826641</v>
       </c>
       <c r="N5" t="n">
-        <v>157.0232715369813</v>
+        <v>158.1592441384496</v>
       </c>
       <c r="O5" t="n">
-        <v>12.53089268715447</v>
+        <v>12.57613788642799</v>
       </c>
       <c r="P5" t="n">
-        <v>337.7118456785578</v>
+        <v>337.4082690104807</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33493,28 +33828,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09468930069277827</v>
+        <v>-0.07898342562789976</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004034709583310092</v>
+        <v>0.002855596338638411</v>
       </c>
       <c r="M6" t="n">
-        <v>8.329208986211114</v>
+        <v>8.314764507779241</v>
       </c>
       <c r="N6" t="n">
-        <v>126.6916828356582</v>
+        <v>126.2859409797503</v>
       </c>
       <c r="O6" t="n">
-        <v>11.25573999502735</v>
+        <v>11.2377017659195</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5100822712424</v>
+        <v>347.3607801579802</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33571,28 +33906,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1363038433609129</v>
+        <v>0.1310356445163617</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01319748794853182</v>
+        <v>0.01238212038835207</v>
       </c>
       <c r="M7" t="n">
-        <v>6.548143199338702</v>
+        <v>6.558134257466857</v>
       </c>
       <c r="N7" t="n">
-        <v>80.35807220640446</v>
+        <v>80.26141718493706</v>
       </c>
       <c r="O7" t="n">
-        <v>8.964266406483269</v>
+        <v>8.958873656042766</v>
       </c>
       <c r="P7" t="n">
-        <v>350.4383015643067</v>
+        <v>350.4873891289106</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33649,28 +33984,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0624982620870488</v>
+        <v>0.07591177278955724</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002093682795741736</v>
+        <v>0.003130850079307579</v>
       </c>
       <c r="M8" t="n">
-        <v>8.004272279827479</v>
+        <v>7.983210180294189</v>
       </c>
       <c r="N8" t="n">
-        <v>106.4887529293806</v>
+        <v>106.1397920624103</v>
       </c>
       <c r="O8" t="n">
-        <v>10.31933878353553</v>
+        <v>10.30241680686674</v>
       </c>
       <c r="P8" t="n">
-        <v>347.0329504202934</v>
+        <v>346.9051986371769</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33727,28 +34062,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008553329212620997</v>
+        <v>0.003617868382840851</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>3.786258470739323e-05</v>
+        <v>6.931374010421543e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>8.074896625202573</v>
+        <v>8.017567639487284</v>
       </c>
       <c r="N9" t="n">
-        <v>113.5737788938536</v>
+        <v>112.3735186823599</v>
       </c>
       <c r="O9" t="n">
-        <v>10.65709992886684</v>
+        <v>10.60063765451682</v>
       </c>
       <c r="P9" t="n">
-        <v>347.113860399213</v>
+        <v>347.159484943076</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33799,28 +34134,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.01460433100965057</v>
+        <v>0.009484499569503707</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K10" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001007461636355345</v>
+        <v>4.34113249253576e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>8.27903480123017</v>
+        <v>8.231332334085092</v>
       </c>
       <c r="N10" t="n">
-        <v>121.5001699844752</v>
+        <v>120.3173163153596</v>
       </c>
       <c r="O10" t="n">
-        <v>11.02271155317398</v>
+        <v>10.96892503007289</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7080144803442</v>
+        <v>349.7567210709156</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33871,28 +34206,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.04895965004545307</v>
+        <v>-0.06040913392882126</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0009068970042201974</v>
+        <v>0.001406223737599466</v>
       </c>
       <c r="M11" t="n">
-        <v>9.599945114630444</v>
+        <v>9.54933034156474</v>
       </c>
       <c r="N11" t="n">
-        <v>151.2857156096982</v>
+        <v>150.2387745406584</v>
       </c>
       <c r="O11" t="n">
-        <v>12.29982583655956</v>
+        <v>12.25719276754096</v>
       </c>
       <c r="P11" t="n">
-        <v>350.076827370919</v>
+        <v>350.1856370563926</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33949,28 +34284,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09665570197810319</v>
+        <v>0.09307147607703352</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K12" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003753097761995838</v>
+        <v>0.003533407559710988</v>
       </c>
       <c r="M12" t="n">
-        <v>8.848008130777533</v>
+        <v>8.848279230766169</v>
       </c>
       <c r="N12" t="n">
-        <v>141.1551229588644</v>
+        <v>140.640766978864</v>
       </c>
       <c r="O12" t="n">
-        <v>11.88087214638994</v>
+        <v>11.85920600119856</v>
       </c>
       <c r="P12" t="n">
-        <v>350.3726058554253</v>
+        <v>350.4070717918062</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34027,28 +34362,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1270958386445606</v>
+        <v>0.1252981317200608</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K13" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01089139123471417</v>
+        <v>0.01074748226494571</v>
       </c>
       <c r="M13" t="n">
-        <v>7.208399230698371</v>
+        <v>7.212808974266694</v>
       </c>
       <c r="N13" t="n">
-        <v>83.79891455897764</v>
+        <v>83.54944552171673</v>
       </c>
       <c r="O13" t="n">
-        <v>9.154174706601227</v>
+        <v>9.140538579411869</v>
       </c>
       <c r="P13" t="n">
-        <v>350.0957732786653</v>
+        <v>350.1129278683251</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34105,28 +34440,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07466013549790788</v>
+        <v>0.0719172969045776</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K14" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002148920520920194</v>
+        <v>0.002035272616520811</v>
       </c>
       <c r="M14" t="n">
-        <v>9.388193086693551</v>
+        <v>9.351383194153673</v>
       </c>
       <c r="N14" t="n">
-        <v>152.565342974591</v>
+        <v>151.2623121142966</v>
       </c>
       <c r="O14" t="n">
-        <v>12.35173441159544</v>
+        <v>12.29887442469011</v>
       </c>
       <c r="P14" t="n">
-        <v>338.4858655226939</v>
+        <v>338.5116191033854</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34177,28 +34512,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.02373408534096121</v>
+        <v>0.03330145330955844</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K15" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001508320325476209</v>
+        <v>0.0003032992021759773</v>
       </c>
       <c r="M15" t="n">
-        <v>11.39867220757805</v>
+        <v>11.32328175439475</v>
       </c>
       <c r="N15" t="n">
-        <v>215.2502665543162</v>
+        <v>213.2693782775724</v>
       </c>
       <c r="O15" t="n">
-        <v>14.67140983526519</v>
+        <v>14.60374535102459</v>
       </c>
       <c r="P15" t="n">
-        <v>337.9188850808536</v>
+        <v>337.829052021624</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34255,28 +34590,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1351307412522486</v>
+        <v>-0.1240359067889502</v>
       </c>
       <c r="J16" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K16" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004622055067883157</v>
+        <v>0.00397995089428449</v>
       </c>
       <c r="M16" t="n">
-        <v>11.70681839119937</v>
+        <v>11.62566839429387</v>
       </c>
       <c r="N16" t="n">
-        <v>221.3851829395534</v>
+        <v>219.4967804390866</v>
       </c>
       <c r="O16" t="n">
-        <v>14.8790182115472</v>
+        <v>14.81542373471264</v>
       </c>
       <c r="P16" t="n">
-        <v>342.6432607483989</v>
+        <v>342.5375389508087</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34333,28 +34668,28 @@
         <v>0.0518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06402763630346837</v>
+        <v>0.07157957745635821</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K17" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000950243339843726</v>
+        <v>0.00121256341576903</v>
       </c>
       <c r="M17" t="n">
-        <v>12.02394653349651</v>
+        <v>11.92782302515129</v>
       </c>
       <c r="N17" t="n">
-        <v>242.7420395638465</v>
+        <v>240.2786344670577</v>
       </c>
       <c r="O17" t="n">
-        <v>15.58018098623525</v>
+        <v>15.50092366496454</v>
       </c>
       <c r="P17" t="n">
-        <v>338.4301386329471</v>
+        <v>338.3568641873518</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34411,28 +34746,28 @@
         <v>0.0486</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05000846258391238</v>
+        <v>0.06677164923669024</v>
       </c>
       <c r="J18" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006254152606333108</v>
+        <v>0.001135153647395581</v>
       </c>
       <c r="M18" t="n">
-        <v>11.38276819224351</v>
+        <v>11.3504831425467</v>
       </c>
       <c r="N18" t="n">
-        <v>228.0970907444083</v>
+        <v>226.5249389044232</v>
       </c>
       <c r="O18" t="n">
-        <v>15.10288352416214</v>
+        <v>15.05074546009012</v>
       </c>
       <c r="P18" t="n">
-        <v>343.45732842768</v>
+        <v>343.2969160505299</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34489,28 +34824,28 @@
         <v>0.1124</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07707326180387329</v>
+        <v>-0.07504763431962833</v>
       </c>
       <c r="J19" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001510598527032392</v>
+        <v>0.00145210256645556</v>
       </c>
       <c r="M19" t="n">
-        <v>12.28966163421298</v>
+        <v>12.2943879486655</v>
       </c>
       <c r="N19" t="n">
-        <v>217.7463727374156</v>
+        <v>217.4747688799141</v>
       </c>
       <c r="O19" t="n">
-        <v>14.75623165775787</v>
+        <v>14.74702576385876</v>
       </c>
       <c r="P19" t="n">
-        <v>347.9271681645612</v>
+        <v>347.907738446342</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34561,28 +34896,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.008148440020497196</v>
+        <v>0.001132418319860488</v>
       </c>
       <c r="J20" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K20" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L20" t="n">
-        <v>1.809913220984782e-05</v>
+        <v>3.555483668593595e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>11.29004324277476</v>
+        <v>11.24749511830403</v>
       </c>
       <c r="N20" t="n">
-        <v>210.6207152884307</v>
+        <v>209.5395515834313</v>
       </c>
       <c r="O20" t="n">
-        <v>14.51277765586005</v>
+        <v>14.47548104842914</v>
       </c>
       <c r="P20" t="n">
-        <v>348.751155261123</v>
+        <v>348.6634939995718</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34633,28 +34968,28 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>-0.1180347946598585</v>
+        <v>-0.1144467990805077</v>
       </c>
       <c r="J21" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K21" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004978187331472816</v>
+        <v>0.004786664703862131</v>
       </c>
       <c r="M21" t="n">
-        <v>9.332814309842679</v>
+        <v>9.250022946810359</v>
       </c>
       <c r="N21" t="n">
-        <v>160.375817726479</v>
+        <v>158.6760766036118</v>
       </c>
       <c r="O21" t="n">
-        <v>12.66395742753737</v>
+        <v>12.59666926626288</v>
       </c>
       <c r="P21" t="n">
-        <v>355.5555661648723</v>
+        <v>355.5216190635609</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34711,28 +35046,28 @@
         <v>0.0492</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1857029844351311</v>
+        <v>-0.1759528473929808</v>
       </c>
       <c r="J22" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K22" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01715406363571592</v>
+        <v>0.01562886070624125</v>
       </c>
       <c r="M22" t="n">
-        <v>8.451985610720763</v>
+        <v>8.435921009720538</v>
       </c>
       <c r="N22" t="n">
-        <v>112.1648534117466</v>
+        <v>112.0151251435671</v>
       </c>
       <c r="O22" t="n">
-        <v>10.59079097195987</v>
+        <v>10.58371981599887</v>
       </c>
       <c r="P22" t="n">
-        <v>358.0524836075091</v>
+        <v>357.9587561561438</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34789,28 +35124,28 @@
         <v>0.0584</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2615555592031205</v>
+        <v>-0.2634275545200966</v>
       </c>
       <c r="J23" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K23" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02102429167124242</v>
+        <v>0.02165134041908501</v>
       </c>
       <c r="M23" t="n">
-        <v>10.07098141782294</v>
+        <v>10.01390094264858</v>
       </c>
       <c r="N23" t="n">
-        <v>182.3834379132467</v>
+        <v>180.9548215005626</v>
       </c>
       <c r="O23" t="n">
-        <v>13.50494124064398</v>
+        <v>13.45194489657769</v>
       </c>
       <c r="P23" t="n">
-        <v>353.5950162899782</v>
+        <v>353.6129537103984</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34867,28 +35202,28 @@
         <v>0.0794</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08489551095448453</v>
+        <v>-0.08296942839290122</v>
       </c>
       <c r="J24" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K24" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00222532639469919</v>
+        <v>0.002173806330198258</v>
       </c>
       <c r="M24" t="n">
-        <v>9.698605498220214</v>
+        <v>9.619492429044612</v>
       </c>
       <c r="N24" t="n">
-        <v>182.6226243217766</v>
+        <v>180.6275095380079</v>
       </c>
       <c r="O24" t="n">
-        <v>13.51379385375464</v>
+        <v>13.43977341840285</v>
       </c>
       <c r="P24" t="n">
-        <v>353.9743020316392</v>
+        <v>353.9555285454042</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34939,28 +35274,28 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.001191669662783676</v>
+        <v>0.003874152810601143</v>
       </c>
       <c r="J25" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K25" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L25" t="n">
-        <v>7.101881546178745e-07</v>
+        <v>7.669018979306053e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>7.406266386241683</v>
+        <v>7.377366244844333</v>
       </c>
       <c r="N25" t="n">
-        <v>113.0411041164939</v>
+        <v>112.0442409380188</v>
       </c>
       <c r="O25" t="n">
-        <v>10.63207901195688</v>
+        <v>10.58509522574166</v>
       </c>
       <c r="P25" t="n">
-        <v>356.7187002504579</v>
+        <v>356.6702349131195</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35011,28 +35346,28 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.1207902977864359</v>
+        <v>-0.1027598582508218</v>
       </c>
       <c r="J26" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K26" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003901725850841697</v>
+        <v>0.00288845984015107</v>
       </c>
       <c r="M26" t="n">
-        <v>10.20312612724267</v>
+        <v>10.137316712704</v>
       </c>
       <c r="N26" t="n">
-        <v>215.592271122025</v>
+        <v>213.6306001690511</v>
       </c>
       <c r="O26" t="n">
-        <v>14.68306068645175</v>
+        <v>14.6161075587535</v>
       </c>
       <c r="P26" t="n">
-        <v>358.3767062113255</v>
+        <v>358.2049891281794</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35089,28 +35424,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01354000773673141</v>
+        <v>-0.004224109973492988</v>
       </c>
       <c r="J27" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K27" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L27" t="n">
-        <v>5.78701571971596e-05</v>
+        <v>5.755782773286811e-06</v>
       </c>
       <c r="M27" t="n">
-        <v>9.588564752837035</v>
+        <v>9.549908074704517</v>
       </c>
       <c r="N27" t="n">
-        <v>181.5696182843236</v>
+        <v>179.9455338736508</v>
       </c>
       <c r="O27" t="n">
-        <v>13.47477711445809</v>
+        <v>13.41437787874081</v>
       </c>
       <c r="P27" t="n">
-        <v>352.2387786828741</v>
+        <v>352.1502928323433</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35167,28 +35502,28 @@
         <v>0.0615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2139565039524437</v>
+        <v>0.2249745199661277</v>
       </c>
       <c r="J28" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K28" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009271866368607107</v>
+        <v>0.01047043135884362</v>
       </c>
       <c r="M28" t="n">
-        <v>12.70902362424665</v>
+        <v>12.62448905122088</v>
       </c>
       <c r="N28" t="n">
-        <v>281.4129330093221</v>
+        <v>278.6042068849723</v>
       </c>
       <c r="O28" t="n">
-        <v>16.77536685170617</v>
+        <v>16.69144112666645</v>
       </c>
       <c r="P28" t="n">
-        <v>348.4019215505094</v>
+        <v>348.2974425199837</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35245,28 +35580,28 @@
         <v>0.054</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1180629710090948</v>
+        <v>0.1227336364558927</v>
       </c>
       <c r="J29" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K29" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004094490307343879</v>
+        <v>0.004524687455793819</v>
       </c>
       <c r="M29" t="n">
-        <v>9.909022005055728</v>
+        <v>9.82203151125192</v>
       </c>
       <c r="N29" t="n">
-        <v>192.3873633216025</v>
+        <v>190.2868091115753</v>
       </c>
       <c r="O29" t="n">
-        <v>13.87037718743086</v>
+        <v>13.79444848885142</v>
       </c>
       <c r="P29" t="n">
-        <v>357.1506678709097</v>
+        <v>357.1060558273786</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35317,28 +35652,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.01025756928125749</v>
+        <v>0.01731654624338322</v>
       </c>
       <c r="J30" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K30" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L30" t="n">
-        <v>4.985566467829994e-05</v>
+        <v>0.0001451007890500566</v>
       </c>
       <c r="M30" t="n">
-        <v>8.414660285801265</v>
+        <v>8.349234917559832</v>
       </c>
       <c r="N30" t="n">
-        <v>119.3660090744455</v>
+        <v>118.2200631825129</v>
       </c>
       <c r="O30" t="n">
-        <v>10.92547523334548</v>
+        <v>10.87290500199983</v>
       </c>
       <c r="P30" t="n">
-        <v>343.7478942794463</v>
+        <v>343.6797005359269</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35389,28 +35724,28 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.04489149643166275</v>
+        <v>0.05320190764080749</v>
       </c>
       <c r="J31" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K31" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000759611545371075</v>
+        <v>0.001093825528405756</v>
       </c>
       <c r="M31" t="n">
-        <v>8.920547851908291</v>
+        <v>8.841023023121421</v>
       </c>
       <c r="N31" t="n">
-        <v>146.1114940154519</v>
+        <v>144.395943776307</v>
       </c>
       <c r="O31" t="n">
-        <v>12.08765874830407</v>
+        <v>12.01648633238132</v>
       </c>
       <c r="P31" t="n">
-        <v>348.6323960214727</v>
+        <v>348.5509931440047</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35467,28 +35802,28 @@
         <v>0.0668</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2249776155677423</v>
+        <v>0.1201090531780882</v>
       </c>
       <c r="J32" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K32" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007559653978902237</v>
+        <v>0.005993310772561489</v>
       </c>
       <c r="M32" t="n">
-        <v>10.89465266609928</v>
+        <v>8.691872654223801</v>
       </c>
       <c r="N32" t="n">
-        <v>386.7052294151475</v>
+        <v>138.7190684868512</v>
       </c>
       <c r="O32" t="n">
-        <v>19.66482213026977</v>
+        <v>11.77790594659557</v>
       </c>
       <c r="P32" t="n">
-        <v>353.6873504968008</v>
+        <v>350.4524756502807</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35526,7 +35861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG319"/>
+  <dimension ref="A1:AG322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79699,11 +80034,7 @@
           <t>-38.58827276266536,174.62893284568906</t>
         </is>
       </c>
-      <c r="AF316" t="inlineStr">
-        <is>
-          <t>-38.58757628181342,174.62918089246568</t>
-        </is>
-      </c>
+      <c r="AF316" t="inlineStr"/>
       <c r="AG316" t="inlineStr">
         <is>
           <t>L9</t>
@@ -79858,11 +80189,7 @@
         </is>
       </c>
       <c r="AE317" t="inlineStr"/>
-      <c r="AF317" t="inlineStr">
-        <is>
-          <t>-38.587604581915855,174.63035599086143</t>
-        </is>
-      </c>
+      <c r="AF317" t="inlineStr"/>
       <c r="AG317" t="inlineStr">
         <is>
           <t>L9</t>
@@ -80025,11 +80352,7 @@
           <t>-38.5882675211268,174.6287152709762</t>
         </is>
       </c>
-      <c r="AF318" t="inlineStr">
-        <is>
-          <t>-38.58760512063779,174.6303783648516</t>
-        </is>
-      </c>
+      <c r="AF318" t="inlineStr"/>
       <c r="AG318" t="inlineStr">
         <is>
           <t>L8</t>
@@ -80188,12 +80511,505 @@
           <t>-38.58826710648549,174.62869806005702</t>
         </is>
       </c>
-      <c r="AF319" t="inlineStr">
-        <is>
-          <t>-38.58759807949286,174.6300859488101</t>
-        </is>
-      </c>
+      <c r="AF319" t="inlineStr"/>
       <c r="AG319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-38.60851855319866,174.62629638596187</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-38.60785384529428,174.62662227677583</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-38.607173419468026,174.62684844512202</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-38.60646509706685,174.62689993142476</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.605775803391325,174.62710134490348</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.60507650119571,174.62723295569216</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.60437422263654,174.62728111041423</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.60368172115033,174.6274376993512</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.60297631353045,174.6274513258846</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.60229197846879,174.6277601284482</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.6015781247183,174.6276453006923</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-38.60087713951603,174.62772059640034</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-38.600175670403466,174.627755845421</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-38.59947459532594,174.6278062437187</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-38.59877555837848,174.62793392070597</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-38.59807235082246,174.62788503930693</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-38.59736797995547,174.62782759952535</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>-38.59666272208352,174.62778484227812</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>-38.59596213183968,174.6278427960439</t>
+        </is>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>-38.59526982605978,174.62808096446952</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>-38.59457105880169,174.62817883805036</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>-38.593874467503255,174.62830799436117</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>-38.59317225369185,174.62831529594743</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>-38.59247093747744,174.62835773236267</t>
+        </is>
+      </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>-38.59176420705116,174.62832348422396</t>
+        </is>
+      </c>
+      <c r="AA320" t="inlineStr">
+        <is>
+          <t>-38.59107602392507,174.62857476447658</t>
+        </is>
+      </c>
+      <c r="AB320" t="inlineStr">
+        <is>
+          <t>-38.5903734016846,174.62861562459128</t>
+        </is>
+      </c>
+      <c r="AC320" t="inlineStr">
+        <is>
+          <t>-38.58966793845978,174.6285459628644</t>
+        </is>
+      </c>
+      <c r="AD320" t="inlineStr">
+        <is>
+          <t>-38.58897138498338,174.6287739862909</t>
+        </is>
+      </c>
+      <c r="AE320" t="inlineStr">
+        <is>
+          <t>-38.58826812857175,174.628740484973</t>
+        </is>
+      </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>-38.587571117252004,174.62896649863026</t>
+        </is>
+      </c>
+      <c r="AG320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.60848502422285,174.62608357459015</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-38.60784614754196,174.62657341800997</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.607132589534594,174.62658929351923</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-38.606437840384864,174.62672374054245</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.60576264853564,174.6269924937003</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.60505588432688,174.62700445981142</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.60436030410345,174.6271268530188</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.60367701766522,174.62738557095693</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.6029821931788,174.6275164890596</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.60228286085641,174.62762453679002</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.60157304483944,174.62750181339456</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-38.6008722921044,174.6275374197019</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-38.60017921695854,174.62788987025667</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-38.599477734438054,174.6279248703982</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-38.59877498112456,174.62791210639602</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-38.59807383918837,174.6279322898737</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-38.59736838163693,174.62783733200158</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-38.596679539419824,174.62815038496356</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-38.59597227331885,174.62806322739246</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>-38.595266333696074,174.62800505583158</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>-38.59455977432295,174.62793356678992</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>-38.593169673292444,174.62827246987752</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>-38.59246391193941,174.62824961612648</t>
+        </is>
+      </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>-38.591760762405535,174.62827047537357</t>
+        </is>
+      </c>
+      <c r="AA321" t="inlineStr">
+        <is>
+          <t>-38.59106623898638,174.62842418471894</t>
+        </is>
+      </c>
+      <c r="AB321" t="inlineStr">
+        <is>
+          <t>-38.590367879218036,174.62850562355226</t>
+        </is>
+      </c>
+      <c r="AC321" t="inlineStr">
+        <is>
+          <t>-38.58966746031722,174.6285299030117</t>
+        </is>
+      </c>
+      <c r="AD321" t="inlineStr">
+        <is>
+          <t>-38.58896973635488,174.6287055527867</t>
+        </is>
+      </c>
+      <c r="AE321" t="inlineStr">
+        <is>
+          <t>-38.58826710095693,174.6286978305781</t>
+        </is>
+      </c>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>-38.587574140555716,174.62909200152924</t>
+        </is>
+      </c>
+      <c r="AG321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.60851389428488,174.6262668152647</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.60783936799078,174.62653038731833</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.6071347889029,174.62660325302514</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.60643919973982,174.6267325275528</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.60575269411574,174.62691012541745</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.60506650746652,174.6271221949802</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.60436387209793,174.62716639644276</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.603681873156184,174.62743938402588</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.6029847135298,174.6275444218218</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.60228192483064,174.62761061691134</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.60158259630839,174.62777161027748</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-38.60087753830887,174.62773566669102</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-38.60018030327048,174.62793092330818</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-38.59947529675074,174.62783275008405</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-38.598771926098124,174.62779666012457</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-38.598074958963316,174.62796783932987</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-38.597373959878034,174.62797249113612</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-38.59667666816269,174.62808797336396</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-38.59597385689868,174.62809764830575</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>-38.595268989443696,174.6280627800142</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>-38.59456767778906,174.62810534962492</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>-38.59387104193788,174.62824051674465</t>
+        </is>
+      </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>-38.593166198250906,174.62821479613245</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>-38.59246284709126,174.62823322927966</t>
+        </is>
+      </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>-38.591767027181916,174.62836688283986</t>
+        </is>
+      </c>
+      <c r="AA322" t="inlineStr">
+        <is>
+          <t>-38.59106803202778,174.6284517774845</t>
+        </is>
+      </c>
+      <c r="AB322" t="inlineStr">
+        <is>
+          <t>-38.59036690825291,174.62848628328382</t>
+        </is>
+      </c>
+      <c r="AC322" t="inlineStr">
+        <is>
+          <t>-38.58966844050708,174.6285628257099</t>
+        </is>
+      </c>
+      <c r="AD322" t="inlineStr">
+        <is>
+          <t>-38.588971850344315,174.62879330342346</t>
+        </is>
+      </c>
+      <c r="AE322" t="inlineStr">
+        <is>
+          <t>-38.58826828198701,174.6287468530132</t>
+        </is>
+      </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>-38.5875664099067,174.6287710992229</t>
+        </is>
+      </c>
+      <c r="AG322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG322"/>
+  <dimension ref="A1:AG323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29994,6 +29994,69 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="n">
+        <v>320.6318181818182</v>
+      </c>
+      <c r="G323" t="n">
+        <v>342.2128571428572</v>
+      </c>
+      <c r="H323" t="n">
+        <v>370.95</v>
+      </c>
+      <c r="I323" t="n">
+        <v>365.78</v>
+      </c>
+      <c r="J323" t="n">
+        <v>337.5037209302326</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>307.0464705882353</v>
+      </c>
+      <c r="M323" t="n">
+        <v>319.78</v>
+      </c>
+      <c r="N323" t="n">
+        <v>304.97</v>
+      </c>
+      <c r="O323" t="n">
+        <v>317.8318181818182</v>
+      </c>
+      <c r="P323" t="n">
+        <v>329.8933333333333</v>
+      </c>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
+      <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr"/>
+      <c r="Y323" t="inlineStr"/>
+      <c r="Z323" t="inlineStr"/>
+      <c r="AA323" t="inlineStr"/>
+      <c r="AB323" t="inlineStr"/>
+      <c r="AC323" t="inlineStr"/>
+      <c r="AD323" t="inlineStr"/>
+      <c r="AE323" t="inlineStr"/>
+      <c r="AF323" t="inlineStr"/>
+      <c r="AG323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30005,7 +30068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33342,6 +33405,16 @@
         </is>
       </c>
       <c r="B333" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -35861,7 +35934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG322"/>
+  <dimension ref="A1:AG323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81015,6 +81088,89 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.605806715840146,174.62735713660453</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-38.605075924835205,174.62722656784396</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-38.604349936258515,174.6270119489738</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-38.603658839239465,174.6271841032367</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-38.60299151652918,174.6276198190668</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-38.6015958246882,174.628145296719</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-38.60088559978249,174.62804032373128</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-38.60018877418645,174.62825106828654</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-38.59948354031847,174.6281442859591</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>-38.59877854242267,174.6280466895995</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
+      <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr"/>
+      <c r="Y323" t="inlineStr"/>
+      <c r="Z323" t="inlineStr"/>
+      <c r="AA323" t="inlineStr"/>
+      <c r="AB323" t="inlineStr"/>
+      <c r="AC323" t="inlineStr"/>
+      <c r="AD323" t="inlineStr"/>
+      <c r="AE323" t="inlineStr"/>
+      <c r="AF323" t="inlineStr"/>
+      <c r="AG323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -33592,7 +33592,7 @@
         <v>-0.1594308934481768</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
         <v>232</v>
@@ -33670,7 +33670,7 @@
         <v>-0.05402389833221832</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K3" t="n">
         <v>237</v>
@@ -33748,7 +33748,7 @@
         <v>-0.007586040952847224</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
         <v>239</v>
@@ -33826,7 +33826,7 @@
         <v>0.148819734471841</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" t="n">
         <v>243</v>
@@ -33901,28 +33901,28 @@
         <v>0.0593</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07898342562789976</v>
+        <v>-0.09761506585829507</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002855596338638411</v>
+        <v>0.004307442781661286</v>
       </c>
       <c r="M6" t="n">
-        <v>8.314764507779241</v>
+        <v>8.395088545264242</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2859409797503</v>
+        <v>128.2215868312567</v>
       </c>
       <c r="O6" t="n">
-        <v>11.2377017659195</v>
+        <v>11.3234971113723</v>
       </c>
       <c r="P6" t="n">
-        <v>347.3607801579802</v>
+        <v>347.5385963829059</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33979,28 +33979,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1310356445163617</v>
+        <v>0.1223918395789895</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01238212038835207</v>
+        <v>0.0108367116228677</v>
       </c>
       <c r="M7" t="n">
-        <v>6.558134257466857</v>
+        <v>6.57566079677563</v>
       </c>
       <c r="N7" t="n">
-        <v>80.26141718493706</v>
+        <v>80.47467515428743</v>
       </c>
       <c r="O7" t="n">
-        <v>8.958873656042766</v>
+        <v>8.970767812973838</v>
       </c>
       <c r="P7" t="n">
-        <v>350.4873891289106</v>
+        <v>350.5684816712246</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34057,28 +34057,28 @@
         <v>0.0625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07591177278955724</v>
+        <v>0.09088480019601615</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003130850079307579</v>
+        <v>0.004440972602035687</v>
       </c>
       <c r="M8" t="n">
-        <v>7.983210180294189</v>
+        <v>8.01788110237657</v>
       </c>
       <c r="N8" t="n">
-        <v>106.1397920624103</v>
+        <v>107.5139942943955</v>
       </c>
       <c r="O8" t="n">
-        <v>10.30241680686674</v>
+        <v>10.36889551950426</v>
       </c>
       <c r="P8" t="n">
-        <v>346.9051986371769</v>
+        <v>346.7619330661378</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34135,28 +34135,28 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003617868382840851</v>
+        <v>0.01676622854635013</v>
       </c>
       <c r="J9" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>6.931374010421543e-06</v>
+        <v>0.0001482909108527775</v>
       </c>
       <c r="M9" t="n">
-        <v>8.017567639487284</v>
+        <v>8.048423313913814</v>
       </c>
       <c r="N9" t="n">
-        <v>112.3735186823599</v>
+        <v>113.2461547404763</v>
       </c>
       <c r="O9" t="n">
-        <v>10.60063765451682</v>
+        <v>10.64171765931028</v>
       </c>
       <c r="P9" t="n">
-        <v>347.159484943076</v>
+        <v>347.0373157801945</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34207,28 +34207,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.009484499569503707</v>
+        <v>0.0007593519109662638</v>
       </c>
       <c r="J10" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>4.34113249253576e-05</v>
+        <v>2.790408196728933e-07</v>
       </c>
       <c r="M10" t="n">
-        <v>8.231332334085092</v>
+        <v>8.25149921371073</v>
       </c>
       <c r="N10" t="n">
-        <v>120.3173163153596</v>
+        <v>120.445975710983</v>
       </c>
       <c r="O10" t="n">
-        <v>10.96892503007289</v>
+        <v>10.97478818524453</v>
       </c>
       <c r="P10" t="n">
-        <v>349.7567210709156</v>
+        <v>349.8400180501695</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34282,7 +34282,7 @@
         <v>-0.06040913392882126</v>
       </c>
       <c r="J11" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K11" t="n">
         <v>256</v>
@@ -34357,28 +34357,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09307147607703352</v>
+        <v>0.06148113553809763</v>
       </c>
       <c r="J12" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K12" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003533407559710988</v>
+        <v>0.001475569921130515</v>
       </c>
       <c r="M12" t="n">
-        <v>8.848279230766169</v>
+        <v>9.015059063935576</v>
       </c>
       <c r="N12" t="n">
-        <v>140.640766978864</v>
+        <v>147.8142354077428</v>
       </c>
       <c r="O12" t="n">
-        <v>11.85920600119856</v>
+        <v>12.15788778562061</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4070717918062</v>
+        <v>350.7109407706089</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34435,28 +34435,28 @@
         <v>0.0613</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1252981317200608</v>
+        <v>0.1011864904153589</v>
       </c>
       <c r="J13" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K13" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01074748226494571</v>
+        <v>0.006744482701786403</v>
       </c>
       <c r="M13" t="n">
-        <v>7.212808974266694</v>
+        <v>7.302376399719434</v>
       </c>
       <c r="N13" t="n">
-        <v>83.54944552171673</v>
+        <v>87.52424564097269</v>
       </c>
       <c r="O13" t="n">
-        <v>9.140538579411869</v>
+        <v>9.355439361193717</v>
       </c>
       <c r="P13" t="n">
-        <v>350.1129278683251</v>
+        <v>350.3434386502605</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34513,28 +34513,28 @@
         <v>0.0759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0719172969045776</v>
+        <v>0.04641540544288946</v>
       </c>
       <c r="J14" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002035272616520811</v>
+        <v>0.0008283849099732787</v>
       </c>
       <c r="M14" t="n">
-        <v>9.351383194153673</v>
+        <v>9.444860577305997</v>
       </c>
       <c r="N14" t="n">
-        <v>151.2623121142966</v>
+        <v>155.5913955819111</v>
       </c>
       <c r="O14" t="n">
-        <v>12.29887442469011</v>
+        <v>12.4736280039895</v>
       </c>
       <c r="P14" t="n">
-        <v>338.5116191033854</v>
+        <v>338.7507646042604</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34585,28 +34585,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.03330145330955844</v>
+        <v>0.01870976671108122</v>
       </c>
       <c r="J15" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K15" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003032992021759773</v>
+        <v>9.577310232278258e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>11.32328175439475</v>
+        <v>11.37318240244483</v>
       </c>
       <c r="N15" t="n">
-        <v>213.2693782775724</v>
+        <v>214.0808856247396</v>
       </c>
       <c r="O15" t="n">
-        <v>14.60374535102459</v>
+        <v>14.63150319088027</v>
       </c>
       <c r="P15" t="n">
-        <v>337.829052021624</v>
+        <v>337.9667937299166</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34663,28 +34663,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1240359067889502</v>
+        <v>-0.1307745575249611</v>
       </c>
       <c r="J16" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K16" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00397995089428449</v>
+        <v>0.004450234065348058</v>
       </c>
       <c r="M16" t="n">
-        <v>11.62566839429387</v>
+        <v>11.62139461837056</v>
       </c>
       <c r="N16" t="n">
-        <v>219.4967804390866</v>
+        <v>219.0072816358668</v>
       </c>
       <c r="O16" t="n">
-        <v>14.81542373471264</v>
+        <v>14.79889460858029</v>
       </c>
       <c r="P16" t="n">
-        <v>342.5375389508087</v>
+        <v>342.6019913853235</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34744,7 +34744,7 @@
         <v>0.07157957745635821</v>
       </c>
       <c r="J17" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" t="n">
         <v>269</v>
@@ -34822,7 +34822,7 @@
         <v>0.06677164923669024</v>
       </c>
       <c r="J18" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K18" t="n">
         <v>258</v>
@@ -34900,7 +34900,7 @@
         <v>-0.07504763431962833</v>
       </c>
       <c r="J19" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K19" t="n">
         <v>253</v>
@@ -34972,7 +34972,7 @@
         <v>0.001132418319860488</v>
       </c>
       <c r="J20" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K20" t="n">
         <v>263</v>
@@ -35044,7 +35044,7 @@
         <v>-0.1144467990805077</v>
       </c>
       <c r="J21" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K21" t="n">
         <v>264</v>
@@ -35122,7 +35122,7 @@
         <v>-0.1759528473929808</v>
       </c>
       <c r="J22" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K22" t="n">
         <v>253</v>
@@ -35200,7 +35200,7 @@
         <v>-0.2634275545200966</v>
       </c>
       <c r="J23" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K23" t="n">
         <v>241</v>
@@ -35278,7 +35278,7 @@
         <v>-0.08296942839290122</v>
       </c>
       <c r="J24" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K24" t="n">
         <v>254</v>
@@ -35350,7 +35350,7 @@
         <v>0.003874152810601143</v>
       </c>
       <c r="J25" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K25" t="n">
         <v>255</v>
@@ -35422,7 +35422,7 @@
         <v>-0.1027598582508218</v>
       </c>
       <c r="J26" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K26" t="n">
         <v>227</v>
@@ -35500,7 +35500,7 @@
         <v>-0.004224109973492988</v>
       </c>
       <c r="J27" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K27" t="n">
         <v>245</v>
@@ -35578,7 +35578,7 @@
         <v>0.2249745199661277</v>
       </c>
       <c r="J28" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K28" t="n">
         <v>249</v>
@@ -35656,7 +35656,7 @@
         <v>0.1227336364558927</v>
       </c>
       <c r="J29" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K29" t="n">
         <v>266</v>
@@ -35728,7 +35728,7 @@
         <v>0.01731654624338322</v>
       </c>
       <c r="J30" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K30" t="n">
         <v>257</v>
@@ -35800,7 +35800,7 @@
         <v>0.05320190764080749</v>
       </c>
       <c r="J31" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K31" t="n">
         <v>230</v>
@@ -35878,7 +35878,7 @@
         <v>0.1201090531780882</v>
       </c>
       <c r="J32" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K32" t="n">
         <v>202</v>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -33580,13 +33580,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0546</v>
+        <v>0.0249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.066</v>
+        <v>0.0367</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1594489547129802</v>
@@ -33658,13 +33658,13 @@
         <v>0.9666651638161818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0618</v>
+        <v>0.0368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0745</v>
+        <v>0.0644</v>
       </c>
       <c r="I3" t="n">
         <v>-0.05402279332291787</v>
@@ -33736,13 +33736,13 @@
         <v>0.9333303276326228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0488</v>
+        <v>0.0455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0537</v>
+        <v>0.063</v>
       </c>
       <c r="I4" t="n">
         <v>-0.007586040952846982</v>
@@ -33814,13 +33814,13 @@
         <v>0.8999954914490637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0463</v>
+        <v>0.0526</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0531</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0.1488197344718407</v>
@@ -33892,13 +33892,13 @@
         <v>0.8666696253855387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0499</v>
+        <v>0.0241</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0593</v>
+        <v>0.0346</v>
       </c>
       <c r="I6" t="n">
         <v>-0.09762287762541194</v>
@@ -33970,13 +33970,13 @@
         <v>0.8333347892016933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0639</v>
+        <v>0.0298</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.0459</v>
       </c>
       <c r="I7" t="n">
         <v>0.1223907331419782</v>
@@ -34048,13 +34048,13 @@
         <v>0.7999999530179993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0543</v>
+        <v>0.0668</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0625</v>
+        <v>0.0998</v>
       </c>
       <c r="I8" t="n">
         <v>0.09088063686187654</v>
@@ -34126,13 +34126,13 @@
         <v>0.7666651168343053</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0603</v>
+        <v>0.0496</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.0708</v>
       </c>
       <c r="I9" t="n">
         <v>0.01676222078442578</v>
@@ -34203,9 +34203,15 @@
       <c r="E10" t="n">
         <v>0.7333302806507678</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07679999999999999</v>
+      </c>
       <c r="I10" t="n">
         <v>0.0007788268729170177</v>
       </c>
@@ -34275,9 +34281,15 @@
       <c r="E11" t="n">
         <v>0.6999954444672302</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0796</v>
+      </c>
       <c r="I11" t="n">
         <v>-0.06042464515088015</v>
       </c>
@@ -34348,13 +34360,13 @@
         <v>0.6666826749581772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.172</v>
       </c>
       <c r="I12" t="n">
         <v>0.0614825819368288</v>
@@ -34426,13 +34438,13 @@
         <v>0.6333478387742703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0548</v>
+        <v>0.0659</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0613</v>
+        <v>0.0856</v>
       </c>
       <c r="I13" t="n">
         <v>0.1011772027001682</v>
@@ -34507,10 +34519,10 @@
         <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0585</v>
+        <v>0.0588</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0759</v>
+        <v>0.0755</v>
       </c>
       <c r="I14" t="n">
         <v>0.04641035270342207</v>
@@ -34581,9 +34593,15 @@
       <c r="E15" t="n">
         <v>0.5666781664068228</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0994</v>
+      </c>
       <c r="I15" t="n">
         <v>0.01870589212793096</v>
       </c>
@@ -34654,13 +34672,13 @@
         <v>0.533343330223226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0412</v>
+        <v>0.058</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0505</v>
+        <v>0.0873</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1307789862148156</v>
@@ -34732,13 +34750,13 @@
         <v>0.5000084940396855</v>
       </c>
       <c r="F17" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0427</v>
+        <v>0.0459</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0518</v>
+        <v>0.0604</v>
       </c>
       <c r="I17" t="n">
         <v>0.07157879539722792</v>
@@ -34813,10 +34831,10 @@
         <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0396</v>
+        <v>0.0401</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0486</v>
+        <v>0.0506</v>
       </c>
       <c r="I18" t="n">
         <v>0.06677971822243155</v>
@@ -34888,13 +34906,13 @@
         <v>0.4333413990372481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09</v>
+        <v>0.045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0738</v>
+        <v>0.038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1124</v>
+        <v>0.0515</v>
       </c>
       <c r="I19" t="n">
         <v>-0.07502104548607746</v>
@@ -34965,9 +34983,15 @@
       <c r="E20" t="n">
         <v>0.400006562853538</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0688</v>
+      </c>
       <c r="I20" t="n">
         <v>0.001139906004175042</v>
       </c>
@@ -35037,9 +35061,15 @@
       <c r="E21" t="n">
         <v>0.366671726669828</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08169999999999999</v>
+      </c>
       <c r="I21" t="n">
         <v>-0.1144600996727377</v>
       </c>
@@ -35110,13 +35140,13 @@
         <v>0.3333368904861179</v>
       </c>
       <c r="F22" t="n">
-        <v>0.045</v>
+        <v>0.105</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0426</v>
+        <v>0.0736</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0492</v>
+        <v>0.1781</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1759485873873155</v>
@@ -35188,13 +35218,13 @@
         <v>0.3000020543024078</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0469</v>
+        <v>0.0495</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0584</v>
+        <v>0.0843</v>
       </c>
       <c r="I23" t="n">
         <v>-0.2634275545200971</v>
@@ -35266,13 +35296,13 @@
         <v>0.2666696355264574</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.0444</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0794</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>-0.08297224055681739</v>
@@ -35343,9 +35373,15 @@
       <c r="E25" t="n">
         <v>0.233334799342705</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08550000000000001</v>
+      </c>
       <c r="I25" t="n">
         <v>0.003866343300700408</v>
       </c>
@@ -35415,9 +35451,15 @@
       <c r="E26" t="n">
         <v>0.1999999631589526</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0607</v>
+      </c>
       <c r="I26" t="n">
         <v>-0.1027700509960663</v>
       </c>
@@ -35488,13 +35530,13 @@
         <v>0.1666651269752001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0521</v>
+        <v>0.1177</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="n">
         <v>-0.004241051188810423</v>
@@ -35566,13 +35608,13 @@
         <v>0.1333302907914477</v>
       </c>
       <c r="F28" t="n">
-        <v>0.055</v>
+        <v>0.15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0484</v>
+        <v>0.1067</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0615</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
         <v>0.2249611996987719</v>
@@ -35644,13 +35686,13 @@
         <v>0.1000045085507533</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0469</v>
+        <v>0.0477</v>
       </c>
       <c r="H29" t="n">
-        <v>0.054</v>
+        <v>0.0701</v>
       </c>
       <c r="I29" t="n">
         <v>0.1227336364558926</v>
@@ -35721,9 +35763,15 @@
       <c r="E30" t="n">
         <v>0.06666967236716889</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0654</v>
+      </c>
       <c r="I30" t="n">
         <v>0.01730252046073844</v>
       </c>
@@ -35793,9 +35841,15 @@
       <c r="E31" t="n">
         <v>0.03333483618358445</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0609</v>
+      </c>
       <c r="I31" t="n">
         <v>0.05323571775222121</v>
       </c>
@@ -35866,13 +35920,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0488</v>
+        <v>0.0498</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0668</v>
+        <v>0.093</v>
       </c>
       <c r="I32" t="n">
         <v>0.1200766257372557</v>

--- a/data/nzd0266/nzd0266.xlsx
+++ b/data/nzd0266/nzd0266.xlsx
@@ -685,10 +685,10 @@
         <v>359.84</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.86</v>
+        <v>341.95</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.14</v>
+        <v>349.3</v>
       </c>
       <c r="AC2" t="n">
         <v>357.23</v>
@@ -790,10 +790,10 @@
         <v>372.18</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.49</v>
+        <v>359.54</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.48</v>
+        <v>363.57</v>
       </c>
       <c r="AC3" t="n">
         <v>368.22</v>
@@ -895,10 +895,10 @@
         <v>349.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.17</v>
+        <v>356.09</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.7</v>
+        <v>373.56</v>
       </c>
       <c r="AC4" t="n">
         <v>370.76</v>
@@ -1000,10 +1000,10 @@
         <v>380.95</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.06</v>
+        <v>360.97</v>
       </c>
       <c r="AB5" t="n">
-        <v>372</v>
+        <v>371.84</v>
       </c>
       <c r="AC5" t="n">
         <v>380.59</v>
@@ -1105,10 +1105,10 @@
         <v>355.98</v>
       </c>
       <c r="AA6" t="n">
-        <v>351</v>
+        <v>350.99</v>
       </c>
       <c r="AB6" t="n">
-        <v>346.53</v>
+        <v>346.5</v>
       </c>
       <c r="AC6" t="n">
         <v>352.69</v>
@@ -1208,10 +1208,10 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>341.7</v>
+        <v>341.78</v>
       </c>
       <c r="AB7" t="n">
-        <v>322.94</v>
+        <v>323.08</v>
       </c>
       <c r="AC7" t="n">
         <v>350.37</v>
@@ -1303,10 +1303,10 @@
         <v>360.44</v>
       </c>
       <c r="AA8" t="n">
-        <v>363.61</v>
+        <v>363.51</v>
       </c>
       <c r="AB8" t="n">
-        <v>361.18</v>
+        <v>361.01</v>
       </c>
       <c r="AC8" t="n">
         <v>359.2</v>
@@ -1408,10 +1408,10 @@
         <v>338.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>362.74</v>
+        <v>362.65</v>
       </c>
       <c r="AB9" t="n">
-        <v>352.49</v>
+        <v>352.32</v>
       </c>
       <c r="AC9" t="n">
         <v>361.95</v>
@@ -1499,10 +1499,10 @@
         <v>364.11</v>
       </c>
       <c r="AA10" t="n">
-        <v>360.28</v>
+        <v>360.17</v>
       </c>
       <c r="AB10" t="n">
-        <v>356.34</v>
+        <v>356.14</v>
       </c>
       <c r="AC10" t="n">
         <v>366.69</v>
@@ -1604,10 +1604,10 @@
         <v>363.32</v>
       </c>
       <c r="AA11" t="n">
-        <v>349.52</v>
+        <v>349.62</v>
       </c>
       <c r="AB11" t="n">
-        <v>359.08</v>
+        <v>359.26</v>
       </c>
       <c r="AC11" t="n">
         <v>365.02</v>
@@ -1709,10 +1709,10 @@
         <v>362.81</v>
       </c>
       <c r="AA12" t="n">
-        <v>334.7</v>
+        <v>334.88</v>
       </c>
       <c r="AB12" t="n">
-        <v>342.62</v>
+        <v>342.95</v>
       </c>
       <c r="AC12" t="n">
         <v>360.82</v>
@@ -1814,10 +1814,10 @@
         <v>390.19</v>
       </c>
       <c r="AA13" t="n">
-        <v>373.12</v>
+        <v>373.04</v>
       </c>
       <c r="AB13" t="n">
-        <v>375</v>
+        <v>374.86</v>
       </c>
       <c r="AC13" t="n">
         <v>386.7</v>
@@ -1913,7 +1913,7 @@
         <v>359.12</v>
       </c>
       <c r="AA14" t="n">
-        <v>338.59</v>
+        <v>338.77</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
@@ -2071,10 +2071,10 @@
         <v>383.27</v>
       </c>
       <c r="AA16" t="n">
-        <v>379.46</v>
+        <v>379.37</v>
       </c>
       <c r="AB16" t="n">
-        <v>381.47</v>
+        <v>381.3</v>
       </c>
       <c r="AC16" t="n">
         <v>387.51</v>
@@ -2176,10 +2176,10 @@
         <v>369.11</v>
       </c>
       <c r="AA17" t="n">
-        <v>365.81</v>
+        <v>365.84</v>
       </c>
       <c r="AB17" t="n">
-        <v>367.1</v>
+        <v>367.15</v>
       </c>
       <c r="AC17" t="n">
         <v>362.77</v>
@@ -2255,10 +2255,10 @@
         <v>352.55</v>
       </c>
       <c r="AA18" t="n">
-        <v>351.52</v>
+        <v>351.44</v>
       </c>
       <c r="AB18" t="n">
-        <v>354.86</v>
+        <v>354.71</v>
       </c>
       <c r="AC18" t="n">
         <v>357.14</v>
@@ -2363,7 +2363,7 @@
         <v>346.34</v>
       </c>
       <c r="AB19" t="n">
-        <v>340.62</v>
+        <v>340.63</v>
       </c>
       <c r="AC19" t="n">
         <v>351.79</v>
@@ -2465,10 +2465,10 @@
         <v>383.52</v>
       </c>
       <c r="AA20" t="n">
-        <v>367.61</v>
+        <v>367.52</v>
       </c>
       <c r="AB20" t="n">
-        <v>362.96</v>
+        <v>362.8</v>
       </c>
       <c r="AC20" t="n">
         <v>372.8</v>
@@ -2570,10 +2570,10 @@
         <v>370.51</v>
       </c>
       <c r="AA21" t="n">
-        <v>348.74</v>
+        <v>348.82</v>
       </c>
       <c r="AB21" t="n">
-        <v>358.46</v>
+        <v>358.6</v>
       </c>
       <c r="AC21" t="n">
         <v>362.86</v>
@@ -2861,10 +2861,10 @@
         <v>364.95</v>
       </c>
       <c r="AA24" t="n">
-        <v>350.24</v>
+        <v>350.27</v>
       </c>
       <c r="AB24" t="n">
-        <v>353.68</v>
+        <v>353.73</v>
       </c>
       <c r="AC24" t="n">
         <v>360.82</v>
@@ -2964,10 +2964,10 @@
         <v>357.34</v>
       </c>
       <c r="AA25" t="n">
-        <v>357.3</v>
+        <v>357.22</v>
       </c>
       <c r="AB25" t="n">
-        <v>356.75</v>
+        <v>356.61</v>
       </c>
       <c r="AC25" t="n">
         <v>357.41</v>
@@ -3134,10 +3134,10 @@
         <v>340.02</v>
       </c>
       <c r="AA27" t="n">
-        <v>340.59</v>
+        <v>340.76</v>
       </c>
       <c r="AB27" t="n">
-        <v>333.13</v>
+        <v>333.43</v>
       </c>
       <c r="AC27" t="n">
         <v>352.23</v>
@@ -3227,10 +3227,10 @@
         <v>361.17</v>
       </c>
       <c r="AA28" t="n">
-        <v>367.69</v>
+        <v>367.58</v>
       </c>
       <c r="AB28" t="n">
-        <v>366.7</v>
+        <v>366.51</v>
       </c>
       <c r="AC28" t="n">
         <v>380.46</v>
@@ -3417,10 +3417,10 @@
         <v>347.14</v>
       </c>
       <c r="AA30" t="n">
-        <v>360.06</v>
+        <v>360.05</v>
       </c>
       <c r="AB30" t="n">
-        <v>350.28</v>
+        <v>350.27</v>
       </c>
       <c r="AC30" t="n">
         <v>353.92</v>
@@ -3514,10 +3514,10 @@
         <v>360.95</v>
       </c>
       <c r="AA31" t="n">
-        <v>345.44</v>
+        <v>345.57</v>
       </c>
       <c r="AB31" t="n">
-        <v>352.24</v>
+        <v>352.47</v>
       </c>
       <c r="AC31" t="n">
         <v>362.02</v>
@@ -3615,10 +3615,10 @@
         <v>358.89</v>
       </c>
       <c r="AA32" t="n">
-        <v>339.25</v>
+        <v>339.34</v>
       </c>
       <c r="AB32" t="n">
-        <v>342.51</v>
+        <v>342.68</v>
       </c>
       <c r="AC32" t="n">
         <v>349.23</v>
@@ -3712,7 +3712,7 @@
         <v>363.24</v>
       </c>
       <c r="AA33" t="n">
-        <v>346.8</v>
+        <v>346.82</v>
       </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -3813,10 +3813,10 @@
         <v>349.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>338.49</v>
+        <v>338.6</v>
       </c>
       <c r="AB34" t="n">
-        <v>338.78</v>
+        <v>338.98</v>
       </c>
       <c r="AC34" t="n">
         <v>353.6</v>
@@ -3918,10 +3918,10 @@
         <v>351.94</v>
       </c>
       <c r="AA35" t="n">
-        <v>338.88</v>
+        <v>339.07</v>
       </c>
       <c r="AB35" t="n">
-        <v>337.5</v>
+        <v>337.84</v>
       </c>
       <c r="AC35" t="n">
         <v>360.23</v>
@@ -4023,10 +4023,10 @@
         <v>344.39</v>
       </c>
       <c r="AA36" t="n">
-        <v>329.76</v>
+        <v>329.9</v>
       </c>
       <c r="AB36" t="n">
-        <v>319.74</v>
+        <v>319.99</v>
       </c>
       <c r="AC36" t="n">
         <v>344</v>
@@ -4201,10 +4201,10 @@
         <v>328.61</v>
       </c>
       <c r="AA38" t="n">
-        <v>314.93</v>
+        <v>314.96</v>
       </c>
       <c r="AB38" t="n">
-        <v>317.68</v>
+        <v>317.74</v>
       </c>
       <c r="AC38" t="n">
         <v>322.54</v>
@@ -4278,10 +4278,10 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
-        <v>306.87</v>
+        <v>306.77</v>
       </c>
       <c r="AB39" t="n">
-        <v>304.11</v>
+        <v>303.93</v>
       </c>
       <c r="AC39" t="n">
         <v>319.15</v>
@@ -4374,7 +4374,7 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="n">
-        <v>368.87</v>
+        <v>368.7</v>
       </c>
       <c r="AC40" t="n">
         <v>386.38</v>
@@ -4466,10 +4466,10 @@
         <v>343.33</v>
       </c>
       <c r="AA41" t="n">
-        <v>337.55</v>
+        <v>337.72</v>
       </c>
       <c r="AB41" t="n">
-        <v>332.79</v>
+        <v>333.09</v>
       </c>
       <c r="AC41" t="n">
         <v>355.51</v>
@@ -4569,10 +4569,10 @@
         <v>328.31</v>
       </c>
       <c r="AA42" t="n">
-        <v>330.17</v>
+        <v>330.15</v>
       </c>
       <c r="AB42" t="n">
-        <v>335.02</v>
+        <v>334.98</v>
       </c>
       <c r="AC42" t="n">
         <v>349.03</v>
@@ -4674,10 +4674,10 @@
         <v>358.26</v>
       </c>
       <c r="AA43" t="n">
-        <v>339.16</v>
+        <v>339.23</v>
       </c>
       <c r="AB43" t="n">
-        <v>342.08</v>
+        <v>342.2</v>
       </c>
       <c r="AC43" t="n">
         <v>347.42</v>
@@ -4771,10 +4771,10 @@
         <v>371.69</v>
       </c>
       <c r="AA44" t="n">
-        <v>376.41</v>
+        <v>376.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>369.1</v>
+        <v>368.9</v>
       </c>
       <c r="AC44" t="n">
         <v>384.26</v>
@@ -4864,10 +4864,10 @@
         <v>346.61</v>
       </c>
       <c r="AA45" t="n">
-        <v>349.53</v>
+        <v>349.43</v>
       </c>
       <c r="AB45" t="n">
-        <v>347.48</v>
+        <v>347.31</v>
       </c>
       <c r="AC45" t="n">
         <v>358.93</v>
@@ -4969,10 +4969,10 @@
         <v>372.52</v>
       </c>
       <c r="AA46" t="n">
-        <v>367.06</v>
+        <v>366.99</v>
       </c>
       <c r="AB46" t="n">
-        <v>366.61</v>
+        <v>366.48</v>
       </c>
       <c r="AC46" t="n">
         <v>364.12</v>
@@ -5066,10 +5066,10 @@
         <v>373.29</v>
       </c>
       <c r="AA47" t="n">
-        <v>344.83</v>
+        <v>345.06</v>
       </c>
       <c r="AB47" t="n">
-        <v>353.6</v>
+        <v>354.01</v>
       </c>
       <c r="AC47" t="n">
         <v>369.94</v>
@@ -5159,10 +5159,10 @@
         <v>351.31</v>
       </c>
       <c r="AA48" t="n">
-        <v>351.15</v>
+        <v>351.07</v>
       </c>
       <c r="AB48" t="n">
-        <v>319.25</v>
+        <v>319.11</v>
       </c>
       <c r="AC48" t="n">
         <v>321.5</v>
@@ -5254,10 +5254,10 @@
         <v>364.02</v>
       </c>
       <c r="AA49" t="n">
-        <v>345.48</v>
+        <v>345.66</v>
       </c>
       <c r="AB49" t="n">
-        <v>348.27</v>
+        <v>348.59</v>
       </c>
       <c r="AC49" t="n">
         <v>356.05</v>
@@ -5357,10 +5357,10 @@
         <v>349.38</v>
       </c>
       <c r="AA50" t="n">
-        <v>356.89</v>
+        <v>356.8</v>
       </c>
       <c r="AB50" t="n">
-        <v>352.94</v>
+        <v>352.78</v>
       </c>
       <c r="AC50" t="n">
         <v>347.6</v>
@@ -5454,10 +5454,10 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
-        <v>344.55</v>
+        <v>344.7</v>
       </c>
       <c r="AB51" t="n">
-        <v>348.13</v>
+        <v>348.4</v>
       </c>
       <c r="AC51" t="n">
         <v>363.57</v>
@@ -5642,10 +5642,10 @@
         <v>345.42</v>
       </c>
       <c r="AA53" t="n">
-        <v>330.95</v>
+        <v>331.15</v>
       </c>
       <c r="AB53" t="n">
-        <v>318.19</v>
+        <v>318.54</v>
       </c>
       <c r="AC53" t="n">
         <v>344.82</v>
@@ -5812,10 +5812,10 @@
         <v>318.56</v>
       </c>
       <c r="AA55" t="n">
-        <v>328.86</v>
+        <v>328.98</v>
       </c>
       <c r="AB55" t="n">
-        <v>320.14</v>
+        <v>320.36</v>
       </c>
       <c r="AC55" t="n">
         <v>348.08</v>
@@ -6006,10 +6006,10 @@
         <v>347.33</v>
       </c>
       <c r="AA57" t="n">
-        <v>333.68</v>
+        <v>333.58</v>
       </c>
       <c r="AB57" t="n">
-        <v>337.19</v>
+        <v>337.01</v>
       </c>
       <c r="AC57" t="n">
         <v>340.42</v>
@@ -6114,7 +6114,7 @@
         <v>342.53</v>
       </c>
       <c r="AB58" t="n">
-        <v>351.07</v>
+        <v>351.06</v>
       </c>
       <c r="AC58" t="n">
         <v>349.05</v>
@@ -6311,10 +6311,10 @@
         <v>373.28</v>
       </c>
       <c r="AA60" t="n">
-        <v>348.51</v>
+        <v>348.7</v>
       </c>
       <c r="AB60" t="n">
-        <v>354.47</v>
+        <v>354.81</v>
       </c>
       <c r="AC60" t="n">
         <v>366.73</v>
@@ -6411,7 +6411,7 @@
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
-        <v>353.87</v>
+        <v>353.92</v>
       </c>
       <c r="AC61" t="n">
         <v>355.17</v>
@@ -6494,7 +6494,7 @@
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>318.12</v>
+        <v>318.22</v>
       </c>
       <c r="AC62" t="n">
         <v>318.22</v>
@@ -6590,10 +6590,10 @@
         <v>371.52</v>
       </c>
       <c r="AA63" t="n">
-        <v>370.49</v>
+        <v>370.41</v>
       </c>
       <c r="AB63" t="n">
-        <v>370.08</v>
+        <v>369.94</v>
       </c>
       <c r="AC63" t="n">
         <v>374.3</v>
@@ -6687,10 +6687,10 @@
         <v>369.49</v>
       </c>
       <c r="AA64" t="n">
-        <v>338.27</v>
+        <v>338.45</v>
       </c>
       <c r="AB64" t="n">
-        <v>339.93</v>
+        <v>340.25</v>
       </c>
       <c r="AC64" t="n">
         <v>360.54</v>
@@ -6776,10 +6776,10 @@
         <v>358.9</v>
       </c>
       <c r="AA65" t="n">
-        <v>340.06</v>
+        <v>340.22</v>
       </c>
       <c r="AB65" t="n">
-        <v>349</v>
+        <v>349.28</v>
       </c>
       <c r="AC65" t="n">
         <v>361.18</v>
@@ -6871,10 +6871,10 @@
         <v>328.68</v>
       </c>
       <c r="AA66" t="n">
-        <v>354.28</v>
+        <v>354.21</v>
       </c>
       <c r="AB66" t="n">
-        <v>332.31</v>
+        <v>332.19</v>
       </c>
       <c r="AC66" t="n">
         <v>360.64</v>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>294.22</v>
+        <v>293.98</v>
       </c>
       <c r="AC67" t="n">
         <v>364.45</v>
@@ -7063,10 +7063,10 @@
         <v>329.91</v>
       </c>
       <c r="AA68" t="n">
-        <v>327.41</v>
+        <v>327.53</v>
       </c>
       <c r="AB68" t="n">
-        <v>314.3</v>
+        <v>314.52</v>
       </c>
       <c r="AC68" t="n">
         <v>347.21</v>
@@ -7154,10 +7154,10 @@
       </c>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
-        <v>333.94</v>
+        <v>333.95</v>
       </c>
       <c r="AB69" t="n">
-        <v>304.09</v>
+        <v>304.11</v>
       </c>
       <c r="AC69" t="n">
         <v>342.41</v>
@@ -7248,7 +7248,7 @@
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
-        <v>395.33</v>
+        <v>395.14</v>
       </c>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="n">
@@ -7423,10 +7423,10 @@
         <v>362.07</v>
       </c>
       <c r="AA72" t="n">
-        <v>351.39</v>
+        <v>351.42</v>
       </c>
       <c r="AB72" t="n">
-        <v>356.3</v>
+        <v>356.36</v>
       </c>
       <c r="AC72" t="n">
         <v>354.57</v>
@@ -7520,10 +7520,10 @@
         <v>365.39</v>
       </c>
       <c r="AA73" t="n">
-        <v>340.77</v>
+        <v>340.93</v>
       </c>
       <c r="AB73" t="n">
-        <v>350.36</v>
+        <v>350.63</v>
       </c>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
@@ -7791,10 +7791,10 @@
         <v>350.41</v>
       </c>
       <c r="AA76" t="n">
-        <v>320.84</v>
+        <v>320.99</v>
       </c>
       <c r="AB76" t="n">
-        <v>329.43</v>
+        <v>329.7</v>
       </c>
       <c r="AC76" t="n">
         <v>341.03</v>
@@ -7884,10 +7884,10 @@
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
-        <v>395.12</v>
+        <v>395.01</v>
       </c>
       <c r="AB77" t="n">
-        <v>391.67</v>
+        <v>391.48</v>
       </c>
       <c r="AC77" t="n">
         <v>391.51</v>
@@ -7977,10 +7977,10 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
-        <v>356.1</v>
+        <v>356.07</v>
       </c>
       <c r="AB78" t="n">
-        <v>362.53</v>
+        <v>362.48</v>
       </c>
       <c r="AC78" t="n">
         <v>357.71</v>
@@ -8060,10 +8060,10 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
-        <v>345.02</v>
+        <v>345.21</v>
       </c>
       <c r="AB79" t="n">
-        <v>351.76</v>
+        <v>352.1</v>
       </c>
       <c r="AC79" t="n">
         <v>362.6</v>
@@ -8141,10 +8141,10 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
-        <v>332.6</v>
+        <v>332.75</v>
       </c>
       <c r="AB80" t="n">
-        <v>328.72</v>
+        <v>328.99</v>
       </c>
       <c r="AC80" t="n">
         <v>348.26</v>
@@ -8228,10 +8228,10 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
-        <v>349.22</v>
+        <v>349.28</v>
       </c>
       <c r="AB81" t="n">
-        <v>342.14</v>
+        <v>342.25</v>
       </c>
       <c r="AC81" t="n">
         <v>357.64</v>
@@ -8418,10 +8418,10 @@
         <v>368.48</v>
       </c>
       <c r="AA83" t="n">
-        <v>345.04</v>
+        <v>345.24</v>
       </c>
       <c r="AB83" t="n">
-        <v>346.73</v>
+        <v>347.1</v>
       </c>
       <c r="AC83" t="n">
         <v>364</v>
@@ -8509,10 +8509,10 @@
       </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="n">
-        <v>330.47</v>
+        <v>330.4</v>
       </c>
       <c r="AB84" t="n">
-        <v>338.57</v>
+        <v>338.45</v>
       </c>
       <c r="AC84" t="n">
         <v>330.65</v>
@@ -8612,10 +8612,10 @@
         <v>360.48</v>
       </c>
       <c r="AA85" t="n">
-        <v>340.47</v>
+        <v>340.61</v>
       </c>
       <c r="AB85" t="n">
-        <v>345.6</v>
+        <v>345.86</v>
       </c>
       <c r="AC85" t="n">
         <v>350.02</v>
@@ -8717,10 +8717,10 @@
         <v>366.69</v>
       </c>
       <c r="AA86" t="n">
-        <v>335.19</v>
+        <v>335.41</v>
       </c>
       <c r="AB86" t="n">
-        <v>339.49</v>
+        <v>339.89</v>
       </c>
       <c r="AC86" t="n">
         <v>354.08</v>
@@ -8792,10 +8792,10 @@
         <v>359.79</v>
       </c>
       <c r="AA87" t="n">
-        <v>346.15</v>
+        <v>346.18</v>
       </c>
       <c r="AB87" t="n">
-        <v>341.36</v>
+        <v>341.41</v>
       </c>
       <c r="AC87" t="n">
         <v>329.19</v>
@@ -8885,10 +8885,10 @@
         <v>340.47</v>
       </c>
       <c r="AA88" t="n">
-        <v>328.92</v>
+        <v>329.09</v>
       </c>
       <c r="AB88" t="n">
-        <v>329.55</v>
+        <v>329.86</v>
       </c>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
@@ -9045,10 +9045,10 @@
       </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="n">
-        <v>325.55</v>
+        <v>325.69</v>
       </c>
       <c r="AB90" t="n">
-        <v>303.58</v>
+        <v>303.83</v>
       </c>
       <c r="AC90" t="n">
         <v>347.83</v>
@@ -9134,10 +9134,10 @@
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
-        <v>320.1</v>
+        <v>320.13</v>
       </c>
       <c r="AB91" t="n">
-        <v>325.66</v>
+        <v>325.71</v>
       </c>
       <c r="AC91" t="n">
         <v>341.82</v>
@@ -9317,7 +9317,7 @@
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
-        <v>347.19</v>
+        <v>347.2</v>
       </c>
       <c r="AC93" t="n">
         <v>353.1</v>
@@ -9419,10 +9419,10 @@
         <v>362.2</v>
       </c>
       <c r="AA94" t="n">
-        <v>358</v>
+        <v>357.96</v>
       </c>
       <c r="AB94" t="n">
-        <v>359.12</v>
+        <v>359.04</v>
       </c>
       <c r="AC94" t="n">
         <v>354.31</v>
@@ -9500,10 +9500,10 @@
         <v>364.69</v>
       </c>
       <c r="AA95" t="n">
-        <v>331.63</v>
+        <v>331.83</v>
       </c>
       <c r="AB95" t="n">
-        <v>342.07</v>
+        <v>342.42</v>
       </c>
       <c r="AC95" t="n">
         <v>354.16</v>
@@ -9597,10 +9597,10 @@
         <v>362.67</v>
       </c>
       <c r="AA96" t="n">
-        <v>332.96</v>
+        <v>333.13</v>
       </c>
       <c r="AB96" t="n">
-        <v>346.22</v>
+        <v>346.53</v>
       </c>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
@@ -9688,10 +9688,10 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
-        <v>340.14</v>
+        <v>340.3</v>
       </c>
       <c r="AB97" t="n">
-        <v>348.52</v>
+        <v>348.81</v>
       </c>
       <c r="AC97" t="n">
         <v>360.41</v>
@@ -9793,10 +9793,10 @@
         <v>363.37</v>
       </c>
       <c r="AA98" t="n">
-        <v>355.55</v>
+        <v>355.59</v>
       </c>
       <c r="AB98" t="n">
-        <v>352.35</v>
+        <v>352.42</v>
       </c>
       <c r="AC98" t="n">
         <v>355.63</v>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
-        <v>316.84</v>
+        <v>316.8</v>
       </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
-        <v>292.23</v>
+        <v>292.24</v>
       </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
@@ -10099,10 +10099,10 @@
         <v>395.55</v>
       </c>
       <c r="AA102" t="n">
-        <v>397.47</v>
+        <v>397.36</v>
       </c>
       <c r="AB102" t="n">
-        <v>388.07</v>
+        <v>387.88</v>
       </c>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
@@ -10190,10 +10190,10 @@
         <v>370.78</v>
       </c>
       <c r="AA103" t="n">
-        <v>372.55</v>
+        <v>372.52</v>
       </c>
       <c r="AB103" t="n">
-        <v>371.55</v>
+        <v>371.49</v>
       </c>
       <c r="AC103" t="n">
         <v>365.4</v>
@@ -10288,7 +10288,7 @@
         <v>337.92</v>
       </c>
       <c r="AB104" t="n">
-        <v>341.98</v>
+        <v>341.99</v>
       </c>
       <c r="AC104" t="n">
         <v>346.44</v>
@@ -10382,10 +10382,10 @@
         <v>362.71</v>
       </c>
       <c r="AA105" t="n">
-        <v>359.89</v>
+        <v>359.88</v>
       </c>
       <c r="AB105" t="n">
-        <v>351.18</v>
+        <v>351.17</v>
       </c>
       <c r="AC105" t="n">
         <v>355.98</v>
@@ -10535,7 +10535,7 @@
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="n">
-        <v>363.98</v>
+        <v>363.91</v>
       </c>
       <c r="AC107" t="n">
         <v>363.84</v>
@@ -10720,10 +10720,10 @@
         <v>363.1</v>
       </c>
       <c r="AA109" t="n">
-        <v>350.26</v>
+        <v>350.4</v>
       </c>
       <c r="AB109" t="n">
-        <v>357.98</v>
+        <v>358.23</v>
       </c>
       <c r="AC109" t="n">
         <v>359.95</v>
@@ -10815,10 +10815,10 @@
         <v>352.69</v>
       </c>
       <c r="AA110" t="n">
-        <v>351.98</v>
+        <v>351.96</v>
       </c>
       <c r="AB110" t="n">
-        <v>359.62</v>
+        <v>359.59</v>
       </c>
       <c r="AC110" t="n">
         <v>353.85</v>
@@ -10902,10 +10902,10 @@
         <v>375.08</v>
       </c>
       <c r="AA111" t="n">
-        <v>348.4</v>
+        <v>348.59</v>
       </c>
       <c r="AB111" t="n">
-        <v>352.58</v>
+        <v>352.92</v>
       </c>
       <c r="AC111" t="n">
         <v>386.66</v>
@@ -11003,10 +11003,10 @@
         <v>368.53</v>
       </c>
       <c r="AA112" t="n">
-        <v>340.68</v>
+        <v>340.87</v>
       </c>
       <c r="AB112" t="n">
-        <v>343.35</v>
+        <v>343.69</v>
       </c>
       <c r="AC112" t="n">
         <v>359.19</v>
@@ -11106,10 +11106,10 @@
         <v>367.81</v>
       </c>
       <c r="AA113" t="n">
-        <v>351.35</v>
+        <v>351.42</v>
       </c>
       <c r="AB113" t="n">
-        <v>357.87</v>
+        <v>358</v>
       </c>
       <c r="AC113" t="n">
         <v>368.93</v>
@@ -11347,10 +11347,10 @@
         <v>350.36</v>
       </c>
       <c r="AA116" t="n">
-        <v>348.04</v>
+        <v>348</v>
       </c>
       <c r="AB116" t="n">
-        <v>344.94</v>
+        <v>344.88</v>
       </c>
       <c r="AC116" t="n">
         <v>352.75</v>
@@ -11452,10 +11452,10 @@
         <v>367.4</v>
       </c>
       <c r="AA117" t="n">
-        <v>350.87</v>
+        <v>350.93</v>
       </c>
       <c r="AB117" t="n">
-        <v>353.52</v>
+        <v>353.63</v>
       </c>
       <c r="AC117" t="n">
         <v>366.39</v>
@@ -11557,10 +11557,10 @@
         <v>367.38</v>
       </c>
       <c r="AA118" t="n">
-        <v>349.54</v>
+        <v>349.61</v>
       </c>
       <c r="AB118" t="n">
-        <v>359.91</v>
+        <v>360.03</v>
       </c>
       <c r="AC118" t="n">
         <v>360.46</v>
@@ -11654,10 +11654,10 @@
         <v>360.83</v>
       </c>
       <c r="AA119" t="n">
-        <v>346.51</v>
+        <v>346.64</v>
       </c>
       <c r="AB119" t="n">
-        <v>354.25</v>
+        <v>354.49</v>
       </c>
       <c r="AC119" t="n">
         <v>358.27</v>
@@ -11749,7 +11749,7 @@
         <v>374.23</v>
       </c>
       <c r="AA120" t="n">
-        <v>343.12</v>
+        <v>343.33</v>
       </c>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
@@ -11848,10 +11848,10 @@
         <v>357.91</v>
       </c>
       <c r="AA121" t="n">
-        <v>366.7</v>
+        <v>366.58</v>
       </c>
       <c r="AB121" t="n">
-        <v>355.17</v>
+        <v>354.95</v>
       </c>
       <c r="AC121" t="n">
         <v>364.33</v>
@@ -11953,7 +11953,7 @@
         <v>357.49</v>
       </c>
       <c r="AA122" t="n">
-        <v>324.26</v>
+        <v>324.15</v>
       </c>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
@@ -12048,10 +12048,10 @@
         <v>373.12</v>
       </c>
       <c r="AA123" t="n">
-        <v>344.14</v>
+        <v>344.34</v>
       </c>
       <c r="AB123" t="n">
-        <v>355.39</v>
+        <v>355.74</v>
       </c>
       <c r="AC123" t="n">
         <v>367.77</v>
@@ -12151,10 +12151,10 @@
         <v>351.74</v>
       </c>
       <c r="AA124" t="n">
-        <v>345.59</v>
+        <v>345.58</v>
       </c>
       <c r="AB124" t="n">
-        <v>351.06</v>
+        <v>351.03</v>
       </c>
       <c r="AC124" t="n">
         <v>346.89</v>
@@ -12345,10 +12345,10 @@
         <v>352.93</v>
       </c>
       <c r="AA126" t="n">
-        <v>345.92</v>
+        <v>345.91</v>
       </c>
       <c r="AB126" t="n">
-        <v>348.51</v>
+        <v>348.5</v>
       </c>
       <c r="AC126" t="n">
         <v>352.96</v>
@@ -12537,10 +12537,10 @@
         <v>371.57</v>
       </c>
       <c r="AA128" t="n">
-        <v>344.74</v>
+        <v>344.93</v>
       </c>
       <c r="AB128" t="n">
-        <v>342.34</v>
+        <v>342.67</v>
       </c>
       <c r="AC128" t="n">
         <v>357.31</v>
@@ -12621,7 +12621,7 @@
       <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
-        <v>323.12</v>
+        <v>323.09</v>
       </c>
       <c r="AC129" t="n">
         <v>348.02</v>
@@ -12723,10 +12723,10 @@
         <v>366.01</v>
       </c>
       <c r="AA130" t="n">
-        <v>347.62</v>
+        <v>347.67</v>
       </c>
       <c r="AB130" t="n">
-        <v>339.78</v>
+        <v>339.88</v>
       </c>
       <c r="AC130" t="n">
         <v>363.86</v>
@@ -12818,10 +12818,10 @@
       </c>
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="n">
-        <v>342.37</v>
+        <v>342.31</v>
       </c>
       <c r="AB131" t="n">
-        <v>302.22</v>
+        <v>302.12</v>
       </c>
       <c r="AC131" t="n">
         <v>339.11</v>
@@ -12911,10 +12911,10 @@
         <v>359.08</v>
       </c>
       <c r="AA132" t="n">
-        <v>330.47</v>
+        <v>330.63</v>
       </c>
       <c r="AB132" t="n">
-        <v>325.32</v>
+        <v>325.61</v>
       </c>
       <c r="AC132" t="n">
         <v>354.14</v>
@@ -13012,10 +13012,10 @@
         <v>362.06</v>
       </c>
       <c r="AA133" t="n">
-        <v>356.06</v>
+        <v>356.02</v>
       </c>
       <c r="AB133" t="n">
-        <v>364.52</v>
+        <v>364.44</v>
       </c>
       <c r="AC133" t="n">
         <v>366.62</v>
@@ -13109,10 +13109,10 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="n">
-        <v>349.4</v>
+        <v>349.51</v>
       </c>
       <c r="AB134" t="n">
-        <v>352.51</v>
+        <v>352.7</v>
       </c>
       <c r="AC134" t="n">
         <v>367.93</v>
@@ -13204,10 +13204,10 @@
         <v>361.46</v>
       </c>
       <c r="AA135" t="n">
-        <v>351.69</v>
+        <v>351.67</v>
       </c>
       <c r="AB135" t="n">
-        <v>358.3</v>
+        <v>358.26</v>
       </c>
       <c r="AC135" t="n">
         <v>357.47</v>
@@ -13301,10 +13301,10 @@
         <v>355.4</v>
       </c>
       <c r="AA136" t="n">
-        <v>349.75</v>
+        <v>349.73</v>
       </c>
       <c r="AB136" t="n">
-        <v>354.31</v>
+        <v>354.28</v>
       </c>
       <c r="AC136" t="n">
         <v>353.75</v>
@@ -13392,10 +13392,10 @@
         <v>359.31</v>
       </c>
       <c r="AA137" t="n">
-        <v>360.54</v>
+        <v>360.51</v>
       </c>
       <c r="AB137" t="n">
-        <v>363.7</v>
+        <v>363.65</v>
       </c>
       <c r="AC137" t="n">
         <v>360.93</v>
@@ -13487,10 +13487,10 @@
         <v>357.25</v>
       </c>
       <c r="AA138" t="n">
-        <v>333.73</v>
+        <v>333.88</v>
       </c>
       <c r="AB138" t="n">
-        <v>343.48</v>
+        <v>343.75</v>
       </c>
       <c r="AC138" t="n">
         <v>349.56</v>
@@ -13592,10 +13592,10 @@
         <v>381.52</v>
       </c>
       <c r="AA139" t="n">
-        <v>372.93</v>
+        <v>372.8</v>
       </c>
       <c r="AB139" t="n">
-        <v>375.94</v>
+        <v>375.71</v>
       </c>
       <c r="AC139" t="n">
         <v>380.68</v>
@@ -13697,10 +13697,10 @@
         <v>351.8</v>
       </c>
       <c r="AA140" t="n">
-        <v>357.7</v>
+        <v>357.6</v>
       </c>
       <c r="AB140" t="n">
-        <v>362.57</v>
+        <v>362.39</v>
       </c>
       <c r="AC140" t="n">
         <v>364.39</v>
@@ -13802,10 +13802,10 @@
         <v>355.4</v>
       </c>
       <c r="AA141" t="n">
-        <v>351.41</v>
+        <v>351.39</v>
       </c>
       <c r="AB141" t="n">
-        <v>357.98</v>
+        <v>357.95</v>
       </c>
       <c r="AC141" t="n">
         <v>354.43</v>
@@ -13907,10 +13907,10 @@
         <v>359.25</v>
       </c>
       <c r="AA142" t="n">
-        <v>337.65</v>
+        <v>337.75</v>
       </c>
       <c r="AB142" t="n">
-        <v>339.15</v>
+        <v>339.34</v>
       </c>
       <c r="AC142" t="n">
         <v>355.37</v>
@@ -14002,10 +14002,10 @@
         <v>381.72</v>
       </c>
       <c r="AA143" t="n">
-        <v>375.02</v>
+        <v>374.94</v>
       </c>
       <c r="AB143" t="n">
-        <v>355.23</v>
+        <v>355.08</v>
       </c>
       <c r="AC143" t="n">
         <v>385.67</v>
@@ -14105,10 +14105,10 @@
         <v>333.78</v>
       </c>
       <c r="AA144" t="n">
-        <v>331.86</v>
+        <v>332.02</v>
       </c>
       <c r="AB144" t="n">
-        <v>333.69</v>
+        <v>333.97</v>
       </c>
       <c r="AC144" t="n">
         <v>362.76</v>
@@ -14208,10 +14208,10 @@
         <v>365.39</v>
       </c>
       <c r="AA145" t="n">
-        <v>345.37</v>
+        <v>345.3</v>
       </c>
       <c r="AB145" t="n">
-        <v>325.37</v>
+        <v>325.25</v>
       </c>
       <c r="AC145" t="n">
         <v>366.31</v>
@@ -14311,10 +14311,10 @@
         <v>355.54</v>
       </c>
       <c r="AA146" t="n">
-        <v>347.3</v>
+        <v>347.27</v>
       </c>
       <c r="AB146" t="n">
-        <v>349.1</v>
+        <v>349.04</v>
       </c>
       <c r="AC146" t="n">
         <v>351.17</v>
@@ -14392,10 +14392,10 @@
         <v>361.82</v>
       </c>
       <c r="AA147" t="n">
-        <v>336.2</v>
+        <v>336.36</v>
       </c>
       <c r="AB147" t="n">
-        <v>342.6</v>
+        <v>342.88</v>
       </c>
       <c r="AC147" t="n">
         <v>359.02</v>
@@ -14473,10 +14473,10 @@
         <v>366.15</v>
       </c>
       <c r="AA148" t="n">
-        <v>346.27</v>
+        <v>346.3</v>
       </c>
       <c r="AB148" t="n">
-        <v>358.63</v>
+        <v>358.69</v>
       </c>
       <c r="AC148" t="n">
         <v>360.33</v>
@@ -14546,10 +14546,10 @@
         <v>368.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>343.06</v>
+        <v>343.22</v>
       </c>
       <c r="AB149" t="n">
-        <v>350.02</v>
+        <v>350.31</v>
       </c>
       <c r="AC149" t="inlineStr"/>
       <c r="AD149" t="inlineStr"/>
@@ -14635,10 +14635,10 @@
         <v>367.15</v>
       </c>
       <c r="AA150" t="n">
-        <v>344.8</v>
+        <v>344.99</v>
       </c>
       <c r="AB150" t="n">
-        <v>344.58</v>
+        <v>344.92</v>
       </c>
       <c r="AC150" t="n">
         <v>362.75</v>
@@ -14732,10 +14732,10 @@
         <v>365.22</v>
       </c>
       <c r="AA151" t="n">
-        <v>345.08</v>
+        <v>345.19</v>
       </c>
       <c r="AB151" t="n">
-        <v>343.7</v>
+        <v>343.89</v>
       </c>
       <c r="AC151" t="n">
         <v>357.23</v>
@@ -14837,10 +14837,10 @@
         <v>359.45</v>
       </c>
       <c r="AA152" t="n">
-        <v>350.56</v>
+        <v>350.54</v>
       </c>
       <c r="AB152" t="n">
-        <v>349.53</v>
+        <v>349.5</v>
       </c>
       <c r="AC152" t="n">
         <v>350.27</v>
@@ -14987,10 +14987,10 @@
         <v>360.25</v>
       </c>
       <c r="AA154" t="n">
-        <v>339.75</v>
+        <v>339.94</v>
       </c>
       <c r="AB154" t="n">
-        <v>340.16</v>
+        <v>340.5</v>
       </c>
       <c r="AC154" t="n">
         <v>366.92</v>
@@ -15074,10 +15074,10 @@
       </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
-        <v>345.49</v>
+        <v>345.43</v>
       </c>
       <c r="AB155" t="n">
-        <v>319.21</v>
+        <v>319.11</v>
       </c>
       <c r="AC155" t="n">
         <v>360.29</v>
@@ -15163,10 +15163,10 @@
       </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
-        <v>320.8</v>
+        <v>320.95</v>
       </c>
       <c r="AB156" t="n">
-        <v>313.64</v>
+        <v>313.9</v>
       </c>
       <c r="AC156" t="n">
         <v>353.33</v>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>382.98</v>
+        <v>382.84</v>
       </c>
       <c r="AC157" t="n">
         <v>391.87</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="n">
-        <v>385.1</v>
+        <v>384.92</v>
       </c>
       <c r="AC159" t="n">
         <v>398.45</v>
@@ -15551,10 +15551,10 @@
         <v>351.65</v>
       </c>
       <c r="AA160" t="n">
-        <v>344.39</v>
+        <v>344.36</v>
       </c>
       <c r="AB160" t="n">
-        <v>345.93</v>
+        <v>345.88</v>
       </c>
       <c r="AC160" t="n">
         <v>349.79</v>
@@ -15656,10 +15656,10 @@
         <v>344.18</v>
       </c>
       <c r="AA161" t="n">
-        <v>338</v>
+        <v>338.11</v>
       </c>
       <c r="AB161" t="n">
-        <v>345.22</v>
+        <v>345.43</v>
       </c>
       <c r="AC161" t="n">
         <v>358.34</v>
@@ -15761,10 +15761,10 @@
         <v>364.85</v>
       </c>
       <c r="AA162" t="n">
-        <v>334.36</v>
+        <v>334.56</v>
       </c>
       <c r="AB162" t="n">
-        <v>338.67</v>
+        <v>339.04</v>
       </c>
       <c r="AC162" t="n">
         <v>357.32</v>
@@ -15854,7 +15854,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr"/>
       <c r="AA163" t="n">
-        <v>345.66</v>
+        <v>345.6</v>
       </c>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
@@ -15949,10 +15949,10 @@
         <v>351.43</v>
       </c>
       <c r="AA164" t="n">
-        <v>345.61</v>
+        <v>345.63</v>
       </c>
       <c r="AB164" t="n">
-        <v>351.22</v>
+        <v>351.25</v>
       </c>
       <c r="AC164" t="n">
         <v>353.54</v>
@@ -16046,10 +16046,10 @@
         <v>363.73</v>
       </c>
       <c r="AA165" t="n">
-        <v>337.41</v>
+        <v>337.6</v>
       </c>
       <c r="AB165" t="n">
-        <v>344.24</v>
+        <v>344.58</v>
       </c>
       <c r="AC165" t="n">
         <v>353.96</v>
@@ -16149,10 +16149,10 @@
         <v>356.31</v>
       </c>
       <c r="AA166" t="n">
-        <v>346.1</v>
+        <v>346.09</v>
       </c>
       <c r="AB166" t="n">
-        <v>341.74</v>
+        <v>341.72</v>
       </c>
       <c r="AC166" t="n">
         <v>345.41</v>
@@ -16254,10 +16254,10 @@
         <v>361.31</v>
       </c>
       <c r="AA167" t="n">
-        <v>352.33</v>
+        <v>352.32</v>
       </c>
       <c r="AB167" t="n">
-        <v>347.15</v>
+        <v>347.13</v>
       </c>
       <c r="AC167" t="n">
         <v>352.72</v>
@@ -16357,10 +16357,10 @@
         <v>370.27</v>
       </c>
       <c r="AA168" t="n">
-        <v>344.35</v>
+        <v>344.53</v>
       </c>
       <c r="AB168" t="n">
-        <v>345.12</v>
+        <v>345.44</v>
       </c>
       <c r="AC168" t="n">
         <v>363.66</v>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="n">
-        <v>356.14</v>
+        <v>356.01</v>
       </c>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
@@ -16545,10 +16545,10 @@
       </c>
       <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="n">
-        <v>329.01</v>
+        <v>329.2</v>
       </c>
       <c r="AB170" t="n">
-        <v>325.06</v>
+        <v>325.4</v>
       </c>
       <c r="AC170" t="n">
         <v>354.22</v>
@@ -16648,10 +16648,10 @@
         <v>360.86</v>
       </c>
       <c r="AA171" t="n">
-        <v>353.94</v>
+        <v>353.95</v>
       </c>
       <c r="AB171" t="n">
-        <v>331.16</v>
+        <v>331.17</v>
       </c>
       <c r="AC171" t="n">
         <v>353.48</v>
@@ -16745,10 +16745,10 @@
         <v>349.38</v>
       </c>
       <c r="AA172" t="n">
-        <v>331.99</v>
+        <v>332.04</v>
       </c>
       <c r="AB172" t="n">
-        <v>308.3</v>
+        <v>308.38</v>
       </c>
       <c r="AC172" t="n">
         <v>330.18</v>
@@ -16840,10 +16840,10 @@
         <v>359.54</v>
       </c>
       <c r="AA173" t="n">
-        <v>334.12</v>
+        <v>334.28</v>
       </c>
       <c r="AB173" t="n">
-        <v>336.57</v>
+        <v>336.86</v>
       </c>
       <c r="AC173" t="n">
         <v>353.57</v>
@@ -16937,10 +16937,10 @@
         <v>357.68</v>
       </c>
       <c r="AA174" t="n">
-        <v>350.59</v>
+        <v>350.58</v>
       </c>
       <c r="AB174" t="n">
-        <v>356.92</v>
+        <v>356.9</v>
       </c>
       <c r="AC174" t="n">
         <v>353.88</v>
@@ -17022,10 +17022,10 @@
         <v>353.65</v>
       </c>
       <c r="AA175" t="n">
-        <v>342.92</v>
+        <v>342.91</v>
       </c>
       <c r="AB175" t="n">
-        <v>349.12</v>
+        <v>349.1</v>
       </c>
       <c r="AC175" t="n">
         <v>346.77</v>
@@ -17127,10 +17127,10 @@
         <v>366.22</v>
       </c>
       <c r="AA176" t="n">
-        <v>349</v>
+        <v>349.12</v>
       </c>
       <c r="AB176" t="n">
-        <v>357.5</v>
+        <v>357.72</v>
       </c>
       <c r="AC176" t="n">
         <v>367.64</v>
@@ -17232,10 +17232,10 @@
         <v>374.41</v>
       </c>
       <c r="AA177" t="n">
-        <v>353.31</v>
+        <v>353.49</v>
       </c>
       <c r="AB177" t="n">
-        <v>362.25</v>
+        <v>362.57</v>
       </c>
       <c r="AC177" t="n">
         <v>364.22</v>
@@ -17329,10 +17329,10 @@
         <v>351.41</v>
       </c>
       <c r="AA178" t="n">
-        <v>342.81</v>
+        <v>342.69</v>
       </c>
       <c r="AB178" t="n">
-        <v>341.39</v>
+        <v>341.18</v>
       </c>
       <c r="AC178" t="n">
         <v>353.57</v>
@@ -17430,10 +17430,10 @@
         <v>364.4</v>
       </c>
       <c r="AA179" t="n">
-        <v>342.81</v>
+        <v>342.94</v>
       </c>
       <c r="AB179" t="n">
-        <v>347.8</v>
+        <v>348.03</v>
       </c>
       <c r="AC179" t="n">
         <v>358.96</v>
@@ -17628,10 +17628,10 @@
         <v>355.5</v>
       </c>
       <c r="AA181" t="n">
-        <v>357.2</v>
+        <v>357.12</v>
       </c>
       <c r="AB181" t="n">
-        <v>366.72</v>
+        <v>366.58</v>
       </c>
       <c r="AC181" t="n">
         <v>366.91</v>
@@ -17733,10 +17733,10 @@
         <v>357.6</v>
       </c>
       <c r="AA182" t="n">
-        <v>355.5</v>
+        <v>355.48</v>
       </c>
       <c r="AB182" t="n">
-        <v>352.93</v>
+        <v>352.89</v>
       </c>
       <c r="AC182" t="n">
         <v>363.03</v>
@@ -17838,10 +17838,10 @@
         <v>343.36</v>
       </c>
       <c r="AA183" t="n">
-        <v>338.97</v>
+        <v>339.13</v>
       </c>
       <c r="AB183" t="n">
-        <v>331.96</v>
+        <v>332.24</v>
       </c>
       <c r="AC183" t="n">
         <v>367.16</v>
@@ -17931,10 +17931,10 @@
         <v>342.07</v>
       </c>
       <c r="AA184" t="n">
-        <v>323.58</v>
+        <v>323.66</v>
       </c>
       <c r="AB184" t="n">
-        <v>327.17</v>
+        <v>327.32</v>
       </c>
       <c r="AC184" t="n">
         <v>339.24</v>
@@ -18133,10 +18133,10 @@
         <v>359.26</v>
       </c>
       <c r="AA186" t="n">
-        <v>339.94</v>
+        <v>340.12</v>
       </c>
       <c r="AB186" t="n">
-        <v>337.3</v>
+        <v>337.62</v>
       </c>
       <c r="AC186" t="n">
         <v>357.94</v>
@@ -18234,10 +18234,10 @@
         <v>371.25</v>
       </c>
       <c r="AA187" t="n">
-        <v>368.25</v>
+        <v>368.17</v>
       </c>
       <c r="AB187" t="n">
-        <v>375.61</v>
+        <v>375.47</v>
       </c>
       <c r="AC187" t="n">
         <v>373.32</v>
@@ -18339,10 +18339,10 @@
         <v>371.29</v>
       </c>
       <c r="AA188" t="n">
-        <v>343.66</v>
+        <v>343.83</v>
       </c>
       <c r="AB188" t="n">
-        <v>349.86</v>
+        <v>350.16</v>
       </c>
       <c r="AC188" t="n">
         <v>365.56</v>
@@ -18523,10 +18523,10 @@
         <v>372.99</v>
       </c>
       <c r="AA190" t="n">
-        <v>348.37</v>
+        <v>348.49</v>
       </c>
       <c r="AB190" t="n">
-        <v>356.89</v>
+        <v>357.1</v>
       </c>
       <c r="AC190" t="n">
         <v>360.29</v>
@@ -18608,7 +18608,7 @@
         <v>290.98</v>
       </c>
       <c r="AA191" t="n">
-        <v>297.46</v>
+        <v>297.44</v>
       </c>
       <c r="AB191" t="inlineStr"/>
       <c r="AC191" t="inlineStr"/>
@@ -18767,7 +18767,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>353.56</v>
+        <v>353.76</v>
       </c>
       <c r="AC193" t="n">
         <v>360.97</v>
@@ -18845,10 +18845,10 @@
         <v>328.78</v>
       </c>
       <c r="AA194" t="n">
-        <v>335.41</v>
+        <v>335.32</v>
       </c>
       <c r="AB194" t="n">
-        <v>328.67</v>
+        <v>328.52</v>
       </c>
       <c r="AC194" t="n">
         <v>342.01</v>
@@ -18950,10 +18950,10 @@
         <v>361.09</v>
       </c>
       <c r="AA195" t="n">
-        <v>361.6</v>
+        <v>361.49</v>
       </c>
       <c r="AB195" t="n">
-        <v>345.56</v>
+        <v>345.36</v>
       </c>
       <c r="AC195" t="n">
         <v>370.6</v>
@@ -19045,10 +19045,10 @@
         <v>358.86</v>
       </c>
       <c r="AA196" t="n">
-        <v>329.9</v>
+        <v>330.11</v>
       </c>
       <c r="AB196" t="n">
-        <v>332.33</v>
+        <v>332.69</v>
       </c>
       <c r="AC196" t="n">
         <v>352.87</v>
@@ -19132,10 +19132,10 @@
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="n">
-        <v>348.76</v>
+        <v>348.68</v>
       </c>
       <c r="AB197" t="n">
-        <v>337.87</v>
+        <v>337.73</v>
       </c>
       <c r="AC197" t="n">
         <v>368.4</v>
@@ -19235,10 +19235,10 @@
         <v>351.71</v>
       </c>
       <c r="AA198" t="n">
-        <v>337.52</v>
+        <v>337.67</v>
       </c>
       <c r="AB198" t="n">
-        <v>336.15</v>
+        <v>336.41</v>
       </c>
       <c r="AC198" t="n">
         <v>361.63</v>
@@ -19336,10 +19336,10 @@
         <v>365.11</v>
       </c>
       <c r="AA199" t="n">
-        <v>344.58</v>
+        <v>344.68</v>
       </c>
       <c r="AB199" t="n">
-        <v>344.3</v>
+        <v>344.48</v>
       </c>
       <c r="AC199" t="n">
         <v>357.37</v>
@@ -19514,10 +19514,10 @@
         <v>358.51</v>
       </c>
       <c r="AA201" t="n">
-        <v>359.82</v>
+        <v>359.75</v>
       </c>
       <c r="AB201" t="n">
-        <v>354</v>
+        <v>353.88</v>
       </c>
       <c r="AC201" t="n">
         <v>358.01</v>
@@ -19619,10 +19619,10 @@
         <v>355.45</v>
       </c>
       <c r="AA202" t="n">
-        <v>349.78</v>
+        <v>349.73</v>
       </c>
       <c r="AB202" t="n">
-        <v>354.45</v>
+        <v>354.35</v>
       </c>
       <c r="AC202" t="n">
         <v>356.28</v>
@@ -19815,10 +19815,10 @@
         <v>369.01</v>
       </c>
       <c r="AA204" t="n">
-        <v>345.39</v>
+        <v>345.55</v>
       </c>
       <c r="AB204" t="n">
-        <v>348.55</v>
+        <v>348.84</v>
       </c>
       <c r="AC204" t="n">
         <v>360.66</v>
@@ -19987,10 +19987,10 @@
         <v>375.38</v>
       </c>
       <c r="AA206" t="n">
-        <v>339.86</v>
+        <v>340.09</v>
       </c>
       <c r="AB206" t="n">
-        <v>349.94</v>
+        <v>350.35</v>
       </c>
       <c r="AC206" t="inlineStr"/>
       <c r="AD206" t="inlineStr"/>
@@ -20084,10 +20084,10 @@
         <v>381.33</v>
       </c>
       <c r="AA207" t="n">
-        <v>339.22</v>
+        <v>339.43</v>
       </c>
       <c r="AB207" t="n">
-        <v>350.8</v>
+        <v>351.19</v>
       </c>
       <c r="AC207" t="n">
         <v>362.81</v>
@@ -20244,10 +20244,10 @@
         <v>358.46</v>
       </c>
       <c r="AA209" t="n">
-        <v>337.75</v>
+        <v>337.76</v>
       </c>
       <c r="AB209" t="n">
-        <v>336.35</v>
+        <v>336.37</v>
       </c>
       <c r="AC209" t="n">
         <v>354.67</v>
@@ -20349,10 +20349,10 @@
         <v>358.89</v>
       </c>
       <c r="AA210" t="n">
-        <v>353.42</v>
+        <v>353.44</v>
       </c>
       <c r="AB210" t="n">
-        <v>354.51</v>
+        <v>354.54</v>
       </c>
       <c r="AC210" t="n">
         <v>354.02</v>
@@ -20416,10 +20416,10 @@
         <v>352.14</v>
       </c>
       <c r="AA211" t="n">
-        <v>323.38</v>
+        <v>323.41</v>
       </c>
       <c r="AB211" t="n">
-        <v>318.12</v>
+        <v>318.18</v>
       </c>
       <c r="AC211" t="inlineStr"/>
       <c r="AD211" t="inlineStr"/>
@@ -20507,10 +20507,10 @@
         <v>371.76</v>
       </c>
       <c r="AA212" t="n">
-        <v>355.78</v>
+        <v>355.79</v>
       </c>
       <c r="AB212" t="n">
-        <v>360.54</v>
+        <v>360.56</v>
       </c>
       <c r="AC212" t="n">
         <v>357.97</v>
@@ -20604,10 +20604,10 @@
         <v>343.1</v>
       </c>
       <c r="AA213" t="n">
-        <v>351.07</v>
+        <v>351.26</v>
       </c>
       <c r="AB213" t="n">
-        <v>333.73</v>
+        <v>334.07</v>
       </c>
       <c r="AC213" t="n">
         <v>357.7</v>
@@ -20737,7 +20737,7 @@
       <c r="Z215" t="inlineStr"/>
       <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="n">
-        <v>323.04</v>
+        <v>323.25</v>
       </c>
       <c r="AC215" t="n">
         <v>344.69</v>
@@ -20835,10 +20835,10 @@
         <v>342.06</v>
       </c>
       <c r="AA216" t="n">
-        <v>336.13</v>
+        <v>336.27</v>
       </c>
       <c r="AB216" t="n">
-        <v>333.76</v>
+        <v>334.02</v>
       </c>
       <c r="AC216" t="n">
         <v>362.83</v>
@@ -20914,10 +20914,10 @@
         <v>344.4</v>
       </c>
       <c r="AA217" t="n">
-        <v>300.52</v>
+        <v>300.69</v>
       </c>
       <c r="AB217" t="n">
-        <v>325.67</v>
+        <v>325.97</v>
       </c>
       <c r="AC217" t="n">
         <v>341.3</v>
@@ -20995,10 +20995,10 @@
       <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="n">
-        <v>315.62</v>
+        <v>315.53</v>
       </c>
       <c r="AB218" t="n">
-        <v>315.21</v>
+        <v>315.04</v>
       </c>
       <c r="AC218" t="n">
         <v>379.75</v>
@@ -21166,7 +21166,7 @@
       <c r="Z220" t="inlineStr"/>
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="n">
-        <v>338.6</v>
+        <v>338.97</v>
       </c>
       <c r="AC220" t="n">
         <v>357.78</v>
@@ -21244,10 +21244,10 @@
         <v>378.32</v>
       </c>
       <c r="AA221" t="n">
-        <v>384.54</v>
+        <v>384.43</v>
       </c>
       <c r="AB221" t="n">
-        <v>379.96</v>
+        <v>379.75</v>
       </c>
       <c r="AC221" t="inlineStr"/>
       <c r="AD221" t="inlineStr"/>
@@ -21329,10 +21329,10 @@
         <v>349.85</v>
       </c>
       <c r="AA222" t="n">
-        <v>355.46</v>
+        <v>355.34</v>
       </c>
       <c r="AB222" t="n">
-        <v>352.92</v>
+        <v>352.71</v>
       </c>
       <c r="AC222" t="n">
         <v>357.56</v>
@@ -21398,10 +21398,10 @@
         <v>364.21</v>
       </c>
       <c r="AA223" t="n">
-        <v>340.15</v>
+        <v>340.25</v>
       </c>
       <c r="AB223" t="n">
-        <v>354.3</v>
+        <v>354.48</v>
       </c>
       <c r="AC223" t="n">
         <v>351.36</v>
@@ -21581,7 +21581,9 @@
       <c r="Z225" t="n">
         <v>393.47</v>
       </c>
-      <c r="AA225" t="inlineStr"/>
+      <c r="AA225" t="n">
+        <v>383.98</v>
+      </c>
       <c r="AB225" t="inlineStr"/>
       <c r="AC225" t="n">
         <v>395.71</v>
@@ -21675,10 +21677,10 @@
         <v>374.31</v>
       </c>
       <c r="AA226" t="n">
-        <v>344.07</v>
+        <v>344.27</v>
       </c>
       <c r="AB226" t="n">
-        <v>352.28</v>
+        <v>352.63</v>
       </c>
       <c r="AC226" t="n">
         <v>370.9</v>
@@ -21770,10 +21772,10 @@
         <v>373.86</v>
       </c>
       <c r="AA227" t="n">
-        <v>353.04</v>
+        <v>352.98</v>
       </c>
       <c r="AB227" t="n">
-        <v>364.26</v>
+        <v>364.15</v>
       </c>
       <c r="AC227" t="n">
         <v>364.45</v>
@@ -21875,10 +21877,10 @@
         <v>363.42</v>
       </c>
       <c r="AA228" t="n">
-        <v>341.92</v>
+        <v>342.02</v>
       </c>
       <c r="AB228" t="n">
-        <v>355.74</v>
+        <v>355.93</v>
       </c>
       <c r="AC228" t="n">
         <v>363.31</v>
@@ -22322,10 +22324,10 @@
         <v>344.94</v>
       </c>
       <c r="AA235" t="n">
-        <v>332.84</v>
+        <v>332.98</v>
       </c>
       <c r="AB235" t="n">
-        <v>338.62</v>
+        <v>338.88</v>
       </c>
       <c r="AC235" t="n">
         <v>357.91</v>
@@ -22527,10 +22529,10 @@
       <c r="Y238" t="inlineStr"/>
       <c r="Z238" t="inlineStr"/>
       <c r="AA238" t="n">
-        <v>373.95</v>
+        <v>373.89</v>
       </c>
       <c r="AB238" t="n">
-        <v>367.16</v>
+        <v>367.04</v>
       </c>
       <c r="AC238" t="n">
         <v>386.62</v>
@@ -22618,10 +22620,10 @@
         <v>357.5</v>
       </c>
       <c r="AA239" t="n">
-        <v>338.43</v>
+        <v>338.52</v>
       </c>
       <c r="AB239" t="n">
-        <v>341.81</v>
+        <v>341.97</v>
       </c>
       <c r="AC239" t="n">
         <v>365.31</v>
@@ -22714,7 +22716,7 @@
       <c r="Z240" t="inlineStr"/>
       <c r="AA240" t="inlineStr"/>
       <c r="AB240" t="n">
-        <v>338.59</v>
+        <v>338.7</v>
       </c>
       <c r="AC240" t="n">
         <v>352.96</v>
@@ -22794,10 +22796,10 @@
         <v>344.72</v>
       </c>
       <c r="AA241" t="n">
-        <v>337.31</v>
+        <v>337.32</v>
       </c>
       <c r="AB241" t="n">
-        <v>312.86</v>
+        <v>312.88</v>
       </c>
       <c r="AC241" t="n">
         <v>321.93</v>
@@ -22956,10 +22958,10 @@
         <v>364.89</v>
       </c>
       <c r="AA243" t="n">
-        <v>349.69</v>
+        <v>349.84</v>
       </c>
       <c r="AB243" t="n">
-        <v>354.87</v>
+        <v>355.14</v>
       </c>
       <c r="AC243" t="n">
         <v>359.43</v>
@@ -23084,10 +23086,10 @@
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr"/>
       <c r="AA245" t="n">
-        <v>350.27</v>
+        <v>350.34</v>
       </c>
       <c r="AB245" t="n">
-        <v>360.82</v>
+        <v>360.94</v>
       </c>
       <c r="AC245" t="n">
         <v>347.8</v>
@@ -23268,10 +23270,10 @@
         <v>366.01</v>
       </c>
       <c r="AA247" t="n">
-        <v>348.69</v>
+        <v>348.85</v>
       </c>
       <c r="AB247" t="n">
-        <v>351.86</v>
+        <v>352.14</v>
       </c>
       <c r="AC247" t="n">
         <v>357.51</v>
@@ -23422,10 +23424,10 @@
         <v>394.9</v>
       </c>
       <c r="AA249" t="n">
-        <v>384.06</v>
+        <v>383.94</v>
       </c>
       <c r="AB249" t="n">
-        <v>387.05</v>
+        <v>386.83</v>
       </c>
       <c r="AC249" t="n">
         <v>391.94</v>
@@ -23527,10 +23529,10 @@
         <v>375.68</v>
       </c>
       <c r="AA250" t="n">
-        <v>367.18</v>
+        <v>367.07</v>
       </c>
       <c r="AB250" t="n">
-        <v>366.07</v>
+        <v>365.88</v>
       </c>
       <c r="AC250" t="n">
         <v>382.57</v>
@@ -23612,10 +23614,10 @@
         <v>340.76</v>
       </c>
       <c r="AA251" t="n">
-        <v>342.79</v>
+        <v>342.97</v>
       </c>
       <c r="AB251" t="n">
-        <v>320.16</v>
+        <v>320.48</v>
       </c>
       <c r="AC251" t="inlineStr"/>
       <c r="AD251" t="inlineStr"/>
@@ -23784,10 +23786,10 @@
         <v>356.84</v>
       </c>
       <c r="AA253" t="n">
-        <v>353.14</v>
+        <v>353.12</v>
       </c>
       <c r="AB253" t="n">
-        <v>353.7</v>
+        <v>353.66</v>
       </c>
       <c r="AC253" t="n">
         <v>354.7</v>
@@ -23858,7 +23860,7 @@
       <c r="Z254" t="inlineStr"/>
       <c r="AA254" t="inlineStr"/>
       <c r="AB254" t="n">
-        <v>319.58</v>
+        <v>319.66</v>
       </c>
       <c r="AC254" t="inlineStr"/>
       <c r="AD254" t="inlineStr"/>
@@ -23904,7 +23906,7 @@
         <v>319.22</v>
       </c>
       <c r="AA255" t="n">
-        <v>331.07</v>
+        <v>330.99</v>
       </c>
       <c r="AB255" t="inlineStr"/>
       <c r="AC255" t="inlineStr"/>
@@ -23999,10 +24001,10 @@
         <v>356.72</v>
       </c>
       <c r="AA256" t="n">
-        <v>343.41</v>
+        <v>343.39</v>
       </c>
       <c r="AB256" t="n">
-        <v>331.92</v>
+        <v>331.88</v>
       </c>
       <c r="AC256" t="n">
         <v>350.41</v>
@@ -24104,7 +24106,7 @@
         <v>352.4</v>
       </c>
       <c r="AA257" t="n">
-        <v>339.43</v>
+        <v>339.31</v>
       </c>
       <c r="AB257" t="inlineStr"/>
       <c r="AC257" t="n">
@@ -24201,10 +24203,10 @@
         <v>339.03</v>
       </c>
       <c r="AA258" t="n">
-        <v>332.69</v>
+        <v>332.89</v>
       </c>
       <c r="AB258" t="n">
-        <v>333.64</v>
+        <v>333.99</v>
       </c>
       <c r="AC258" t="n">
         <v>356.06</v>
@@ -24302,10 +24304,10 @@
         <v>307.46</v>
       </c>
       <c r="AA259" t="n">
-        <v>334.9</v>
+        <v>335</v>
       </c>
       <c r="AB259" t="n">
-        <v>309.64</v>
+        <v>309.83</v>
       </c>
       <c r="AC259" t="n">
         <v>341.97</v>
@@ -24446,10 +24448,10 @@
       </c>
       <c r="Z261" t="inlineStr"/>
       <c r="AA261" t="n">
-        <v>341.97</v>
+        <v>342.1</v>
       </c>
       <c r="AB261" t="n">
-        <v>343.13</v>
+        <v>343.37</v>
       </c>
       <c r="AC261" t="n">
         <v>359.22</v>
@@ -24625,10 +24627,10 @@
         <v>294.64</v>
       </c>
       <c r="AA264" t="n">
-        <v>315.55</v>
+        <v>315.43</v>
       </c>
       <c r="AB264" t="n">
-        <v>324.19</v>
+        <v>323.98</v>
       </c>
       <c r="AC264" t="n">
         <v>349.95</v>
@@ -24686,7 +24688,7 @@
       <c r="Y265" t="inlineStr"/>
       <c r="Z265" t="inlineStr"/>
       <c r="AA265" t="n">
-        <v>303.8</v>
+        <v>303.7</v>
       </c>
       <c r="AB265" t="inlineStr"/>
       <c r="AC265" t="n">
@@ -24836,10 +24838,10 @@
         <v>346.5</v>
       </c>
       <c r="AA267" t="n">
-        <v>346.75</v>
+        <v>346.7</v>
       </c>
       <c r="AB267" t="n">
-        <v>349.83</v>
+        <v>349.73</v>
       </c>
       <c r="AC267" t="n">
         <v>347.59</v>
@@ -24944,7 +24946,7 @@
         <v>348.72</v>
       </c>
       <c r="AB268" t="n">
-        <v>353.39</v>
+        <v>353.4</v>
       </c>
       <c r="AC268" t="n">
         <v>357.71</v>
@@ -25119,10 +25121,10 @@
         <v>360.25</v>
       </c>
       <c r="AA270" t="n">
-        <v>358.43</v>
+        <v>358.38</v>
       </c>
       <c r="AB270" t="n">
-        <v>370.08</v>
+        <v>370</v>
       </c>
       <c r="AC270" t="n">
         <v>355.52</v>
@@ -25295,10 +25297,10 @@
         <v>370.32</v>
       </c>
       <c r="AA272" t="n">
-        <v>338.18</v>
+        <v>338.39</v>
       </c>
       <c r="AB272" t="n">
-        <v>346.66</v>
+        <v>347.03</v>
       </c>
       <c r="AC272" t="n">
         <v>366.14</v>
@@ -25471,10 +25473,10 @@
         <v>367.51</v>
       </c>
       <c r="AA274" t="n">
-        <v>343.51</v>
+        <v>343.67</v>
       </c>
       <c r="AB274" t="n">
-        <v>347.56</v>
+        <v>347.86</v>
       </c>
       <c r="AC274" t="n">
         <v>365.58</v>
@@ -25576,10 +25578,10 @@
         <v>376.35</v>
       </c>
       <c r="AA275" t="n">
-        <v>343.53</v>
+        <v>343.71</v>
       </c>
       <c r="AB275" t="n">
-        <v>349.51</v>
+        <v>349.83</v>
       </c>
       <c r="AC275" t="n">
         <v>361.7</v>
@@ -25732,10 +25734,10 @@
         <v>358.25</v>
       </c>
       <c r="AA277" t="n">
-        <v>360.97</v>
+        <v>360.88</v>
       </c>
       <c r="AB277" t="n">
-        <v>369.35</v>
+        <v>369.2</v>
       </c>
       <c r="AC277" t="n">
         <v>367.07</v>
@@ -25837,10 +25839,10 @@
         <v>364.77</v>
       </c>
       <c r="AA278" t="n">
-        <v>335.85</v>
+        <v>336.08</v>
       </c>
       <c r="AB278" t="n">
-        <v>339.98</v>
+        <v>340.39</v>
       </c>
       <c r="AC278" t="n">
         <v>360.34</v>
@@ -26184,10 +26186,10 @@
         <v>345.61</v>
       </c>
       <c r="AA283" t="n">
-        <v>339.83</v>
+        <v>339.76</v>
       </c>
       <c r="AB283" t="n">
-        <v>329.9</v>
+        <v>329.77</v>
       </c>
       <c r="AC283" t="inlineStr"/>
       <c r="AD283" t="n">
@@ -26326,10 +26328,10 @@
         <v>340.32</v>
       </c>
       <c r="AA285" t="n">
-        <v>337.65</v>
+        <v>337.66</v>
       </c>
       <c r="AB285" t="n">
-        <v>333.05</v>
+        <v>333.06</v>
       </c>
       <c r="AC285" t="n">
         <v>349.56</v>
@@ -26474,10 +26476,10 @@
         <v>363.33</v>
       </c>
       <c r="AA287" t="n">
-        <v>337.96</v>
+        <v>338.1</v>
       </c>
       <c r="AB287" t="n">
-        <v>343.37</v>
+        <v>343.62</v>
       </c>
       <c r="AC287" t="n">
         <v>361.15</v>
@@ -26628,10 +26630,10 @@
         <v>353.18</v>
       </c>
       <c r="AA289" t="n">
-        <v>347.82</v>
+        <v>347.75</v>
       </c>
       <c r="AB289" t="n">
-        <v>348.72</v>
+        <v>348.59</v>
       </c>
       <c r="AC289" t="n">
         <v>354.87</v>
@@ -26711,10 +26713,10 @@
         <v>352.6</v>
       </c>
       <c r="AA290" t="n">
-        <v>342.54</v>
+        <v>342.61</v>
       </c>
       <c r="AB290" t="n">
-        <v>344.76</v>
+        <v>344.88</v>
       </c>
       <c r="AC290" t="n">
         <v>360.88</v>
@@ -26816,10 +26818,10 @@
         <v>362.05</v>
       </c>
       <c r="AA291" t="n">
-        <v>350.65</v>
+        <v>350.67</v>
       </c>
       <c r="AB291" t="n">
-        <v>360.07</v>
+        <v>360.1</v>
       </c>
       <c r="AC291" t="n">
         <v>361.86</v>
@@ -26921,10 +26923,10 @@
         <v>367.02</v>
       </c>
       <c r="AA292" t="n">
-        <v>343.7</v>
+        <v>343.82</v>
       </c>
       <c r="AB292" t="n">
-        <v>355.48</v>
+        <v>355.69</v>
       </c>
       <c r="AC292" t="n">
         <v>362.78</v>
@@ -27026,10 +27028,10 @@
         <v>370.72</v>
       </c>
       <c r="AA293" t="n">
-        <v>345.49</v>
+        <v>345.7</v>
       </c>
       <c r="AB293" t="n">
-        <v>354.25</v>
+        <v>354.61</v>
       </c>
       <c r="AC293" t="n">
         <v>370.23</v>
@@ -27182,10 +27184,10 @@
         <v>355.09</v>
       </c>
       <c r="AA295" t="n">
-        <v>334.97</v>
+        <v>335.08</v>
       </c>
       <c r="AB295" t="n">
-        <v>340.43</v>
+        <v>340.62</v>
       </c>
       <c r="AC295" t="n">
         <v>352.52</v>
@@ -27287,10 +27289,10 @@
         <v>366.58</v>
       </c>
       <c r="AA296" t="n">
-        <v>350.79</v>
+        <v>350.83</v>
       </c>
       <c r="AB296" t="n">
-        <v>365.01</v>
+        <v>365.09</v>
       </c>
       <c r="AC296" t="n">
         <v>361.94</v>
@@ -27465,10 +27467,10 @@
         <v>364.01</v>
       </c>
       <c r="AA298" t="n">
-        <v>356.37</v>
+        <v>356.4</v>
       </c>
       <c r="AB298" t="n">
-        <v>361.12</v>
+        <v>361.17</v>
       </c>
       <c r="AC298" t="n">
         <v>360.04</v>
@@ -27570,10 +27572,10 @@
         <v>348.58</v>
       </c>
       <c r="AA299" t="n">
-        <v>341.72</v>
+        <v>341.65</v>
       </c>
       <c r="AB299" t="n">
-        <v>337.4</v>
+        <v>337.28</v>
       </c>
       <c r="AC299" t="n">
         <v>343.16</v>
@@ -27675,10 +27677,10 @@
         <v>345.92</v>
       </c>
       <c r="AA300" t="n">
-        <v>339.09</v>
+        <v>339.2</v>
       </c>
       <c r="AB300" t="n">
-        <v>337.62</v>
+        <v>337.81</v>
       </c>
       <c r="AC300" t="n">
         <v>355.95</v>
@@ -27778,10 +27780,10 @@
         <v>341.87</v>
       </c>
       <c r="AA301" t="n">
-        <v>336.03</v>
+        <v>336.15</v>
       </c>
       <c r="AB301" t="n">
-        <v>326.77</v>
+        <v>326.98</v>
       </c>
       <c r="AC301" t="n">
         <v>347.99</v>
@@ -27867,10 +27869,10 @@
       <c r="Y302" t="inlineStr"/>
       <c r="Z302" t="inlineStr"/>
       <c r="AA302" t="n">
-        <v>334.26</v>
+        <v>334.45</v>
       </c>
       <c r="AB302" t="n">
-        <v>320.65</v>
+        <v>320.98</v>
       </c>
       <c r="AC302" t="n">
         <v>362.36</v>
@@ -27958,10 +27960,10 @@
         <v>344.78</v>
       </c>
       <c r="AA303" t="n">
-        <v>347.69</v>
+        <v>347.59</v>
       </c>
       <c r="AB303" t="n">
-        <v>349.97</v>
+        <v>349.78</v>
       </c>
       <c r="AC303" t="n">
         <v>341.82</v>
@@ -28063,10 +28065,10 @@
         <v>366.76</v>
       </c>
       <c r="AA304" t="n">
-        <v>327.91</v>
+        <v>328.14</v>
       </c>
       <c r="AB304" t="n">
-        <v>337.08</v>
+        <v>337.49</v>
       </c>
       <c r="AC304" t="n">
         <v>362.98</v>
@@ -28168,10 +28170,10 @@
         <v>369.71</v>
       </c>
       <c r="AA305" t="n">
-        <v>342.35</v>
+        <v>342.49</v>
       </c>
       <c r="AB305" t="n">
-        <v>349.96</v>
+        <v>350.22</v>
       </c>
       <c r="AC305" t="n">
         <v>361.66</v>
@@ -28273,10 +28275,10 @@
         <v>353.59</v>
       </c>
       <c r="AA306" t="n">
-        <v>352.68</v>
+        <v>352.6</v>
       </c>
       <c r="AB306" t="n">
-        <v>353.78</v>
+        <v>353.63</v>
       </c>
       <c r="AC306" t="n">
         <v>352.31</v>
@@ -28378,10 +28380,10 @@
         <v>360.8</v>
       </c>
       <c r="AA307" t="n">
-        <v>348.28</v>
+        <v>348.31</v>
       </c>
       <c r="AB307" t="n">
-        <v>354.62</v>
+        <v>354.67</v>
       </c>
       <c r="AC307" t="n">
         <v>356.52</v>
@@ -28481,10 +28483,10 @@
         <v>389.95</v>
       </c>
       <c r="AA308" t="n">
-        <v>375.63</v>
+        <v>375.51</v>
       </c>
       <c r="AB308" t="n">
-        <v>381.93</v>
+        <v>381.71</v>
       </c>
       <c r="AC308" t="n">
         <v>387.03</v>
@@ -28586,10 +28588,10 @@
         <v>373.53</v>
       </c>
       <c r="AA309" t="n">
-        <v>343.16</v>
+        <v>343.35</v>
       </c>
       <c r="AB309" t="n">
-        <v>355.81</v>
+        <v>356.16</v>
       </c>
       <c r="AC309" t="n">
         <v>366.01</v>
@@ -28691,10 +28693,10 @@
         <v>374.86</v>
       </c>
       <c r="AA310" t="n">
-        <v>339.39</v>
+        <v>339.6</v>
       </c>
       <c r="AB310" t="n">
-        <v>347.32</v>
+        <v>347.68</v>
       </c>
       <c r="AC310" t="n">
         <v>367.02</v>
@@ -28794,10 +28796,10 @@
         <v>356.56</v>
       </c>
       <c r="AA311" t="n">
-        <v>356.35</v>
+        <v>356.3</v>
       </c>
       <c r="AB311" t="n">
-        <v>358.63</v>
+        <v>358.54</v>
       </c>
       <c r="AC311" t="n">
         <v>352.21</v>
@@ -28899,10 +28901,10 @@
         <v>360.44</v>
       </c>
       <c r="AA312" t="n">
-        <v>357.54</v>
+        <v>357.53</v>
       </c>
       <c r="AB312" t="n">
-        <v>351.37</v>
+        <v>351.35</v>
       </c>
       <c r="AC312" t="n">
         <v>359.29</v>
@@ -29004,10 +29006,10 @@
         <v>361.03</v>
       </c>
       <c r="AA313" t="n">
-        <v>338.08</v>
+        <v>338.2</v>
       </c>
       <c r="AB313" t="n">
-        <v>345.86</v>
+        <v>346.07</v>
       </c>
       <c r="AC313" t="n">
         <v>351.96</v>
@@ -29109,10 +29111,10 @@
         <v>361.84</v>
       </c>
       <c r="AA314" t="n">
-        <v>361.07</v>
+        <v>361.09</v>
       </c>
       <c r="AB314" t="n">
-        <v>350.66</v>
+        <v>350.69</v>
       </c>
       <c r="AC314" t="n">
         <v>354.98</v>
@@ -29214,10 +29216,10 @@
         <v>368.22</v>
       </c>
       <c r="AA315" t="n">
-        <v>343.82</v>
+        <v>344</v>
       </c>
       <c r="AB315" t="n">
-        <v>338.37</v>
+        <v>338.69</v>
       </c>
       <c r="AC315" t="n">
         <v>363.57</v>
@@ -29317,10 +29319,10 @@
         <v>360.34</v>
       </c>
       <c r="AA316" t="n">
-        <v>337.31</v>
+        <v>337.54</v>
       </c>
       <c r="AB316" t="n">
-        <v>339.32</v>
+        <v>339.73</v>
       </c>
       <c r="AC316" t="n">
         <v>361.86</v>
@@ -29422,10 +29424,10 @@
         <v>358.98</v>
       </c>
       <c r="AA317" t="n">
-        <v>363.89</v>
+        <v>363.83</v>
       </c>
       <c r="AB317" t="n">
-        <v>367.62</v>
+        <v>367.52</v>
       </c>
       <c r="AC317" t="n">
         <v>359.31</v>
@@ -29525,10 +29527,10 @@
       </c>
       <c r="Z318" t="inlineStr"/>
       <c r="AA318" t="n">
-        <v>345.52</v>
+        <v>345.54</v>
       </c>
       <c r="AB318" t="n">
-        <v>321.88</v>
+        <v>321.92</v>
       </c>
       <c r="AC318" t="n">
         <v>343.89</v>
@@ -29626,10 +29628,10 @@
         <v>361.88</v>
       </c>
       <c r="AA319" t="n">
-        <v>366.91</v>
+        <v>366.93</v>
       </c>
       <c r="AB319" t="n">
-        <v>343.67</v>
+        <v>343.71</v>
       </c>
       <c r="AC319" t="n">
         <v>351.84</v>
@@ -29730,7 +29732,7 @@
       </c>
       <c r="AA320" t="inlineStr"/>
       <c r="AB320" t="n">
-        <v>335.26</v>
+        <v>335.58</v>
       </c>
       <c r="AC320" t="n">
         <v>363.49</v>
@@ -29824,10 +29826,10 @@
         <v>358.36</v>
       </c>
       <c r="AA321" t="n">
-        <v>358.04</v>
+        <v>357.94</v>
       </c>
       <c r="AB321" t="n">
-        <v>360.62</v>
+        <v>360.45</v>
       </c>
       <c r="AC321" t="n">
         <v>363.8</v>
@@ -29927,10 +29929,10 @@
         <v>375.27</v>
       </c>
       <c r="AA322" t="n">
-        <v>342.07</v>
+        <v>342.26</v>
       </c>
       <c r="AB322" t="n">
-        <v>344.78</v>
+        <v>345.11</v>
       </c>
       <c r="AC322" t="n">
         <v>361.18</v>
@@ -30032,10 +30034,10 @@
         <v>363.12</v>
       </c>
       <c r="AA323" t="n">
-        <v>348.49</v>
+        <v>348.59</v>
       </c>
       <c r="AB323" t="n">
-        <v>354.18</v>
+        <v>354.36</v>
       </c>
       <c r="AC323" t="n">
         <v>359.53</v>
@@ -30196,10 +30198,10 @@
         <v>372.94</v>
       </c>
       <c r="AA325" t="n">
-        <v>337.77</v>
+        <v>337.99</v>
       </c>
       <c r="AB325" t="n">
-        <v>352.53</v>
+        <v>352.93</v>
       </c>
       <c r="AC325" t="n">
         <v>365.01</v>
@@ -30287,10 +30289,10 @@
         <v>347.09</v>
       </c>
       <c r="AA326" t="n">
-        <v>345.48</v>
+        <v>345.41</v>
       </c>
       <c r="AB326" t="n">
-        <v>347.21</v>
+        <v>347.08</v>
       </c>
       <c r="AC326" t="n">
         <v>348.71</v>
@@ -35816,28 +35818,28 @@
         <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1496728849642406</v>
+        <v>-0.1319365993193035</v>
       </c>
       <c r="J27" t="n">
         <v>325</v>
       </c>
       <c r="K27" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="n">
-        <v>0.006071970448050745</v>
+        <v>0.004628087416815641</v>
       </c>
       <c r="M27" t="n">
-        <v>10.29487417226701</v>
+        <v>10.36715051252209</v>
       </c>
       <c r="N27" t="n">
-        <v>210.647900606386</v>
+        <v>214.7305930108643</v>
       </c>
       <c r="O27" t="n">
-        <v>14.51371422504887</v>
+        <v>14.65368871686799</v>
       </c>
       <c r="P27" t="n">
-        <v>347.7158063079685</v>
+        <v>347.656827955673</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35894,7 +35896,7 @@
         <v>0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.08750552906392645</v>
+        <v>-0.08419149895202321</v>
       </c>
       <c r="J28" t="n">
         <v>325</v>
@@ -35903,19 +35905,19 @@
         <v>249</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001558187868989314</v>
+        <v>0.001453056721663848</v>
       </c>
       <c r="M28" t="n">
-        <v>12.72005145089216</v>
+        <v>12.66523291437195</v>
       </c>
       <c r="N28" t="n">
-        <v>282.0640019944155</v>
+        <v>280.0245674706721</v>
       </c>
       <c r="O28" t="n">
-        <v>16.79476114728684</v>
+        <v>16.73393460817486</v>
       </c>
       <c r="P28" t="n">
-        <v>347.9691146578036</v>
+        <v>348.0080493582272</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36573,12 +36575,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-38.59108060476119,174.62864525969465</t>
+          <t>-38.59108053785344,174.6286442300359</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-38.590374972865405,174.62864692104532</t>
+          <t>-38.59037488084307,174.62864508804165</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -36740,12 +36742,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-38.591067498103584,174.6284435610182</t>
+          <t>-38.59106746093163,174.62844298898574</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-38.590366725248884,174.62848263810676</t>
+          <t>-38.59036667348487,174.62848160704237</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -36907,12 +36909,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-38.59106996631539,174.62848154397471</t>
+          <t>-38.591070025790216,174.62848245922672</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-38.59036084709912,174.62836555502622</t>
+          <t>-38.590360927622534,174.62836715890396</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -37074,12 +37076,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-38.59106633090271,174.62842559919915</t>
+          <t>-38.5910663978124,174.62842662885757</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-38.59036182488172,174.6283850306844</t>
+          <t>-38.59036191690814,174.62838686368752</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -37241,12 +37243,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-38.591073809861506,174.62854069213722</t>
+          <t>-38.5910738172958,174.62854080654373</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-38.59037647397573,174.62867682191805</t>
+          <t>-38.59037649122983,174.62867716560626</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -37404,12 +37406,12 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-38.59108072370828,174.62864709019908</t>
+          <t>-38.59108066423473,174.62864617494685</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-38.59039004113444,174.62894707544422</t>
+          <t>-38.59038996061902,174.6289454715655</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -37551,12 +37553,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-38.591064435124736,174.62839642554505</t>
+          <t>-38.5910645094691,174.6283975696099</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-38.59036804810395,174.62850898753007</t>
+          <t>-38.59036814587996,174.62851093509616</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -37718,12 +37720,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-38.591065081920405,174.62840637890926</t>
+          <t>-38.591065148830246,174.62840740856763</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-38.5903730461417,174.62860854253194</t>
+          <t>-38.59037314391603,174.62861049009823</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -37857,12 +37859,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-38.5910669107863,174.62843452290537</t>
+          <t>-38.591066992564706,174.62843578137677</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-38.590370831831656,174.62856443588421</t>
+          <t>-38.59037094686116,174.62856672713858</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -38024,12 +38026,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-38.5910749101361,174.62855762430078</t>
+          <t>-38.5910748357933,174.62855648023566</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-38.59036925592293,174.62853304569984</t>
+          <t>-38.59036915239578,174.62853098357098</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -38191,12 +38193,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-38.59108592761483,174.62872717477296</t>
+          <t>-38.59108579380077,174.62872511545524</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>-38.59037872275116,174.6287216159476</t>
+          <t>-38.590378532957494,174.62871783537727</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -38358,12 +38360,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>-38.591057364923486,174.62828762498748</t>
+          <t>-38.591057424399835,174.6282885402392</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>-38.590360099380845,174.62835066187617</t>
+          <t>-38.59036017990445,174.62835226575388</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -38513,7 +38515,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>-38.59108303573642,174.62868267062998</t>
+          <t>-38.591082901921574,174.6286806113124</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr"/>
@@ -38743,12 +38745,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-38.591052651399494,174.62821509129233</t>
+          <t>-38.59105271831104,174.62821612095038</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-38.59035637801617,174.62827653981748</t>
+          <t>-38.59035647579606,174.62827848738308</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -38910,12 +38912,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-38.59106279954567,174.628371256119</t>
+          <t>-38.591062777242286,174.62837091289956</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>-38.59036464317798,174.62844116640724</t>
+          <t>-38.59036461441999,174.62844059359372</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -39025,12 +39027,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-38.591073423277955,174.6285347429988</t>
+          <t>-38.59107348275236,174.62853565825085</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>-38.59037168304892,174.6285813911667</t>
+          <t>-38.590371769320804,174.62858310960755</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -39197,7 +39199,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>-38.590379873013276,174.62874452849553</t>
+          <t>-38.59037986726198,174.6287444139328</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -39359,12 +39361,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-38.59106146134059,174.62835066295295</t>
+          <t>-38.59106152825093,174.62835169261126</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-38.59036702432968,174.6284885953676</t>
+          <t>-38.590367116354486,174.62849042837095</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -39526,12 +39528,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-38.59107549000955,174.62856654800876</t>
+          <t>-38.591075430535376,174.62856563275665</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>-38.59036961251616,174.62854014858817</t>
+          <t>-38.59036953199515,174.62853854471015</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -39979,12 +39981,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-38.59107437486768,174.62854938703197</t>
+          <t>-38.591074352564824,174.62854904381243</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>-38.59037236172038,174.62859490956788</t>
+          <t>-38.590372332963156,174.62859433675425</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -40142,12 +40144,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-38.59106912623265,174.6284686160405</t>
+          <t>-38.591069185707575,174.62846953129247</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>-38.59037059602103,174.62855973881275</t>
+          <t>-38.59037067654176,174.6285613426908</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -40396,12 +40398,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-38.59108154890285,174.6286597893237</t>
+          <t>-38.59108142252179,174.62865784441271</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>-38.59038418070487,174.62883033599266</t>
+          <t>-38.59038400816836,174.6288268991101</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -40539,12 +40541,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-38.59106140186472,174.62834974770115</t>
+          <t>-38.59106148364403,174.62835100617238</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>-38.59036487324179,174.6284457489154</t>
+          <t>-38.59036498252204,174.62844792560676</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -40833,12 +40835,12 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-38.59106707434309,174.6284370398482</t>
+          <t>-38.59106708177748,174.62843715425467</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>-38.590374317205644,174.62863386089433</t>
+          <t>-38.59037432295703,174.62863397545703</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -40984,12 +40986,12 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>-38.59107794331276,174.62860430215926</t>
+          <t>-38.591077846667716,174.62860281487448</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>-38.5903731899275,174.62861140660004</t>
+          <t>-38.59037305764457,174.62860877165735</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -41143,12 +41145,12 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>-38.59108254508183,174.62867511979883</t>
+          <t>-38.591082478174336,174.62867409014004</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>-38.5903787860157,174.62872287613774</t>
+          <t>-38.59037868824324,174.6287209285712</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -41294,7 +41296,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>-38.591076932255945,174.62858874287272</t>
+          <t>-38.591076917387454,174.6285885140597</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr"/>
@@ -41453,12 +41455,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-38.59108311007797,174.62868381469534</t>
+          <t>-38.59108302830226,174.62868255622345</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>-38.59038093125044,174.62876560804014</t>
+          <t>-38.59038081622484,174.62876331678527</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -41620,12 +41622,12 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>-38.59108282014582,174.62867935284052</t>
+          <t>-38.59108267889677,174.6286771791164</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>-38.59038166741319,174.62878027207148</t>
+          <t>-38.59038147187013,174.62877637693813</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -41787,12 +41789,12 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>-38.59108960005286,174.6287836916066</t>
+          <t>-38.59108949597605,174.6287820899149</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>-38.59039188148074,174.6289837355302</t>
+          <t>-38.59039173770411,174.62898087146093</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -42057,12 +42059,12 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>-38.59110062463628,174.62895335654292</t>
+          <t>-38.5911006023346,174.62895301332318</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>-38.59039306619758,174.62900733546132</t>
+          <t>-38.59039303169133,174.62900664808467</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -42168,12 +42170,12 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>-38.591106616315614,174.62904556825265</t>
+          <t>-38.59110669065361,174.6290467123186</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>-38.590400870256516,174.62916279715873</t>
+          <t>-38.59040097377248,174.629164859289</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -42316,7 +42318,7 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>-38.59036362514347,174.628420888809</t>
+          <t>-38.59036372292095,174.6284228363749</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -42458,12 +42460,12 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>-38.591083808888094,174.62869456890957</t>
+          <t>-38.591083682507616,174.62869262399846</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>-38.59038437624611,174.62883423112623</t>
+          <t>-38.59038420370972,174.62883079424367</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -42621,12 +42623,12 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-38.59108929525641,174.62877900093804</t>
+          <t>-38.591089310124545,174.62877922975113</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>-38.590383093723226,174.62880868363283</t>
+          <t>-38.59038311672817,174.6288091418838</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -42788,12 +42790,12 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>-38.59108261198931,174.62867614945762</t>
+          <t>-38.591082559950166,174.6286753486119</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>-38.59037903332239,174.6287278023355</t>
+          <t>-38.59037896430658,174.62872642758262</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -42939,12 +42941,12 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>-38.59105491895216,174.6282499852614</t>
+          <t>-38.59105500073255,174.62825124373245</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>-38.59036349285624,174.6284182538669</t>
+          <t>-38.59036360788861,174.62842054512092</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -43082,12 +43084,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>-38.59107490270182,174.62855750989425</t>
+          <t>-38.591074977044606,174.6285586539594</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>-38.59037592759547,174.6286659384585</t>
+          <t>-38.59037602536885,174.62866788602494</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -43249,12 +43251,12 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>-38.59106187023698,174.6283569553092</t>
+          <t>-38.59106192227831,174.62835775615454</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>-38.59036492500612,174.62844677997973</t>
+          <t>-38.59036499977681,174.62844826929486</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -43400,12 +43402,12 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>-38.59107839680081,174.628611280957</t>
+          <t>-38.591078225813554,174.628608649607</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>-38.59037240773194,174.62859582606964</t>
+          <t>-38.590372171922596,174.62859112899804</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -43543,12 +43545,12 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>-38.591073698347046,174.6285389760396</t>
+          <t>-38.59107375782143,174.62853989129167</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>-38.59039216328274,174.62898934910598</t>
+          <t>-38.590392243797574,174.6289909529848</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -43690,12 +43692,12 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-38.59107791357584,174.62860384453316</t>
+          <t>-38.591077779759594,174.6286017852158</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>-38.59037547323637,174.62865688800278</t>
+          <t>-38.590375289191975,174.62865322199542</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -43853,12 +43855,12 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>-38.59106943104159,174.62847330670687</t>
+          <t>-38.591069497950855,174.62847433636534</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>-38.590372787327105,174.62860338720935</t>
+          <t>-38.59037287935009,174.62860522021293</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -44004,12 +44006,12 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>-38.5910786049591,174.6286144843396</t>
+          <t>-38.591078493445735,174.62861276824177</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>-38.59037555375575,174.62865849188103</t>
+          <t>-38.59037539846835,174.6286553986873</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -44294,12 +44296,12 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>-38.59108871539924,174.6287700772272</t>
+          <t>-38.59108856671781,174.62876778909623</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>-38.59039277289435,174.62900149275987</t>
+          <t>-38.59039257160763,174.6289974830628</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -44548,12 +44550,12 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>-38.59109026911757,174.62879398819624</t>
+          <t>-38.59109017990899,174.62879261531762</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>-38.59039165143809,174.62897915301937</t>
+          <t>-38.59039152491455,174.6289766326384</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -44850,12 +44852,12 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>-38.59108668589374,174.62873884424025</t>
+          <t>-38.591086760234745,174.62873998830565</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>-38.59038184570231,174.62878382351659</t>
+          <t>-38.590381949225,174.628785885646</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -45022,7 +45024,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>-38.59037386284404,174.6286248104389</t>
+          <t>-38.59037386859546,174.62862492500162</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -45331,12 +45333,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>-38.591075660997745,174.62856917935858</t>
+          <t>-38.591075519746624,174.6285670056348</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>-38.59037190735577,174.62858585911283</t>
+          <t>-38.59037171180623,174.6285819639803</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -45487,7 +45489,7 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>-38.59037225244288,174.62859273287614</t>
+          <t>-38.590372223685634,174.6285921600625</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -45610,7 +45612,7 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>-38.59039281315166,174.6290022946993</t>
+          <t>-38.59039275564119,174.62900114907154</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -45760,12 +45762,12 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>-38.591059320204856,174.62831771388858</t>
+          <t>-38.59105937968097,174.62831862914035</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>-38.590362929196935,174.62840702672233</t>
+          <t>-38.59036300971977,174.62840863060012</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -45911,12 +45913,12 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>-38.59108327362938,174.62868633163907</t>
+          <t>-38.59108313981459,174.62868427232146</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>-38.590380269852666,174.62875243332473</t>
+          <t>-38.59038008581128,174.62874876731698</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -46046,12 +46048,12 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>-38.59108194291418,174.6286658528698</t>
+          <t>-38.5910818239674,174.6286640223653</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>-38.59037505338494,174.62864852492353</t>
+          <t>-38.59037489234587,174.62864531716713</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -46193,12 +46195,12 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>-38.591071371406336,174.62850316680337</t>
+          <t>-38.591071423446664,174.62850396764887</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>-38.590384652304124,174.62883973013837</t>
+          <t>-38.59038472131858,174.6288411048914</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -46337,7 +46339,7 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>-38.59040655782986,174.62927609976836</t>
+          <t>-38.59040669584847,174.62927884927572</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -46491,12 +46493,12 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>-38.59109134705324,174.62881057714657</t>
+          <t>-38.59109125784485,174.6288092042679</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>-38.590395010043004,174.62904605767974</t>
+          <t>-38.5903948835209,174.6290435372986</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -46630,12 +46632,12 @@
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>-38.59108649260708,174.62873586967012</t>
+          <t>-38.59108648517297,174.6287357552636</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>-38.5904008817583,174.62916302628432</t>
+          <t>-38.590400870256516,174.62916279715873</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -46774,7 +46776,7 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>-38.59034840596968,174.62811775595307</t>
+          <t>-38.590348515256046,174.6281199326437</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr"/>
@@ -47039,12 +47041,12 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>-38.59107351992386,174.6285362302834</t>
+          <t>-38.59107349762097,174.6285358870639</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>-38.59037085483758,174.62856489413508</t>
+          <t>-38.590370820328715,174.62856420675877</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -47190,12 +47192,12 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>-38.591081415087594,174.62865773000618</t>
+          <t>-38.591081296140686,174.62865589950172</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>-38.590374271194364,174.6286329443925</t>
+          <t>-38.59037411590628,174.62862985119887</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr"/>
@@ -47603,12 +47605,12 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>-38.59109623118729,174.62888574225764</t>
+          <t>-38.59109611967792,174.62888402615914</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>-38.590386308646686,174.62887272421182</t>
+          <t>-38.59038615336498,174.62886963101738</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -47746,12 +47748,12 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>-38.59104100865292,174.62803593081094</t>
+          <t>-38.591041090435624,174.6280371892816</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>-38.59035051116314,174.62815968588862</t>
+          <t>-38.590350620448724,174.62816186257933</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -47889,12 +47891,12 @@
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>-38.591070018355865,174.6284823448202</t>
+          <t>-38.59107004065892,174.6284826880397</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>-38.590367271646265,174.6284935215641</t>
+          <t>-38.59036730040399,174.62849409437766</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -48012,12 +48014,12 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>-38.59107825555048,174.6286091072331</t>
+          <t>-38.5910781143001,174.62860693350922</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>-38.59037346599601,174.62861690561084</t>
+          <t>-38.5903732704475,174.62861301047818</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -48131,12 +48133,12 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>-38.59108748877605,174.62875120014698</t>
+          <t>-38.59108737726469,174.62874948404883</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>-38.5903867169797,174.6288808581676</t>
+          <t>-38.5903865616982,174.62887776497314</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -48262,12 +48264,12 @@
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>-38.59107513316443,174.62856105649612</t>
+          <t>-38.591075088558775,174.62856037005707</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>-38.59037899881449,174.62872711495908</t>
+          <t>-38.59037893555,174.62872585476893</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -48556,12 +48558,12 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>-38.59107824068202,174.62860887842007</t>
+          <t>-38.591078091997424,174.62860659028968</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>-38.5903763589484,174.6286745306634</t>
+          <t>-38.59037614614768,174.62867029184233</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -48695,12 +48697,12 @@
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>-38.59108907223451,174.62877556874156</t>
+          <t>-38.59108912427296,174.6287763695874</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>-38.590381052027276,174.62876801385778</t>
+          <t>-38.59038112104257,174.6287693886107</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -48858,12 +48860,12 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>-38.591081638112975,174.6286611622021</t>
+          <t>-38.59108153403448,174.62865956051064</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>-38.59037700885227,174.62868747625225</t>
+          <t>-38.59037685931699,174.62868449762118</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -49025,12 +49027,12 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>-38.59108556334316,174.62872156885246</t>
+          <t>-38.59108539979253,174.62871905190858</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>-38.59038052290938,174.62875747408538</t>
+          <t>-38.590380292857844,174.6287528915757</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -49132,12 +49134,12 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>-38.5910774154819,174.62859617929638</t>
+          <t>-38.59107739317918,174.62859583607684</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>-38.59037944741683,174.62873605085272</t>
+          <t>-38.5903794186603,174.62873547803903</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -49275,12 +49277,12 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>-38.59109022451328,174.62879330175696</t>
+          <t>-38.59109009813446,174.62879135684554</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>-38.59038623963261,174.62887134945873</t>
+          <t>-38.59038606134614,174.6288677980133</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr"/>
@@ -49509,12 +49511,12 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>-38.591092729781046,174.6288318567662</t>
+          <t>-38.591092625704896,174.62883025507435</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>-38.59040117505343,174.6291688689868</t>
+          <t>-38.590401031281345,174.62916600491695</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
@@ -49644,12 +49646,12 @@
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>-38.591096781299804,174.62889420834378</t>
+          <t>-38.59109675899795,174.62889386512404</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>-38.59038847683103,174.62891591437227</t>
+          <t>-38.59038844807537,174.62891534155847</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -49923,7 +49925,7 @@
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>-38.59037609438535,174.62866926077774</t>
+          <t>-38.59037608863397,174.628669146215</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
@@ -50085,12 +50087,12 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>-38.59106860582668,174.6284606075858</t>
+          <t>-38.59106863556417,174.62846106521175</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>-38.5903692329169,174.62853258744897</t>
+          <t>-38.59036927892897,174.6285335039507</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
@@ -50204,12 +50206,12 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>-38.59108820988218,174.62876229758197</t>
+          <t>-38.59108806120059,174.62876000945104</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>-38.5903790390737,174.62872791689824</t>
+          <t>-38.590378837777585,174.62872390720239</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
@@ -50355,12 +50357,12 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>-38.59108722114877,174.6287470815114</t>
+          <t>-38.591087094769165,174.62874513660014</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>-38.59037665226802,174.62868037336276</t>
+          <t>-38.59037647397573,174.62867682191805</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr"/>
@@ -50494,12 +50496,12 @@
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>-38.59108188344078,174.62866493761757</t>
+          <t>-38.59108176449399,174.62866310711308</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>-38.59037532945171,174.62865402393453</t>
+          <t>-38.5903751626614,174.62865070161538</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
@@ -50661,12 +50663,12 @@
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>-38.59107042724514,174.6284886371777</t>
+          <t>-38.59107039750774,174.62848817955168</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>-38.590373126661746,174.62861014641007</t>
+          <t>-38.590373086401726,174.628609344471</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -50899,7 +50901,7 @@
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>-38.591099204761115,174.6289315048865</t>
+          <t>-38.591099234496774,174.6289319625128</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr"/>
@@ -50974,7 +50976,7 @@
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>-38.591117499278354,174.62921305952977</t>
+          <t>-38.591117491844734,174.62921294512316</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr"/>
@@ -51101,12 +51103,12 @@
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>-38.59103926147367,174.62800904530226</t>
+          <t>-38.591039343256675,174.62801030377287</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>-38.59035258183053,174.62820092845004</t>
+          <t>-38.59035269111535,174.62820310514087</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr"/>
@@ -51240,12 +51242,12 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>-38.591057788692346,174.62829414615607</t>
+          <t>-38.59105781099596,174.62829448937543</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>-38.590362083705955,174.62839018600573</t>
+          <t>-38.59036211821584,174.6283908733819</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
@@ -51392,7 +51394,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>-38.59037909083553,174.62872894796288</t>
+          <t>-38.59037908508423,174.62872883340015</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
@@ -51538,12 +51540,12 @@
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>-38.59106720072784,174.62843898475853</t>
+          <t>-38.59106720816224,174.62843909916504</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>-38.59037379957845,174.6286235502489</t>
+          <t>-38.59037380532986,174.62862366481164</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
@@ -51757,7 +51759,7 @@
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>-38.590366437670916,174.62847690997137</t>
+          <t>-38.59036647793184,174.6284777119103</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
@@ -52042,12 +52044,12 @@
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>-38.5910743599991,174.62854915821896</t>
+          <t>-38.59107425591907,174.62854755652782</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>-38.59036988858804,174.62854564759854</t>
+          <t>-38.59036974480063,174.62854278353063</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
@@ -52189,12 +52191,12 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>-38.591073081299946,174.62852948029945</t>
+          <t>-38.59107309616856,174.62852970911246</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>-38.59036894534139,174.62852685931327</t>
+          <t>-38.59036896259591,174.6285272030014</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
@@ -52320,12 +52322,12 @@
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>-38.59107574277469,174.6285704378302</t>
+          <t>-38.59107560152359,174.62856826410646</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>-38.5903729943788,174.6286075114674</t>
+          <t>-38.590372798829975,174.6286036163348</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
@@ -52479,12 +52481,12 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>-38.591081481995225,174.62865875966494</t>
+          <t>-38.59108134074578,174.6286565859409</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>-38.59037830290438,174.62871325286775</t>
+          <t>-38.590378107359086,174.62870935773472</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr">
@@ -52642,12 +52644,12 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>-38.59107354966107,174.62853668790945</t>
+          <t>-38.59107349762097,174.6285358870639</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>-38.59036995185447,174.62854690778843</t>
+          <t>-38.590369877085045,174.62854541847312</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">
@@ -52995,12 +52997,12 @@
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>-38.59107601040823,174.62857455646474</t>
+          <t>-38.591076040145275,174.6285750140908</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>-38.590377388441475,174.62869503739273</t>
+          <t>-38.59037742294957,174.62869572476913</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
@@ -53162,12 +53164,12 @@
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>-38.59107390650735,174.62854217942186</t>
+          <t>-38.591073861901585,174.6285414929828</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>-38.59037245374351,174.62859674257143</t>
+          <t>-38.59037239047762,174.62859548238146</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
@@ -53329,12 +53331,12 @@
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>-38.59107489526754,174.62855739548775</t>
+          <t>-38.591074843227574,174.62855659464216</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>-38.59036877854745,174.62852353699455</t>
+          <t>-38.59036870952924,174.628522162242</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
@@ -53480,12 +53482,12 @@
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>-38.59107714784912,174.62859206066173</t>
+          <t>-38.591077051203925,174.628590573377</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>-38.59037203388775,174.6285883794927</t>
+          <t>-38.590371895852854,174.62858562998738</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
@@ -53627,7 +53629,7 @@
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>-38.59107966805193,174.6286308444724</t>
+          <t>-38.59107951193355,174.6286284419354</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr"/>
@@ -53782,12 +53784,12 @@
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>-38.59106213787806,174.6283610739424</t>
+          <t>-38.59106222709172,174.62836244682012</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>-38.59037150475363,174.6285778397224</t>
+          <t>-38.59037163128579,174.62858036010223</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
@@ -53949,7 +53951,7 @@
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>-38.5910936887674,174.62884661521247</t>
+          <t>-38.59109377054134,174.62884787368466</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr"/>
@@ -54096,12 +54098,12 @@
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>-38.59107890976218,174.628619175007</t>
+          <t>-38.591078761077775,174.62861688687656</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>-38.590371378221406,174.62857531934253</t>
+          <t>-38.59037117692004,174.62857130964736</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr">
@@ -54259,12 +54261,12 @@
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>-38.59107783179926,174.62860258606148</t>
+          <t>-38.59107783923348,174.62860270046798</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>-38.59037386859546,174.62862492500162</t>
+          <t>-38.5903738858497,174.6286252686898</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr">
@@ -54561,12 +54563,12 @@
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>-38.5910775864694,174.6285988106463</t>
+          <t>-38.59107759390366,174.62859892505284</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>-38.5903753352031,174.62865413849727</t>
+          <t>-38.59037534095449,174.62865425306</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
@@ -54859,12 +54861,12 @@
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>-38.59107846370883,174.6286123106157</t>
+          <t>-38.59107832245853,174.62861013689178</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>-38.59037888378814,174.6287248237043</t>
+          <t>-38.59037869399455,174.62872104313394</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr">
@@ -54983,7 +54985,7 @@
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>-38.590389937614624,174.62894501331442</t>
+          <t>-38.59038995486793,174.62894535700272</t>
         </is>
       </c>
       <c r="AC129" t="inlineStr">
@@ -55145,12 +55147,12 @@
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>-38.591076322647154,174.62857936153839</t>
+          <t>-38.591076285475864,174.6285787895058</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>-38.590380356122026,174.62875415176586</t>
+          <t>-38.590380298609126,174.62875300613842</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
@@ -55292,12 +55294,12 @@
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>-38.59108022561718,174.6286394249618</t>
+          <t>-38.59108027022238,174.62864011140095</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>-38.590401957172375,174.62918444952695</t>
+          <t>-38.59040201468104,174.6291855951549</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr">
@@ -55435,12 +55437,12 @@
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>-38.59108907223451,174.62877556874156</t>
+          <t>-38.59108895328945,174.6287737382368</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>-38.59038867236941,174.62891980950621</t>
+          <t>-38.590388505586674,174.62891648718607</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
@@ -55594,12 +55596,12 @@
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>-38.591070048093265,174.62848280244623</t>
+          <t>-38.5910700778307,174.62848326007222</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>-38.590366127086384,174.62847072358517</t>
+          <t>-38.590366173098914,174.62847164008681</t>
         </is>
       </c>
       <c r="AC133" t="inlineStr">
@@ -55745,12 +55747,12 @@
       <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>-38.59107499934744,174.62855899717894</t>
+          <t>-38.591074917570374,174.6285577387073</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>-38.59037303463884,174.6286083134065</t>
+          <t>-38.590372925361585,174.62860613671472</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr">
@@ -55892,12 +55894,12 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>-38.5910732968948,174.62853279808817</t>
+          <t>-38.59107331176341,174.62853302690118</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>-38.59036970454015,174.62854198159164</t>
+          <t>-38.59036972754614,174.62854243984248</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr">
@@ -56043,12 +56045,12 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>-38.59107473914764,174.62855499295102</t>
+          <t>-38.59107475401619,174.62855522176403</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>-38.59037199937902,174.62858769211638</t>
+          <t>-38.590372016633395,174.62858803580454</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr">
@@ -56182,12 +56184,12 @@
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>-38.59106671749186,174.6284315483366</t>
+          <t>-38.59106673979506,174.6284318915561</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>-38.59036659871461,174.62848011772715</t>
+          <t>-38.590366627472406,174.6284806905407</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr">
@@ -56329,12 +56331,12 @@
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>-38.59108664872324,174.62873827220753</t>
+          <t>-38.5910865372117,174.6287365561094</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>-38.59037822813708,174.62871176355216</t>
+          <t>-38.59037807285108,174.6287086703583</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr">
@@ -56496,12 +56498,12 @@
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>-38.59105750617981,174.62828979871034</t>
+          <t>-38.59105760282885,174.6282912859944</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>-38.59035955872182,174.6283398929832</t>
+          <t>-38.59035969101084,174.6283425279251</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr">
@@ -56663,12 +56665,12 @@
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>-38.59106882885787,174.62846403978062</t>
+          <t>-38.59106890320158,174.62846518384558</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>-38.59036724864008,174.6284930633133</t>
+          <t>-38.590367352167895,174.62849512544204</t>
         </is>
       </c>
       <c r="AC140" t="inlineStr">
@@ -56830,12 +56832,12 @@
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>-38.59107350505527,174.62853600147037</t>
+          <t>-38.59107351992386,174.6285362302834</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>-38.59036988858804,174.62854564759854</t>
+          <t>-38.59036990584253,174.62854599128667</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
@@ -56997,12 +56999,12 @@
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>-38.59108373454664,174.62869342484422</t>
+          <t>-38.59108366020517,174.62869228077886</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>-38.590380718453055,174.62876136921864</t>
+          <t>-38.59038060917867,174.62875919252653</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr">
@@ -57144,12 +57146,12 @@
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>-38.59105595235794,174.6282658877594</t>
+          <t>-38.59105601183447,174.6282668030111</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>-38.59037147024485,174.62857715234605</t>
+          <t>-38.590371556516786,174.62857887078687</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
@@ -57307,12 +57309,12 @@
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>-38.591088038898356,174.6287596662314</t>
+          <t>-38.59108791995303,174.62875783572665</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>-38.590383858636656,174.6288239204786</t>
+          <t>-38.590383697602405,174.62882071272156</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr">
@@ -57470,12 +57472,12 @@
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>-38.59107799535238,174.6286051030049</t>
+          <t>-38.591078047392024,174.62860590385054</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>-38.59038864361377,174.62891923669238</t>
+          <t>-38.59038871262729,174.62892061144555</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr">
@@ -57633,12 +57635,12 @@
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>-38.59107656054337,174.6285830225469</t>
+          <t>-38.591076582846135,174.62858336576645</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>-38.59037499587099,174.62864737929624</t>
+          <t>-38.590375030379356,174.62864806667258</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
@@ -57752,12 +57754,12 @@
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>-38.591084812496625,174.62871001379202</t>
+          <t>-38.591084693550535,174.62870818328742</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>-38.59037873425381,174.62872184507307</t>
+          <t>-38.59037857321676,174.6287186373164</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr">
@@ -57871,12 +57873,12 @@
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>-38.59107732627099,174.6285948064182</t>
+          <t>-38.591077303968255,174.62859446319862</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>-38.590369514740644,174.62853820102202</t>
+          <t>-38.59036948023164,174.62853751364574</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
@@ -57974,12 +57976,12 @@
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>-38.59107971265717,174.62863153091155</t>
+          <t>-38.59107959370986,174.62862970040715</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>-38.590374466742205,174.62863683952523</t>
+          <t>-38.59037429995141,174.6286335172061</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr"/>
@@ -58109,12 +58111,12 @@
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>-38.59107841910349,174.62861162417656</t>
+          <t>-38.591078277853164,174.62860945045267</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>-38.59037759548993,174.62869916165118</t>
+          <t>-38.59037739994418,174.6286952665182</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
@@ -58260,12 +58262,12 @@
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>-38.591078210945106,174.628608420794</t>
+          <t>-38.59107812916857,174.62860716232228</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>-38.59037810160776,174.62870924317195</t>
+          <t>-38.59037799233239,174.62870706648</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
@@ -58427,12 +58429,12 @@
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>-38.59107413697043,174.62854572602365</t>
+          <t>-38.591074151839,174.62854595483665</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>-38.590374748560926,174.6286424530989</t>
+          <t>-38.59037476581511,174.6286427967871</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr">
@@ -58641,12 +58643,12 @@
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>-38.59108217337348,174.62866939947224</t>
+          <t>-38.59108203212424,174.62866722574816</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>-38.590380137572936,174.62874979838165</t>
+          <t>-38.59037994202887,174.62874590324844</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
@@ -58772,12 +58774,12 @@
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>-38.5910779061416,174.62860373012666</t>
+          <t>-38.591077950747,174.62860441656576</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>-38.59039218628699,174.62898980735707</t>
+          <t>-38.590392243797574,174.6289909529848</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
@@ -58907,12 +58909,12 @@
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>-38.591096260923116,174.6288861998839</t>
+          <t>-38.59109614941376,174.6288844837854</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>-38.59039538960894,174.62905361882318</t>
+          <t>-38.59039524008303,174.62905064019088</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
@@ -59067,7 +59069,7 @@
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>-38.59035550949924,174.62825924085257</t>
+          <t>-38.59035559002409,174.6282608447301</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr">
@@ -59373,7 +59375,7 @@
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>-38.59035429012014,174.62823495356463</t>
+          <t>-38.590354393652525,174.62823701569283</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
@@ -59511,12 +59513,12 @@
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>-38.591078723906676,174.62861631484395</t>
+          <t>-38.59107874620933,174.62861665806352</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>-38.5903768190575,174.628683695682</t>
+          <t>-38.590376847814284,174.6286842684957</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr">
@@ -59678,12 +59680,12 @@
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>-38.59108347435146,174.6286894206155</t>
+          <t>-38.5910833925758,174.62868816214362</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>-38.59037722740371,174.62869182963615</t>
+          <t>-38.5903771066253,174.6286894238187</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
@@ -59845,12 +59847,12 @@
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>-38.5910861803746,174.62873106459537</t>
+          <t>-38.591086031692384,174.62872877646453</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>-38.5903809945145,174.62876686823034</t>
+          <t>-38.59038078171716,174.6287626294088</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
@@ -59988,7 +59990,7 @@
       <c r="Z163" t="inlineStr"/>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>-38.591077779759594,174.6286017852158</t>
+          <t>-38.591077824365,174.62860247165494</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -60135,12 +60137,12 @@
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>-38.59107781693078,174.6286023572484</t>
+          <t>-38.591077802062316,174.62860212843538</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>-38.590373776572775,174.628623091998</t>
+          <t>-38.590373759318524,174.62862274830982</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
@@ -60286,12 +60288,12 @@
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>-38.591083912966106,174.62869617060107</t>
+          <t>-38.59108377171736,174.6286939968769</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>-38.59037779103556,174.62870305678422</t>
+          <t>-38.59037759548993,174.62869916165118</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr">
@@ -60449,12 +60451,12 @@
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>-38.5910774526531,174.62859675132898</t>
+          <t>-38.59107746008734,174.62859686573552</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>-38.59037922886706,174.62873169746865</t>
+          <t>-38.59037924036968,174.62873192659413</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr">
@@ -60616,12 +60618,12 @@
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>-38.59107282109912,174.6285254760717</t>
+          <t>-38.591072828533434,174.6285255904782</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>-38.59037611739084,174.62866971902866</t>
+          <t>-38.59037612889358,174.6286699481541</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
@@ -60779,12 +60781,12 @@
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>-38.59107875364356,174.62861677247005</t>
+          <t>-38.591078619827556,174.62861471315264</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>-38.590377284917196,174.6286929752635</t>
+          <t>-38.590377100873944,174.628689309256</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr">
@@ -60922,7 +60924,7 @@
       <c r="Z169" t="inlineStr"/>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>-38.59106998861845,174.62848188719423</t>
+          <t>-38.591070085265045,174.62848337447872</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -61069,12 +61071,12 @@
       <c r="Z170" t="inlineStr"/>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>-38.59109015760686,174.62879227209797</t>
+          <t>-38.5910900163599,174.62879009837346</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>-38.59038882189867,174.62892278813806</t>
+          <t>-38.59038862636039,174.6289188930041</t>
         </is>
       </c>
       <c r="AC170" t="inlineStr">
@@ -61232,12 +61234,12 @@
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>-38.591071624173594,174.62850705662447</t>
+          <t>-38.591071616739264,174.62850694221794</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>-38.590385313692025,174.62885290485505</t>
+          <t>-38.59038530794084,174.62885279029229</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
@@ -61383,12 +61385,12 @@
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>-38.591087942255285,174.62875817894627</t>
+          <t>-38.59108790508487,174.62875760691355</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>-38.590398460624485,174.62911479534955</t>
+          <t>-38.590398414617,174.62911387884725</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr">
@@ -61530,12 +61532,12 @@
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>-38.591086358793184,174.62873381035237</t>
+          <t>-38.59108623984746,174.62873197984771</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>-38.59038220228026,174.62879092640688</t>
+          <t>-38.59038203549385,174.62878760408722</t>
         </is>
       </c>
       <c r="AC173" t="inlineStr">
@@ -61681,12 +61683,12 @@
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>-38.59107411466755,174.6285453828041</t>
+          <t>-38.59107412210183,174.6285454972106</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>-38.59037049824585,174.62855779124652</t>
+          <t>-38.59037050974882,174.628558020372</t>
         </is>
       </c>
       <c r="AC174" t="inlineStr">
@@ -61808,12 +61810,12 @@
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>-38.591079816736055,174.62863313260289</t>
+          <t>-38.59107982417027,174.62863324700942</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>-38.590374984368204,174.62864715017076</t>
+          <t>-38.59037499587099,174.62864737929624</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
@@ -61975,12 +61977,12 @@
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>-38.59107529671847,174.62856357343944</t>
+          <t>-38.59107520750719,174.62856220056128</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>-38.59037016465965,174.62855114660894</t>
+          <t>-38.59037003812686,174.62854862622916</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr">
@@ -62142,12 +62144,12 @@
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>-38.591072092536116,174.62851426423418</t>
+          <t>-38.59107195871829,174.62851220491712</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>-38.590367432689504,174.62849672932</t>
+          <t>-38.59036724864008,174.6284930633133</t>
         </is>
       </c>
       <c r="AC177" t="inlineStr">
@@ -62293,12 +62295,12 @@
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>-38.59107989851232,174.62863439107466</t>
+          <t>-38.59107998772275,174.62863576395299</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>-38.590379430162905,174.62873570716454</t>
+          <t>-38.590379550940334,174.6287381129821</t>
         </is>
       </c>
       <c r="AC178" t="inlineStr">
@@ -62452,12 +62454,12 @@
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>-38.59107989851232,174.62863439107466</t>
+          <t>-38.59107980186766,174.62863290378985</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>-38.59037574355136,174.62866227245112</t>
+          <t>-38.59037561126959,174.62865963750832</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr">
@@ -62762,12 +62764,12 @@
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>-38.591069200576314,174.62846976010545</t>
+          <t>-38.59106926005122,174.62847067535745</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>-38.59036486173861,174.62844551978998</t>
+          <t>-38.5903649422609,174.62844712366785</t>
         </is>
       </c>
       <c r="AC181" t="inlineStr">
@@ -62929,12 +62931,12 @@
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>-38.59107046441687,174.62848920921022</t>
+          <t>-38.59107047928555,174.6284894380232</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>-38.59037279307854,174.6286035017721</t>
+          <t>-38.59037281608428,174.62860396002299</t>
         </is>
       </c>
       <c r="AC182" t="inlineStr">
@@ -63096,12 +63098,12 @@
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>-38.591082753238375,174.62867832318176</t>
+          <t>-38.591082634291794,174.62867649267722</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>-38.59038485359625,174.62884373983474</t>
+          <t>-38.59038469256256,174.62884053207765</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr">
@@ -63239,12 +63241,12 @@
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>-38.59109419427883,174.62885439485868</t>
+          <t>-38.59109413480692,174.6288534796062</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>-38.59038760840898,174.6288986153953</t>
+          <t>-38.59038752214176,174.62889689695388</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr">
@@ -63557,12 +63559,12 @@
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>-38.59108203212424,174.62866722574816</t>
+          <t>-38.591081898309135,174.62866516643064</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>-38.59038178243844,174.62878256332638</t>
+          <t>-38.590381598398004,174.6287788973185</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
@@ -63716,12 +63718,12 @@
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>-38.59106098553345,174.6283433409385</t>
+          <t>-38.59106104500937,174.6283442561903</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>-38.59035974852777,174.628343673552</t>
+          <t>-38.59035982905146,174.62834527742964</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr">
@@ -63883,12 +63885,12 @@
       </c>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>-38.59107926660456,174.6286246665201</t>
+          <t>-38.591079140222924,174.62862272160922</t>
         </is>
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>-38.59037455876467,174.62863867252887</t>
+          <t>-38.59037438622253,174.62863523564704</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr">
@@ -64165,12 +64167,12 @@
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>-38.59107576507749,174.62857078104977</t>
+          <t>-38.591075675866286,174.62856940817161</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>-38.5903705155003,174.6285581349347</t>
+          <t>-38.59037039471915,174.6285557291176</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr">
@@ -64292,7 +64294,7 @@
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>-38.591113611471656,174.62915322486788</t>
+          <t>-38.591113626339045,174.6291534536811</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr"/>
@@ -64523,7 +64525,7 @@
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>-38.59037243073773,174.6285962843205</t>
+          <t>-38.59037231570882,174.62859399306606</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
@@ -64637,12 +64639,12 @@
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>-38.59108539979253,174.62871905190858</t>
+          <t>-38.59108546669961,174.62872008156745</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>-38.590386745735536,174.6288814309814</t>
+          <t>-38.59038683200299,174.6288831494228</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr">
@@ -64804,12 +64806,12 @@
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>-38.59106592944447,174.62841942124876</t>
+          <t>-38.59106601122303,174.62842067972014</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>-38.59037703185769,174.6286879345032</t>
+          <t>-38.59037714688477,174.62869022575788</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr">
@@ -64951,12 +64953,12 @@
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>-38.59108949597605,174.6287820899149</t>
+          <t>-38.591089339860794,174.62877968737735</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>-38.5903846408017,174.62883950101283</t>
+          <t>-38.59038443375821,174.62883537675376</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr">
@@ -65082,12 +65084,12 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>-38.591075475141004,174.62856631919576</t>
+          <t>-38.59107553461517,174.62856723444784</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>-38.59038145461633,174.6287760332499</t>
+          <t>-38.59038153513408,174.62877763712834</t>
         </is>
       </c>
       <c r="AC197" t="inlineStr">
@@ -65245,12 +65247,12 @@
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>-38.59108383119051,174.62869491212916</t>
+          <t>-38.59108371967834,174.62869319603115</t>
         </is>
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>-38.590382443832816,174.62879573804227</t>
+          <t>-38.590382294300305,174.62879275941083</t>
         </is>
       </c>
       <c r="AC198" t="inlineStr">
@@ -65404,12 +65406,12 @@
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>-38.59107858265643,174.62861414112004</t>
+          <t>-38.59107850831419,174.62861299705483</t>
         </is>
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>-38.590377756527516,174.6287023694078</t>
+          <t>-38.59037765300337,174.62870030727856</t>
         </is>
       </c>
       <c r="AC199" t="inlineStr">
@@ -65674,12 +65676,12 @@
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>-38.5910672527686,174.62843978560397</t>
+          <t>-38.59106730480937,174.62844058644941</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>-38.59037217767404,174.62859124356075</t>
+          <t>-38.59037224669144,174.62859261831343</t>
         </is>
       </c>
       <c r="AC201" t="inlineStr">
@@ -65841,12 +65843,12 @@
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>-38.59107471684479,174.62855464973148</t>
+          <t>-38.59107475401619,174.62855522176403</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr">
         <is>
-          <t>-38.59037191885867,174.62858608823828</t>
+          <t>-38.59037197637321,174.6285872338655</t>
         </is>
       </c>
       <c r="AC202" t="inlineStr">
@@ -66147,12 +66149,12 @@
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>-38.591077980483945,174.62860487419184</t>
+          <t>-38.59107786153619,174.62860304368755</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr">
         <is>
-          <t>-38.590375312197544,174.62865368024634</t>
+          <t>-38.59037514540722,174.6286503579272</t>
         </is>
       </c>
       <c r="AC204" t="inlineStr">
@@ -66405,12 +66407,12 @@
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>-38.59108209159761,174.62866814100042</t>
+          <t>-38.591081920611664,174.6286655096502</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>-38.59037451275344,174.62863775602705</t>
+          <t>-38.59037427694576,174.62863305895522</t>
         </is>
       </c>
       <c r="AC206" t="inlineStr"/>
@@ -66556,12 +66558,12 @@
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>-38.59108256738432,174.62867546301842</t>
+          <t>-38.59108241126686,174.62867306048128</t>
         </is>
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>-38.59037401813226,174.62862790363252</t>
+          <t>-38.590373793827034,174.62862343568617</t>
         </is>
       </c>
       <c r="AC207" t="inlineStr">
@@ -66790,12 +66792,12 @@
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>-38.59108366020517,174.62869228077886</t>
+          <t>-38.59108365277102,174.6286921663723</t>
         </is>
       </c>
       <c r="AB209" t="inlineStr">
         <is>
-          <t>-38.59038232880781,174.6287934467873</t>
+          <t>-38.59038231730531,174.6287932176618</t>
         </is>
       </c>
       <c r="AC209" t="inlineStr">
@@ -66957,12 +66959,12 @@
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>-38.59107201075855,174.62851300576264</t>
+          <t>-38.591071995889905,174.62851277694963</t>
         </is>
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>-38.59037188434994,174.62858540086197</t>
+          <t>-38.59037186709557,174.62858505717378</t>
         </is>
       </c>
       <c r="AC210" t="inlineStr">
@@ -67048,12 +67050,12 @@
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>-38.59109434295857,174.62885668298995</t>
+          <t>-38.59109432065661,174.62885633977027</t>
         </is>
       </c>
       <c r="AB211" t="inlineStr">
         <is>
-          <t>-38.59039281315166,174.6290022946993</t>
+          <t>-38.59039277864539,174.62900160732264</t>
         </is>
       </c>
       <c r="AC211" t="inlineStr"/>
@@ -67187,12 +67189,12 @@
       </c>
       <c r="AA212" t="inlineStr">
         <is>
-          <t>-38.59107025625513,174.6284860058282</t>
+          <t>-38.59107024882077,174.6284858914217</t>
         </is>
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>-38.590368416201684,174.62851631954365</t>
+          <t>-38.59036840469864,174.62851609041823</t>
         </is>
       </c>
       <c r="AC212" t="inlineStr">
@@ -67338,12 +67340,12 @@
       </c>
       <c r="AA213" t="inlineStr">
         <is>
-          <t>-38.59107375782143,174.62853989129167</t>
+          <t>-38.59107361656977,174.628537717568</t>
         </is>
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>-38.590383835631776,174.6288234622276</t>
+          <t>-38.59038364009017,174.62881956709407</t>
         </is>
       </c>
       <c r="AC213" t="inlineStr">
@@ -67517,7 +67519,7 @@
       <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>-38.590389983623425,174.62894592981655</t>
+          <t>-38.59038986285029,174.62894352399846</t>
         </is>
       </c>
       <c r="AC215" t="inlineStr">
@@ -67671,12 +67673,12 @@
       </c>
       <c r="AA216" t="inlineStr">
         <is>
-          <t>-38.591084864535524,174.6287108146378</t>
+          <t>-38.59108476045772,174.62870921294626</t>
         </is>
       </c>
       <c r="AB216" t="inlineStr">
         <is>
-          <t>-38.5903838183781,174.62882311853932</t>
+          <t>-38.59038366884629,174.62882013990782</t>
         </is>
       </c>
       <c r="AC216" t="inlineStr">
@@ -67786,12 +67788,12 @@
       </c>
       <c r="AA217" t="inlineStr">
         <is>
-          <t>-38.59111133675595,174.62911821644485</t>
+          <t>-38.59111121038255,174.62911627153252</t>
         </is>
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>-38.5903884710799,174.6289157998095</t>
+          <t>-38.5903882985459,174.62891236292663</t>
         </is>
       </c>
       <c r="AC217" t="inlineStr">
@@ -67905,12 +67907,12 @@
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="inlineStr">
         <is>
-          <t>-38.591100111697564,174.62894546248893</t>
+          <t>-38.59110017860264,174.62894649214815</t>
         </is>
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>-38.590394486701264,174.62903563246692</t>
+          <t>-38.590394584468484,174.62903758003412</t>
         </is>
       </c>
       <c r="AC218" t="inlineStr">
@@ -68160,7 +68162,7 @@
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="inlineStr">
         <is>
-          <t>-38.59038103477345,174.62876767016954</t>
+          <t>-38.59038082197613,174.628763431348</t>
         </is>
       </c>
       <c r="AC220" t="inlineStr">
@@ -68274,12 +68276,12 @@
       </c>
       <c r="AA221" t="inlineStr">
         <is>
-          <t>-38.59104887460005,174.6281569728167</t>
+          <t>-38.59104895638143,174.62815823128756</t>
         </is>
       </c>
       <c r="AB221" t="inlineStr">
         <is>
-          <t>-38.59035724653053,174.62829383878275</t>
+          <t>-38.5903573673171,174.6282962445991</t>
         </is>
       </c>
       <c r="AC221" t="inlineStr"/>
@@ -68401,12 +68403,12 @@
       </c>
       <c r="AA222" t="inlineStr">
         <is>
-          <t>-38.59107049415426,174.6284896668362</t>
+          <t>-38.59107058336639,174.6284910397142</t>
         </is>
       </c>
       <c r="AB222" t="inlineStr">
         <is>
-          <t>-38.590372798829975,174.6286036163348</t>
+          <t>-38.59037291961015,174.62860602215198</t>
         </is>
       </c>
       <c r="AC222" t="inlineStr">
@@ -68496,12 +68498,12 @@
       </c>
       <c r="AA223" t="inlineStr">
         <is>
-          <t>-38.591081876006605,174.628664823211</t>
+          <t>-38.59108180166487,174.62866367914575</t>
         </is>
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t>-38.59037200513049,174.6285878066791</t>
+          <t>-38.590371901604314,174.62858574455012</t>
         </is>
       </c>
       <c r="AC223" t="inlineStr">
@@ -68776,7 +68778,11 @@
           <t>-38.59174124394328,174.6279701173917</t>
         </is>
       </c>
-      <c r="AA225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>-38.59104929094156,174.62816337957753</t>
+        </is>
+      </c>
       <c r="AB225" t="inlineStr"/>
       <c r="AC225" t="inlineStr">
         <is>
@@ -68921,12 +68927,12 @@
       </c>
       <c r="AA226" t="inlineStr">
         <is>
-          <t>-38.59107896180171,174.62861997585267</t>
+          <t>-38.59107881311732,174.6286176877222</t>
         </is>
       </c>
       <c r="AB226" t="inlineStr">
         <is>
-          <t>-38.59037316692176,174.62861094834915</t>
+          <t>-38.59037296562163,174.62860693865377</t>
         </is>
       </c>
       <c r="AC226" t="inlineStr">
@@ -69068,12 +69074,12 @@
       </c>
       <c r="AA227" t="inlineStr">
         <is>
-          <t>-38.591072293262755,174.62851735320982</t>
+          <t>-38.59107233786867,174.62851803964884</t>
         </is>
       </c>
       <c r="AB227" t="inlineStr">
         <is>
-          <t>-38.59036627662711,174.62847370221553</t>
+          <t>-38.59036633989434,174.6284749624053</t>
         </is>
       </c>
       <c r="AC227" t="inlineStr">
@@ -69235,12 +69241,12 @@
       </c>
       <c r="AA228" t="inlineStr">
         <is>
-          <t>-38.59108056015604,174.62864457325549</t>
+          <t>-38.59108048581408,174.62864342919022</t>
         </is>
       </c>
       <c r="AB228" t="inlineStr">
         <is>
-          <t>-38.59037117692004,174.62857130964736</t>
+          <t>-38.5903710676421,174.62856913295568</t>
         </is>
       </c>
       <c r="AC228" t="inlineStr">
@@ -69828,12 +69834,12 @@
       </c>
       <c r="AA235" t="inlineStr">
         <is>
-          <t>-38.591087310357864,174.62874845438992</t>
+          <t>-38.59108720628058,174.6287468526983</t>
         </is>
       </c>
       <c r="AB235" t="inlineStr">
         <is>
-          <t>-38.590381023270886,174.62876744104406</t>
+          <t>-38.59038087373765,174.62876446241273</t>
         </is>
       </c>
       <c r="AC235" t="inlineStr">
@@ -70109,12 +70115,12 @@
       <c r="Z238" t="inlineStr"/>
       <c r="AA238" t="inlineStr">
         <is>
-          <t>-38.59105674785588,174.6282781292509</t>
+          <t>-38.59105679246319,174.6282788156897</t>
         </is>
       </c>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>-38.590364608668395,174.62844047903104</t>
+          <t>-38.59036467768756,174.62844185378347</t>
         </is>
       </c>
       <c r="AC238" t="inlineStr">
@@ -70248,12 +70254,12 @@
       </c>
       <c r="AA239" t="inlineStr">
         <is>
-          <t>-38.591083154682906,174.62868450113453</t>
+          <t>-38.59108308777551,174.6286834714757</t>
         </is>
       </c>
       <c r="AB239" t="inlineStr">
         <is>
-          <t>-38.590379188607876,174.62873089552946</t>
+          <t>-38.59037909658685,174.62872906252562</t>
         </is>
       </c>
       <c r="AC239" t="inlineStr">
@@ -70396,7 +70402,7 @@
       <c r="AA240" t="inlineStr"/>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>-38.590381040524726,174.62876778473228</t>
+          <t>-38.59038097726067,174.6287665245421</t>
         </is>
       </c>
       <c r="AC240" t="inlineStr">
@@ -70514,12 +70520,12 @@
       </c>
       <c r="AA241" t="inlineStr">
         <is>
-          <t>-38.59108398730754,174.62869731466643</t>
+          <t>-38.591083979873396,174.6286972002599</t>
         </is>
       </c>
       <c r="AB241" t="inlineStr">
         <is>
-          <t>-38.590395838186254,174.62906255472</t>
+          <t>-38.590395826684265,174.62906232559445</t>
         </is>
       </c>
       <c r="AC241" t="inlineStr">
@@ -70752,12 +70758,12 @@
       </c>
       <c r="AA243" t="inlineStr">
         <is>
-          <t>-38.59107478375333,174.62855567939008</t>
+          <t>-38.5910746722391,174.6285539632924</t>
         </is>
       </c>
       <c r="AB243" t="inlineStr">
         <is>
-          <t>-38.59037167729747,174.628581276604</t>
+          <t>-38.59037152200801,174.62857818341053</t>
         </is>
       </c>
       <c r="AC243" t="inlineStr">
@@ -70922,12 +70928,12 @@
       <c r="Z245" t="inlineStr"/>
       <c r="AA245" t="inlineStr">
         <is>
-          <t>-38.591074352564824,174.62854904381243</t>
+          <t>-38.5910743005248,174.62854824296687</t>
         </is>
       </c>
       <c r="AB245" t="inlineStr">
         <is>
-          <t>-38.590368255158985,174.6285131117877</t>
+          <t>-38.59036818614066,174.62851173703515</t>
         </is>
       </c>
       <c r="AC245" t="inlineStr">
@@ -71204,12 +71210,12 @@
       </c>
       <c r="AA247" t="inlineStr">
         <is>
-          <t>-38.591075527180905,174.6285671200413</t>
+          <t>-38.59107540823256,174.6285652895371</t>
         </is>
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>-38.590373408481746,174.6286157599836</t>
+          <t>-38.59037324744178,174.62861255222728</t>
         </is>
       </c>
       <c r="AC247" t="inlineStr">
@@ -71426,12 +71432,12 @@
       </c>
       <c r="AA249" t="inlineStr">
         <is>
-          <t>-38.59104923146422,174.62816246432598</t>
+          <t>-38.59104932068022,174.62816383720332</t>
         </is>
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>-38.59035316851698,174.6282126138428</t>
+          <t>-38.59035329505702,174.62821513422165</t>
         </is>
       </c>
       <c r="AC249" t="inlineStr">
@@ -71593,12 +71599,12 @@
       </c>
       <c r="AA250" t="inlineStr">
         <is>
-          <t>-38.59106178102325,174.62835558243145</t>
+          <t>-38.59106186280248,174.62835684090268</t>
         </is>
       </c>
       <c r="AB250" t="inlineStr">
         <is>
-          <t>-38.59036523559192,174.62845296636576</t>
+          <t>-38.59036534487204,174.62845514305715</t>
         </is>
       </c>
       <c r="AC250" t="inlineStr">
@@ -71720,12 +71726,12 @@
       </c>
       <c r="AA251" t="inlineStr">
         <is>
-          <t>-38.591079913380725,174.62863461988772</t>
+          <t>-38.59107977956503,174.62863256057028</t>
         </is>
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>-38.59039163993595,174.6289789238938</t>
+          <t>-38.59039145590168,174.62897525788517</t>
         </is>
       </c>
       <c r="AC251" t="inlineStr"/>
@@ -71978,12 +71984,12 @@
       </c>
       <c r="AA253" t="inlineStr">
         <is>
-          <t>-38.59107221891956,174.62851620914478</t>
+          <t>-38.591072233788196,174.62851643795779</t>
         </is>
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>-38.590372350217486,174.6285946804424</t>
+          <t>-38.590372373223275,174.6285951386933</t>
         </is>
       </c>
       <c r="AC253" t="inlineStr">
@@ -72082,7 +72088,7 @@
       <c r="AA254" t="inlineStr"/>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>-38.59039197349775,174.62898556853455</t>
+          <t>-38.59039192748926,174.62898465203236</t>
         </is>
       </c>
       <c r="AC254" t="inlineStr"/>
@@ -72132,7 +72138,7 @@
       </c>
       <c r="AA255" t="inlineStr">
         <is>
-          <t>-38.59108862619039,174.62876870434863</t>
+          <t>-38.59108868566296,174.62876961960103</t>
         </is>
       </c>
       <c r="AB255" t="inlineStr"/>
@@ -72279,12 +72285,12 @@
       </c>
       <c r="AA256" t="inlineStr">
         <is>
-          <t>-38.59107945245987,174.6286275266832</t>
+          <t>-38.59107946732829,174.62862775549627</t>
         </is>
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>-38.59038487660105,174.62884419808574</t>
+          <t>-38.59038489960586,174.62884465633675</t>
         </is>
       </c>
       <c r="AC256" t="inlineStr">
@@ -72446,7 +72452,7 @@
       </c>
       <c r="AA257" t="inlineStr">
         <is>
-          <t>-38.59108241126686,174.62867306048128</t>
+          <t>-38.591082500476844,174.62867443335963</t>
         </is>
       </c>
       <c r="AB257" t="inlineStr"/>
@@ -72597,12 +72603,12 @@
       </c>
       <c r="AA258" t="inlineStr">
         <is>
-          <t>-38.591087421869226,174.62875017048808</t>
+          <t>-38.59108727318741,174.6287478823572</t>
         </is>
       </c>
       <c r="AB258" t="inlineStr">
         <is>
-          <t>-38.59038388739275,174.62882449329234</t>
+          <t>-38.59038368609997,174.62882048359606</t>
         </is>
       </c>
       <c r="AC258" t="inlineStr">
@@ -72756,12 +72762,12 @@
       </c>
       <c r="AA259" t="inlineStr">
         <is>
-          <t>-38.591085778932545,174.62872488664212</t>
+          <t>-38.59108570459138,174.62872374257674</t>
         </is>
       </c>
       <c r="AB259" t="inlineStr">
         <is>
-          <t>-38.59039768999813,174.6290994439362</t>
+          <t>-38.590397580730055,174.62909726724328</t>
         </is>
       </c>
       <c r="AC259" t="inlineStr">
@@ -72958,12 +72964,12 @@
       <c r="Z261" t="inlineStr"/>
       <c r="AA261" t="inlineStr">
         <is>
-          <t>-38.59108052298506,174.62864400122285</t>
+          <t>-38.591080426340525,174.628642513938</t>
         </is>
       </c>
       <c r="AB261" t="inlineStr">
         <is>
-          <t>-38.59037842943361,174.628715773248</t>
+          <t>-38.59037829140172,174.62871302374228</t>
         </is>
       </c>
       <c r="AC261" t="inlineStr">
@@ -73187,12 +73193,12 @@
       </c>
       <c r="AA264" t="inlineStr">
         <is>
-          <t>-38.59110016373484,174.628946263335</t>
+          <t>-38.591100252941594,174.62894763621395</t>
         </is>
       </c>
       <c r="AB264" t="inlineStr">
         <is>
-          <t>-38.59038932224604,174.62893275509853</t>
+          <t>-38.590389443019404,174.62893516091657</t>
         </is>
       </c>
       <c r="AC264" t="inlineStr">
@@ -73266,7 +73272,7 @@
       <c r="Z265" t="inlineStr"/>
       <c r="AA265" t="inlineStr">
         <is>
-          <t>-38.591108898486915,174.62908069107846</t>
+          <t>-38.591108972824564,174.62908183514446</t>
         </is>
       </c>
       <c r="AB265" t="inlineStr"/>
@@ -73480,12 +73486,12 @@
       </c>
       <c r="AA267" t="inlineStr">
         <is>
-          <t>-38.59107696942719,174.62858931490533</t>
+          <t>-38.59107700659845,174.6285898869379</t>
         </is>
       </c>
       <c r="AB267" t="inlineStr">
         <is>
-          <t>-38.59037457601889,174.62863901621705</t>
+          <t>-38.5903746335329,174.62864016184432</t>
         </is>
       </c>
       <c r="AC267" t="inlineStr">
@@ -73652,7 +73658,7 @@
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>-38.59037252851228,174.62859823188683</t>
+          <t>-38.59037252276083,174.62859811732412</t>
         </is>
       </c>
       <c r="AC268" t="inlineStr">
@@ -73917,12 +73923,12 @@
       </c>
       <c r="AA270" t="inlineStr">
         <is>
-          <t>-38.591068286148456,174.6284556881065</t>
+          <t>-38.59106832332036,174.62845626013896</t>
         </is>
       </c>
       <c r="AB270" t="inlineStr">
         <is>
-          <t>-38.590362929196935,174.62840702672233</t>
+          <t>-38.590362975209985,174.62840794322392</t>
         </is>
       </c>
       <c r="AC270" t="inlineStr">
@@ -74183,12 +74189,12 @@
       </c>
       <c r="AA272" t="inlineStr">
         <is>
-          <t>-38.591083340536734,174.6286873612979</t>
+          <t>-38.59108318441952,174.62868495876066</t>
         </is>
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>-38.59037639920797,174.6286753326025</t>
+          <t>-38.590376186407305,174.62867109378143</t>
         </is>
       </c>
       <c r="AC272" t="inlineStr">
@@ -74449,12 +74455,12 @@
       </c>
       <c r="AA274" t="inlineStr">
         <is>
-          <t>-38.59107937811776,174.62862638261797</t>
+          <t>-38.59107925917035,174.6286245521136</t>
         </is>
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>-38.59037588158446,174.62866502195666</t>
+          <t>-38.59037570904308,174.62866158507475</t>
         </is>
       </c>
       <c r="AC274" t="inlineStr">
@@ -74616,12 +74622,12 @@
       </c>
       <c r="AA275" t="inlineStr">
         <is>
-          <t>-38.59107936324933,174.62862615380493</t>
+          <t>-38.5910792294335,174.6286240944875</t>
         </is>
       </c>
       <c r="AB275" t="inlineStr">
         <is>
-          <t>-38.59037476006371,174.62864268222435</t>
+          <t>-38.59037457601889,174.62863901621705</t>
         </is>
       </c>
       <c r="AC275" t="inlineStr">
@@ -74842,12 +74848,12 @@
       </c>
       <c r="AA277" t="inlineStr">
         <is>
-          <t>-38.5910663978124,174.62842662885757</t>
+          <t>-38.59106646472207,174.628427658516</t>
         </is>
       </c>
       <c r="AB277" t="inlineStr">
         <is>
-          <t>-38.5903633490657,174.6284153897994</t>
+          <t>-38.59036343534003,174.62841710823992</t>
         </is>
       </c>
       <c r="AC277" t="inlineStr">
@@ -75009,12 +75015,12 @@
       </c>
       <c r="AA278" t="inlineStr">
         <is>
-          <t>-38.59108507269109,174.62871401802087</t>
+          <t>-38.59108490170618,174.6287113866705</t>
         </is>
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>-38.590380241096206,174.62875186051102</t>
+          <t>-38.59038000529314,174.6287471634386</t>
         </is>
       </c>
       <c r="AC278" t="inlineStr">
@@ -75488,12 +75494,12 @@
       </c>
       <c r="AA283" t="inlineStr">
         <is>
-          <t>-38.59108211390012,174.62866848422001</t>
+          <t>-38.59108216593932,174.6286692850657</t>
         </is>
       </c>
       <c r="AB283" t="inlineStr">
         <is>
-          <t>-38.59038603834143,174.62886733976225</t>
+          <t>-38.59038611310674,174.6288688290781</t>
         </is>
       </c>
       <c r="AC283" t="inlineStr"/>
@@ -75686,12 +75692,12 @@
       </c>
       <c r="AA285" t="inlineStr">
         <is>
-          <t>-38.59108373454664,174.62869342484422</t>
+          <t>-38.59108372711249,174.62869331043768</t>
         </is>
       </c>
       <c r="AB285" t="inlineStr">
         <is>
-          <t>-38.59038422671458,174.62883125249468</t>
+          <t>-38.590384220963365,174.6288311379319</t>
         </is>
       </c>
       <c r="AC285" t="inlineStr">
@@ -75896,12 +75902,12 @@
       </c>
       <c r="AA287" t="inlineStr">
         <is>
-          <t>-38.59108350408806,174.62868987824163</t>
+          <t>-38.59108340000995,174.62868827655015</t>
         </is>
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>-38.59037829140172,174.62871302374228</t>
+          <t>-38.590378147618424,174.62871015967386</t>
         </is>
       </c>
       <c r="AC287" t="inlineStr">
@@ -76118,12 +76124,12 @@
       </c>
       <c r="AA289" t="inlineStr">
         <is>
-          <t>-38.59107617396197,174.62857707340808</t>
+          <t>-38.591076226001796,174.6285778742537</t>
         </is>
       </c>
       <c r="AB289" t="inlineStr">
         <is>
-          <t>-38.59037521442392,174.62865173267994</t>
+          <t>-38.590375289191975,174.62865322199542</t>
         </is>
       </c>
       <c r="AC289" t="inlineStr">
@@ -76241,12 +76247,12 @@
       </c>
       <c r="AA290" t="inlineStr">
         <is>
-          <t>-38.59108009923579,174.62863748005086</t>
+          <t>-38.591080047196364,174.62863667920516</t>
         </is>
       </c>
       <c r="AB290" t="inlineStr">
         <is>
-          <t>-38.59037749196573,174.62869709952196</t>
+          <t>-38.59037742294957,174.62869572476913</t>
         </is>
       </c>
       <c r="AC290" t="inlineStr">
@@ -76408,12 +76414,12 @@
       </c>
       <c r="AA291" t="inlineStr">
         <is>
-          <t>-38.5910740700618,174.62854469636505</t>
+          <t>-38.591074055193204,174.62854446755205</t>
         </is>
       </c>
       <c r="AB291" t="inlineStr">
         <is>
-          <t>-38.59036868652317,174.62852170399117</t>
+          <t>-38.590368669268614,174.628521360303</t>
         </is>
       </c>
       <c r="AC291" t="inlineStr">
@@ -76575,12 +76581,12 @@
       </c>
       <c r="AA292" t="inlineStr">
         <is>
-          <t>-38.5910792368677,174.62862420889402</t>
+          <t>-38.59107914765714,174.62862283601575</t>
         </is>
       </c>
       <c r="AB292" t="inlineStr">
         <is>
-          <t>-38.590371326458225,174.62857428827806</t>
+          <t>-38.59037120567739,174.62857188246093</t>
         </is>
       </c>
       <c r="AC292" t="inlineStr">
@@ -76742,12 +76748,12 @@
       </c>
       <c r="AA293" t="inlineStr">
         <is>
-          <t>-38.5910779061416,174.62860373012666</t>
+          <t>-38.591077750022656,174.62860132758973</t>
         </is>
       </c>
       <c r="AB293" t="inlineStr">
         <is>
-          <t>-38.59037203388775,174.6285883794927</t>
+          <t>-38.59037182683538,174.62858425523473</t>
         </is>
       </c>
       <c r="AC293" t="inlineStr">
@@ -76968,12 +76974,12 @@
       </c>
       <c r="AA295" t="inlineStr">
         <is>
-          <t>-38.59108572689374,174.62872408579634</t>
+          <t>-38.591085645118454,174.62872282732442</t>
         </is>
       </c>
       <c r="AB295" t="inlineStr">
         <is>
-          <t>-38.590379982287956,174.62874670518764</t>
+          <t>-38.590379873013276,174.62874452849553</t>
         </is>
       </c>
       <c r="AC295" t="inlineStr">
@@ -77135,12 +77141,12 @@
       </c>
       <c r="AA296" t="inlineStr">
         <is>
-          <t>-38.59107396598169,174.62854309467394</t>
+          <t>-38.59107393624452,174.6285426370479</t>
         </is>
       </c>
       <c r="AB296" t="inlineStr">
         <is>
-          <t>-38.590365845259385,174.6284651100125</t>
+          <t>-38.5903657992468,174.6284641935109</t>
         </is>
       </c>
       <c r="AC296" t="inlineStr">
@@ -77405,12 +77411,12 @@
       </c>
       <c r="AA298" t="inlineStr">
         <is>
-          <t>-38.591069817628274,174.62847925584475</t>
+          <t>-38.59106979532521,174.62847891262527</t>
         </is>
       </c>
       <c r="AB298" t="inlineStr">
         <is>
-          <t>-38.59036808261313,174.62850967490633</t>
+          <t>-38.590368053855485,174.62850910209278</t>
         </is>
       </c>
       <c r="AC298" t="inlineStr">
@@ -77572,12 +77578,12 @@
       </c>
       <c r="AA299" t="inlineStr">
         <is>
-          <t>-38.59108070883989,174.62864686138602</t>
+          <t>-38.59108076087922,174.6286476622317</t>
         </is>
       </c>
       <c r="AB299" t="inlineStr">
         <is>
-          <t>-38.59038172492582,174.62878141769892</t>
+          <t>-38.59038179394097,174.6287827924519</t>
         </is>
       </c>
       <c r="AC299" t="inlineStr">
@@ -77739,12 +77745,12 @@
       </c>
       <c r="AA300" t="inlineStr">
         <is>
-          <t>-38.59108266402844,174.62867695030334</t>
+          <t>-38.591082582252646,174.6286756918315</t>
         </is>
       </c>
       <c r="AB300" t="inlineStr">
         <is>
-          <t>-38.590381598398004,174.6287788973185</t>
+          <t>-38.590381489123935,174.62877672062638</t>
         </is>
       </c>
       <c r="AC300" t="inlineStr">
@@ -77902,12 +77908,12 @@
       </c>
       <c r="AA301" t="inlineStr">
         <is>
-          <t>-38.59108493887681,174.62871195870318</t>
+          <t>-38.591084849667276,174.62871058582473</t>
         </is>
       </c>
       <c r="AB301" t="inlineStr">
         <is>
-          <t>-38.590387838454795,174.62890319790574</t>
+          <t>-38.59038771768076,174.62890079208773</t>
         </is>
       </c>
       <c r="AC301" t="inlineStr">
@@ -78037,12 +78043,12 @@
       <c r="Z302" t="inlineStr"/>
       <c r="AA302" t="inlineStr">
         <is>
-          <t>-38.591086254715684,174.62873220866078</t>
+          <t>-38.59108611346761,174.62873003493647</t>
         </is>
       </c>
       <c r="AB302" t="inlineStr">
         <is>
-          <t>-38.590391358133445,174.6289733103181</t>
+          <t>-38.59039116834792,174.62896952974668</t>
         </is>
       </c>
       <c r="AC302" t="inlineStr">
@@ -78176,12 +78182,12 @@
       </c>
       <c r="AA303" t="inlineStr">
         <is>
-          <t>-38.59107627060737,174.62857856069277</t>
+          <t>-38.59107634494993,174.62857970475793</t>
         </is>
       </c>
       <c r="AB303" t="inlineStr">
         <is>
-          <t>-38.59037449549922,174.62863741233886</t>
+          <t>-38.59037460477589,174.6286395890307</t>
         </is>
       </c>
       <c r="AC303" t="inlineStr">
@@ -78343,12 +78349,12 @@
       </c>
       <c r="AA304" t="inlineStr">
         <is>
-          <t>-38.591090975351555,174.62880485681882</t>
+          <t>-38.591090804368676,174.62880222546806</t>
         </is>
       </c>
       <c r="AB304" t="inlineStr">
         <is>
-          <t>-38.59038190896619,174.62878508370682</t>
+          <t>-38.590381673164444,174.62878038663422</t>
         </is>
       </c>
       <c r="AC304" t="inlineStr">
@@ -78510,12 +78516,12 @@
       </c>
       <c r="AA305" t="inlineStr">
         <is>
-          <t>-38.591080240485574,174.62863965377483</t>
+          <t>-38.591080136406795,174.6286380520835</t>
         </is>
       </c>
       <c r="AB305" t="inlineStr">
         <is>
-          <t>-38.590374501250636,174.6286375269016</t>
+          <t>-38.590374351714075,174.62863454827067</t>
         </is>
       </c>
       <c r="AC305" t="inlineStr">
@@ -78677,12 +78683,12 @@
       </c>
       <c r="AA306" t="inlineStr">
         <is>
-          <t>-38.59107256089817,174.62852147184398</t>
+          <t>-38.59107262037269,174.62852238709607</t>
         </is>
       </c>
       <c r="AB306" t="inlineStr">
         <is>
-          <t>-38.5903723042059,174.62859376394064</t>
+          <t>-38.59037239047762,174.62859548238146</t>
         </is>
       </c>
       <c r="AC306" t="inlineStr">
@@ -78844,12 +78850,12 @@
       </c>
       <c r="AA307" t="inlineStr">
         <is>
-          <t>-38.59107583198588,174.6285718107084</t>
+          <t>-38.59107580968308,174.62857146748888</t>
         </is>
       </c>
       <c r="AB307" t="inlineStr">
         <is>
-          <t>-38.59037182108391,174.62858414067202</t>
+          <t>-38.590371792326636,174.6285835678584</t>
         </is>
       </c>
       <c r="AC307" t="inlineStr">
@@ -79007,12 +79013,12 @@
       </c>
       <c r="AA308" t="inlineStr">
         <is>
-          <t>-38.591055498849194,174.62825890896525</t>
+          <t>-38.591055588064066,174.62826028184278</t>
         </is>
       </c>
       <c r="AB308" t="inlineStr">
         <is>
-          <t>-38.59035611343513,174.62827126993412</t>
+          <t>-38.59035623997393,174.62827379031313</t>
         </is>
       </c>
       <c r="AC308" t="inlineStr">
@@ -79174,12 +79180,12 @@
       </c>
       <c r="AA309" t="inlineStr">
         <is>
-          <t>-38.59107963831511,174.62863038684628</t>
+          <t>-38.59107949706514,174.62862821312234</t>
         </is>
       </c>
       <c r="AB309" t="inlineStr">
         <is>
-          <t>-38.59037113665975,174.6285705077083</t>
+          <t>-38.59037093535822,174.62856649801313</t>
         </is>
       </c>
       <c r="AC309" t="inlineStr">
@@ -79341,12 +79347,12 @@
       </c>
       <c r="AA310" t="inlineStr">
         <is>
-          <t>-38.59108244100353,174.6286735181074</t>
+          <t>-38.59108228488602,174.62867111557023</t>
         </is>
       </c>
       <c r="AB310" t="inlineStr">
         <is>
-          <t>-38.59037601961748,174.6286677714622</t>
+          <t>-38.59037581256792,174.6286636472039</t>
         </is>
       </c>
       <c r="AC310" t="inlineStr">
@@ -79504,12 +79510,12 @@
       </c>
       <c r="AA311" t="inlineStr">
         <is>
-          <t>-38.59106983249699,174.62847948465776</t>
+          <t>-38.59106986966877,174.62848005669025</t>
         </is>
       </c>
       <c r="AB311" t="inlineStr">
         <is>
-          <t>-38.590369514740644,174.62853820102202</t>
+          <t>-38.59036956650415,174.62853923208644</t>
         </is>
       </c>
       <c r="AC311" t="inlineStr">
@@ -79671,12 +79677,12 @@
       </c>
       <c r="AA312" t="inlineStr">
         <is>
-          <t>-38.59106894780782,174.62846587028457</t>
+          <t>-38.591068955242164,174.62846598469108</t>
         </is>
       </c>
       <c r="AB312" t="inlineStr">
         <is>
-          <t>-38.59037369030148,174.6286213735571</t>
+          <t>-38.59037370180433,174.62862160268256</t>
         </is>
       </c>
       <c r="AC312" t="inlineStr">
@@ -79838,12 +79844,12 @@
       </c>
       <c r="AA313" t="inlineStr">
         <is>
-          <t>-38.591083414878256,174.62868850536321</t>
+          <t>-38.591083325668436,174.6286871324848</t>
         </is>
       </c>
       <c r="AB313" t="inlineStr">
         <is>
-          <t>-38.59037685931699,174.62868449762118</t>
+          <t>-38.59037673853845,174.62868209180377</t>
         </is>
       </c>
       <c r="AC313" t="inlineStr">
@@ -80005,12 +80011,12 @@
       </c>
       <c r="AA314" t="inlineStr">
         <is>
-          <t>-38.59106632346832,174.62842548479267</t>
+          <t>-38.5910663085995,174.6284252559797</t>
         </is>
       </c>
       <c r="AB314" t="inlineStr">
         <is>
-          <t>-38.590374098652035,174.62862950751068</t>
+          <t>-38.5903740813978,174.62862916382252</t>
         </is>
       </c>
       <c r="AC314" t="inlineStr">
@@ -80172,12 +80178,12 @@
       </c>
       <c r="AA315" t="inlineStr">
         <is>
-          <t>-38.59107914765714,174.62862283601575</t>
+          <t>-38.591079013841245,174.6286207766983</t>
         </is>
       </c>
       <c r="AB315" t="inlineStr">
         <is>
-          <t>-38.59038116705277,174.62877030511268</t>
+          <t>-38.59038098301194,174.62876663910487</t>
         </is>
       </c>
       <c r="AC315" t="inlineStr">
@@ -80335,12 +80341,12 @@
       </c>
       <c r="AA316" t="inlineStr">
         <is>
-          <t>-38.59108398730754,174.62869731466643</t>
+          <t>-38.59108381632223,174.6286946833161</t>
         </is>
       </c>
       <c r="AB316" t="inlineStr">
         <is>
-          <t>-38.59038062068124,174.628759421652</t>
+          <t>-38.59038038487847,174.62875472457958</t>
         </is>
       </c>
       <c r="AC316" t="inlineStr">
@@ -80502,12 +80508,12 @@
       </c>
       <c r="AA317" t="inlineStr">
         <is>
-          <t>-38.59106422696043,174.6283932221635</t>
+          <t>-38.59106427156706,174.6283939086024</t>
         </is>
       </c>
       <c r="AB317" t="inlineStr">
         <is>
-          <t>-38.590364344094766,174.62843520914672</t>
+          <t>-38.59036440161079,174.62843635477373</t>
         </is>
       </c>
       <c r="AC317" t="inlineStr">
@@ -80665,12 +80671,12 @@
       <c r="Z318" t="inlineStr"/>
       <c r="AA318" t="inlineStr">
         <is>
-          <t>-38.59107788383889,174.6286033869071</t>
+          <t>-38.59107786897042,174.62860315809405</t>
         </is>
       </c>
       <c r="AB318" t="inlineStr">
         <is>
-          <t>-38.59039065075043,174.62895921909754</t>
+          <t>-38.590390627746075,174.62895876084644</t>
         </is>
       </c>
       <c r="AC318" t="inlineStr">
@@ -80824,12 +80830,12 @@
       </c>
       <c r="AA319" t="inlineStr">
         <is>
-          <t>-38.5910619817541,174.62835867140635</t>
+          <t>-38.591061966885164,174.6283584425934</t>
         </is>
       </c>
       <c r="AB319" t="inlineStr">
         <is>
-          <t>-38.59037811886176,174.6287095868602</t>
+          <t>-38.59037809585642,174.62870912860922</t>
         </is>
       </c>
       <c r="AC319" t="inlineStr">
@@ -80988,7 +80994,7 @@
       <c r="AA320" t="inlineStr"/>
       <c r="AB320" t="inlineStr">
         <is>
-          <t>-38.59038295569353,174.62880593412683</t>
+          <t>-38.59038277165382,174.6288022681189</t>
         </is>
       </c>
       <c r="AC320" t="inlineStr">
@@ -81134,12 +81140,12 @@
       </c>
       <c r="AA321" t="inlineStr">
         <is>
-          <t>-38.59106857608917,174.62846014995978</t>
+          <t>-38.59106865043292,174.62846129402476</t>
         </is>
       </c>
       <c r="AB321" t="inlineStr">
         <is>
-          <t>-38.5903683701895,174.62851540304194</t>
+          <t>-38.59036846796539,174.62851735060806</t>
         </is>
       </c>
       <c r="AC321" t="inlineStr">
@@ -81297,12 +81303,12 @@
       </c>
       <c r="AA322" t="inlineStr">
         <is>
-          <t>-38.591080448643105,174.6286428571576</t>
+          <t>-38.59108030739336,174.62864068343356</t>
         </is>
       </c>
       <c r="AB322" t="inlineStr">
         <is>
-          <t>-38.59037748046304,174.62869687039648</t>
+          <t>-38.59037729066854,174.62869308982624</t>
         </is>
       </c>
       <c r="AC322" t="inlineStr">
@@ -81464,12 +81470,12 @@
       </c>
       <c r="AA323" t="inlineStr">
         <is>
-          <t>-38.591075675866286,174.62856940817161</t>
+          <t>-38.59107560152359,174.62856826410646</t>
         </is>
       </c>
       <c r="AB323" t="inlineStr">
         <is>
-          <t>-38.59037207414792,174.62858918143175</t>
+          <t>-38.59037197062176,174.62858711930278</t>
         </is>
       </c>
       <c r="AC323" t="inlineStr">
@@ -81706,12 +81712,12 @@
       </c>
       <c r="AA325" t="inlineStr">
         <is>
-          <t>-38.59108364533687,174.6286920519658</t>
+          <t>-38.59108348178561,174.62868953502203</t>
         </is>
       </c>
       <c r="AB325" t="inlineStr">
         <is>
-          <t>-38.59037302313597,174.62860808428104</t>
+          <t>-38.59037279307854,174.6286035017721</t>
         </is>
       </c>
       <c r="AC325" t="inlineStr">
@@ -81845,12 +81851,12 @@
       </c>
       <c r="AA326" t="inlineStr">
         <is>
-          <t>-38.59107791357584,174.62860384453316</t>
+          <t>-38.59107796561546,174.62860464537883</t>
         </is>
       </c>
       <c r="AB326" t="inlineStr">
         <is>
-          <t>-38.5903760828826,174.62866903165227</t>
+          <t>-38.59037615765044,174.62867052096777</t>
         </is>
       </c>
       <c r="AC326" t="inlineStr">
